--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
@@ -2796,13 +2796,13 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_chameleon_0423),(Citation: Check Point-Joker),(Citation: welivesec_strongpity),(Citation: Bleeipng Computer Escobar),(Citation: checkpoint_flixonline_0421),(Citation: proofpoint_flubot_0421),(Citation: threatfabric_sova_0921),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: checkpoint_flixonline_0421),(Citation: cyble_chameleon_0423),(Citation: Bleeipng Computer Escobar),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos-WolfRAT),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: Check Point-Joker),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),</t>
+    <t>(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
     <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
@@ -2811,130 +2811,130 @@
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: Lookout Desert Scorpion),(Citation: Cofense Anubis),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesec_strongpity),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: Google Triada June 2019),(Citation: Securelist Asacub),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesec_strongpity),(Citation: Bleeipng Computer Escobar),(Citation: Symantec GoldenCup),(Citation: Zscaler-SuperMarioRun),(Citation: Meta Adversarial Threat Report 2022),(Citation: lookout_hornbill_sunbird_0221),(Citation: forcepoint_bitter),(Citation: Zscaler-SpyNote),(Citation: Talos-WolfRAT),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: kaspersky_fakecalls_0422),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Palo Alto HenBox),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-EnterpriseApps),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: Cofense Anubis),(Citation: Lookout FrozenCell),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: Lookout eSurv),(Citation: welivesecurity_ahrat_0523),(Citation: Wandera-RedDrop),(Citation: TrendMicro-XLoader),(Citation: SWB Exodus March 2019),(Citation: Lookout-Dendroid),(Citation: Kaspersky-Skygofree),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: cleafy_brata_0122),(Citation: Symantec GoldenCup),(Citation: Google Triada June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-PegasusAndroid),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: TrendMicro-XLoader),(Citation: Zscaler-SpyNote),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Wandera-RedDrop),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Lookout eSurv),(Citation: Bitdefender - Triout 2018),(Citation: welivesecurity_ahrat_0523),(Citation: SWB Exodus March 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Dendroid),(Citation: SecureList BusyGasper),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Zscaler-SuperMarioRun),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-EnterpriseApps),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: forcepoint_bitter),(Citation: fb_arid_viper),(Citation: Meta Adversarial Threat Report 2022),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: SecureList BusyGasper),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
-    <t>(Citation: welivesecurity_ahrat_0523),(Citation: HackerNews-OldBoot),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesec_strongpity),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: Zscaler-SpyNote),(Citation: PaloAlto-SpyDealer),(Citation: Microsoft MalLockerB),(Citation: WhiteOps TERRACOTTA),(Citation: checkpoint_flixonline_0421),(Citation: Palo Alto HenBox),(Citation: CheckPoint SimBad 2019),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: ESET DEFENSOR ID),(Citation: FortiGuard-FlexiSpy),(Citation: Cybereason FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: mcafee_brata_0421),(Citation: cyble_drinik_1022),(Citation: Cofense Anubis),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: Lookout Uyghur Campaign),(Citation: forcepoint_bitter),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-WUC),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesec_strongpity),(Citation: Zscaler TikTok Spyware),(Citation: Bleeipng Computer Escobar),(Citation: Zscaler-SuperMarioRun),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: forcepoint_bitter),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Palo Alto HenBox),(Citation: Lookout-EnterpriseApps),(Citation: lookout_bouldspy_0423),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: NYTimes-BackDoor),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: cyble_drinik_1022),(Citation: welivesecurity_ahrat_0523),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: lookout_bouldspy_0423),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: SecureList DVMap June 2017),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: trendmicro_tianyspy_0122),(Citation: Bitdefender Mandrake),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+    <t>(Citation: HackerNews-OldBoot),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SpyNote),(Citation: Cybereason FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason EventBot),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: FortiGuard-FlexiSpy),(Citation: CheckPoint SimBad 2019),(Citation: Palo Alto HenBox),(Citation: ESET DEFENSOR ID),(Citation: SecurityIntelligence TrickMo),(Citation: checkpoint_flixonline_0421),(Citation: Microsoft MalLockerB),(Citation: welivesec_strongpity),(Citation: Zscaler TikTok Spyware),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: kaspersky_fakecalls_0422),(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: forcepoint_bitter),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-PegasusAndroid),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Sophos Red Alert 2.0),(Citation: welivesecurity_ahrat_0523),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky-WUC),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Zscaler-SuperMarioRun),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-EnterpriseApps),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: forcepoint_bitter),(Citation: cloudmark_tanglebot_0921),(Citation: NYTimes-BackDoor),(Citation: Google Project Zero Insomnia),(Citation: SecureList - ViceLeaker 2019),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: SecureList DVMap June 2017),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: paloalto_yispecter_1015),(Citation: Bitdefender Mandrake),(Citation: trendmicro_tianyspy_0122),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Lookout-Pegasus),(Citation: Lookout-BrainTest),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),</t>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Adware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout-BrainTest),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
   </si>
   <si>
-    <t>(Citation: Krebs-Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: BankInfoSecurity-BackDoor),(Citation: Google Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: Lookout-StealthMango),(Citation: NYTimes-BackDoor),</t>
+    <t>(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: NYTimes-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: Google Triada June 2019),(Citation: HackerNews-Allwinner),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-WUC),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesec_strongpity),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint-Charger),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Exobot),(Citation: Meta Adversarial Threat Report 2022),(Citation: lookout_hornbill_sunbird_0221),(Citation: forcepoint_bitter),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Zscaler-SpyNote),(Citation: Lookout-Pegasus),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos-WolfRAT),(Citation: PaloAlto-SpyDealer),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky Riltok June 2019),(Citation: Palo Alto HenBox),(Citation: proofpoint_flubot_0421),(Citation: Lookout-EnterpriseApps),(Citation: Securelist Asacub),(Citation: lookout_bouldspy_0423),(Citation: Talos GPlayed),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: NYTimes-BackDoor),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: Lookout eSurv),(Citation: welivesecurity_ahrat_0523),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: Lookout-Monokle),</t>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: BlackBerry Bahamut),(Citation: Securelist Asacub),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SpyNote),(Citation: Cybereason FakeSpy),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Sophos Red Alert 2.0),(Citation: Lookout eSurv),(Citation: welivesecurity_ahrat_0523),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: CyberMerchants-FlexiSpy),(Citation: securelist rotexy 2018),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout ViperRAT),(Citation: Bitdefender Mandrake),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-EnterpriseApps),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: forcepoint_bitter),(Citation: fb_arid_viper),(Citation: Meta Adversarial Threat Report 2022),(Citation: cloudmark_tanglebot_0921),(Citation: NYTimes-BackDoor),(Citation: CheckPoint-Charger),(Citation: ThreatFabric Ginp),(Citation: Google Project Zero Insomnia),(Citation: proofpoint_flubot_0421),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: cyble_chameleon_0423),(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bleeipng Computer Escobar),(Citation: Symantec GoldenCup),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler-SpyNote),(Citation: Lookout Desert Scorpion),(Citation: Gooligan Citation),(Citation: TrendMicro-RCSAndroid),(Citation: kaspersky_fakecalls_0422),(Citation: Palo Alto HenBox),(Citation: securelist_brata_0819),(Citation: Bitdefender - Triout 2018),(Citation: lookout_bouldspy_0423),(Citation: Talos GPlayed),(Citation: Lookout ViperRAT),(Citation: Cofense Anubis),(Citation: Lookout FrozenCell),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: FlexiSpy-Features),(Citation: fb_arid_viper),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),(Citation: Google Project Zero Insomnia),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: cyble_drinik_1022),(Citation: ThreatFabric Ginp),(Citation: Lookout eSurv),(Citation: welivesecurity_ahrat_0523),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Anubis),(Citation: SWB Exodus March 2019),(Citation: Lookout-Dendroid),(Citation: Cylance Dust Storm),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: TrendMicro-Anserver),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader),(Citation: Proofpoint-Marcher),(Citation: Threat Fabric Exobot),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos GPlayed),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421),(Citation: lookout_abstractemu_1021),(Citation: cyble_drinik_1022),(Citation: cyble_chameleon_0423),(Citation: Google Security Zen),(Citation: Cofense Anubis),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),</t>
+    <t>(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Gooligan Citation),(Citation: cyble_drinik_1022),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Zscaler-SpyNote),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Lookout eSurv),(Citation: Bitdefender - Triout 2018),(Citation: welivesecurity_ahrat_0523),(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: Talos GPlayed),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Dendroid),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: fb_arid_viper),(Citation: Trend Micro Anubis),(Citation: SecurityIntelligence TrickMo),(Citation: cloudmark_tanglebot_0921),(Citation: ThreatFabric Ginp),(Citation: Google Project Zero Insomnia),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Proofpoint-Marcher),(Citation: TrendMicro-XLoader),(Citation: Securelist Asacub),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_abstractemu_1021),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: cyble_drinik_1022),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: cyble_chameleon_0423),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: Google Security Zen),</t>
   </si>
   <si>
     <t>(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),(Citation: Lookout-BrainTest),(Citation: cyble_chameleon_0423),(Citation: Google Security Zen),(Citation: paloalto_yispecter_1015),(Citation: Symantec GoldenCup),(Citation: Talos-WolfRAT),(Citation: Xiao-ZergHelper),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint-Judy),(Citation: WhiteOps TERRACOTTA),(Citation: Palo Alto HenBox),(Citation: Google Bread),(Citation: lookout_bouldspy_0423),(Citation: Talos GPlayed),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason EventBot),(Citation: Lookout FrozenCell),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: lookout_abstractemu_1021),(Citation: nccgroup_sharkbot_0322),(Citation: SecureList DVMap June 2017),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Anubis),(Citation: SWB Exodus March 2019),(Citation: Google Triada June 2019),(Citation: Lookout ViperRAT),(Citation: Kaspersky-Skygofree),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: paloalto_yispecter_1015),(Citation: Volexity Insomnia),(Citation: Lookout-StealthMango),(Citation: trendmicro_strongpity),</t>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Xiao-ZergHelper),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),(Citation: Google Security Zen),(Citation: lookout_bouldspy_0423),(Citation: Sophos Red Alert 2.0),(Citation: Lookout eSurv),(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: Talos GPlayed),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: SecureList BusyGasper),(Citation: Lookout-BrainTest),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason EventBot),(Citation: mcafee_brata_0421),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint-Judy),(Citation: SecureList DVMap June 2017),(Citation: nccgroup_sharkbot_0322),(Citation: Google Bread),(Citation: Lookout ViperRAT),(Citation: Bitdefender Mandrake),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: Trend Micro Anubis),(Citation: paloalto_yispecter_1015),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: Google Triada June 2019),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: trendmicro_strongpity),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),</t>
   </si>
   <si>
     <t>(Citation: welivesecurity_ahrat_0523),(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: PaloAlto-Xbot),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),</t>
+    <t>(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: Zimperium FlyTrap),(Citation: cleafy_brata_0122),(Citation: cyble_chameleon_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Dark Caracal Jan 2018),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender - Triout 2018),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: trendmicro_strongpity),(Citation: lookout_abstractemu_1021),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),(Citation: welivesecurity_ahrat_0523),(Citation: Wandera-RedDrop),(Citation: Google Triada June 2019),(Citation: Cylance Dust Storm),(Citation: SecureList - ViceLeaker 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
-  </si>
-  <si>
-    <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: Gooligan Citation),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Pegasus),(Citation: Lookout-BrainTest),(Citation: PaloAlto-SpyDealer),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: ArsTechnica-HummingBad),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: Kaspersky-Skygofree),(Citation: CheckPoint Agent Smith),(Citation: fb_arid_viper),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos-WolfRAT),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: CheckPoint Agent Smith),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos GPlayed),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: welivesec_strongpity),(Citation: Bleeipng Computer Escobar),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: lookout_hornbill_sunbird_0221),</t>
+    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Wandera-RedDrop),(Citation: Cylance Dust Storm),(Citation: trendmicro_strongpity),(Citation: lookout_bouldspy_0423),(Citation: Lookout eSurv),(Citation: Bitdefender - Triout 2018),(Citation: welivesecurity_ahrat_0523),(Citation: cyble_chameleon_0423),(Citation: Zimperium FlyTrap),(Citation: Trend Micro Bouncing Golf 2019),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: SecureList - ViceLeaker 2019),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Google Triada June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),</t>
+  </si>
+  <si>
+    <t>(Citation: Gooligan Citation),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Adware),(Citation: CheckPoint Agent Smith),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Volexity Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),(Citation: ArsTechnica-HummingBad),(Citation: Google Security Zen),(Citation: Kaspersky-Skygofree),(Citation: lookout_abstractemu_1021),(Citation: fb_arid_viper),(Citation: Lookout-BrainTest),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos-WolfRAT),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: welivesecurity_ahrat_0523),(Citation: BlackBerry Bahamut),(Citation: Bleeipng Computer Escobar),(Citation: Lookout FrozenCell),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: Zscaler TikTok Spyware),</t>
   </si>
   <si>
     <t>(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: cyble_chameleon_0423),(Citation: Group IB Gustuff Mar 2019),(Citation: Zscaler TikTok Spyware),(Citation: Bleeipng Computer Escobar),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: trendmicro_tianyspy_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky Riltok June 2019),(Citation: WhiteOps TERRACOTTA),(Citation: checkpoint_flixonline_0421),(Citation: Proofpoint-Marcher),(Citation: proofpoint_flubot_0421),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: PaloAlto-XcodeGhost),(Citation: cloudmark_tanglebot_0921),(Citation: Trend Micro FlyTrap),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: ThreatFabric Ginp),(Citation: PaloAlto-Xbot),(Citation: Lookout-Dendroid),(Citation: threatfabric_sova_0921),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: Gooligan Citation),(Citation: Lookout-BrainTest),(Citation: Google Security Zen),(Citation: Kaspersky Triada June 2016),(Citation: Wandera-RedDrop),(Citation: ArsTechnica-HummingBad),(Citation: CheckPoint-Judy),(Citation: checkpoint_flixonline_0421),(Citation: ArsTechnica-HummingWhale),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Tripwire-MazarBOT),(Citation: WhiteOps TERRACOTTA),(Citation: Google Triada June 2019),(Citation: CheckPoint Agent Smith),(Citation: CheckPoint SimBad 2019),(Citation: Lookout-EnterpriseApps),(Citation: Google Bread),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),</t>
+    <t>(Citation: cyble_drinik_1022),(Citation: Group IB Gustuff Mar 2019),(Citation: Threat Fabric Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Proofpoint-Marcher),(Citation: cyble_chameleon_0423),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-Dendroid),(Citation: WhiteOps TERRACOTTA),(Citation: PaloAlto-XcodeGhost),(Citation: Cybereason EventBot),(Citation: Kaspersky Riltok June 2019),(Citation: Bleeipng Computer Escobar),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-Xbot),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: Trend Micro FlyTrap),(Citation: checkpoint_flixonline_0421),(Citation: cloudmark_tanglebot_0921),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: cleafy_brata_0122),(Citation: Zscaler TikTok Spyware),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: checkpoint_flixonline_0421),(Citation: Gooligan Citation),(Citation: WhiteOps TERRACOTTA),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint-Judy),(Citation: CheckPoint Agent Smith),(Citation: Tripwire-MazarBOT),(Citation: Kaspersky Triada June 2016),(Citation: Google Bread),(Citation: CheckPoint SimBad 2019),(Citation: ArsTechnica-HummingBad),(Citation: Google Triada June 2019),(Citation: Google Security Zen),(Citation: ArsTechnica-HummingWhale),(Citation: Lookout-EnterpriseApps),(Citation: Wandera-RedDrop),(Citation: Lookout-BrainTest),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout eSurv),(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2946,151 +2946,151 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: fb_arid_viper),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: fb_arid_viper),(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: Bitdefender Mandrake),(Citation: cleafy_sova_1122),(Citation: nccgroup_sharkbot_0322),(Citation: ThreatFabric Ginp),(Citation: Google Security Zen),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky Riltok June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: WhiteOps TERRACOTTA),(Citation: ESET DEFENSOR ID),(Citation: CheckPoint Cerberus),(Citation: securelist_brata_0819),(Citation: Talos Gustuff Apr 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_hornbill_sunbird_0221),(Citation: WhiteOps TERRACOTTA),(Citation: Securelist Asacub),(Citation: lookout_bouldspy_0423),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro FlyTrap),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: Lookout-Monokle),</t>
+    <t>(Citation: cyble_chameleon_0423),(Citation: Lookout-Monokle),(Citation: nccgroup_sharkbot_0322),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_abstractemu_1021),(Citation: fb_arid_viper),(Citation: Wandera-RedDrop),</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: Kaspersky Riltok June 2019),(Citation: cleafy_sova_1122),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: securelist_brata_0819),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: CheckPoint Cerberus),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Securelist Asacub),(Citation: Cybereason FakeSpy),(Citation: Wandera-RedDrop),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Exobot),(Citation: trendmicro_tianyspy_0122),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro FlyTrap),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Google Project Zero Insomnia),(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),(Citation: cyble_drinik_1022),(Citation: cyble_chameleon_0423),(Citation: nccgroup_sharkbot_0322),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: Threat Fabric Cerberus),(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),(Citation: Threat Fabric Exobot),(Citation: FlexiSpy-Features),(Citation: threatfabric_sova_0921),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: BlackBerry Bahamut),(Citation: CrowdStrike-Android),(Citation: cyble_chameleon_0423),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky-WUC),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesec_strongpity),(Citation: Bleeipng Computer Escobar),(Citation: CheckPoint-Charger),(Citation: Symantec GoldenCup),(Citation: Meta Adversarial Threat Report 2022),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: Zscaler-SpyNote),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: kaspersky_fakecalls_0422),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-EnterpriseApps),(Citation: lookout_bouldspy_0423),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: Lookout FrozenCell),(Citation: Lookout Uyghur Campaign),(Citation: NYTimes-BackDoor),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro FlyTrap),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: Lookout eSurv),(Citation: welivesecurity_ahrat_0523),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: Kaspersky-Skygofree),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: CrowdStrike-Android),(Citation: cyble_chameleon_0423),(Citation: welivesecurity_apt-c-23),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Threat Fabric Exobot),(Citation: CheckPoint Agent Smith),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: forcepoint_bitter),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Microsoft MalLockerB),(Citation: kaspersky_fakecalls_0422),(Citation: checkpoint_hamas_android_malware),(Citation: Palo Alto HenBox),(Citation: securelist_brata_0819),(Citation: Proofpoint-Droidjack),(Citation: CheckPoint SimBad 2019),(Citation: Securelist Asacub),(Citation: lookout_bouldspy_0423),(Citation: MoustachedBouncer ESET August 2023),(Citation: Talos GPlayed),(Citation: Sophos Red Alert 2.0),(Citation: Lookout ViperRAT),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: Lookout FrozenCell),(Citation: Lookout Uyghur Campaign),(Citation: fb_arid_viper),(Citation: Cybereason FakeSpy),(Citation: trendmicro_strongpity),(Citation: ThreatFabric Ginp),(Citation: Forbes Cerberus),(Citation: sophos_android_apt_spyware),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Anubis),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-Dendroid),(Citation: blackberry_mobile_malware_apt_esp),(Citation: SecureList - ViceLeaker 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: Google Bread),</t>
+    <t>(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: mcafee_brata_0421),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Cerberus),(Citation: BlackBerry Bahamut),(Citation: securelist_brata_0819),(Citation: cyble_chameleon_0423),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: cleafy_brata_0122),(Citation: SecureList BusyGasper),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Zscaler-SpyNote),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Lookout eSurv),(Citation: Bitdefender - Triout 2018),(Citation: welivesecurity_ahrat_0523),(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: Talos GPlayed),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: SecureList BusyGasper),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Bitdefender Mandrake),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-EnterpriseApps),(Citation: TrendMicro Coronavirus Updates),(Citation: Trend Micro FlyTrap),(Citation: Meta Adversarial Threat Report 2022),(Citation: cloudmark_tanglebot_0921),(Citation: NYTimes-BackDoor),(Citation: CheckPoint-Charger),(Citation: Google Project Zero Insomnia),(Citation: SecureList - ViceLeaker 2019),(Citation: CrowdStrike-Android),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),</t>
+  </si>
+  <si>
+    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Forbes Cerberus),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: Cybereason FakeSpy),(Citation: Cofense Anubis),(Citation: trendmicro_strongpity),(Citation: lookout_bouldspy_0423),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Agent Smith),(Citation: sophos_android_apt_spyware),(Citation: cyble_chameleon_0423),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Lookout-Dendroid),(Citation: Cybereason EventBot),(Citation: mcafee_brata_0421),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist_brata_0819),(Citation: CheckPoint SimBad 2019),(Citation: Lookout ViperRAT),(Citation: Bitdefender Mandrake),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos-WolfRAT),(Citation: forcepoint_bitter),(Citation: Trend Micro Anubis),(Citation: fb_arid_viper),(Citation: MoustachedBouncer ESET August 2023),(Citation: Proofpoint-Droidjack),(Citation: checkpoint_hamas_android_malware),(Citation: Microsoft MalLockerB),(Citation: ThreatFabric Ginp),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: welivesecurity_apt-c-23),(Citation: SecureList - ViceLeaker 2019),(Citation: CrowdStrike-Android),(Citation: blackberry_mobile_malware_apt_esp),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: Volexity Insomnia),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),(Citation: FortiGuard-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: TrendMicro-Obad),(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),(Citation: Lookout-BrainTest),(Citation: Google Security Zen),(Citation: Check Point-Joker),(Citation: SecurityIntelligence TrickMo),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesec_strongpity),(Citation: CheckPoint-Charger),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: Talos-WolfRAT),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: Microsoft MalLockerB),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: Volexity Insomnia),(Citation: Palo Alto HenBox),(Citation: proofpoint_flubot_0421),(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: FortiGuard-FlexiSpy),(Citation: Cybereason FakeSpy),(Citation: PaloAlto-WireLurker),(Citation: lookout_abstractemu_1021),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: ThreatFabric Ginp),(Citation: SecureList DVMap June 2017),(Citation: welivesecurity_ahrat_0523),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro-XLoader),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-Monokle),</t>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Volexity Insomnia),(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Cerberus),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: BlackBerry Bahamut),(Citation: Securelist Asacub),(Citation: TrendMicro-XLoader),(Citation: Cybereason FakeSpy),(Citation: Google Security Zen),(Citation: Sophos Red Alert 2.0),(Citation: welivesecurity_ahrat_0523),(Citation: Volexity Insomnia),(Citation: TrendMicro-Obad),(Citation: Talos GPlayed),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-BrainTest),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason EventBot),(Citation: mcafee_brata_0421),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList DVMap June 2017),(Citation: Lookout-Monokle),(Citation: nccgroup_sharkbot_0322),(Citation: Google Bread),(Citation: FortiGuard-FlexiSpy),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-WireLurker),(Citation: Bitdefender Mandrake),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),(Citation: CheckPoint-Charger),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: Check Point-Joker),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-WUC),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: Lookout-StealthMango),(Citation: Kaspersky-Skygofree),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Leonard TAG 2023),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: securelist_brata_0819),(Citation: blackberry_mobile_malware_apt_esp),(Citation: CitizenLab Great iPwn),(Citation: Meta Adversarial Threat Report 2022),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-Obad),(Citation: cyble_chameleon_0423),(Citation: bitdefender_flubot_0524),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Zimperium z9),(Citation: Trend Micro Bouncing Golf 2019),(Citation: paloalto_yispecter_1015),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: CheckPoint Agent Smith),(Citation: Talos-WolfRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: Google Security Zen),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: Bleeipng Computer Escobar),</t>
+    <t>(Citation: Lookout-Pegasus),(Citation: lookout_bouldspy_0423),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: Kaspersky-Skygofree),</t>
+  </si>
+  <si>
+    <t>(Citation: Meta Adversarial Threat Report 2022),(Citation: Leonard TAG 2023),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: securelist_brata_0819),(Citation: blackberry_mobile_malware_apt_esp),(Citation: CitizenLab Great iPwn),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: bitdefender_flubot_0524),(Citation: cyble_chameleon_0423),(Citation: TrendMicro-Obad),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zimperium z9),(Citation: CheckPoint Agent Smith),(Citation: nccgroup_sharkbot_0322),(Citation: paloalto_yispecter_1015),(Citation: securelist rotexy 2018),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),(Citation: Google Triada June 2019),(Citation: Google Project Zero Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
   </si>
   <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),(Citation: Bleeipng Computer Escobar),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: Talos-WolfRAT),(Citation: Bitdefender Mandrake),(Citation: forcepoint_bitter),(Citation: Lookout Desert Scorpion),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: proofpoint_flubot_0421),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: bitdefender_flubot_0524),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: ThreatFabric Ginp),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Dendroid),(Citation: threatfabric_sova_0921),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: cyble_chameleon_0423),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky-WUC),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesec_strongpity),(Citation: SecurityIntelligence TrickMo),(Citation: Bleeipng Computer Escobar),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Exobot),(Citation: Zscaler-SuperMarioRun),(Citation: threatfabric_sova_0921),(Citation: Meta Adversarial Threat Report 2022),(Citation: Zscaler-SpyNote),(Citation: forcepoint_bitter),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Talos-WolfRAT),(Citation: Lookout-Pegasus),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: kaspersky_fakecalls_0422),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky Riltok June 2019),(Citation: Palo Alto HenBox),(Citation: proofpoint_flubot_0421),(Citation: Lookout-EnterpriseApps),(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: lookout_bouldspy_0423),(Citation: Talos GPlayed),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky Triada March 2016),(Citation: Lookout ViperRAT),(Citation: Cybereason EventBot),(Citation: Lookout FrozenCell),(Citation: Lookout Uyghur Campaign),(Citation: NYTimes-BackDoor),(Citation: Lookout-StealthMango),(Citation: FlexiSpy-Features),(Citation: fb_arid_viper),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),(Citation: Google Project Zero Insomnia),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: cyble_drinik_1022),(Citation: FireEye-RuMMS),(Citation: ThreatFabric Ginp),(Citation: nccgroup_sharkbot_0322),(Citation: PaloAlto-Xbot),(Citation: TrendMicro-XLoader),(Citation: SWB Exodus March 2019),(Citation: Tripwire-MazarBOT),(Citation: Lookout-Dendroid),(Citation: Cylance Dust Storm),(Citation: SecureList - ViceLeaker 2019),</t>
+    <t>(Citation: cyble_drinik_1022),(Citation: Threat Fabric Cerberus),(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: Cybereason FakeSpy),(Citation: Cofense Anubis),(Citation: Lookout-StealthMango),(Citation: Sophos Red Alert 2.0),(Citation: bitdefender_flubot_0524),(Citation: welivesecurity_ahrat_0523),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: securelist rotexy 2018),(Citation: SecureList BusyGasper),(Citation: Lookout-Dendroid),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Desert Scorpion),(Citation: Bleeipng Computer Escobar),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: forcepoint_bitter),(Citation: SecurityIntelligence TrickMo),(Citation: cloudmark_tanglebot_0921),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: Zscaler TikTok Spyware),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye-RuMMS),(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: BlackBerry Bahamut),(Citation: Securelist Asacub),(Citation: Lookout FrozenCell),(Citation: Zscaler-SpyNote),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-XLoader),(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Sophos Red Alert 2.0),(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: Lookout-Dendroid),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: Tripwire-MazarBOT),(Citation: Kaspersky Triada March 2016),(Citation: Bleeipng Computer Escobar),(Citation: nccgroup_sharkbot_0322),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout ViperRAT),(Citation: PaloAlto-Xbot),(Citation: Zscaler-SuperMarioRun),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: Lookout-EnterpriseApps),(Citation: threatfabric_sova_0921),(Citation: TrendMicro Coronavirus Updates),(Citation: forcepoint_bitter),(Citation: fb_arid_viper),(Citation: SecurityIntelligence TrickMo),(Citation: Meta Adversarial Threat Report 2022),(Citation: cloudmark_tanglebot_0921),(Citation: NYTimes-BackDoor),(Citation: ThreatFabric Ginp),(Citation: Google Project Zero Insomnia),(Citation: proofpoint_flubot_0421),(Citation: SecureList - ViceLeaker 2019),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
   </si>
   <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: Zscaler TikTok Spyware),(Citation: SecurityIntelligence TrickMo),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),(Citation: securelist_brata_0819),(Citation: lookout_bouldspy_0423),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: ESET DEFENSOR ID),(Citation: FlexiSpy-Features),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: cyble_drinik_1022),(Citation: ThreatFabric Ginp),(Citation: welivesecurity_ahrat_0523),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesec_strongpity),(Citation: SecurityIntelligence TrickMo),(Citation: paloalto_yispecter_1015),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: CheckPoint Agent Smith),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky Riltok June 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: Talos GPlayed),(Citation: Sophos Red Alert 2.0),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: ESET DEFENSOR ID),(Citation: Lookout-StealthMango),(Citation: FlexiSpy-Features),(Citation: Cybereason FakeSpy),(Citation: Google Project Zero Insomnia),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: SWB Exodus March 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Triada June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),</t>
-  </si>
-  <si>
-    <t>,(Citation: iOS Universal Links),(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking),(Citation: Android App Links)</t>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: SWB Exodus March 2019),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: mcafee_brata_0421),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist_brata_0819),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos-WolfRAT),(Citation: SecurityIntelligence TrickMo),(Citation: cloudmark_tanglebot_0921),(Citation: cleafy_sova_1122),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Agent Smith),(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: Talos GPlayed),(Citation: securelist rotexy 2018),(Citation: WhiteOps TERRACOTTA),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos-WolfRAT),(Citation: SecurityIntelligence TrickMo),(Citation: cloudmark_tanglebot_0921),(Citation: cleafy_sova_1122),(Citation: ThreatFabric Ginp),(Citation: Google Project Zero Insomnia),(Citation: SecureList - ViceLeaker 2019),(Citation: paloalto_yispecter_1015),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: Google Triada June 2019),(Citation: Zscaler TikTok Spyware),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>,(Citation: iOS Universal Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: Android App Links),(Citation: IETF-PKCE)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Zimperium FlyTrap),(Citation: Lookout-PegasusAndroid),(Citation: paloalto_yispecter_1015),(Citation: Bleeipng Computer Escobar),(Citation: Meta Adversarial Threat Report 2022),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: checkpoint_flixonline_0421),(Citation: lookout_bouldspy_0423),(Citation: cleafy_sova_1122),(Citation: Lookout FrozenCell),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: FortiGuard-FlexiSpy),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: Trend Micro FlyTrap),(Citation: SWB Exodus March 2019),(Citation: threatfabric_sova_0921),(Citation: Kaspersky-Skygofree),</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-PegasusAndroid),(Citation: Lookout FrozenCell),(Citation: Cybereason FakeSpy),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: SecureList BusyGasper),(Citation: Zimperium FlyTrap),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: Bleeipng Computer Escobar),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro FlyTrap),(Citation: checkpoint_flixonline_0421),(Citation: Meta Adversarial Threat Report 2022),(Citation: cleafy_sova_1122),(Citation: paloalto_yispecter_1015),</t>
   </si>
   <si>
     <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
-    <t>(Citation: Group IB Gustuff Mar 2019),(Citation: Zscaler TikTok Spyware),(Citation: paloalto_yispecter_1015),(Citation: securelist rotexy 2018),(Citation: CheckPoint Agent Smith),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Threat Fabric Cerberus),(Citation: checkpoint_flixonline_0421),(Citation: Bitdefender - Triout 2018),(Citation: CheckPoint SimBad 2019),(Citation: Lookout Uyghur Campaign),(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: cyble_drinik_1022),(Citation: ThreatFabric Ginp),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: threatfabric_sova_0921),(Citation: ESET-Twitoor),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: lookout_abstractemu_1021),(Citation: BlackBerry Bahamut),(Citation: cyble_chameleon_0423),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Anubis),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: Lookout-Dendroid),(Citation: Talos-WolfRAT),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: cyble_chameleon_0423),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky-WUC),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesec_strongpity),(Citation: SecurityIntelligence TrickMo),(Citation: paloalto_yispecter_1015),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Exobot),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky Riltok June 2019),(Citation: CheckPoint Cerberus),(Citation: Palo Alto HenBox),(Citation: securelist_brata_0819),(Citation: Securelist Asacub),(Citation: lookout_bouldspy_0423),(Citation: Talos GPlayed),(Citation: Xiao-KeyRaider),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: Lookout FrozenCell),(Citation: Lookout Uyghur Campaign),(Citation: fb_arid_viper),(Citation: TrendMicro-Anserver2),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason FakeSpy),(Citation: Google Project Zero Insomnia),(Citation: lookout_abstractemu_1021),(Citation: FireEye-RuMMS),(Citation: SecureList DVMap June 2017),(Citation: Lookout eSurv),(Citation: welivesecurity_ahrat_0523),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Wandera-RedDrop),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout ViperRAT),(Citation: threatfabric_sova_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: paloalto_yispecter_1015),(Citation: PaloAlto-DualToy),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Exobot),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos Gustuff Apr 2019),(Citation: forcepoint_bitter),(Citation: Talos-WolfRAT),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: checkpoint_hamas_android_malware),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-EnterpriseApps),(Citation: Google Bread),(Citation: lookout_bouldspy_0423),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: Cybereason EventBot),(Citation: Lookout FrozenCell),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: TrendMicro-Anserver2),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro FlyTrap),(Citation: lookout_abstractemu_1021),(Citation: FireEye-RuMMS),(Citation: Wandera-RedDrop),(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: Lookout-Monokle),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: trendmicro_strongpity),(Citation: FlexiSpy-Features),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bleeipng Computer Escobar),(Citation: Symantec GoldenCup),(Citation: Zscaler-SuperMarioRun),(Citation: Meta Adversarial Threat Report 2022),(Citation: lookout_hornbill_sunbird_0221),(Citation: forcepoint_bitter),(Citation: Talos-WolfRAT),(Citation: Lookout Desert Scorpion),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: kaspersky_fakecalls_0422),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: SWB Exodus March 2019),(Citation: Lookout-Dendroid),(Citation: Kaspersky-Skygofree),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: cyble_drinik_1022),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Group IB Gustuff Mar 2019),(Citation: Threat Fabric Cerberus),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason FakeSpy),(Citation: CheckPoint Agent Smith),(Citation: Bitdefender - Triout 2018),(Citation: securelist rotexy 2018),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: Lookout Desert Scorpion),(Citation: ESET-Twitoor),(Citation: FortiGuard-FlexiSpy),(Citation: CheckPoint SimBad 2019),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: checkpoint_flixonline_0421),(Citation: ThreatFabric Ginp),(Citation: paloalto_yispecter_1015),(Citation: Zscaler TikTok Spyware),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: welivesec_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: mcafee_brata_0421),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: BlackBerry Bahamut),(Citation: cyble_chameleon_0423),(Citation: Cybereason FakeSpy),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Dendroid),(Citation: Trend Micro Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye-RuMMS),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: BlackBerry Bahamut),(Citation: Securelist Asacub),(Citation: Lookout FrozenCell),(Citation: Cybereason FakeSpy),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Wandera-RedDrop),(Citation: lookout_bouldspy_0423),(Citation: Lookout eSurv),(Citation: welivesecurity_ahrat_0523),(Citation: cyble_chameleon_0423),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-Anserver2),(Citation: Talos GPlayed),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: CheckPoint Cerberus),(Citation: Cybereason EventBot),(Citation: Lookout-Pegasus),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: SecureList DVMap June 2017),(Citation: Xiao-KeyRaider),(Citation: securelist_brata_0819),(Citation: Lookout-Monokle),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout ViperRAT),(Citation: Bitdefender Mandrake),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: threatfabric_sova_0921),(Citation: TrendMicro Coronavirus Updates),(Citation: fb_arid_viper),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Google Project Zero Insomnia),(Citation: SecureList - ViceLeaker 2019),(Citation: paloalto_yispecter_1015),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: FireEye-RuMMS),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: Wandera-RedDrop),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-DualToy),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-Anserver2),(Citation: Talos GPlayed),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason EventBot),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-Monokle),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-EnterpriseApps),(Citation: Trend Micro FlyTrap),(Citation: TrendMicro Coronavirus Updates),(Citation: forcepoint_bitter),(Citation: SecurityIntelligence TrickMo),(Citation: checkpoint_hamas_android_malware),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Google Project Zero Insomnia),(Citation: paloalto_yispecter_1015),(Citation: lookout_abstractemu_1021),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: trendmicro_strongpity),(Citation: FlexiSpy-Features),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: proofpoint_flubot_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-PegasusAndroid),(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Dendroid),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Zscaler-SuperMarioRun),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: forcepoint_bitter),(Citation: fb_arid_viper),(Citation: Meta Adversarial Threat Report 2022),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: Zimperium FlyTrap),(Citation: cleafy_brata_0122),(Citation: cyble_chameleon_0423),(Citation: Kaspersky-WUC),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: paloalto_yispecter_1015),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Exobot),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Volexity Insomnia),(Citation: CheckPoint Cerberus),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender - Triout 2018),(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: lookout_bouldspy_0423),(Citation: Talos GPlayed),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason EventBot),(Citation: Lookout Uyghur Campaign),(Citation: ESET DEFENSOR ID),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: FireEye-RuMMS),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky-MobileMalware),(Citation: welivesecurity_ahrat_0523),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Wandera-RedDrop),(Citation: SWB Exodus March 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: threatfabric_sova_0921),(Citation: Kaspersky-Skygofree),(Citation: SecureList - ViceLeaker 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: Wandera-RedDrop),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro Coronavirus Updates),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: TelephonyManager)</t>
+    <t>(Citation: FireEye-RuMMS),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: Kaspersky-MobileMalware),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: Wandera-RedDrop),(Citation: lookout_bouldspy_0423),(Citation: Sophos Red Alert 2.0),(Citation: Bitdefender - Triout 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Volexity Insomnia),(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: securelist rotexy 2018),(Citation: Kaspersky-Skygofree),(Citation: CheckPoint Cerberus),(Citation: Zimperium FlyTrap),(Citation: Cybereason EventBot),(Citation: Kaspersky Riltok June 2019),(Citation: Kaspersky-WUC),(Citation: nccgroup_sharkbot_0322),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: ESET DEFENSOR ID),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: proofpoint_flubot_0421),(Citation: SecureList - ViceLeaker 2019),(Citation: paloalto_yispecter_1015),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Wandera-RedDrop),(Citation: SecurityIntelligence TrickMo),(Citation: trendmicro_tianyspy_0122),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
@@ -2796,13 +2796,13 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: checkpoint_flixonline_0421),(Citation: cyble_chameleon_0423),(Citation: Bleeipng Computer Escobar),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos-WolfRAT),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: Check Point-Joker),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: Check Point-Joker),(Citation: Bleeipng Computer Escobar),(Citation: TrendMicro Coronavirus Updates),(Citation: cyble_chameleon_0423),(Citation: proofpoint_flubot_0421),(Citation: lookout_abstractemu_1021),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: welivesec_strongpity),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),(Citation: threatfabric_sova_0921),</t>
+    <t>(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
     <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
@@ -2811,100 +2811,100 @@
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: cleafy_brata_0122),(Citation: Symantec GoldenCup),(Citation: Google Triada June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-PegasusAndroid),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: TrendMicro-XLoader),(Citation: Zscaler-SpyNote),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Wandera-RedDrop),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Lookout eSurv),(Citation: Bitdefender - Triout 2018),(Citation: welivesecurity_ahrat_0523),(Citation: SWB Exodus March 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Dendroid),(Citation: SecureList BusyGasper),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Zscaler-SuperMarioRun),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-EnterpriseApps),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: forcepoint_bitter),(Citation: fb_arid_viper),(Citation: Meta Adversarial Threat Report 2022),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: HackerNews-OldBoot),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),</t>
-  </si>
-  <si>
-    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SpyNote),(Citation: Cybereason FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason EventBot),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: FortiGuard-FlexiSpy),(Citation: CheckPoint SimBad 2019),(Citation: Palo Alto HenBox),(Citation: ESET DEFENSOR ID),(Citation: SecurityIntelligence TrickMo),(Citation: checkpoint_flixonline_0421),(Citation: Microsoft MalLockerB),(Citation: welivesec_strongpity),(Citation: Zscaler TikTok Spyware),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: kaspersky_fakecalls_0422),(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout Uyghur Campaign),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: forcepoint_bitter),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-PegasusAndroid),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Sophos Red Alert 2.0),(Citation: welivesecurity_ahrat_0523),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky-WUC),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Zscaler-SuperMarioRun),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-EnterpriseApps),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: forcepoint_bitter),(Citation: cloudmark_tanglebot_0921),(Citation: NYTimes-BackDoor),(Citation: Google Project Zero Insomnia),(Citation: SecureList - ViceLeaker 2019),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: SecureList DVMap June 2017),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: paloalto_yispecter_1015),(Citation: Bitdefender Mandrake),(Citation: trendmicro_tianyspy_0122),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: Securelist Asacub),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler-SpyNote),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Dendroid),(Citation: fb_arid_viper),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: Bleeipng Computer Escobar),(Citation: welivesecurity_ahrat_0523),(Citation: Symantec GoldenCup),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-XLoader),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: Wandera-RedDrop),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Kaspersky-Skygofree),(Citation: Lookout eSurv),(Citation: Lookout-Pegasus),(Citation: lookout_hornbill_sunbird_0221),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: HackerNews-OldBoot),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler-SpyNote),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: ESET DEFENSOR ID),(Citation: checkpoint_flixonline_0421),(Citation: PaloAlto-SpyDealer),(Citation: CheckPoint SimBad 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: FortiGuard-FlexiSpy),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: Palo Alto HenBox),(Citation: Microsoft MalLockerB),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: CyberMerchants-FlexiSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout Uyghur Campaign),(Citation: forcepoint_bitter),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: kaspersky_fakecalls_0422),(Citation: mcafee_brata_0421),(Citation: cyble_drinik_1022),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SuperMarioRun),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: Bleeipng Computer Escobar),(Citation: welivesecurity_ahrat_0523),(Citation: kaspersky_fakecalls_0422),(Citation: cyble_drinik_1022),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: Zscaler TikTok Spyware),(Citation: NYTimes-BackDoor),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Lookout-Pegasus),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: Lookout Desert Scorpion),(Citation: trendmicro_tianyspy_0122),(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Adware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout-BrainTest),</t>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: Lookout-BrainTest),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: NYTimes-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: Google Triada June 2019),(Citation: HackerNews-Allwinner),</t>
+    <t>(Citation: NYTimes-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: CYBERWARCON CHEMISTGAMES),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: BlackBerry Bahamut),(Citation: Securelist Asacub),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SpyNote),(Citation: Cybereason FakeSpy),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Sophos Red Alert 2.0),(Citation: Lookout eSurv),(Citation: welivesecurity_ahrat_0523),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: CyberMerchants-FlexiSpy),(Citation: securelist rotexy 2018),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout ViperRAT),(Citation: Bitdefender Mandrake),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-EnterpriseApps),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: forcepoint_bitter),(Citation: fb_arid_viper),(Citation: Meta Adversarial Threat Report 2022),(Citation: cloudmark_tanglebot_0921),(Citation: NYTimes-BackDoor),(Citation: CheckPoint-Charger),(Citation: ThreatFabric Ginp),(Citation: Google Project Zero Insomnia),(Citation: proofpoint_flubot_0421),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Zscaler-SpyNote),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Exobot),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: Meta Adversarial Threat Report 2022),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: Lookout ViperRAT),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: fb_arid_viper),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: CyberMerchants-FlexiSpy),(Citation: Symantec GoldenCup),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: CheckPoint-Charger),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Desert Scorpion),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: NYTimes-BackDoor),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Lookout eSurv),(Citation: Lookout-Pegasus),(Citation: Kaspersky Riltok June 2019),(Citation: lookout_hornbill_sunbird_0221),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Gooligan Citation),(Citation: cyble_drinik_1022),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Zscaler-SpyNote),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Lookout eSurv),(Citation: Bitdefender - Triout 2018),(Citation: welivesecurity_ahrat_0523),(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: Talos GPlayed),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Dendroid),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: fb_arid_viper),(Citation: Trend Micro Anubis),(Citation: SecurityIntelligence TrickMo),(Citation: cloudmark_tanglebot_0921),(Citation: ThreatFabric Ginp),(Citation: Google Project Zero Insomnia),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Proofpoint-Marcher),(Citation: TrendMicro-XLoader),(Citation: Securelist Asacub),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_abstractemu_1021),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: cyble_drinik_1022),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: cyble_chameleon_0423),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: Google Security Zen),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Xiao-ZergHelper),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),(Citation: Google Security Zen),(Citation: lookout_bouldspy_0423),(Citation: Sophos Red Alert 2.0),(Citation: Lookout eSurv),(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: Talos GPlayed),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: SecureList BusyGasper),(Citation: Lookout-BrainTest),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason EventBot),(Citation: mcafee_brata_0421),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint-Judy),(Citation: SecureList DVMap June 2017),(Citation: nccgroup_sharkbot_0322),(Citation: Google Bread),(Citation: Lookout ViperRAT),(Citation: Bitdefender Mandrake),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: Trend Micro Anubis),(Citation: paloalto_yispecter_1015),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: Google Triada June 2019),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: trendmicro_strongpity),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),</t>
-  </si>
-  <si>
-    <t>(Citation: welivesecurity_ahrat_0523),(Citation: ESET-Twitoor),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),</t>
+    <t>(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: Cylance Dust Storm),(Citation: cyble_chameleon_0423),(Citation: Google Project Zero Insomnia),(Citation: Zscaler-SpyNote),(Citation: SWB Exodus March 2019),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-RCSAndroid),(Citation: Gooligan Citation),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: Lookout-Dendroid),(Citation: fb_arid_viper),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: Bleeipng Computer Escobar),(Citation: welivesecurity_ahrat_0523),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Anubis),(Citation: cyble_drinik_1022),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Lookout eSurv),(Citation: FlexiSpy-Features),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: lookout_abstractemu_1021),(Citation: Proofpoint-Marcher),(Citation: Threat Fabric Exobot),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: proofpoint_flubot_0421),(Citation: Google Security Zen),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: Cybereason EventBot),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: paloalto_yispecter_1015),(Citation: Google Security Zen),(Citation: Xiao-ZergHelper),(Citation: Google Bread),(Citation: PaloAlto-SpyDealer),(Citation: nccgroup_sharkbot_0322),(Citation: Google Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos-WolfRAT),(Citation: CheckPoint-Judy),(Citation: Symantec GoldenCup),(Citation: SecureList DVMap June 2017),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: mcafee_brata_0421),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Anubis),(Citation: lookout_bouldspy_0423),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: Sophos Red Alert 2.0),(Citation: Palo Alto HenBox),(Citation: Kaspersky-Skygofree),(Citation: Lookout eSurv),(Citation: Lookout-BrainTest),(Citation: cleafy_brata_0122),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: trendmicro_strongpity),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),</t>
+  </si>
+  <si>
+    <t>(Citation: ESET-Twitoor),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Wandera-RedDrop),(Citation: Cylance Dust Storm),(Citation: trendmicro_strongpity),(Citation: lookout_bouldspy_0423),(Citation: Lookout eSurv),(Citation: Bitdefender - Triout 2018),(Citation: welivesecurity_ahrat_0523),(Citation: cyble_chameleon_0423),(Citation: Zimperium FlyTrap),(Citation: Trend Micro Bouncing Golf 2019),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: SecureList - ViceLeaker 2019),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Google Triada June 2019),</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cylance Dust Storm),(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: Zimperium FlyTrap),(Citation: nccgroup_sharkbot_0322),(Citation: Google Triada June 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: proofpoint_flubot_0421),(Citation: trendmicro_strongpity),(Citation: kaspersky_fakecalls_0422),(Citation: cyble_drinik_1022),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: cleafy_brata_0122),(Citation: Lookout eSurv),(Citation: Wandera-RedDrop),</t>
   </si>
   <si>
     <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
@@ -2913,28 +2913,28 @@
     <t>(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),</t>
   </si>
   <si>
-    <t>(Citation: Gooligan Citation),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Adware),(Citation: CheckPoint Agent Smith),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Volexity Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),(Citation: ArsTechnica-HummingBad),(Citation: Google Security Zen),(Citation: Kaspersky-Skygofree),(Citation: lookout_abstractemu_1021),(Citation: fb_arid_viper),(Citation: Lookout-BrainTest),</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: SecureList DVMap June 2017),(Citation: Gooligan Citation),(Citation: lookout_abstractemu_1021),(Citation: Google Security Zen),(Citation: Lookout-PegasusAndroid),(Citation: fb_arid_viper),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingBad),</t>
   </si>
   <si>
     <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
   </si>
   <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint Agent Smith),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos-WolfRAT),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: welivesecurity_ahrat_0523),(Citation: BlackBerry Bahamut),(Citation: Bleeipng Computer Escobar),(Citation: Lookout FrozenCell),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Group IB Gustuff Mar 2019),(Citation: Threat Fabric Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Proofpoint-Marcher),(Citation: cyble_chameleon_0423),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-Dendroid),(Citation: WhiteOps TERRACOTTA),(Citation: PaloAlto-XcodeGhost),(Citation: Cybereason EventBot),(Citation: Kaspersky Riltok June 2019),(Citation: Bleeipng Computer Escobar),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-Xbot),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: Trend Micro FlyTrap),(Citation: checkpoint_flixonline_0421),(Citation: cloudmark_tanglebot_0921),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: cleafy_brata_0122),(Citation: Zscaler TikTok Spyware),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: checkpoint_flixonline_0421),(Citation: Gooligan Citation),(Citation: WhiteOps TERRACOTTA),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint-Judy),(Citation: CheckPoint Agent Smith),(Citation: Tripwire-MazarBOT),(Citation: Kaspersky Triada June 2016),(Citation: Google Bread),(Citation: CheckPoint SimBad 2019),(Citation: ArsTechnica-HummingBad),(Citation: Google Triada June 2019),(Citation: Google Security Zen),(Citation: ArsTechnica-HummingWhale),(Citation: Lookout-EnterpriseApps),(Citation: Wandera-RedDrop),(Citation: Lookout-BrainTest),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout eSurv),(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),</t>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),(Citation: Lookout-Monokle),(Citation: Zscaler TikTok Spyware),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Desert Scorpion),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: CyberMerchants-FlexiSpy),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: welivesec_strongpity),(Citation: BlackBerry Bahamut),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_chameleon_0423),(Citation: Trend Micro FlyTrap),(Citation: Group IB Gustuff Mar 2019),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: Lookout-Dendroid),(Citation: nccgroup_sharkbot_0322),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout Dark Caracal Jan 2018),(Citation: ThreatFabric Ginp),(Citation: Bleeipng Computer Escobar),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: proofpoint_flubot_0421),(Citation: Proofpoint-Marcher),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler TikTok Spyware),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: Kaspersky Riltok June 2019),(Citation: PaloAlto-XcodeGhost),(Citation: cleafy_brata_0122),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Gooligan Citation),(Citation: Lookout-EnterpriseApps),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: checkpoint_flixonline_0421),(Citation: Wandera-RedDrop),(Citation: Google Triada June 2019),(Citation: Google Bread),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingWhale),(Citation: Tripwire-MazarBOT),(Citation: Kaspersky Triada June 2016),(Citation: CheckPoint SimBad 2019),(Citation: CheckPoint Agent Smith),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint-Judy),(Citation: ArsTechnica-HummingBad),</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2946,64 +2946,64 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: Lookout-Monokle),(Citation: nccgroup_sharkbot_0322),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_abstractemu_1021),(Citation: fb_arid_viper),(Citation: Wandera-RedDrop),</t>
-  </si>
-  <si>
-    <t>(Citation: fb_arid_viper),(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: Kaspersky Riltok June 2019),(Citation: cleafy_sova_1122),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: securelist_brata_0819),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: CheckPoint Cerberus),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Securelist Asacub),(Citation: Cybereason FakeSpy),(Citation: Wandera-RedDrop),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Exobot),(Citation: trendmicro_tianyspy_0122),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro FlyTrap),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Google Project Zero Insomnia),(Citation: lookout_abstractemu_1021),</t>
+    <t>(Citation: cyble_chameleon_0423),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: nccgroup_sharkbot_0322),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesec_strongpity),(Citation: Wandera-RedDrop),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Cerberus),(Citation: ESET DEFENSOR ID),(Citation: securelist_brata_0819),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Google Security Zen),(Citation: mcafee_brata_0421),(Citation: cleafy_sova_1122),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky Riltok June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro Coronavirus Updates),(Citation: Trend Micro FlyTrap),(Citation: Google Project Zero Insomnia),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: SWB Exodus March 2019),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: trendmicro_tianyspy_0122),(Citation: WhiteOps TERRACOTTA),(Citation: lookout_bouldspy_0423),(Citation: Securelist Asacub),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Wandera-RedDrop),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: mcafee_brata_0421),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Cerberus),(Citation: BlackBerry Bahamut),(Citation: securelist_brata_0819),(Citation: cyble_chameleon_0423),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: cleafy_brata_0122),(Citation: SecureList BusyGasper),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Zscaler-SpyNote),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Lookout eSurv),(Citation: Bitdefender - Triout 2018),(Citation: welivesecurity_ahrat_0523),(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: Talos GPlayed),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: SecureList BusyGasper),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Bitdefender Mandrake),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-EnterpriseApps),(Citation: TrendMicro Coronavirus Updates),(Citation: Trend Micro FlyTrap),(Citation: Meta Adversarial Threat Report 2022),(Citation: cloudmark_tanglebot_0921),(Citation: NYTimes-BackDoor),(Citation: CheckPoint-Charger),(Citation: Google Project Zero Insomnia),(Citation: SecureList - ViceLeaker 2019),(Citation: CrowdStrike-Android),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Forbes Cerberus),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: Cybereason FakeSpy),(Citation: Cofense Anubis),(Citation: trendmicro_strongpity),(Citation: lookout_bouldspy_0423),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Agent Smith),(Citation: sophos_android_apt_spyware),(Citation: cyble_chameleon_0423),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Lookout-Dendroid),(Citation: Cybereason EventBot),(Citation: mcafee_brata_0421),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist_brata_0819),(Citation: CheckPoint SimBad 2019),(Citation: Lookout ViperRAT),(Citation: Bitdefender Mandrake),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos-WolfRAT),(Citation: forcepoint_bitter),(Citation: Trend Micro Anubis),(Citation: fb_arid_viper),(Citation: MoustachedBouncer ESET August 2023),(Citation: Proofpoint-Droidjack),(Citation: checkpoint_hamas_android_malware),(Citation: Microsoft MalLockerB),(Citation: ThreatFabric Ginp),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: welivesecurity_apt-c-23),(Citation: SecureList - ViceLeaker 2019),(Citation: CrowdStrike-Android),(Citation: blackberry_mobile_malware_apt_esp),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),</t>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: Cybereason EventBot),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: FlexiSpy-Features),(Citation: lookout_bouldspy_0423),(Citation: BlackBerry Bahamut),(Citation: cleafy_brata_0122),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: cyble_chameleon_0423),(Citation: Trend Micro FlyTrap),(Citation: Google Project Zero Insomnia),(Citation: Zscaler-SpyNote),(Citation: Kaspersky-WUC),(Citation: CrowdStrike-Android),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesec_strongpity),(Citation: Meta Adversarial Threat Report 2022),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CyberMerchants-FlexiSpy),(Citation: Bleeipng Computer Escobar),(Citation: welivesecurity_ahrat_0523),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Desert Scorpion),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: NYTimes-BackDoor),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Kaspersky-Skygofree),(Citation: Lookout eSurv),(Citation: Lookout-Pegasus),(Citation: cleafy_brata_0122),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: MoustachedBouncer ESET August 2023),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: welivesecurity_apt-c-23),(Citation: cyble_chameleon_0423),(Citation: Threat Fabric Exobot),(Citation: CrowdStrike-Android),(Citation: Cybereason EventBot),(Citation: Forbes Cerberus),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Bitdefender Mandrake),(Citation: Lookout ViperRAT),(Citation: Cofense Anubis),(Citation: Lookout-Dendroid),(Citation: fb_arid_viper),(Citation: CheckPoint SimBad 2019),(Citation: Proofpoint-Droidjack),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: Talos GPlayed),(Citation: trendmicro_strongpity),(Citation: kaspersky_fakecalls_0422),(Citation: mcafee_brata_0421),(Citation: Trend Micro Anubis),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Securelist Asacub),(Citation: checkpoint_hamas_android_malware),(Citation: Zscaler TikTok Spyware),(Citation: sophos_android_apt_spyware),(Citation: Cybereason FakeSpy),(Citation: forcepoint_bitter),(Citation: securelist_brata_0819),(Citation: Lookout FrozenCell),(Citation: Sophos Red Alert 2.0),(Citation: Palo Alto HenBox),(Citation: Microsoft MalLockerB),(Citation: CheckPoint Agent Smith),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),(Citation: Palo Alto HenBox),(Citation: Google Bread),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Securelist Asacub),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Volexity Insomnia),(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: BlackBerry Bahamut),(Citation: Securelist Asacub),(Citation: TrendMicro-XLoader),(Citation: Cybereason FakeSpy),(Citation: Google Security Zen),(Citation: Sophos Red Alert 2.0),(Citation: welivesecurity_ahrat_0523),(Citation: Volexity Insomnia),(Citation: TrendMicro-Obad),(Citation: Talos GPlayed),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-BrainTest),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason EventBot),(Citation: mcafee_brata_0421),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList DVMap June 2017),(Citation: Lookout-Monokle),(Citation: nccgroup_sharkbot_0322),(Citation: Google Bread),(Citation: FortiGuard-FlexiSpy),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-WireLurker),(Citation: Bitdefender Mandrake),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),(Citation: CheckPoint-Charger),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: Check Point-Joker),</t>
+    <t>(Citation: CheckPoint Cerberus),(Citation: cyble_chameleon_0423),(Citation: FortiGuard-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: Volexity Insomnia),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-WireLurker),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: Check Point-Joker),(Citation: lookout_abstractemu_1021),(Citation: Google Security Zen),(Citation: Google Bread),(Citation: nccgroup_sharkbot_0322),(Citation: trendmicro_tianyspy_0122),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: ThreatFabric Ginp),(Citation: Talos-WolfRAT),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList DVMap June 2017),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: FortiGuard-FlexiSpy),(Citation: TrendMicro-Obad),(Citation: CheckPoint-Charger),(Citation: WhiteOps TERRACOTTA),(Citation: mcafee_brata_0421),(Citation: TrendMicro-XLoader),(Citation: cyble_drinik_1022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: Sophos Red Alert 2.0),(Citation: Palo Alto HenBox),(Citation: Microsoft MalLockerB),(Citation: Volexity Insomnia),(Citation: Lookout-BrainTest),(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: lookout_bouldspy_0423),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Monokle),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: Kaspersky-Skygofree),</t>
-  </si>
-  <si>
-    <t>(Citation: Meta Adversarial Threat Report 2022),(Citation: Leonard TAG 2023),(Citation: checkpoint_hamas_android_malware),(Citation: sophos_android_apt_spyware),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: securelist_brata_0819),(Citation: blackberry_mobile_malware_apt_esp),(Citation: CitizenLab Great iPwn),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: bitdefender_flubot_0524),(Citation: cyble_chameleon_0423),(Citation: TrendMicro-Obad),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zimperium z9),(Citation: CheckPoint Agent Smith),(Citation: nccgroup_sharkbot_0322),(Citation: paloalto_yispecter_1015),(Citation: securelist rotexy 2018),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
-  </si>
-  <si>
-    <t>(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),(Citation: Google Triada June 2019),(Citation: Google Project Zero Insomnia),</t>
+    <t>(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Kaspersky-WUC),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky-Skygofree),(Citation: nccgroup_sharkbot_0322),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_bouldspy_0423),(Citation: securelist rotexy 2018),(Citation: Talos Gustuff Apr 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Leonard TAG 2023),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),(Citation: Meta Adversarial Threat Report 2022),(Citation: blackberry_mobile_malware_apt_esp),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-Obad),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: Zimperium z9),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
     <t>(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),</t>
@@ -3012,10 +3012,10 @@
     <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
   </si>
   <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Threat Fabric Cerberus),(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: Cybereason FakeSpy),(Citation: Cofense Anubis),(Citation: Lookout-StealthMango),(Citation: Sophos Red Alert 2.0),(Citation: bitdefender_flubot_0524),(Citation: welivesecurity_ahrat_0523),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: securelist rotexy 2018),(Citation: SecureList BusyGasper),(Citation: Lookout-Dendroid),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Desert Scorpion),(Citation: Bleeipng Computer Escobar),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: forcepoint_bitter),(Citation: SecurityIntelligence TrickMo),(Citation: cloudmark_tanglebot_0921),(Citation: ThreatFabric Ginp),(Citation: proofpoint_flubot_0421),(Citation: Zscaler TikTok Spyware),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye-RuMMS),(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: BlackBerry Bahamut),(Citation: Securelist Asacub),(Citation: Lookout FrozenCell),(Citation: Zscaler-SpyNote),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-XLoader),(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Sophos Red Alert 2.0),(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: Lookout-Dendroid),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: Tripwire-MazarBOT),(Citation: Kaspersky Triada March 2016),(Citation: Bleeipng Computer Escobar),(Citation: nccgroup_sharkbot_0322),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout ViperRAT),(Citation: PaloAlto-Xbot),(Citation: Zscaler-SuperMarioRun),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: Lookout-EnterpriseApps),(Citation: threatfabric_sova_0921),(Citation: TrendMicro Coronavirus Updates),(Citation: forcepoint_bitter),(Citation: fb_arid_viper),(Citation: SecurityIntelligence TrickMo),(Citation: Meta Adversarial Threat Report 2022),(Citation: cloudmark_tanglebot_0921),(Citation: NYTimes-BackDoor),(Citation: ThreatFabric Ginp),(Citation: Google Project Zero Insomnia),(Citation: proofpoint_flubot_0421),(Citation: SecureList - ViceLeaker 2019),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Exobot),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: threatfabric_sova_0921),(Citation: Lookout-Dendroid),(Citation: bitdefender_flubot_0524),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: Bleeipng Computer Escobar),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Desert Scorpion),(Citation: cyble_drinik_1022),(Citation: Securelist Asacub),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: forcepoint_bitter),(Citation: SecureList BusyGasper),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro Coronavirus Updates),(Citation: Cylance Dust Storm),(Citation: cyble_chameleon_0423),(Citation: Zscaler-SuperMarioRun),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Exobot),(Citation: Zscaler-SpyNote),(Citation: Cybereason EventBot),(Citation: SWB Exodus March 2019),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: Meta Adversarial Threat Report 2022),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky Triada March 2016),(Citation: threatfabric_sova_0921),(Citation: Lookout-Dendroid),(Citation: FireEye-RuMMS),(Citation: fb_arid_viper),(Citation: Google Bread),(Citation: PaloAlto-SpyDealer),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: CyberMerchants-FlexiSpy),(Citation: Bleeipng Computer Escobar),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: proofpoint_flubot_0421),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-XLoader),(Citation: cyble_drinik_1022),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: NYTimes-BackDoor),(Citation: forcepoint_bitter),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-EnterpriseApps),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Tripwire-MazarBOT),(Citation: Lookout-Pegasus),(Citation: FlexiSpy-Features),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
@@ -3024,73 +3024,73 @@
     <t>(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),</t>
   </si>
   <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: SWB Exodus March 2019),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: mcafee_brata_0421),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist_brata_0819),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos-WolfRAT),(Citation: SecurityIntelligence TrickMo),(Citation: cloudmark_tanglebot_0921),(Citation: cleafy_sova_1122),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Agent Smith),(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: Talos GPlayed),(Citation: securelist rotexy 2018),(Citation: WhiteOps TERRACOTTA),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos-WolfRAT),(Citation: SecurityIntelligence TrickMo),(Citation: cloudmark_tanglebot_0921),(Citation: cleafy_sova_1122),(Citation: ThreatFabric Ginp),(Citation: Google Project Zero Insomnia),(Citation: SecureList - ViceLeaker 2019),(Citation: paloalto_yispecter_1015),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: Google Triada June 2019),(Citation: Zscaler TikTok Spyware),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Bread),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>,(Citation: iOS Universal Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: Android App Links),(Citation: IETF-PKCE)</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Cybereason EventBot),(Citation: SWB Exodus March 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),(Citation: PaloAlto-SpyDealer),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: welivesecurity_ahrat_0523),(Citation: mcafee_brata_0421),(Citation: cyble_drinik_1022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: FlexiSpy-Features),(Citation: lookout_hornbill_sunbird_0221),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: Google Project Zero Insomnia),(Citation: Cybereason EventBot),(Citation: SWB Exodus March 2019),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: paloalto_yispecter_1015),(Citation: cleafy_sova_1122),(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Desert Scorpion),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: FlexiSpy-Features),(Citation: CheckPoint Agent Smith),(Citation: lookout_hornbill_sunbird_0221),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: Google Bread),(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),</t>
+  </si>
+  <si>
+    <t>,(Citation: Android App Links),(Citation: iOS Universal Links),(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-PegasusAndroid),(Citation: Lookout FrozenCell),(Citation: Cybereason FakeSpy),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: SecureList BusyGasper),(Citation: Zimperium FlyTrap),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: Bleeipng Computer Escobar),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro FlyTrap),(Citation: checkpoint_flixonline_0421),(Citation: Meta Adversarial Threat Report 2022),(Citation: cleafy_sova_1122),(Citation: paloalto_yispecter_1015),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Group IB Gustuff Mar 2019),(Citation: Threat Fabric Cerberus),(Citation: Lookout Uyghur Campaign),(Citation: Cybereason FakeSpy),(Citation: CheckPoint Agent Smith),(Citation: Bitdefender - Triout 2018),(Citation: securelist rotexy 2018),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: Lookout Desert Scorpion),(Citation: ESET-Twitoor),(Citation: FortiGuard-FlexiSpy),(Citation: CheckPoint SimBad 2019),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: checkpoint_flixonline_0421),(Citation: ThreatFabric Ginp),(Citation: paloalto_yispecter_1015),(Citation: Zscaler TikTok Spyware),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: welivesec_strongpity),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: mcafee_brata_0421),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: BlackBerry Bahamut),(Citation: cyble_chameleon_0423),(Citation: Cybereason FakeSpy),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Dendroid),(Citation: Trend Micro Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye-RuMMS),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Cerberus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: BlackBerry Bahamut),(Citation: Securelist Asacub),(Citation: Lookout FrozenCell),(Citation: Cybereason FakeSpy),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Wandera-RedDrop),(Citation: lookout_bouldspy_0423),(Citation: Lookout eSurv),(Citation: welivesecurity_ahrat_0523),(Citation: cyble_chameleon_0423),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-Anserver2),(Citation: Talos GPlayed),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: CheckPoint Cerberus),(Citation: Cybereason EventBot),(Citation: Lookout-Pegasus),(Citation: Kaspersky Riltok June 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: SecureList DVMap June 2017),(Citation: Xiao-KeyRaider),(Citation: securelist_brata_0819),(Citation: Lookout-Monokle),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout ViperRAT),(Citation: Bitdefender Mandrake),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: threatfabric_sova_0921),(Citation: TrendMicro Coronavirus Updates),(Citation: fb_arid_viper),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Google Project Zero Insomnia),(Citation: SecureList - ViceLeaker 2019),(Citation: paloalto_yispecter_1015),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: FireEye-RuMMS),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: Wandera-RedDrop),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),(Citation: PaloAlto-DualToy),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-Anserver2),(Citation: Talos GPlayed),(Citation: securelist rotexy 2018),(Citation: trendmicro_tianyspy_0122),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason EventBot),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-Monokle),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-EnterpriseApps),(Citation: Trend Micro FlyTrap),(Citation: TrendMicro Coronavirus Updates),(Citation: forcepoint_bitter),(Citation: SecurityIntelligence TrickMo),(Citation: checkpoint_hamas_android_malware),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Google Project Zero Insomnia),(Citation: paloalto_yispecter_1015),(Citation: lookout_abstractemu_1021),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: trendmicro_strongpity),(Citation: FlexiSpy-Features),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro FlyTrap),(Citation: SWB Exodus March 2019),(Citation: Meta Adversarial Threat Report 2022),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-RCSAndroid),(Citation: paloalto_yispecter_1015),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122),(Citation: Zimperium FlyTrap),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Bleeipng Computer Escobar),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Pegasus),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: Group IB Gustuff Mar 2019),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: paloalto_yispecter_1015),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: CheckPoint SimBad 2019),(Citation: ESET-Twitoor),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: CheckPoint Agent Smith),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),(Citation: nccgroup_sharkbot_0322),(Citation: welivesec_strongpity),(Citation: BlackBerry Bahamut),</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason FakeSpy),(Citation: cyble_chameleon_0423),(Citation: securelist rotexy 2018),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-Dendroid),(Citation: mcafee_brata_0421),(Citation: Palo Alto HenBox),(Citation: Trend Micro Anubis),(Citation: SecurityIntelligence TrickMo),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Cerberus),(Citation: Talos-WolfRAT),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro Coronavirus Updates),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: cyble_chameleon_0423),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: Lookout ViperRAT),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: paloalto_yispecter_1015),(Citation: threatfabric_sova_0921),(Citation: FireEye-RuMMS),(Citation: fb_arid_viper),(Citation: Xiao-KeyRaider),(Citation: trendmicro_tianyspy_0122),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList DVMap June 2017),(Citation: Talos GPlayed),(Citation: Lookout Desert Scorpion),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint Cerberus),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: Lookout FrozenCell),(Citation: Wandera-RedDrop),(Citation: Palo Alto HenBox),(Citation: Lookout eSurv),(Citation: TrendMicro-Anserver2),(Citation: Lookout-Pegasus),(Citation: Kaspersky Riltok June 2019),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro Coronavirus Updates),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Trend Micro FlyTrap),(Citation: Google Project Zero Insomnia),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: SWB Exodus March 2019),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: paloalto_yispecter_1015),(Citation: FireEye-RuMMS),(Citation: Google Bread),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: trendmicro_tianyspy_0122),(Citation: Talos-WolfRAT),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: checkpoint_hamas_android_malware),(Citation: Cybereason FakeSpy),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: Wandera-RedDrop),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro-Anserver2),(Citation: Kaspersky Riltok June 2019),(Citation: PaloAlto-DualToy),(Citation: lookout_hornbill_sunbird_0221),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: trendmicro_strongpity),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: proofpoint_flubot_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-PegasusAndroid),(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Dendroid),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Zscaler-SuperMarioRun),(Citation: Palo Alto HenBox),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: forcepoint_bitter),(Citation: fb_arid_viper),(Citation: Meta Adversarial Threat Report 2022),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SuperMarioRun),(Citation: SWB Exodus March 2019),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Dendroid),(Citation: fb_arid_viper),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: Bleeipng Computer Escobar),(Citation: Symantec GoldenCup),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Desert Scorpion),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: forcepoint_bitter),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Kaspersky-Skygofree),(Citation: lookout_hornbill_sunbird_0221),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: FireEye-RuMMS),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: Kaspersky-MobileMalware),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: Wandera-RedDrop),(Citation: lookout_bouldspy_0423),(Citation: Sophos Red Alert 2.0),(Citation: Bitdefender - Triout 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Volexity Insomnia),(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: securelist rotexy 2018),(Citation: Kaspersky-Skygofree),(Citation: CheckPoint Cerberus),(Citation: Zimperium FlyTrap),(Citation: Cybereason EventBot),(Citation: Kaspersky Riltok June 2019),(Citation: Kaspersky-WUC),(Citation: nccgroup_sharkbot_0322),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: ESET DEFENSOR ID),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: proofpoint_flubot_0421),(Citation: SecureList - ViceLeaker 2019),(Citation: paloalto_yispecter_1015),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro Coronavirus Updates),(Citation: Wandera-RedDrop),(Citation: SecurityIntelligence TrickMo),(Citation: trendmicro_tianyspy_0122),(Citation: TelephonyManager)</t>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: cyble_chameleon_0423),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),(Citation: ESET DEFENSOR ID),(Citation: lookout_abstractemu_1021),(Citation: paloalto_yispecter_1015),(Citation: threatfabric_sova_0921),(Citation: FireEye-RuMMS),(Citation: Google Bread),(Citation: Zimperium FlyTrap),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: CheckPoint Cerberus),(Citation: Cybereason FakeSpy),(Citation: Wandera-RedDrop),(Citation: Kaspersky-MobileMalware),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-Skygofree),(Citation: Volexity Insomnia),(Citation: Kaspersky Riltok June 2019),(Citation: cleafy_brata_0122),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_bouldspy_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
@@ -2796,13 +2796,13 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Check Point-Joker),(Citation: Bleeipng Computer Escobar),(Citation: TrendMicro Coronavirus Updates),(Citation: cyble_chameleon_0423),(Citation: proofpoint_flubot_0421),(Citation: lookout_abstractemu_1021),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: welivesec_strongpity),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: threatfabric_sova_0921),(Citation: Check Point-Joker),(Citation: Bleeipng Computer Escobar),(Citation: checkpoint_flixonline_0421),(Citation: welivesec_strongpity),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),</t>
+    <t>(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),</t>
   </si>
   <si>
     <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
@@ -2811,130 +2811,130 @@
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: Symantec GoldenCup),(Citation: Cofense Anubis),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: Securelist Asacub),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler-SpyNote),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Dendroid),(Citation: fb_arid_viper),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: Bleeipng Computer Escobar),(Citation: welivesecurity_ahrat_0523),(Citation: Symantec GoldenCup),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-XLoader),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: Wandera-RedDrop),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Kaspersky-Skygofree),(Citation: Lookout eSurv),(Citation: Lookout-Pegasus),(Citation: lookout_hornbill_sunbird_0221),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: HackerNews-OldBoot),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler-SpyNote),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: ESET DEFENSOR ID),(Citation: checkpoint_flixonline_0421),(Citation: PaloAlto-SpyDealer),(Citation: CheckPoint SimBad 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: FortiGuard-FlexiSpy),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: Palo Alto HenBox),(Citation: Microsoft MalLockerB),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: CyberMerchants-FlexiSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout Uyghur Campaign),(Citation: forcepoint_bitter),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: kaspersky_fakecalls_0422),(Citation: mcafee_brata_0421),(Citation: cyble_drinik_1022),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SuperMarioRun),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: Bleeipng Computer Escobar),(Citation: welivesecurity_ahrat_0523),(Citation: kaspersky_fakecalls_0422),(Citation: cyble_drinik_1022),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: Zscaler TikTok Spyware),(Citation: NYTimes-BackDoor),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Lookout-Pegasus),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: Lookout Desert Scorpion),(Citation: trendmicro_tianyspy_0122),(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Google Triada June 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Symantec GoldenCup),(Citation: Securelist Asacub),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: welivesec_strongpity),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: forcepoint_bitter),(Citation: Palo Alto HenBox),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Dendroid),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: welivesec_strongpity),(Citation: Wandera-RedDrop),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Zscaler-SuperMarioRun),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Lookout Dark Caracal Jan 2018),(Citation: fb_arid_viper),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender - Triout 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Lookout-StealthMango),(Citation: TrendMicro-XLoader),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Lookout-EnterpriseApps),(Citation: Zscaler-SpyNote),(Citation: SecureList BusyGasper),(Citation: CyberMerchants-FlexiSpy),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: kaspersky_fakecalls_0422),(Citation: welivesecurity_ahrat_0523),(Citation: Meta Adversarial Threat Report 2022),(Citation: Bleeipng Computer Escobar),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: HackerNews-OldBoot),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: FortiGuard-FlexiSpy),(Citation: welivesec_strongpity),(Citation: CheckPoint SimBad 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Microsoft MalLockerB),(Citation: checkpoint_flixonline_0421),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler-SpyNote),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: ESET DEFENSOR ID),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: forcepoint_bitter),(Citation: mcafee_brata_0421),(Citation: SecureList BusyGasper),(Citation: cyble_drinik_1022),(Citation: kaspersky_fakecalls_0422),(Citation: Cofense Anubis),(Citation: Bleeipng Computer Escobar),(Citation: cloudmark_tanglebot_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: forcepoint_bitter),(Citation: Palo Alto HenBox),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: cyble_drinik_1022),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: Zscaler-SuperMarioRun),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: Lookout-StealthMango),(Citation: Lookout-EnterpriseApps),(Citation: NYTimes-BackDoor),(Citation: Sophos Red Alert 2.0),(Citation: PaloAlto-SpyDealer),(Citation: kaspersky_fakecalls_0422),(Citation: welivesecurity_ahrat_0523),(Citation: Bleeipng Computer Escobar),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: lookout_bouldspy_0423),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: Lookout Desert Scorpion),(Citation: paloalto_yispecter_1015),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: trendmicro_tianyspy_0122),(Citation: Bitdefender Mandrake),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: Lookout-BrainTest),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
-  </si>
-  <si>
-    <t>(Citation: NYTimes-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: SecureList BusyGasper),(Citation: Lookout-BrainTest),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
+  </si>
+  <si>
+    <t>(Citation: HackerNews-Allwinner),(Citation: Krebs-Triada June 2019),(Citation: Lookout-StealthMango),(Citation: NYTimes-BackDoor),(Citation: Google Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: BankInfoSecurity-BackDoor),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Zscaler-SpyNote),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Exobot),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: Meta Adversarial Threat Report 2022),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: Lookout ViperRAT),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: fb_arid_viper),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: CyberMerchants-FlexiSpy),(Citation: Symantec GoldenCup),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: CheckPoint-Charger),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Desert Scorpion),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: NYTimes-BackDoor),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Lookout eSurv),(Citation: Lookout-Pegasus),(Citation: Kaspersky Riltok June 2019),(Citation: lookout_hornbill_sunbird_0221),</t>
+    <t>(Citation: forcepoint_bitter),(Citation: ThreatFabric Ginp),(Citation: Palo Alto HenBox),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Google Project Zero Insomnia),(Citation: Lookout eSurv),(Citation: Lookout Dark Caracal Jan 2018),(Citation: fb_arid_viper),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: Lookout-StealthMango),(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-EnterpriseApps),(Citation: Zscaler-SpyNote),(Citation: NYTimes-BackDoor),(Citation: CheckPoint-Charger),(Citation: CyberMerchants-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason FakeSpy),(Citation: kaspersky_fakecalls_0422),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: welivesecurity_ahrat_0523),(Citation: Meta Adversarial Threat Report 2022),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: Cylance Dust Storm),(Citation: cyble_chameleon_0423),(Citation: Google Project Zero Insomnia),(Citation: Zscaler-SpyNote),(Citation: SWB Exodus March 2019),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-RCSAndroid),(Citation: Gooligan Citation),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: Lookout ViperRAT),(Citation: Lookout-Dendroid),(Citation: fb_arid_viper),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: Bleeipng Computer Escobar),(Citation: welivesecurity_ahrat_0523),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Anubis),(Citation: cyble_drinik_1022),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Lookout eSurv),(Citation: FlexiSpy-Features),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: lookout_abstractemu_1021),(Citation: Proofpoint-Marcher),(Citation: Threat Fabric Exobot),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: GoogleIO2016)</t>
+    <t>(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: ThreatFabric Ginp),(Citation: Palo Alto HenBox),(Citation: cyble_chameleon_0423),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Dendroid),(Citation: cyble_drinik_1022),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: fb_arid_viper),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: securelist_brata_0819),(Citation: Bitdefender - Triout 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Cylance Dust Storm),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler-SpyNote),(Citation: Gooligan Citation),(Citation: SecureList BusyGasper),(Citation: Symantec GoldenCup),(Citation: kaspersky_fakecalls_0422),(Citation: welivesecurity_ahrat_0523),(Citation: Bleeipng Computer Escobar),(Citation: Talos GPlayed),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),(Citation: TrendMicro-Anserver),(Citation: Cofense Anubis),(Citation: TrendMicro-XLoader-FakeSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-XLoader),(Citation: lookout_hornbill_sunbird_0221),(Citation: Sophos Red Alert 2.0),(Citation: Proofpoint-Marcher),(Citation: Securelist Asacub),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: lookout_abstractemu_1021),(Citation: GoogleIO2016)</t>
   </si>
   <si>
     <t>(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),</t>
   </si>
   <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: proofpoint_flubot_0421),(Citation: Google Security Zen),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: Cybereason EventBot),(Citation: SWB Exodus March 2019),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: paloalto_yispecter_1015),(Citation: Google Security Zen),(Citation: Xiao-ZergHelper),(Citation: Google Bread),(Citation: PaloAlto-SpyDealer),(Citation: nccgroup_sharkbot_0322),(Citation: Google Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos-WolfRAT),(Citation: CheckPoint-Judy),(Citation: Symantec GoldenCup),(Citation: SecureList DVMap June 2017),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: mcafee_brata_0421),(Citation: Lookout Desert Scorpion),(Citation: Trend Micro Anubis),(Citation: lookout_bouldspy_0423),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: Sophos Red Alert 2.0),(Citation: Palo Alto HenBox),(Citation: Kaspersky-Skygofree),(Citation: Lookout eSurv),(Citation: Lookout-BrainTest),(Citation: cleafy_brata_0122),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: trendmicro_strongpity),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),</t>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: cyble_chameleon_0423),(Citation: mcafee_brata_0421),(Citation: cyble_drinik_1022),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: welivesec_strongpity),(Citation: Google Security Zen),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: cyble_chameleon_0423),(Citation: Lookout ViperRAT),(Citation: mcafee_brata_0421),(Citation: Google Triada June 2019),(Citation: Lookout-BrainTest),(Citation: Talos-WolfRAT),(Citation: Cybereason EventBot),(Citation: paloalto_yispecter_1015),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint-Judy),(Citation: Google Bread),(Citation: Lookout eSurv),(Citation: Trend Micro Anubis),(Citation: Xiao-ZergHelper),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: cleafy_brata_0122),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList DVMap June 2017),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Threat Fabric Cerberus),(Citation: Talos GPlayed),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: trendmicro_strongpity),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),(Citation: welivesecurity_ahrat_0523),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),</t>
+    <t>(Citation: PaloAlto-Xbot),(Citation: CheckPoint-Charger),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cylance Dust Storm),(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: Zimperium FlyTrap),(Citation: nccgroup_sharkbot_0322),(Citation: Google Triada June 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: proofpoint_flubot_0421),(Citation: trendmicro_strongpity),(Citation: kaspersky_fakecalls_0422),(Citation: cyble_drinik_1022),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: cleafy_brata_0122),(Citation: Lookout eSurv),(Citation: Wandera-RedDrop),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: SecureList DVMap June 2017),(Citation: Gooligan Citation),(Citation: lookout_abstractemu_1021),(Citation: Google Security Zen),(Citation: Lookout-PegasusAndroid),(Citation: fb_arid_viper),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingBad),</t>
+    <t>(Citation: cyble_chameleon_0423),(Citation: trendmicro_strongpity),(Citation: Google Triada June 2019),(Citation: cyble_drinik_1022),(Citation: Zimperium FlyTrap),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Wandera-RedDrop),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender - Triout 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Cylance Dust Storm),(Citation: cleafy_brata_0122),(Citation: nccgroup_sharkbot_0322),(Citation: kaspersky_fakecalls_0422),(Citation: proofpoint_flubot_0421),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
+  </si>
+  <si>
+    <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Volexity Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: Gooligan Citation),(Citation: Lookout-Adware),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Pegasus),(Citation: fb_arid_viper),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: ArsTechnica-HummingBad),(Citation: Google Security Zen),(Citation: CheckPoint Agent Smith),(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
     <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
   </si>
   <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Talos GPlayed),(Citation: Lookout-Monokle),(Citation: Zscaler TikTok Spyware),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Desert Scorpion),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: CyberMerchants-FlexiSpy),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Cylance Dust Storm),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: welivesec_strongpity),(Citation: BlackBerry Bahamut),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: Trend Micro FlyTrap),(Citation: Group IB Gustuff Mar 2019),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: Lookout-Dendroid),(Citation: nccgroup_sharkbot_0322),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout Dark Caracal Jan 2018),(Citation: ThreatFabric Ginp),(Citation: Bleeipng Computer Escobar),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: proofpoint_flubot_0421),(Citation: Proofpoint-Marcher),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler TikTok Spyware),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: Kaspersky Riltok June 2019),(Citation: PaloAlto-XcodeGhost),(Citation: cleafy_brata_0122),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: Gooligan Citation),(Citation: Lookout-EnterpriseApps),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: checkpoint_flixonline_0421),(Citation: Wandera-RedDrop),(Citation: Google Triada June 2019),(Citation: Google Bread),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingWhale),(Citation: Tripwire-MazarBOT),(Citation: Kaspersky Triada June 2016),(Citation: CheckPoint SimBad 2019),(Citation: CheckPoint Agent Smith),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint-Judy),(Citation: ArsTechnica-HummingBad),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Dark Caracal Jan 2018),(Citation: kaspersky_fakecalls_0422),(Citation: Talos GPlayed),(Citation: CheckPoint Agent Smith),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cylance Dust Storm),(Citation: Symantec GoldenCup),(Citation: welivesecurity_ahrat_0523),(Citation: BlackBerry Bahamut),(Citation: Bleeipng Computer Escobar),(Citation: welivesec_strongpity),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: ThreatFabric Ginp),(Citation: cyble_chameleon_0423),(Citation: Lookout-Dendroid),(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: trendmicro_tianyspy_0122),(Citation: Bitdefender Mandrake),(Citation: cloudmark_tanglebot_0921),(Citation: securelist rotexy 2018),(Citation: Trend Micro FlyTrap),(Citation: Group IB Gustuff Mar 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-XcodeGhost),(Citation: threatfabric_sova_0921),(Citation: Cofense Anubis),(Citation: checkpoint_flixonline_0421),(Citation: Zscaler TikTok Spyware),(Citation: PaloAlto-Xbot),(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_brata_0122),(Citation: WhiteOps TERRACOTTA),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: Proofpoint-Marcher),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: ArsTechnica-HummingWhale),(Citation: CheckPoint-Judy),(Citation: CheckPoint SimBad 2019),(Citation: Gooligan Citation),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Lookout-BrainTest),(Citation: Tripwire-MazarBOT),(Citation: Wandera-RedDrop),(Citation: Google Bread),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: checkpoint_flixonline_0421),(Citation: ArsTechnica-HummingBad),(Citation: CheckPoint Agent Smith),(Citation: Lookout-EnterpriseApps),</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2946,64 +2946,64 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: nccgroup_sharkbot_0322),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesec_strongpity),(Citation: Wandera-RedDrop),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: fb_arid_viper),(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Cerberus),(Citation: ESET DEFENSOR ID),(Citation: securelist_brata_0819),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Google Security Zen),(Citation: mcafee_brata_0421),(Citation: cleafy_sova_1122),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky Riltok June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro Coronavirus Updates),(Citation: Trend Micro FlyTrap),(Citation: Google Project Zero Insomnia),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: SWB Exodus March 2019),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: trendmicro_tianyspy_0122),(Citation: WhiteOps TERRACOTTA),(Citation: lookout_bouldspy_0423),(Citation: Securelist Asacub),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Wandera-RedDrop),</t>
+    <t>(Citation: Lookout-Monokle),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: fb_arid_viper),(Citation: welivesec_strongpity),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Cerberus),(Citation: ThreatFabric Ginp),(Citation: mcafee_brata_0421),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),(Citation: cleafy_sova_1122),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: ESET DEFENSOR ID),(Citation: Talos Gustuff Apr 2019),(Citation: Google Security Zen),(Citation: Kaspersky Riltok June 2019),(Citation: Bitdefender Mandrake),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: SWB Exodus March 2019),(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Trend Micro FlyTrap),(Citation: Google Project Zero Insomnia),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: Cybereason EventBot),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: FlexiSpy-Features),(Citation: lookout_bouldspy_0423),(Citation: BlackBerry Bahamut),(Citation: cleafy_brata_0122),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: cyble_chameleon_0423),(Citation: Trend Micro FlyTrap),(Citation: Google Project Zero Insomnia),(Citation: Zscaler-SpyNote),(Citation: Kaspersky-WUC),(Citation: CrowdStrike-Android),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesec_strongpity),(Citation: Meta Adversarial Threat Report 2022),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CyberMerchants-FlexiSpy),(Citation: Bleeipng Computer Escobar),(Citation: welivesecurity_ahrat_0523),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Desert Scorpion),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: NYTimes-BackDoor),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Kaspersky-Skygofree),(Citation: Lookout eSurv),(Citation: Lookout-Pegasus),(Citation: cleafy_brata_0122),(Citation: CSRIC5-WG10-FinalReport)</t>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: cyble_chameleon_0423),(Citation: mcafee_brata_0421),(Citation: SecureList BusyGasper),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: FlexiSpy-Features),(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: securelist_brata_0819),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: cyble_chameleon_0423),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: welivesec_strongpity),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Trend Micro FlyTrap),(Citation: Google Project Zero Insomnia),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender - Triout 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro-RCSAndroid),(Citation: CrowdStrike-Android),(Citation: BlackBerry Bahamut),(Citation: cleafy_brata_0122),(Citation: Lookout-EnterpriseApps),(Citation: Zscaler-SpyNote),(Citation: NYTimes-BackDoor),(Citation: SecureList BusyGasper),(Citation: CheckPoint-Charger),(Citation: CyberMerchants-FlexiSpy),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: kaspersky_fakecalls_0422),(Citation: Threat Fabric Cerberus),(Citation: welivesecurity_ahrat_0523),(Citation: Meta Adversarial Threat Report 2022),(Citation: Bleeipng Computer Escobar),(Citation: Talos GPlayed),(Citation: CSRIC5-WG10-FinalReport)</t>
   </si>
   <si>
     <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: MoustachedBouncer ESET August 2023),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: welivesecurity_apt-c-23),(Citation: cyble_chameleon_0423),(Citation: Threat Fabric Exobot),(Citation: CrowdStrike-Android),(Citation: Cybereason EventBot),(Citation: Forbes Cerberus),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Bitdefender Mandrake),(Citation: Lookout ViperRAT),(Citation: Cofense Anubis),(Citation: Lookout-Dendroid),(Citation: fb_arid_viper),(Citation: CheckPoint SimBad 2019),(Citation: Proofpoint-Droidjack),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: Talos GPlayed),(Citation: trendmicro_strongpity),(Citation: kaspersky_fakecalls_0422),(Citation: mcafee_brata_0421),(Citation: Trend Micro Anubis),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Securelist Asacub),(Citation: checkpoint_hamas_android_malware),(Citation: Zscaler TikTok Spyware),(Citation: sophos_android_apt_spyware),(Citation: Cybereason FakeSpy),(Citation: forcepoint_bitter),(Citation: securelist_brata_0819),(Citation: Lookout FrozenCell),(Citation: Sophos Red Alert 2.0),(Citation: Palo Alto HenBox),(Citation: Microsoft MalLockerB),(Citation: CheckPoint Agent Smith),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),(Citation: Palo Alto HenBox),(Citation: Google Bread),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Securelist Asacub),</t>
+    <t>(Citation: welivesecurity_apt-c-23),(Citation: forcepoint_bitter),(Citation: ThreatFabric Ginp),(Citation: cyble_chameleon_0423),(Citation: Palo Alto HenBox),(Citation: trendmicro_strongpity),(Citation: blackberry_mobile_malware_apt_esp),(Citation: mcafee_brata_0421),(Citation: Lookout-Dendroid),(Citation: Lookout ViperRAT),(Citation: Cybereason EventBot),(Citation: Talos-WolfRAT),(Citation: Proofpoint-Droidjack),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: CheckPoint Agent Smith),(Citation: Bitdefender Mandrake),(Citation: CheckPoint SimBad 2019),(Citation: checkpoint_hamas_android_malware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: MoustachedBouncer ESET August 2023),(Citation: SecureList - ViceLeaker 2019),(Citation: Microsoft MalLockerB),(Citation: fb_arid_viper),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: securelist_brata_0819),(Citation: Forbes Cerberus),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Securelist Asacub),(Citation: CrowdStrike-Android),(Citation: sophos_android_apt_spyware),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: kaspersky_fakecalls_0422),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Cerberus),(Citation: cyble_chameleon_0423),(Citation: FortiGuard-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: Volexity Insomnia),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-WireLurker),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: Check Point-Joker),(Citation: lookout_abstractemu_1021),(Citation: Google Security Zen),(Citation: Google Bread),(Citation: nccgroup_sharkbot_0322),(Citation: trendmicro_tianyspy_0122),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: ThreatFabric Ginp),(Citation: Talos-WolfRAT),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList DVMap June 2017),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: FortiGuard-FlexiSpy),(Citation: TrendMicro-Obad),(Citation: CheckPoint-Charger),(Citation: WhiteOps TERRACOTTA),(Citation: mcafee_brata_0421),(Citation: TrendMicro-XLoader),(Citation: cyble_drinik_1022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: Sophos Red Alert 2.0),(Citation: Palo Alto HenBox),(Citation: Microsoft MalLockerB),(Citation: Volexity Insomnia),(Citation: Lookout-BrainTest),(Citation: cleafy_brata_0122),</t>
+    <t>(Citation: CheckPoint Cerberus),(Citation: cyble_chameleon_0423),(Citation: FortiGuard-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: ThreatFabric Ginp),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: mcafee_brata_0421),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-BrainTest),(Citation: PaloAlto-WireLurker),(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: FortiGuard-FlexiSpy),(Citation: TrendMicro-Obad),(Citation: welivesec_strongpity),(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Bread),(Citation: Microsoft MalLockerB),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList DVMap June 2017),(Citation: CheckPoint-Charger),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Check Point-Joker),(Citation: welivesecurity_ahrat_0523),(Citation: Threat Fabric Cerberus),(Citation: Talos GPlayed),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Kaspersky-WUC),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Desert Scorpion),(Citation: Kaspersky-Skygofree),(Citation: nccgroup_sharkbot_0322),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_bouldspy_0423),(Citation: securelist rotexy 2018),(Citation: Talos Gustuff Apr 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Leonard TAG 2023),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),(Citation: Meta Adversarial Threat Report 2022),(Citation: blackberry_mobile_malware_apt_esp),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-Obad),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: Zimperium z9),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Google Project Zero Insomnia),</t>
+    <t>(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: Meta Adversarial Threat Report 2022),(Citation: checkpoint_hamas_android_malware),(Citation: blackberry_mobile_malware_apt_esp),(Citation: CitizenLab Great iPwn),(Citation: Leonard TAG 2023),(Citation: sophos_android_apt_spyware),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist rotexy 2018),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: nccgroup_sharkbot_0322),(Citation: paloalto_yispecter_1015),(Citation: Zimperium z9),(Citation: CheckPoint Agent Smith),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Triada June 2019),(Citation: Google Security Zen),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),</t>
   </si>
   <si>
     <t>(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),</t>
@@ -3012,85 +3012,85 @@
     <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
   </si>
   <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Exobot),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: Cofense Anubis),(Citation: threatfabric_sova_0921),(Citation: Lookout-Dendroid),(Citation: bitdefender_flubot_0524),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-StealthMango),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: Bleeipng Computer Escobar),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Desert Scorpion),(Citation: cyble_drinik_1022),(Citation: Securelist Asacub),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: forcepoint_bitter),(Citation: SecureList BusyGasper),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro Coronavirus Updates),(Citation: Cylance Dust Storm),(Citation: cyble_chameleon_0423),(Citation: Zscaler-SuperMarioRun),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Exobot),(Citation: Zscaler-SpyNote),(Citation: Cybereason EventBot),(Citation: SWB Exodus March 2019),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: Meta Adversarial Threat Report 2022),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky Triada March 2016),(Citation: threatfabric_sova_0921),(Citation: Lookout-Dendroid),(Citation: FireEye-RuMMS),(Citation: fb_arid_viper),(Citation: Google Bread),(Citation: PaloAlto-SpyDealer),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: CyberMerchants-FlexiSpy),(Citation: Bleeipng Computer Escobar),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: proofpoint_flubot_0421),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-XLoader),(Citation: cyble_drinik_1022),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: NYTimes-BackDoor),(Citation: forcepoint_bitter),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-EnterpriseApps),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Tripwire-MazarBOT),(Citation: Lookout-Pegasus),(Citation: FlexiSpy-Features),</t>
+    <t>(Citation: forcepoint_bitter),(Citation: ThreatFabric Ginp),(Citation: Talos-WolfRAT),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Dendroid),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: cloudmark_tanglebot_0921),(Citation: securelist rotexy 2018),(Citation: threatfabric_sova_0921),(Citation: Cofense Anubis),(Citation: bitdefender_flubot_0524),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout-StealthMango),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: welivesecurity_ahrat_0523),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: forcepoint_bitter),(Citation: ThreatFabric Ginp),(Citation: cyble_chameleon_0423),(Citation: Palo Alto HenBox),(Citation: Lookout ViperRAT),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Dendroid),(Citation: Tripwire-MazarBOT),(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: Kaspersky Triada March 2016),(Citation: Talos-WolfRAT),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: welivesec_strongpity),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: cloudmark_tanglebot_0921),(Citation: securelist rotexy 2018),(Citation: Google Project Zero Insomnia),(Citation: Zscaler-SuperMarioRun),(Citation: FireEye-RuMMS),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Bread),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: fb_arid_viper),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Lookout-StealthMango),(Citation: TrendMicro-XLoader),(Citation: Cylance Dust Storm),(Citation: PaloAlto-Xbot),(Citation: TrendMicro-RCSAndroid),(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-EnterpriseApps),(Citation: Zscaler-SpyNote),(Citation: NYTimes-BackDoor),(Citation: SecureList BusyGasper),(Citation: CyberMerchants-FlexiSpy),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason FakeSpy),(Citation: kaspersky_fakecalls_0422),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: Meta Adversarial Threat Report 2022),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
   </si>
   <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Cybereason EventBot),(Citation: SWB Exodus March 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: Cofense Anubis),(Citation: cleafy_sova_1122),(Citation: PaloAlto-SpyDealer),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: welivesecurity_ahrat_0523),(Citation: mcafee_brata_0421),(Citation: cyble_drinik_1022),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: cloudmark_tanglebot_0921),(Citation: FlexiSpy-Features),(Citation: lookout_hornbill_sunbird_0221),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: Google Project Zero Insomnia),(Citation: Cybereason EventBot),(Citation: SWB Exodus March 2019),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: ESET DEFENSOR ID),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: paloalto_yispecter_1015),(Citation: cleafy_sova_1122),(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Desert Scorpion),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: FlexiSpy-Features),(Citation: CheckPoint Agent Smith),(Citation: lookout_hornbill_sunbird_0221),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: Google Bread),(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android App Links),(Citation: iOS Universal Links),(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking)</t>
+    <t>(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: ThreatFabric Ginp),(Citation: Talos-WolfRAT),(Citation: mcafee_brata_0421),(Citation: SecurityIntelligence TrickMo),(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: cleafy_sova_1122),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: Bitdefender Mandrake),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: securelist_brata_0819),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: welivesecurity_ahrat_0523),(Citation: ESET DEFENSOR ID),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: ThreatFabric Ginp),(Citation: Palo Alto HenBox),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: Lookout-PegasusAndroid),(Citation: Google Triada June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: cleafy_sova_1122),(Citation: paloalto_yispecter_1015),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: welivesec_strongpity),(Citation: CheckPoint Agent Smith),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Google Project Zero Insomnia),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: Symantec GoldenCup),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: ESET DEFENSOR ID),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: Google Bread),(Citation: mcafee_brata_0421),</t>
+  </si>
+  <si>
+    <t>,(Citation: iOS Universal Links),(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking),(Citation: Android App Links)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro FlyTrap),(Citation: SWB Exodus March 2019),(Citation: Meta Adversarial Threat Report 2022),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-RCSAndroid),(Citation: paloalto_yispecter_1015),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122),(Citation: Zimperium FlyTrap),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Bleeipng Computer Escobar),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: Lookout FrozenCell),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Pegasus),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: Group IB Gustuff Mar 2019),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: paloalto_yispecter_1015),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: CheckPoint SimBad 2019),(Citation: ESET-Twitoor),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ThreatFabric Ginp),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: FlexiSpy-Features),(Citation: CheckPoint Agent Smith),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),(Citation: nccgroup_sharkbot_0322),(Citation: welivesec_strongpity),(Citation: BlackBerry Bahamut),</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason FakeSpy),(Citation: cyble_chameleon_0423),(Citation: securelist rotexy 2018),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-Dendroid),(Citation: mcafee_brata_0421),(Citation: Palo Alto HenBox),(Citation: Trend Micro Anubis),(Citation: SecurityIntelligence TrickMo),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Cerberus),(Citation: Talos-WolfRAT),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro Coronavirus Updates),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: cyble_chameleon_0423),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: Lookout ViperRAT),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: paloalto_yispecter_1015),(Citation: threatfabric_sova_0921),(Citation: FireEye-RuMMS),(Citation: fb_arid_viper),(Citation: Xiao-KeyRaider),(Citation: trendmicro_tianyspy_0122),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList DVMap June 2017),(Citation: Talos GPlayed),(Citation: Lookout Desert Scorpion),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint Cerberus),(Citation: Cybereason FakeSpy),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: Lookout FrozenCell),(Citation: Wandera-RedDrop),(Citation: Palo Alto HenBox),(Citation: Lookout eSurv),(Citation: TrendMicro-Anserver2),(Citation: Lookout-Pegasus),(Citation: Kaspersky Riltok June 2019),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro Coronavirus Updates),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Trend Micro FlyTrap),(Citation: Google Project Zero Insomnia),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: SWB Exodus March 2019),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: paloalto_yispecter_1015),(Citation: FireEye-RuMMS),(Citation: Google Bread),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: trendmicro_tianyspy_0122),(Citation: Talos-WolfRAT),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: checkpoint_hamas_android_malware),(Citation: Cybereason FakeSpy),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Monokle),(Citation: Lookout FrozenCell),(Citation: Wandera-RedDrop),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro-Anserver2),(Citation: Kaspersky Riltok June 2019),(Citation: PaloAlto-DualToy),(Citation: lookout_hornbill_sunbird_0221),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: trendmicro_strongpity),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: Lookout Dark Caracal Jan 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro Coronavirus Updates),(Citation: Zscaler-SuperMarioRun),(Citation: SWB Exodus March 2019),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Dendroid),(Citation: fb_arid_viper),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: CyberMerchants-FlexiSpy),(Citation: Bleeipng Computer Escobar),(Citation: Symantec GoldenCup),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Desert Scorpion),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: forcepoint_bitter),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Kaspersky-Skygofree),(Citation: lookout_hornbill_sunbird_0221),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: FortiGuard-FlexiSpy),(Citation: cleafy_sova_1122),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: Zimperium FlyTrap),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: Trend Micro FlyTrap),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: lookout_hornbill_sunbird_0221),(Citation: checkpoint_flixonline_0421),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Lookout-StealthMango),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason FakeSpy),(Citation: Meta Adversarial Threat Report 2022),(Citation: Bleeipng Computer Escobar),</t>
+  </si>
+  <si>
+    <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+  </si>
+  <si>
+    <t>(Citation: ThreatFabric Ginp),(Citation: cyble_drinik_1022),(Citation: FortiGuard-FlexiSpy),(Citation: paloalto_yispecter_1015),(Citation: FlexiSpy-Features),(Citation: CheckPoint Agent Smith),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: CheckPoint SimBad 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Group IB Gustuff Mar 2019),(Citation: threatfabric_sova_0921),(Citation: checkpoint_flixonline_0421),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: ESET-Twitoor),(Citation: SecureList BusyGasper),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: welivesec_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: Palo Alto HenBox),(Citation: cyble_chameleon_0423),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: mcafee_brata_0421),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Dendroid),(Citation: Talos-WolfRAT),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro Anubis),(Citation: WhiteOps TERRACOTTA),(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Cerberus),(Citation: Palo Alto HenBox),(Citation: cyble_chameleon_0423),(Citation: Lookout ViperRAT),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-Anserver2),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason EventBot),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: welivesec_strongpity),(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Google Project Zero Insomnia),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: FireEye-RuMMS),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: fb_arid_viper),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: securelist_brata_0819),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: SecureList DVMap June 2017),(Citation: Xiao-KeyRaider),(Citation: Symantec GoldenCup),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: welivesecurity_ahrat_0523),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: forcepoint_bitter),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro-Anserver2),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: paloalto_yispecter_1015),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Trend Micro FlyTrap),(Citation: checkpoint_hamas_android_malware),(Citation: Google Project Zero Insomnia),(Citation: FireEye-RuMMS),(Citation: Google Bread),(Citation: PaloAlto-DualToy),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),(Citation: Lookout-StealthMango),(Citation: Securelist Asacub),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-EnterpriseApps),(Citation: WhiteOps TERRACOTTA),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: trendmicro_strongpity),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: forcepoint_bitter),(Citation: Palo Alto HenBox),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Dendroid),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Zscaler-SuperMarioRun),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: fb_arid_viper),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout-StealthMango),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: SecureList BusyGasper),(Citation: CyberMerchants-FlexiSpy),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: kaspersky_fakecalls_0422),(Citation: Meta Adversarial Threat Report 2022),(Citation: Bleeipng Computer Escobar),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: cyble_chameleon_0423),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecurityIntelligence TrickMo),(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),(Citation: ESET DEFENSOR ID),(Citation: lookout_abstractemu_1021),(Citation: paloalto_yispecter_1015),(Citation: threatfabric_sova_0921),(Citation: FireEye-RuMMS),(Citation: Google Bread),(Citation: Zimperium FlyTrap),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: CheckPoint Cerberus),(Citation: Cybereason FakeSpy),(Citation: Wandera-RedDrop),(Citation: Kaspersky-MobileMalware),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky-Skygofree),(Citation: Volexity Insomnia),(Citation: Kaspersky Riltok June 2019),(Citation: cleafy_brata_0122),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_bouldspy_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: TelephonyManager)</t>
+    <t>(Citation: CheckPoint Cerberus),(Citation: cyble_chameleon_0423),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason EventBot),(Citation: paloalto_yispecter_1015),(Citation: SWB Exodus March 2019),(Citation: Zimperium FlyTrap),(Citation: Kaspersky-Skygofree),(Citation: welivesec_strongpity),(Citation: Wandera-RedDrop),(Citation: Volexity Insomnia),(Citation: lookout_abstractemu_1021),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: FireEye-RuMMS),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Bread),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: Kaspersky-MobileMalware),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Securelist Asacub),(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: Symantec GoldenCup),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: welivesecurity_ahrat_0523),(Citation: ESET DEFENSOR ID),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_bouldspy_0423),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
@@ -2796,145 +2796,145 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: threatfabric_sova_0921),(Citation: Check Point-Joker),(Citation: Bleeipng Computer Escobar),(Citation: checkpoint_flixonline_0421),(Citation: welivesec_strongpity),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: threatfabric_sova_0921),(Citation: Check Point-Joker),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Bleeipng Computer Escobar),(Citation: checkpoint_flixonline_0421),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
+    <t>(Citation: Skycure-Profiles),(Citation: threatfabric_sova_0921),(Citation: Xiao-KeyRaider),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Google Triada June 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Symantec GoldenCup),(Citation: Securelist Asacub),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: welivesec_strongpity),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: forcepoint_bitter),(Citation: Palo Alto HenBox),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Dendroid),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: welivesec_strongpity),(Citation: Wandera-RedDrop),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Zscaler-SuperMarioRun),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Lookout Dark Caracal Jan 2018),(Citation: fb_arid_viper),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender - Triout 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Lookout-StealthMango),(Citation: TrendMicro-XLoader),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Lookout-EnterpriseApps),(Citation: Zscaler-SpyNote),(Citation: SecureList BusyGasper),(Citation: CyberMerchants-FlexiSpy),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: kaspersky_fakecalls_0422),(Citation: welivesecurity_ahrat_0523),(Citation: Meta Adversarial Threat Report 2022),(Citation: Bleeipng Computer Escobar),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: HackerNews-OldBoot),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: FortiGuard-FlexiSpy),(Citation: welivesec_strongpity),(Citation: CheckPoint SimBad 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Microsoft MalLockerB),(Citation: checkpoint_flixonline_0421),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler-SpyNote),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: ESET DEFENSOR ID),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: forcepoint_bitter),(Citation: mcafee_brata_0421),(Citation: SecureList BusyGasper),(Citation: cyble_drinik_1022),(Citation: kaspersky_fakecalls_0422),(Citation: Cofense Anubis),(Citation: Bleeipng Computer Escobar),(Citation: cloudmark_tanglebot_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: forcepoint_bitter),(Citation: Palo Alto HenBox),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: cyble_drinik_1022),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: Zscaler-SuperMarioRun),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: Lookout-StealthMango),(Citation: Lookout-EnterpriseApps),(Citation: NYTimes-BackDoor),(Citation: Sophos Red Alert 2.0),(Citation: PaloAlto-SpyDealer),(Citation: kaspersky_fakecalls_0422),(Citation: welivesecurity_ahrat_0523),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: lookout_bouldspy_0423),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: Lookout Desert Scorpion),(Citation: paloalto_yispecter_1015),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: trendmicro_tianyspy_0122),(Citation: Bitdefender Mandrake),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+    <t>(Citation: Cofense Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cleafy_brata_0122),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-XLoader),(Citation: forcepoint_bitter),(Citation: Bleeipng Computer Escobar),(Citation: welivesec_strongpity),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender - Triout 2018),(Citation: Zscaler-SpyNote),(Citation: Talos-WolfRAT),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: Lookout-Dendroid),(Citation: Lookout FrozenCell),(Citation: Lookout eSurv),(Citation: cloudmark_tanglebot_0921),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-Skygofree),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: HackerNews-OldBoot),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Exobot),(Citation: welivesec_strongpity),(Citation: Cybereason EventBot),(Citation: FortiGuard-FlexiSpy),(Citation: ESET DEFENSOR ID),(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint SimBad 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason FakeSpy),(Citation: checkpoint_flixonline_0421),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-PegasusAndroid),(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos GPlayed),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: Cofense Anubis),(Citation: kaspersky_fakecalls_0422),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: forcepoint_bitter),(Citation: Bleeipng Computer Escobar),(Citation: mcafee_brata_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: forcepoint_bitter),(Citation: Bleeipng Computer Escobar),(Citation: welivesec_strongpity),(Citation: cyble_drinik_1022),(Citation: Google Project Zero Insomnia),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-WUC),(Citation: cloudmark_tanglebot_0921),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: NYTimes-BackDoor),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-EnterpriseApps),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: BlackBerry Bahamut),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: paloalto_yispecter_1015),(Citation: SecureList DVMap June 2017),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Adware),(Citation: SecureList BusyGasper),(Citation: Lookout-BrainTest),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),</t>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Adware),(Citation: Lookout-BrainTest),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
   </si>
   <si>
-    <t>(Citation: HackerNews-Allwinner),(Citation: Krebs-Triada June 2019),(Citation: Lookout-StealthMango),(Citation: NYTimes-BackDoor),(Citation: Google Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: BankInfoSecurity-BackDoor),</t>
+    <t>(Citation: BankInfoSecurity-BackDoor),(Citation: HackerNews-Allwinner),(Citation: Lookout-StealthMango),(Citation: NYTimes-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Triada June 2019),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: forcepoint_bitter),(Citation: ThreatFabric Ginp),(Citation: Palo Alto HenBox),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Google Project Zero Insomnia),(Citation: Lookout eSurv),(Citation: Lookout Dark Caracal Jan 2018),(Citation: fb_arid_viper),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: Lookout-StealthMango),(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-EnterpriseApps),(Citation: Zscaler-SpyNote),(Citation: NYTimes-BackDoor),(Citation: CheckPoint-Charger),(Citation: CyberMerchants-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason FakeSpy),(Citation: kaspersky_fakecalls_0422),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: welivesecurity_ahrat_0523),(Citation: Meta Adversarial Threat Report 2022),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),</t>
+    <t>(Citation: BlackBerry Bahamut),(Citation: kaspersky_fakecalls_0422),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: Threat Fabric Exobot),(Citation: forcepoint_bitter),(Citation: Kaspersky Riltok June 2019),(Citation: welivesec_strongpity),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: Google Project Zero Insomnia),(Citation: securelist rotexy 2018),(Citation: Zscaler-SpyNote),(Citation: Talos-WolfRAT),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: Lookout eSurv),(Citation: Kaspersky-WUC),(Citation: CheckPoint-Charger),(Citation: cloudmark_tanglebot_0921),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: NYTimes-BackDoor),(Citation: fb_arid_viper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: Talos GPlayed),(Citation: Lookout-EnterpriseApps),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Palo Alto HenBox),(Citation: cyble_chameleon_0423),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Dendroid),(Citation: cyble_drinik_1022),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: fb_arid_viper),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: securelist_brata_0819),(Citation: Bitdefender - Triout 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Cylance Dust Storm),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler-SpyNote),(Citation: Gooligan Citation),(Citation: SecureList BusyGasper),(Citation: Symantec GoldenCup),(Citation: kaspersky_fakecalls_0422),(Citation: welivesecurity_ahrat_0523),(Citation: Bleeipng Computer Escobar),(Citation: Talos GPlayed),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),(Citation: TrendMicro-Anserver),(Citation: Cofense Anubis),(Citation: TrendMicro-XLoader-FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader),(Citation: lookout_hornbill_sunbird_0221),(Citation: Sophos Red Alert 2.0),(Citation: Proofpoint-Marcher),(Citation: Securelist Asacub),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: lookout_abstractemu_1021),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: cyble_chameleon_0423),(Citation: mcafee_brata_0421),(Citation: cyble_drinik_1022),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: welivesec_strongpity),(Citation: Google Security Zen),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: cyble_chameleon_0423),(Citation: Lookout ViperRAT),(Citation: mcafee_brata_0421),(Citation: Google Triada June 2019),(Citation: Lookout-BrainTest),(Citation: Talos-WolfRAT),(Citation: Cybereason EventBot),(Citation: paloalto_yispecter_1015),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint-Judy),(Citation: Google Bread),(Citation: Lookout eSurv),(Citation: Trend Micro Anubis),(Citation: Xiao-ZergHelper),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: cleafy_brata_0122),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList DVMap June 2017),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Threat Fabric Cerberus),(Citation: Talos GPlayed),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: trendmicro_strongpity),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),</t>
+    <t>(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: cyble_chameleon_0423),(Citation: cyble_drinik_1022),(Citation: Lookout Desert Scorpion),(Citation: FlexiSpy-Features),(Citation: Bitdefender - Triout 2018),(Citation: Google Project Zero Insomnia),(Citation: Zscaler-SpyNote),(Citation: Talos-WolfRAT),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-RCSAndroid),(Citation: Gooligan Citation),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Anubis),(Citation: SWB Exodus March 2019),(Citation: Lookout-Dendroid),(Citation: lookout_bouldspy_0423),(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: SecurityIntelligence TrickMo),(Citation: Cylance Dust Storm),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: Talos GPlayed),(Citation: cloudmark_tanglebot_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader),(Citation: Proofpoint-Marcher),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: Threat Fabric Cerberus),(Citation: cleafy_brata_0122),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: proofpoint_flubot_0421),(Citation: SecureList DVMap June 2017),(Citation: mcafee_brata_0421),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList DVMap June 2017),(Citation: cyble_chameleon_0423),(Citation: Cybereason EventBot),(Citation: Google Bread),(Citation: Google Triada June 2019),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: CheckPoint-Judy),(Citation: Google Security Zen),(Citation: mcafee_brata_0421),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: PaloAlto-SpyDealer),(Citation: cleafy_brata_0122),(Citation: paloalto_yispecter_1015),(Citation: Trend Micro Anubis),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: Lookout-BrainTest),(Citation: Xiao-ZergHelper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: Kaspersky-Skygofree),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: paloalto_yispecter_1015),(Citation: Volexity Insomnia),(Citation: trendmicro_strongpity),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),(Citation: welivesecurity_ahrat_0523),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: CheckPoint-Charger),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),</t>
+    <t>(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: trendmicro_strongpity),(Citation: Google Triada June 2019),(Citation: cyble_drinik_1022),(Citation: Zimperium FlyTrap),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Wandera-RedDrop),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender - Triout 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Cylance Dust Storm),(Citation: cleafy_brata_0122),(Citation: nccgroup_sharkbot_0322),(Citation: kaspersky_fakecalls_0422),(Citation: proofpoint_flubot_0421),(Citation: welivesecurity_ahrat_0523),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
+    <t>(Citation: kaspersky_fakecalls_0422),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: cyble_drinik_1022),(Citation: Bitdefender - Triout 2018),(Citation: proofpoint_flubot_0421),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_abstractemu_1021),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cleafy_brata_0122),(Citation: Zimperium FlyTrap),(Citation: SecureList - ViceLeaker 2019),(Citation: trendmicro_strongpity),(Citation: lookout_bouldspy_0423),(Citation: Lookout eSurv),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cylance Dust Storm),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Triada June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
     <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
   </si>
   <si>
-    <t>(Citation: Volexity Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: SecureList DVMap June 2017),(Citation: Gooligan Citation),(Citation: Lookout-Adware),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Pegasus),(Citation: fb_arid_viper),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: ArsTechnica-HummingBad),(Citation: Google Security Zen),(Citation: CheckPoint Agent Smith),(Citation: lookout_abstractemu_1021),</t>
+    <t>(Citation: Gooligan Citation),(Citation: Lookout-Adware),(Citation: lookout_abstractemu_1021),(Citation: Lookout-BrainTest),(Citation: CheckPoint Agent Smith),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: fb_arid_viper),(Citation: Lookout Uyghur Campaign),(Citation: Volexity Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: Google Security Zen),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: SecureList DVMap June 2017),(Citation: ArsTechnica-HummingBad),(Citation: Kaspersky-Skygofree),</t>
   </si>
   <si>
     <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
   </si>
   <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Talos-WolfRAT),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Dark Caracal Jan 2018),(Citation: kaspersky_fakecalls_0422),(Citation: Talos GPlayed),(Citation: CheckPoint Agent Smith),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cylance Dust Storm),(Citation: Symantec GoldenCup),(Citation: welivesecurity_ahrat_0523),(Citation: BlackBerry Bahamut),(Citation: Bleeipng Computer Escobar),(Citation: welivesec_strongpity),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: cyble_chameleon_0423),(Citation: Lookout-Dendroid),(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: trendmicro_tianyspy_0122),(Citation: Bitdefender Mandrake),(Citation: cloudmark_tanglebot_0921),(Citation: securelist rotexy 2018),(Citation: Trend Micro FlyTrap),(Citation: Group IB Gustuff Mar 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-XcodeGhost),(Citation: threatfabric_sova_0921),(Citation: Cofense Anubis),(Citation: checkpoint_flixonline_0421),(Citation: Zscaler TikTok Spyware),(Citation: PaloAlto-Xbot),(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_brata_0122),(Citation: WhiteOps TERRACOTTA),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: Proofpoint-Marcher),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: ArsTechnica-HummingWhale),(Citation: CheckPoint-Judy),(Citation: CheckPoint SimBad 2019),(Citation: Gooligan Citation),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Lookout-BrainTest),(Citation: Tripwire-MazarBOT),(Citation: Wandera-RedDrop),(Citation: Google Bread),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: checkpoint_flixonline_0421),(Citation: ArsTechnica-HummingBad),(Citation: CheckPoint Agent Smith),(Citation: Lookout-EnterpriseApps),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),</t>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: kaspersky_fakecalls_0422),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Monokle),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: BlackBerry Bahamut),(Citation: Cylance Dust Storm),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Bleeipng Computer Escobar),(Citation: Lookout FrozenCell),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: Threat Fabric Exobot),(Citation: Kaspersky Riltok June 2019),(Citation: Bleeipng Computer Escobar),(Citation: cyble_chameleon_0423),(Citation: PaloAlto-XcodeGhost),(Citation: Cybereason EventBot),(Citation: PaloAlto-Xbot),(Citation: trendmicro_tianyspy_0122),(Citation: cyble_drinik_1022),(Citation: Proofpoint-Marcher),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: Talos Gustuff Apr 2019),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: Lookout-Dendroid),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: Trend Micro FlyTrap),(Citation: nccgroup_sharkbot_0322),(Citation: Group IB Gustuff Mar 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: cloudmark_tanglebot_0921),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Gooligan Citation),(Citation: CheckPoint SimBad 2019),(Citation: Lookout-BrainTest),(Citation: Google Bread),(Citation: CheckPoint Agent Smith),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Triada June 2016),(Citation: CheckPoint-Judy),(Citation: Google Security Zen),(Citation: ArsTechnica-HummingWhale),(Citation: Tripwire-MazarBOT),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-EnterpriseApps),(Citation: checkpoint_flixonline_0421),(Citation: Wandera-RedDrop),(Citation: ArsTechnica-HummingBad),(Citation: Google Triada June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2946,64 +2946,64 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-Monokle),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: fb_arid_viper),(Citation: welivesec_strongpity),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: fb_arid_viper),(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Cerberus),(Citation: ThreatFabric Ginp),(Citation: mcafee_brata_0421),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),(Citation: cleafy_sova_1122),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: ESET DEFENSOR ID),(Citation: Talos Gustuff Apr 2019),(Citation: Google Security Zen),(Citation: Kaspersky Riltok June 2019),(Citation: Bitdefender Mandrake),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: SWB Exodus March 2019),(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Trend Micro FlyTrap),(Citation: Google Project Zero Insomnia),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Exobot),</t>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: nccgroup_sharkbot_0322),(Citation: welivesec_strongpity),(Citation: Wandera-RedDrop),(Citation: cyble_chameleon_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky Riltok June 2019),(Citation: CheckPoint Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: ESET DEFENSOR ID),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: cleafy_sova_1122),(Citation: nccgroup_sharkbot_0322),(Citation: securelist_brata_0819),(Citation: ThreatFabric Ginp),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: trendmicro_tianyspy_0122),(Citation: Google Project Zero Insomnia),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Cybereason FakeSpy),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: Trend Micro FlyTrap),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-Monokle),(Citation: cyble_chameleon_0423),(Citation: mcafee_brata_0421),(Citation: SecureList BusyGasper),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: FlexiSpy-Features),(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: securelist_brata_0819),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: cyble_chameleon_0423),(Citation: Lookout ViperRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: welivesec_strongpity),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Trend Micro FlyTrap),(Citation: Google Project Zero Insomnia),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender - Triout 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Lookout-StealthMango),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro-RCSAndroid),(Citation: CrowdStrike-Android),(Citation: BlackBerry Bahamut),(Citation: cleafy_brata_0122),(Citation: Lookout-EnterpriseApps),(Citation: Zscaler-SpyNote),(Citation: NYTimes-BackDoor),(Citation: SecureList BusyGasper),(Citation: CheckPoint-Charger),(Citation: CyberMerchants-FlexiSpy),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: kaspersky_fakecalls_0422),(Citation: Threat Fabric Cerberus),(Citation: welivesecurity_ahrat_0523),(Citation: Meta Adversarial Threat Report 2022),(Citation: Bleeipng Computer Escobar),(Citation: Talos GPlayed),(Citation: CSRIC5-WG10-FinalReport)</t>
+    <t>(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Monokle),(Citation: cleafy_brata_0122),(Citation: cyble_drinik_1022),(Citation: threatfabric_sova_0921),(Citation: FlexiSpy-Features),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: cyble_chameleon_0423),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: kaspersky_fakecalls_0422),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: Bleeipng Computer Escobar),(Citation: welivesec_strongpity),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: cyble_chameleon_0423),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: Bitdefender - Triout 2018),(Citation: Google Project Zero Insomnia),(Citation: Zscaler-SpyNote),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: CrowdStrike-Android),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: cleafy_brata_0122),(Citation: SecureList - ViceLeaker 2019),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Lookout eSurv),(Citation: Kaspersky-WUC),(Citation: CheckPoint-Charger),(Citation: cloudmark_tanglebot_0921),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: NYTimes-BackDoor),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: Trend Micro FlyTrap),(Citation: SecureList BusyGasper),(Citation: Palo Alto HenBox),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-Skygofree),(Citation: CSRIC5-WG10-FinalReport)</t>
   </si>
   <si>
     <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
   </si>
   <si>
-    <t>(Citation: welivesecurity_apt-c-23),(Citation: forcepoint_bitter),(Citation: ThreatFabric Ginp),(Citation: cyble_chameleon_0423),(Citation: Palo Alto HenBox),(Citation: trendmicro_strongpity),(Citation: blackberry_mobile_malware_apt_esp),(Citation: mcafee_brata_0421),(Citation: Lookout-Dendroid),(Citation: Lookout ViperRAT),(Citation: Cybereason EventBot),(Citation: Talos-WolfRAT),(Citation: Proofpoint-Droidjack),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: CheckPoint Agent Smith),(Citation: Bitdefender Mandrake),(Citation: CheckPoint SimBad 2019),(Citation: checkpoint_hamas_android_malware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: MoustachedBouncer ESET August 2023),(Citation: SecureList - ViceLeaker 2019),(Citation: Microsoft MalLockerB),(Citation: fb_arid_viper),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: securelist_brata_0819),(Citation: Forbes Cerberus),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Securelist Asacub),(Citation: CrowdStrike-Android),(Citation: sophos_android_apt_spyware),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: kaspersky_fakecalls_0422),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),</t>
+    <t>(Citation: kaspersky_fakecalls_0422),(Citation: Threat Fabric Exobot),(Citation: forcepoint_bitter),(Citation: securelist_brata_0819),(Citation: welivesecurity_apt-c-23),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: cyble_chameleon_0423),(Citation: Forbes Cerberus),(Citation: Cybereason EventBot),(Citation: checkpoint_hamas_android_malware),(Citation: Bitdefender Mandrake),(Citation: mcafee_brata_0421),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: ThreatFabric Ginp),(Citation: CheckPoint SimBad 2019),(Citation: sophos_android_apt_spyware),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Cofense Anubis),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Sophos Red Alert 2.0),(Citation: Zscaler TikTok Spyware),(Citation: CrowdStrike-Android),(Citation: Cybereason FakeSpy),(Citation: Proofpoint-Droidjack),(Citation: SecureList - ViceLeaker 2019),(Citation: trendmicro_strongpity),(Citation: Trend Micro Anubis),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Dendroid),(Citation: Lookout FrozenCell),(Citation: MoustachedBouncer ESET August 2023),(Citation: Microsoft MalLockerB),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: fb_arid_viper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos GPlayed),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Securelist Asacub),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Cerberus),(Citation: cyble_chameleon_0423),(Citation: FortiGuard-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: mcafee_brata_0421),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-BrainTest),(Citation: PaloAlto-WireLurker),(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: FortiGuard-FlexiSpy),(Citation: TrendMicro-Obad),(Citation: welivesec_strongpity),(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Bread),(Citation: Microsoft MalLockerB),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Google Security Zen),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList DVMap June 2017),(Citation: CheckPoint-Charger),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Check Point-Joker),(Citation: welivesecurity_ahrat_0523),(Citation: Threat Fabric Cerberus),(Citation: Talos GPlayed),</t>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: FortiGuard-FlexiSpy),(Citation: CheckPoint Cerberus),(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: cyble_chameleon_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro-XLoader),(Citation: Volexity Insomnia),(Citation: welivesec_strongpity),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList DVMap June 2017),(Citation: Cybereason EventBot),(Citation: FortiGuard-FlexiSpy),(Citation: Google Bread),(Citation: trendmicro_tianyspy_0122),(Citation: cyble_drinik_1022),(Citation: Check Point-Joker),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: mcafee_brata_0421),(Citation: Talos-WolfRAT),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: ThreatFabric Ginp),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cleafy_brata_0122),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-WireLurker),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),(Citation: CheckPoint-Charger),(Citation: TrendMicro-Obad),(Citation: Lookout-BrainTest),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos GPlayed),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: Meta Adversarial Threat Report 2022),(Citation: checkpoint_hamas_android_malware),(Citation: blackberry_mobile_malware_apt_esp),(Citation: CitizenLab Great iPwn),(Citation: Leonard TAG 2023),(Citation: sophos_android_apt_spyware),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist rotexy 2018),(Citation: Palo Alto HenBox),(Citation: Talos-WolfRAT),(Citation: nccgroup_sharkbot_0322),(Citation: paloalto_yispecter_1015),(Citation: Zimperium z9),(Citation: CheckPoint Agent Smith),</t>
+    <t>(Citation: Kaspersky-WUC),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),</t>
+  </si>
+  <si>
+    <t>(Citation: sophos_android_apt_spyware),(Citation: blackberry_mobile_malware_apt_esp),(Citation: checkpoint_hamas_android_malware),(Citation: Leonard TAG 2023),(Citation: securelist_brata_0819),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: CitizenLab Great iPwn),(Citation: Meta Adversarial Threat Report 2022),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zimperium z9),(Citation: paloalto_yispecter_1015),(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),</t>
   </si>
   <si>
     <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
-    <t>(Citation: Google Triada June 2019),(Citation: Google Security Zen),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),</t>
+    <t>(Citation: Google Security Zen),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),</t>
   </si>
   <si>
     <t>(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),</t>
@@ -3012,10 +3012,10 @@
     <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
   </si>
   <si>
-    <t>(Citation: forcepoint_bitter),(Citation: ThreatFabric Ginp),(Citation: Talos-WolfRAT),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Dendroid),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: cloudmark_tanglebot_0921),(Citation: securelist rotexy 2018),(Citation: threatfabric_sova_0921),(Citation: Cofense Anubis),(Citation: bitdefender_flubot_0524),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout-StealthMango),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: welivesecurity_ahrat_0523),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: forcepoint_bitter),(Citation: ThreatFabric Ginp),(Citation: cyble_chameleon_0423),(Citation: Palo Alto HenBox),(Citation: Lookout ViperRAT),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Dendroid),(Citation: Tripwire-MazarBOT),(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: Kaspersky Triada March 2016),(Citation: Talos-WolfRAT),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: welivesec_strongpity),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: cloudmark_tanglebot_0921),(Citation: securelist rotexy 2018),(Citation: Google Project Zero Insomnia),(Citation: Zscaler-SuperMarioRun),(Citation: FireEye-RuMMS),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Bread),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: fb_arid_viper),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Lookout-StealthMango),(Citation: TrendMicro-XLoader),(Citation: Cylance Dust Storm),(Citation: PaloAlto-Xbot),(Citation: TrendMicro-RCSAndroid),(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-EnterpriseApps),(Citation: Zscaler-SpyNote),(Citation: NYTimes-BackDoor),(Citation: SecureList BusyGasper),(Citation: CyberMerchants-FlexiSpy),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason FakeSpy),(Citation: kaspersky_fakecalls_0422),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: Meta Adversarial Threat Report 2022),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),</t>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-StealthMango),(Citation: Threat Fabric Exobot),(Citation: forcepoint_bitter),(Citation: Bleeipng Computer Escobar),(Citation: cyble_drinik_1022),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: Securelist Asacub),(Citation: Zscaler TikTok Spyware),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: SecurityIntelligence TrickMo),(Citation: welivesecurity_ahrat_0523),(Citation: bitdefender_flubot_0524),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: ThreatFabric Ginp),(Citation: Talos GPlayed),(Citation: cloudmark_tanglebot_0921),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: kaspersky_fakecalls_0422),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: TrendMicro-XLoader),(Citation: Threat Fabric Exobot),(Citation: forcepoint_bitter),(Citation: Kaspersky Riltok June 2019),(Citation: Bleeipng Computer Escobar),(Citation: welivesec_strongpity),(Citation: Kaspersky Triada March 2016),(Citation: cyble_chameleon_0423),(Citation: Meta Adversarial Threat Report 2022),(Citation: Cybereason EventBot),(Citation: Google Bread),(Citation: FireEye-RuMMS),(Citation: PaloAlto-Xbot),(Citation: cyble_drinik_1022),(Citation: Lookout Desert Scorpion),(Citation: FlexiSpy-Features),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: Google Project Zero Insomnia),(Citation: securelist rotexy 2018),(Citation: Zscaler-SpyNote),(Citation: Talos-WolfRAT),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Securelist Asacub),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason FakeSpy),(Citation: SecureList - ViceLeaker 2019),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Dendroid),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-WUC),(Citation: Cylance Dust Storm),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Pegasus),(Citation: threatfabric_sova_0921),(Citation: NYTimes-BackDoor),(Citation: fb_arid_viper),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: Tripwire-MazarBOT),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: Lookout-EnterpriseApps),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
@@ -3024,73 +3024,73 @@
     <t>(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),</t>
   </si>
   <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Talos-WolfRAT),(Citation: mcafee_brata_0421),(Citation: SecurityIntelligence TrickMo),(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: cleafy_sova_1122),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: Bitdefender Mandrake),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: securelist_brata_0819),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: welivesecurity_ahrat_0523),(Citation: ESET DEFENSOR ID),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Palo Alto HenBox),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: Lookout-PegasusAndroid),(Citation: Google Triada June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: cleafy_sova_1122),(Citation: paloalto_yispecter_1015),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: welivesec_strongpity),(Citation: CheckPoint Agent Smith),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Google Project Zero Insomnia),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: Symantec GoldenCup),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: ESET DEFENSOR ID),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: Google Bread),(Citation: mcafee_brata_0421),</t>
-  </si>
-  <si>
-    <t>,(Citation: iOS Universal Links),(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking),(Citation: Android App Links)</t>
+    <t>(Citation: securelist_brata_0819),(Citation: Cybereason EventBot),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: ESET DEFENSOR ID),(Citation: Bitdefender Mandrake),(Citation: cleafy_sova_1122),(Citation: mcafee_brata_0421),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: SecurityIntelligence TrickMo),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: cloudmark_tanglebot_0921),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: Lookout-StealthMango),(Citation: Kaspersky Riltok June 2019),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: Cybereason EventBot),(Citation: Lookout Desert Scorpion),(Citation: ESET DEFENSOR ID),(Citation: FlexiSpy-Features),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: cleafy_sova_1122),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos GPlayed),(Citation: cloudmark_tanglebot_0921),(Citation: Google Triada June 2019),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),</t>
+  </si>
+  <si>
+    <t>,(Citation: IETF-PKCE),(Citation: Android App Links),(Citation: iOS Universal Links),(Citation: Trend Micro iOS URL Hijacking)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: FortiGuard-FlexiSpy),(Citation: cleafy_sova_1122),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: Zimperium FlyTrap),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: Trend Micro FlyTrap),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: lookout_hornbill_sunbird_0221),(Citation: checkpoint_flixonline_0421),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Lookout-StealthMango),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason FakeSpy),(Citation: Meta Adversarial Threat Report 2022),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: cyble_drinik_1022),(Citation: FortiGuard-FlexiSpy),(Citation: paloalto_yispecter_1015),(Citation: FlexiSpy-Features),(Citation: CheckPoint Agent Smith),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: CheckPoint SimBad 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Group IB Gustuff Mar 2019),(Citation: threatfabric_sova_0921),(Citation: checkpoint_flixonline_0421),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: ESET-Twitoor),(Citation: SecureList BusyGasper),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: welivesec_strongpity),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: Palo Alto HenBox),(Citation: cyble_chameleon_0423),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: mcafee_brata_0421),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Dendroid),(Citation: Talos-WolfRAT),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: Trend Micro Anubis),(Citation: WhiteOps TERRACOTTA),(Citation: BlackBerry Bahamut),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Cerberus),(Citation: Palo Alto HenBox),(Citation: cyble_chameleon_0423),(Citation: Lookout ViperRAT),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-Anserver2),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason EventBot),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: welivesec_strongpity),(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Google Project Zero Insomnia),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: FireEye-RuMMS),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: fb_arid_viper),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: securelist_brata_0819),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: Talos Gustuff Apr 2019),(Citation: SecureList DVMap June 2017),(Citation: Xiao-KeyRaider),(Citation: Symantec GoldenCup),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: welivesecurity_ahrat_0523),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: forcepoint_bitter),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro-Anserver2),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: paloalto_yispecter_1015),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: Trend Micro FlyTrap),(Citation: checkpoint_hamas_android_malware),(Citation: Google Project Zero Insomnia),(Citation: FireEye-RuMMS),(Citation: Google Bread),(Citation: PaloAlto-DualToy),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),(Citation: Lookout-StealthMango),(Citation: Securelist Asacub),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-EnterpriseApps),(Citation: WhiteOps TERRACOTTA),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: trendmicro_strongpity),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Pegasus),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: forcepoint_bitter),(Citation: Palo Alto HenBox),(Citation: Lookout ViperRAT),(Citation: Talos-WolfRAT),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Dendroid),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Monokle),(Citation: Zscaler-SuperMarioRun),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: fb_arid_viper),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout-StealthMango),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: SecureList BusyGasper),(Citation: CyberMerchants-FlexiSpy),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: kaspersky_fakecalls_0422),(Citation: Meta Adversarial Threat Report 2022),(Citation: Bleeipng Computer Escobar),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: Lookout-StealthMango),(Citation: Bleeipng Computer Escobar),(Citation: Meta Adversarial Threat Report 2022),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: cleafy_sova_1122),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: PaloAlto-SpyDealer),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: Zimperium FlyTrap),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: checkpoint_flixonline_0421),(Citation: Lookout-Pegasus),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Trend Micro FlyTrap),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),</t>
+  </si>
+  <si>
+    <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: FortiGuard-FlexiSpy),(Citation: cyble_drinik_1022),(Citation: Lookout Desert Scorpion),(Citation: FlexiSpy-Features),(Citation: Bitdefender Mandrake),(Citation: Bitdefender - Triout 2018),(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint SimBad 2019),(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Group IB Gustuff Mar 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ESET-Twitoor),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: welivesec_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: BlackBerry Bahamut),(Citation: securelist rotexy 2018),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: SecurityIntelligence TrickMo),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Trend Micro Anubis),(Citation: mcafee_brata_0421),(Citation: Talos-WolfRAT),(Citation: cyble_chameleon_0423),(Citation: ThreatFabric Ginp),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Exobot),(Citation: securelist_brata_0819),(Citation: Kaspersky Riltok June 2019),(Citation: welivesec_strongpity),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList DVMap June 2017),(Citation: cyble_chameleon_0423),(Citation: Cybereason EventBot),(Citation: FireEye-RuMMS),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: securelist rotexy 2018),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Wandera-RedDrop),(Citation: Securelist Asacub),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-Anserver2),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: Lookout FrozenCell),(Citation: Lookout eSurv),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-WUC),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: threatfabric_sova_0921),(Citation: fb_arid_viper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos GPlayed),(Citation: Xiao-KeyRaider),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Exobot),(Citation: forcepoint_bitter),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),(Citation: checkpoint_hamas_android_malware),(Citation: Google Bread),(Citation: FireEye-RuMMS),(Citation: trendmicro_tianyspy_0122),(Citation: Google Project Zero Insomnia),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Wandera-RedDrop),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-Anserver2),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: Trend Micro FlyTrap),(Citation: Talos GPlayed),(Citation: Lookout-EnterpriseApps),(Citation: PaloAlto-DualToy),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: FlexiSpy-Features),(Citation: Lookout ViperRAT),(Citation: trendmicro_strongpity),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),(Citation: mcafee_brata_0421),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: SecureList BusyGasper),(Citation: lookout_hornbill_sunbird_0221),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: forcepoint_bitter),(Citation: Bleeipng Computer Escobar),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout Desert Scorpion),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: Lookout-Dendroid),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: cloudmark_tanglebot_0921),(Citation: Kaspersky-Skygofree),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Cerberus),(Citation: cyble_chameleon_0423),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason EventBot),(Citation: paloalto_yispecter_1015),(Citation: SWB Exodus March 2019),(Citation: Zimperium FlyTrap),(Citation: Kaspersky-Skygofree),(Citation: welivesec_strongpity),(Citation: Wandera-RedDrop),(Citation: Volexity Insomnia),(Citation: lookout_abstractemu_1021),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: FireEye-RuMMS),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Bread),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: Kaspersky-MobileMalware),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-WUC),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Securelist Asacub),(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: Symantec GoldenCup),(Citation: Cybereason FakeSpy),(Citation: proofpoint_flubot_0421),(Citation: welivesecurity_ahrat_0523),(Citation: ESET DEFENSOR ID),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: SecurityIntelligence TrickMo),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_bouldspy_0423),(Citation: TelephonyManager)</t>
+    <t>(Citation: CheckPoint Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Volexity Insomnia),(Citation: Threat Fabric Exobot),(Citation: Kaspersky Riltok June 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: welivesec_strongpity),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: cyble_chameleon_0423),(Citation: Kaspersky-MobileMalware),(Citation: Cybereason EventBot),(Citation: Google Bread),(Citation: FireEye-RuMMS),(Citation: ESET DEFENSOR ID),(Citation: Bitdefender - Triout 2018),(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Wandera-RedDrop),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: cleafy_brata_0122),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: Zimperium FlyTrap),(Citation: SecureList - ViceLeaker 2019),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-WUC),(Citation: welivesecurity_ahrat_0523),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: Kaspersky-Skygofree),</t>
+  </si>
+  <si>
+    <t>(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Google Project Zero Insomnia),(Citation: lookout_bouldspy_0423),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecurityIntelligence TrickMo),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
@@ -2796,13 +2796,13 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: threatfabric_sova_0921),(Citation: Check Point-Joker),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Bleeipng Computer Escobar),(Citation: checkpoint_flixonline_0421),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: welivesec_strongpity),(Citation: Bleeipng Computer Escobar),(Citation: proofpoint_flubot_0421),(Citation: checkpoint_flixonline_0421),(Citation: Check Point-Joker),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_hornbill_sunbird_0221),(Citation: threatfabric_sova_0921),(Citation: lookout_abstractemu_1021),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Skycure-Profiles),(Citation: threatfabric_sova_0921),(Citation: Xiao-KeyRaider),</t>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),</t>
   </si>
   <si>
     <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
@@ -2811,58 +2811,58 @@
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: Cofense Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cleafy_brata_0122),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro-XLoader),(Citation: forcepoint_bitter),(Citation: Bleeipng Computer Escobar),(Citation: welivesec_strongpity),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender - Triout 2018),(Citation: Zscaler-SpyNote),(Citation: Talos-WolfRAT),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: Lookout-Dendroid),(Citation: Lookout FrozenCell),(Citation: Lookout eSurv),(Citation: cloudmark_tanglebot_0921),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-Skygofree),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: HackerNews-OldBoot),(Citation: welivesecurity_ahrat_0523),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Exobot),(Citation: welivesec_strongpity),(Citation: Cybereason EventBot),(Citation: FortiGuard-FlexiSpy),(Citation: ESET DEFENSOR ID),(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint SimBad 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason FakeSpy),(Citation: checkpoint_flixonline_0421),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-PegasusAndroid),(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos GPlayed),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: Cofense Anubis),(Citation: kaspersky_fakecalls_0422),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: forcepoint_bitter),(Citation: Bleeipng Computer Escobar),(Citation: mcafee_brata_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: forcepoint_bitter),(Citation: Bleeipng Computer Escobar),(Citation: welivesec_strongpity),(Citation: cyble_drinik_1022),(Citation: Google Project Zero Insomnia),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-WUC),(Citation: cloudmark_tanglebot_0921),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: NYTimes-BackDoor),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-EnterpriseApps),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: BlackBerry Bahamut),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: paloalto_yispecter_1015),(Citation: SecureList DVMap June 2017),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+    <t>(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: cleafy_brata_0122),(Citation: Cofense Anubis),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: Google Triada June 2019),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: fb_arid_viper),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout ViperRAT),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: Zscaler-SpyNote),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: Wandera-RedDrop),(Citation: SecureList BusyGasper),(Citation: Lookout-Pegasus),(Citation: TrendMicro-XLoader),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender - Triout 2018),(Citation: forcepoint_bitter),(Citation: welivesec_strongpity),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Desert Scorpion),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Meta Adversarial Threat Report 2022),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: HackerNews-OldBoot),</t>
+  </si>
+  <si>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: ESET DEFENSOR ID),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Exobot),(Citation: FortiGuard-FlexiSpy),(Citation: Zscaler-SpyNote),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Microsoft MalLockerB),(Citation: welivesec_strongpity),(Citation: checkpoint_flixonline_0421),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: CheckPoint SimBad 2019),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: mcafee_brata_0421),(Citation: Lookout-Monokle),(Citation: cloudmark_tanglebot_0921),(Citation: cyble_drinik_1022),(Citation: forcepoint_bitter),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout ViperRAT),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-WUC),(Citation: cyble_drinik_1022),(Citation: forcepoint_bitter),(Citation: welivesec_strongpity),(Citation: NYTimes-BackDoor),(Citation: Zscaler-SuperMarioRun),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-RCSAndroid),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-XcodeGhost),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: Lookout Desert Scorpion),(Citation: SecureList DVMap June 2017),(Citation: BlackBerry Bahamut),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Bitdefender Mandrake),(Citation: trendmicro_tianyspy_0122),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Adware),(Citation: Lookout-BrainTest),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: SecureList BusyGasper),</t>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: lookout_bouldspy_0423),(Citation: CheckPoint Agent Smith),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Monokle),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
   </si>
   <si>
-    <t>(Citation: BankInfoSecurity-BackDoor),(Citation: HackerNews-Allwinner),(Citation: Lookout-StealthMango),(Citation: NYTimes-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Triada June 2019),</t>
+    <t>(Citation: NYTimes-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: HackerNews-Allwinner),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: kaspersky_fakecalls_0422),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: Threat Fabric Exobot),(Citation: forcepoint_bitter),(Citation: Kaspersky Riltok June 2019),(Citation: welivesec_strongpity),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: Google Project Zero Insomnia),(Citation: securelist rotexy 2018),(Citation: Zscaler-SpyNote),(Citation: Talos-WolfRAT),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: Lookout eSurv),(Citation: Kaspersky-WUC),(Citation: CheckPoint-Charger),(Citation: cloudmark_tanglebot_0921),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: NYTimes-BackDoor),(Citation: fb_arid_viper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: ThreatFabric Ginp),(Citation: Talos GPlayed),(Citation: Lookout-EnterpriseApps),</t>
+    <t>(Citation: CheckPoint-Charger),(Citation: ThreatFabric Ginp),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: fb_arid_viper),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: proofpoint_flubot_0421),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler-SpyNote),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: Cybereason FakeSpy),(Citation: Lookout-Pegasus),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: BlackBerry Bahamut),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Cerberus),(Citation: forcepoint_bitter),(Citation: welivesec_strongpity),(Citation: NYTimes-BackDoor),(Citation: Lookout Desert Scorpion),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Meta Adversarial Threat Report 2022),(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
@@ -2871,40 +2871,40 @@
     <t>(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),</t>
   </si>
   <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: cyble_chameleon_0423),(Citation: cyble_drinik_1022),(Citation: Lookout Desert Scorpion),(Citation: FlexiSpy-Features),(Citation: Bitdefender - Triout 2018),(Citation: Google Project Zero Insomnia),(Citation: Zscaler-SpyNote),(Citation: Talos-WolfRAT),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-RCSAndroid),(Citation: Gooligan Citation),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Anubis),(Citation: SWB Exodus March 2019),(Citation: Lookout-Dendroid),(Citation: lookout_bouldspy_0423),(Citation: Lookout FrozenCell),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: SecurityIntelligence TrickMo),(Citation: Cylance Dust Storm),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: Talos GPlayed),(Citation: cloudmark_tanglebot_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader),(Citation: Proofpoint-Marcher),(Citation: Threat Fabric Exobot),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: Threat Fabric Cerberus),(Citation: cleafy_brata_0122),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: proofpoint_flubot_0421),(Citation: SecureList DVMap June 2017),(Citation: mcafee_brata_0421),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList DVMap June 2017),(Citation: cyble_chameleon_0423),(Citation: Cybereason EventBot),(Citation: Google Bread),(Citation: Google Triada June 2019),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: CheckPoint-Judy),(Citation: Google Security Zen),(Citation: mcafee_brata_0421),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: PaloAlto-SpyDealer),(Citation: cleafy_brata_0122),(Citation: paloalto_yispecter_1015),(Citation: Trend Micro Anubis),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: Lookout-BrainTest),(Citation: Xiao-ZergHelper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: Kaspersky-Skygofree),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: paloalto_yispecter_1015),(Citation: Volexity Insomnia),(Citation: trendmicro_strongpity),</t>
+    <t>(Citation: FlexiSpy-Features),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-StealthMango),(Citation: Cylance Dust Storm),(Citation: fb_arid_viper),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout ViperRAT),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Dendroid),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler-SpyNote),(Citation: SWB Exodus March 2019),(Citation: Gooligan Citation),(Citation: cyble_chameleon_0423),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: Talos Gustuff Apr 2019),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: cyble_drinik_1022),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: Trend Micro Anubis),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-XLoader),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_abstractemu_1021),(Citation: Proofpoint-Marcher),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: SecureList DVMap June 2017),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: cyble_chameleon_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: CheckPoint-Judy),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason EventBot),(Citation: mcafee_brata_0421),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Palo Alto HenBox),(Citation: Lookout ViperRAT),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: Lookout-BrainTest),(Citation: Google Security Zen),(Citation: cyble_chameleon_0423),(Citation: paloalto_yispecter_1015),(Citation: cleafy_brata_0122),(Citation: SecureList BusyGasper),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: Google Triada June 2019),(Citation: Threat Fabric Cerberus),(Citation: Lookout Desert Scorpion),(Citation: Xiao-ZergHelper),(Citation: Talos GPlayed),(Citation: Trend Micro Anubis),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Google Bread),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: trendmicro_strongpity),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),(Citation: welivesecurity_ahrat_0523),</t>
   </si>
   <si>
-    <t>(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),</t>
+    <t>(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-Xbot),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: kaspersky_fakecalls_0422),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: cyble_drinik_1022),(Citation: Bitdefender - Triout 2018),(Citation: proofpoint_flubot_0421),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_abstractemu_1021),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cleafy_brata_0122),(Citation: Zimperium FlyTrap),(Citation: SecureList - ViceLeaker 2019),(Citation: trendmicro_strongpity),(Citation: lookout_bouldspy_0423),(Citation: Lookout eSurv),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cylance Dust Storm),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Triada June 2019),</t>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cylance Dust Storm),(Citation: Trend Micro Bouncing Golf 2019),(Citation: proofpoint_flubot_0421),(Citation: kaspersky_fakecalls_0422),(Citation: trendmicro_strongpity),(Citation: lookout_bouldspy_0423),(Citation: Zimperium FlyTrap),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: Google Triada June 2019),(Citation: cyble_drinik_1022),(Citation: Bitdefender - Triout 2018),(Citation: welivesec_strongpity),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList - ViceLeaker 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),</t>
   </si>
   <si>
     <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
@@ -2913,28 +2913,28 @@
     <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
   </si>
   <si>
-    <t>(Citation: Gooligan Citation),(Citation: Lookout-Adware),(Citation: lookout_abstractemu_1021),(Citation: Lookout-BrainTest),(Citation: CheckPoint Agent Smith),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),(Citation: fb_arid_viper),(Citation: Lookout Uyghur Campaign),(Citation: Volexity Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: Google Security Zen),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: SecureList DVMap June 2017),(Citation: ArsTechnica-HummingBad),(Citation: Kaspersky-Skygofree),</t>
+    <t>(Citation: Kaspersky-Skygofree),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Lookout-Pegasus),(Citation: Gooligan Citation),(Citation: CheckPoint Agent Smith),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-SpyDealer),(Citation: fb_arid_viper),(Citation: SWB Exodus March 2019),(Citation: Lookout-BrainTest),(Citation: Volexity Insomnia),</t>
   </si>
   <si>
     <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
   </si>
   <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: kaspersky_fakecalls_0422),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Monokle),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: BlackBerry Bahamut),(Citation: Cylance Dust Storm),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Bleeipng Computer Escobar),(Citation: Lookout FrozenCell),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: Threat Fabric Exobot),(Citation: Kaspersky Riltok June 2019),(Citation: Bleeipng Computer Escobar),(Citation: cyble_chameleon_0423),(Citation: PaloAlto-XcodeGhost),(Citation: Cybereason EventBot),(Citation: PaloAlto-Xbot),(Citation: trendmicro_tianyspy_0122),(Citation: cyble_drinik_1022),(Citation: Proofpoint-Marcher),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: Talos Gustuff Apr 2019),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: Lookout-Dendroid),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: Trend Micro FlyTrap),(Citation: nccgroup_sharkbot_0322),(Citation: Group IB Gustuff Mar 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: cloudmark_tanglebot_0921),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: Gooligan Citation),(Citation: CheckPoint SimBad 2019),(Citation: Lookout-BrainTest),(Citation: Google Bread),(Citation: CheckPoint Agent Smith),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Triada June 2016),(Citation: CheckPoint-Judy),(Citation: Google Security Zen),(Citation: ArsTechnica-HummingWhale),(Citation: Tripwire-MazarBOT),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-EnterpriseApps),(Citation: checkpoint_flixonline_0421),(Citation: Wandera-RedDrop),(Citation: ArsTechnica-HummingBad),(Citation: Google Triada June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: kaspersky_fakecalls_0422),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Agent Smith),(Citation: Talos GPlayed),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Bitdefender Mandrake),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: welivesec_strongpity),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Bleeipng Computer Escobar),(Citation: welivesecurity_ahrat_0523),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Uyghur Campaign),(Citation: Cylance Dust Storm),(Citation: Symantec GoldenCup),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-Xbot),(Citation: ThreatFabric Ginp),(Citation: threatfabric_sova_0921),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason EventBot),(Citation: cloudmark_tanglebot_0921),(Citation: Zscaler TikTok Spyware),(Citation: Bleeipng Computer Escobar),(Citation: proofpoint_flubot_0421),(Citation: PaloAlto-XcodeGhost),(Citation: Threat Fabric Exobot),(Citation: Lookout-Dendroid),(Citation: Proofpoint-Marcher),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_chameleon_0423),(Citation: cleafy_brata_0122),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Trend Micro FlyTrap),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: Group IB Gustuff Mar 2019),(Citation: checkpoint_flixonline_0421),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: trendmicro_tianyspy_0122),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: Lookout-EnterpriseApps),(Citation: CheckPoint-Judy),(Citation: checkpoint_flixonline_0421),(Citation: Tripwire-MazarBOT),(Citation: Gooligan Citation),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Agent Smith),(Citation: ArsTechnica-HummingBad),(Citation: ArsTechnica-HummingWhale),(Citation: CheckPoint SimBad 2019),(Citation: Google Triada June 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Triada June 2016),(Citation: Lookout-BrainTest),(Citation: Google Bread),(Citation: Wandera-RedDrop),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: mcafee_brata_0421),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2946,151 +2946,151 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: nccgroup_sharkbot_0322),(Citation: welivesec_strongpity),(Citation: Wandera-RedDrop),(Citation: cyble_chameleon_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: fb_arid_viper),(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Kaspersky Riltok June 2019),(Citation: CheckPoint Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: ESET DEFENSOR ID),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: cleafy_sova_1122),(Citation: nccgroup_sharkbot_0322),(Citation: securelist_brata_0819),(Citation: ThreatFabric Ginp),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: trendmicro_tianyspy_0122),(Citation: Google Project Zero Insomnia),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Cybereason FakeSpy),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: Trend Micro FlyTrap),</t>
+    <t>(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_abstractemu_1021),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: fb_arid_viper),(Citation: Lookout-Monokle),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Cerberus),(Citation: ESET DEFENSOR ID),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),(Citation: cleafy_sova_1122),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: Google Security Zen),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: Wandera-RedDrop),(Citation: Cybereason FakeSpy),(Citation: Trend Micro FlyTrap),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: trendmicro_tianyspy_0122),(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: Cybereason EventBot),(Citation: Cofense Anubis),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Monokle),(Citation: cleafy_brata_0122),(Citation: cyble_drinik_1022),(Citation: threatfabric_sova_0921),(Citation: FlexiSpy-Features),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Exobot),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: cyble_chameleon_0423),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: kaspersky_fakecalls_0422),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: Bleeipng Computer Escobar),(Citation: welivesec_strongpity),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: cyble_chameleon_0423),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: Bitdefender - Triout 2018),(Citation: Google Project Zero Insomnia),(Citation: Zscaler-SpyNote),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: CrowdStrike-Android),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: cleafy_brata_0122),(Citation: SecureList - ViceLeaker 2019),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Lookout eSurv),(Citation: Kaspersky-WUC),(Citation: CheckPoint-Charger),(Citation: cloudmark_tanglebot_0921),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: NYTimes-BackDoor),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: Trend Micro FlyTrap),(Citation: SecureList BusyGasper),(Citation: Palo Alto HenBox),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: Lookout-EnterpriseApps),(Citation: Kaspersky-Skygofree),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: kaspersky_fakecalls_0422),(Citation: Threat Fabric Exobot),(Citation: forcepoint_bitter),(Citation: securelist_brata_0819),(Citation: welivesecurity_apt-c-23),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: cyble_chameleon_0423),(Citation: Forbes Cerberus),(Citation: Cybereason EventBot),(Citation: checkpoint_hamas_android_malware),(Citation: Bitdefender Mandrake),(Citation: mcafee_brata_0421),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: ThreatFabric Ginp),(Citation: CheckPoint SimBad 2019),(Citation: sophos_android_apt_spyware),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Cofense Anubis),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Sophos Red Alert 2.0),(Citation: Zscaler TikTok Spyware),(Citation: CrowdStrike-Android),(Citation: Cybereason FakeSpy),(Citation: Proofpoint-Droidjack),(Citation: SecureList - ViceLeaker 2019),(Citation: trendmicro_strongpity),(Citation: Trend Micro Anubis),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Dendroid),(Citation: Lookout FrozenCell),(Citation: MoustachedBouncer ESET August 2023),(Citation: Microsoft MalLockerB),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: fb_arid_viper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos GPlayed),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Securelist Asacub),</t>
+    <t>(Citation: cleafy_brata_0122),(Citation: SecureList BusyGasper),(Citation: cyble_chameleon_0423),(Citation: Bleeipng Computer Escobar),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: Talos Gustuff Apr 2019),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: securelist_brata_0819),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint-Charger),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: Bleeipng Computer Escobar),(Citation: CrowdStrike-Android),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout ViperRAT),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler-SpyNote),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: cyble_chameleon_0423),(Citation: cleafy_brata_0122),(Citation: SecureList BusyGasper),(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: Trend Micro FlyTrap),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender - Triout 2018),(Citation: welivesec_strongpity),(Citation: NYTimes-BackDoor),(Citation: Lookout Desert Scorpion),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Meta Adversarial Threat Report 2022),(Citation: Google Project Zero Insomnia),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: ThreatFabric Ginp),(Citation: lookout_hornbill_sunbird_0221),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: mcafee_brata_0421),(Citation: Cybereason EventBot),(Citation: fb_arid_viper),(Citation: Talos-WolfRAT),(Citation: welivesecurity_apt-c-23),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: sophos_android_apt_spyware),(Citation: Forbes Cerberus),(Citation: Palo Alto HenBox),(Citation: CrowdStrike-Android),(Citation: kaspersky_fakecalls_0422),(Citation: trendmicro_strongpity),(Citation: Lookout ViperRAT),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Bitdefender Mandrake),(Citation: securelist_brata_0819),(Citation: cyble_chameleon_0423),(Citation: Cybereason FakeSpy),(Citation: MoustachedBouncer ESET August 2023),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: forcepoint_bitter),(Citation: Microsoft MalLockerB),(Citation: checkpoint_hamas_android_malware),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Cofense Anubis),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: Trend Micro Anubis),(Citation: CheckPoint SimBad 2019),(Citation: Proofpoint-Droidjack),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),(Citation: Google Bread),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: FortiGuard-FlexiSpy),(Citation: CheckPoint Cerberus),(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: cyble_chameleon_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro-XLoader),(Citation: Volexity Insomnia),(Citation: welivesec_strongpity),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList DVMap June 2017),(Citation: Cybereason EventBot),(Citation: FortiGuard-FlexiSpy),(Citation: Google Bread),(Citation: trendmicro_tianyspy_0122),(Citation: cyble_drinik_1022),(Citation: Check Point-Joker),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: mcafee_brata_0421),(Citation: Talos-WolfRAT),(Citation: Talos Gustuff Apr 2019),(Citation: Securelist Asacub),(Citation: ThreatFabric Ginp),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cleafy_brata_0122),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-WireLurker),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),(Citation: CheckPoint-Charger),(Citation: TrendMicro-Obad),(Citation: Lookout-BrainTest),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos GPlayed),</t>
+    <t>(Citation: CheckPoint Cerberus),(Citation: FortiGuard-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: cyble_chameleon_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: CheckPoint-Charger),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: mcafee_brata_0421),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: PaloAlto-WireLurker),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: proofpoint_flubot_0421),(Citation: Check Point-Joker),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-BrainTest),(Citation: Volexity Insomnia),(Citation: Google Security Zen),(Citation: cleafy_brata_0122),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader),(Citation: Talos Gustuff Apr 2019),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-Obad),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: Microsoft MalLockerB),(Citation: welivesec_strongpity),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: trendmicro_tianyspy_0122),(Citation: Google Bread),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Kaspersky-WUC),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),</t>
-  </si>
-  <si>
-    <t>(Citation: sophos_android_apt_spyware),(Citation: blackberry_mobile_malware_apt_esp),(Citation: checkpoint_hamas_android_malware),(Citation: Leonard TAG 2023),(Citation: securelist_brata_0819),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: CitizenLab Great iPwn),(Citation: Meta Adversarial Threat Report 2022),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zimperium z9),(Citation: paloalto_yispecter_1015),(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),</t>
+    <t>(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: Lookout-Pegasus),(Citation: securelist rotexy 2018),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky-WUC),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: blackberry_mobile_malware_apt_esp),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: Leonard TAG 2023),(Citation: CitizenLab Great iPwn),(Citation: Meta Adversarial Threat Report 2022),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: TrendMicro-Obad),(Citation: cyble_chameleon_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: Zimperium z9),(Citation: CheckPoint Agent Smith),(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),</t>
   </si>
   <si>
     <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
-    <t>(Citation: Google Security Zen),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),</t>
+    <t>(Citation: Google Security Zen),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Google Project Zero Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_brata_0122),(Citation: Bleeipng Computer Escobar),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
   </si>
   <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-StealthMango),(Citation: Threat Fabric Exobot),(Citation: forcepoint_bitter),(Citation: Bleeipng Computer Escobar),(Citation: cyble_drinik_1022),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: Securelist Asacub),(Citation: Zscaler TikTok Spyware),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: SecurityIntelligence TrickMo),(Citation: welivesecurity_ahrat_0523),(Citation: bitdefender_flubot_0524),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: ThreatFabric Ginp),(Citation: Talos GPlayed),(Citation: cloudmark_tanglebot_0921),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: kaspersky_fakecalls_0422),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: TrendMicro-XLoader),(Citation: Threat Fabric Exobot),(Citation: forcepoint_bitter),(Citation: Kaspersky Riltok June 2019),(Citation: Bleeipng Computer Escobar),(Citation: welivesec_strongpity),(Citation: Kaspersky Triada March 2016),(Citation: cyble_chameleon_0423),(Citation: Meta Adversarial Threat Report 2022),(Citation: Cybereason EventBot),(Citation: Google Bread),(Citation: FireEye-RuMMS),(Citation: PaloAlto-Xbot),(Citation: cyble_drinik_1022),(Citation: Lookout Desert Scorpion),(Citation: FlexiSpy-Features),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: Google Project Zero Insomnia),(Citation: securelist rotexy 2018),(Citation: Zscaler-SpyNote),(Citation: Talos-WolfRAT),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Securelist Asacub),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: Cybereason FakeSpy),(Citation: SecureList - ViceLeaker 2019),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Dendroid),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-WUC),(Citation: Cylance Dust Storm),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Pegasus),(Citation: threatfabric_sova_0921),(Citation: NYTimes-BackDoor),(Citation: fb_arid_viper),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: Tripwire-MazarBOT),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: Lookout-EnterpriseApps),</t>
+    <t>(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: threatfabric_sova_0921),(Citation: Lookout-StealthMango),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Bleeipng Computer Escobar),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),(Citation: Lookout-Dendroid),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: bitdefender_flubot_0524),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: forcepoint_bitter),(Citation: Lookout Desert Scorpion),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: FlexiSpy-Features),(Citation: PaloAlto-Xbot),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: threatfabric_sova_0921),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: Cybereason EventBot),(Citation: Cylance Dust Storm),(Citation: fb_arid_viper),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Kaspersky Triada March 2016),(Citation: Bleeipng Computer Escobar),(Citation: proofpoint_flubot_0421),(Citation: kaspersky_fakecalls_0422),(Citation: Tripwire-MazarBOT),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: Zscaler-SpyNote),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: cyble_chameleon_0423),(Citation: SecureList BusyGasper),(Citation: Cybereason FakeSpy),(Citation: Lookout-Pegasus),(Citation: FireEye-RuMMS),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-XLoader),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: forcepoint_bitter),(Citation: welivesec_strongpity),(Citation: NYTimes-BackDoor),(Citation: Lookout Desert Scorpion),(Citation: Zscaler-SuperMarioRun),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: Symantec GoldenCup),(Citation: Meta Adversarial Threat Report 2022),(Citation: Google Project Zero Insomnia),(Citation: Google Bread),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
   </si>
   <si>
-    <t>(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: Cybereason EventBot),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: ESET DEFENSOR ID),(Citation: Bitdefender Mandrake),(Citation: cleafy_sova_1122),(Citation: mcafee_brata_0421),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: SecurityIntelligence TrickMo),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: cloudmark_tanglebot_0921),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: Lookout-StealthMango),(Citation: Kaspersky Riltok June 2019),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: Cybereason EventBot),(Citation: Lookout Desert Scorpion),(Citation: ESET DEFENSOR ID),(Citation: FlexiSpy-Features),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: cleafy_sova_1122),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos GPlayed),(Citation: cloudmark_tanglebot_0921),(Citation: Google Triada June 2019),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),</t>
-  </si>
-  <si>
-    <t>,(Citation: IETF-PKCE),(Citation: Android App Links),(Citation: iOS Universal Links),(Citation: Trend Micro iOS URL Hijacking)</t>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: FlexiSpy-Features),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cybereason EventBot),(Citation: mcafee_brata_0421),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: ESET DEFENSOR ID),(Citation: cleafy_sova_1122),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: cyble_drinik_1022),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: FlexiSpy-Features),(Citation: CheckPoint Agent Smith),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason EventBot),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: ESET DEFENSOR ID),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: cleafy_sova_1122),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: cyble_chameleon_0423),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: Google Triada June 2019),(Citation: Threat Fabric Cerberus),(Citation: welivesec_strongpity),(Citation: Lookout Desert Scorpion),(Citation: Cofense Anubis),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),(Citation: mcafee_brata_0421),</t>
+  </si>
+  <si>
+    <t>,(Citation: IETF-PKCE),(Citation: iOS Universal Links),(Citation: Android App Links),(Citation: Trend Micro iOS URL Hijacking)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: Bleeipng Computer Escobar),(Citation: Meta Adversarial Threat Report 2022),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: cleafy_sova_1122),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: PaloAlto-SpyDealer),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: Zimperium FlyTrap),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: checkpoint_flixonline_0421),(Citation: Lookout-Pegasus),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Trend Micro FlyTrap),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),</t>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: threatfabric_sova_0921),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-StealthMango),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Bleeipng Computer Escobar),(Citation: FortiGuard-FlexiSpy),(Citation: cleafy_sova_1122),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Zimperium FlyTrap),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: paloalto_yispecter_1015),(Citation: SecureList BusyGasper),(Citation: Cybereason FakeSpy),(Citation: Lookout-Pegasus),(Citation: Trend Micro FlyTrap),(Citation: Lookout FrozenCell),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: checkpoint_flixonline_0421),(Citation: Meta Adversarial Threat Report 2022),</t>
   </si>
   <si>
     <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: FortiGuard-FlexiSpy),(Citation: cyble_drinik_1022),(Citation: Lookout Desert Scorpion),(Citation: FlexiSpy-Features),(Citation: Bitdefender Mandrake),(Citation: Bitdefender - Triout 2018),(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint SimBad 2019),(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: Group IB Gustuff Mar 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ESET-Twitoor),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: welivesec_strongpity),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_abstractemu_1021),(Citation: BlackBerry Bahamut),(Citation: securelist rotexy 2018),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: Cybereason FakeSpy),(Citation: Bitdefender Mandrake),(Citation: Palo Alto HenBox),(Citation: Lookout-Dendroid),(Citation: SecurityIntelligence TrickMo),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Trend Micro Anubis),(Citation: mcafee_brata_0421),(Citation: Talos-WolfRAT),(Citation: cyble_chameleon_0423),(Citation: ThreatFabric Ginp),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Exobot),(Citation: securelist_brata_0819),(Citation: Kaspersky Riltok June 2019),(Citation: welivesec_strongpity),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList DVMap June 2017),(Citation: cyble_chameleon_0423),(Citation: Cybereason EventBot),(Citation: FireEye-RuMMS),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: Google Project Zero Insomnia),(Citation: securelist rotexy 2018),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Wandera-RedDrop),(Citation: Securelist Asacub),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: Trend Micro Bouncing Golf 2019),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-Anserver2),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: Lookout FrozenCell),(Citation: Lookout eSurv),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-WUC),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: threatfabric_sova_0921),(Citation: fb_arid_viper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Talos GPlayed),(Citation: Xiao-KeyRaider),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Exobot),(Citation: forcepoint_bitter),(Citation: Kaspersky Riltok June 2019),(Citation: Cybereason EventBot),(Citation: checkpoint_hamas_android_malware),(Citation: Google Bread),(Citation: FireEye-RuMMS),(Citation: trendmicro_tianyspy_0122),(Citation: Google Project Zero Insomnia),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Wandera-RedDrop),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-SpyDealer),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-Anserver2),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Lookout ViperRAT),(Citation: Trend Micro FlyTrap),(Citation: Talos GPlayed),(Citation: Lookout-EnterpriseApps),(Citation: PaloAlto-DualToy),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: FlexiSpy-Features),(Citation: Lookout ViperRAT),(Citation: trendmicro_strongpity),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),(Citation: mcafee_brata_0421),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: SecureList BusyGasper),(Citation: lookout_hornbill_sunbird_0221),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: forcepoint_bitter),(Citation: Bleeipng Computer Escobar),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout Desert Scorpion),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler TikTok Spyware),(Citation: lookout_abstractemu_1021),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: SecureList - ViceLeaker 2019),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: Lookout-Dendroid),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: Lookout Dark Caracal Jan 2018),(Citation: cloudmark_tanglebot_0921),(Citation: Kaspersky-Skygofree),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: FlexiSpy-Features),(Citation: CheckPoint Agent Smith),(Citation: ThreatFabric Ginp),(Citation: threatfabric_sova_0921),(Citation: Zscaler TikTok Spyware),(Citation: ESET-Twitoor),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: paloalto_yispecter_1015),(Citation: SecureList BusyGasper),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: Group IB Gustuff Mar 2019),(Citation: checkpoint_flixonline_0421),(Citation: CheckPoint SimBad 2019),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
+  </si>
+  <si>
+    <t>(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: BlackBerry Bahamut),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Trend Micro Anubis),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-Dendroid),(Citation: lookout_abstractemu_1021),(Citation: SecurityIntelligence TrickMo),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: threatfabric_sova_0921),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Securelist Asacub),(Citation: Cybereason EventBot),(Citation: fb_arid_viper),(Citation: Lookout-Monokle),(Citation: CheckPoint Cerberus),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout ViperRAT),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Anserver2),(Citation: cyble_chameleon_0423),(Citation: securelist_brata_0819),(Citation: Wandera-RedDrop),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: Lookout-Pegasus),(Citation: FireEye-RuMMS),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Xiao-KeyRaider),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Cerberus),(Citation: welivesec_strongpity),(Citation: Lookout Desert Scorpion),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-StealthMango),(Citation: Securelist Asacub),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-Anserver2),(Citation: Lookout-EnterpriseApps),(Citation: Wandera-RedDrop),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: FireEye-RuMMS),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Trend Micro FlyTrap),(Citation: Lookout FrozenCell),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: forcepoint_bitter),(Citation: checkpoint_hamas_android_malware),(Citation: PaloAlto-DualToy),(Citation: Talos GPlayed),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Google Bread),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason FakeSpy),(Citation: Lookout-Pegasus),(Citation: FlexiSpy-Features),(Citation: trendmicro_strongpity),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: SecurityIntelligence TrickMo),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: securelist_brata_0819),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: fb_arid_viper),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout ViperRAT),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Dendroid),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: SecureList BusyGasper),(Citation: BlackBerry Bahamut),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: forcepoint_bitter),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Desert Scorpion),(Citation: SecureList - ViceLeaker 2019),(Citation: Symantec GoldenCup),(Citation: Meta Adversarial Threat Report 2022),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Volexity Insomnia),(Citation: Threat Fabric Exobot),(Citation: Kaspersky Riltok June 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: welivesec_strongpity),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: cyble_chameleon_0423),(Citation: Kaspersky-MobileMalware),(Citation: Cybereason EventBot),(Citation: Google Bread),(Citation: FireEye-RuMMS),(Citation: ESET DEFENSOR ID),(Citation: Bitdefender - Triout 2018),(Citation: proofpoint_flubot_0421),(Citation: securelist rotexy 2018),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Wandera-RedDrop),(Citation: Securelist Asacub),(Citation: lookout_abstractemu_1021),(Citation: Sophos Red Alert 2.0),(Citation: cleafy_brata_0122),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: Zimperium FlyTrap),(Citation: SecureList - ViceLeaker 2019),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-WUC),(Citation: welivesecurity_ahrat_0523),(Citation: threatfabric_sova_0921),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: Kaspersky-Skygofree),</t>
-  </si>
-  <si>
-    <t>(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Google Project Zero Insomnia),(Citation: lookout_bouldspy_0423),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecurityIntelligence TrickMo),(Citation: TelephonyManager)</t>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: threatfabric_sova_0921),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: Cybereason EventBot),(Citation: Kaspersky-MobileMalware),(Citation: Kaspersky-Skygofree),(Citation: CheckPoint Cerberus),(Citation: ESET DEFENSOR ID),(Citation: proofpoint_flubot_0421),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: Zimperium FlyTrap),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: paloalto_yispecter_1015),(Citation: cleafy_brata_0122),(Citation: Cybereason FakeSpy),(Citation: FireEye-RuMMS),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-WUC),(Citation: Bitdefender - Triout 2018),(Citation: welivesec_strongpity),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: Symantec GoldenCup),(Citation: Google Bread),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_bouldspy_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: Wandera-RedDrop),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
@@ -2796,13 +2796,13 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: welivesec_strongpity),(Citation: Bleeipng Computer Escobar),(Citation: proofpoint_flubot_0421),(Citation: checkpoint_flixonline_0421),(Citation: Check Point-Joker),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_hornbill_sunbird_0221),(Citation: threatfabric_sova_0921),(Citation: lookout_abstractemu_1021),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: Check Point-Joker),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: checkpoint_flixonline_0421),(Citation: lookout_abstractemu_1021),(Citation: nccgroup_sharkbot_0322),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),</t>
+    <t>(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
     <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
@@ -2811,130 +2811,130 @@
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: cleafy_brata_0122),(Citation: Cofense Anubis),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: Google Triada June 2019),(Citation: Securelist Asacub),(Citation: Symantec GoldenCup),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: fb_arid_viper),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout ViperRAT),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: Zscaler-SpyNote),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: Wandera-RedDrop),(Citation: SecureList BusyGasper),(Citation: Lookout-Pegasus),(Citation: TrendMicro-XLoader),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender - Triout 2018),(Citation: forcepoint_bitter),(Citation: welivesec_strongpity),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Desert Scorpion),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Meta Adversarial Threat Report 2022),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: HackerNews-OldBoot),</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: ESET DEFENSOR ID),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Exobot),(Citation: FortiGuard-FlexiSpy),(Citation: Zscaler-SpyNote),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Microsoft MalLockerB),(Citation: welivesec_strongpity),(Citation: checkpoint_flixonline_0421),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: CheckPoint SimBad 2019),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: mcafee_brata_0421),(Citation: Lookout-Monokle),(Citation: cloudmark_tanglebot_0921),(Citation: cyble_drinik_1022),(Citation: forcepoint_bitter),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout ViperRAT),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-WUC),(Citation: cyble_drinik_1022),(Citation: forcepoint_bitter),(Citation: welivesec_strongpity),(Citation: NYTimes-BackDoor),(Citation: Zscaler-SuperMarioRun),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-RCSAndroid),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-XcodeGhost),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: Lookout Desert Scorpion),(Citation: SecureList DVMap June 2017),(Citation: BlackBerry Bahamut),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Bitdefender Mandrake),(Citation: trendmicro_tianyspy_0122),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+    <t>(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),(Citation: welivesec_strongpity),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Securelist Asacub),(Citation: cleafy_brata_0122),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: Zscaler-SpyNote),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Wandera-RedDrop),(Citation: TrendMicro-XLoader),(Citation: PaloAlto-SpyDealer),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Lookout-Pegasus),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: Lookout eSurv),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: lookout_abstractemu_1021),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SuperMarioRun),(Citation: Bleeipng Computer Escobar),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Talos-WolfRAT),(Citation: fb_arid_viper),(Citation: Lookout-Dendroid),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: welivesecurity_ahrat_0523),(Citation: HackerNews-OldBoot),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason FakeSpy),(Citation: CheckPoint SimBad 2019),(Citation: Zscaler-SpyNote),(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Microsoft MalLockerB),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: checkpoint_flixonline_0421),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: Lookout-PegasusAndroid),(Citation: welivesec_strongpity),(Citation: ESET DEFENSOR ID),(Citation: FortiGuard-FlexiSpy),(Citation: SecurityIntelligence TrickMo),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: mcafee_brata_0421),(Citation: SecureList BusyGasper),(Citation: forcepoint_bitter),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky-WUC),(Citation: Google Project Zero Insomnia),(Citation: NYTimes-BackDoor),(Citation: PaloAlto-SpyDealer),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: welivesec_strongpity),(Citation: cyble_drinik_1022),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SuperMarioRun),(Citation: Bleeipng Computer Escobar),(Citation: Talos-WolfRAT),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: SecureList DVMap June 2017),(Citation: paloalto_yispecter_1015),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: lookout_bouldspy_0423),(Citation: CheckPoint Agent Smith),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
-  </si>
-  <si>
-    <t>(Citation: NYTimes-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-StealthMango),(Citation: Google Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: HackerNews-Allwinner),</t>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: SecureList BusyGasper),(Citation: Lookout-Adware),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
+  </si>
+  <si>
+    <t>(Citation: BankInfoSecurity-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-StealthMango),(Citation: HackerNews-Allwinner),(Citation: NYTimes-BackDoor),(Citation: Google Triada June 2019),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint-Charger),(Citation: ThreatFabric Ginp),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: fb_arid_viper),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: proofpoint_flubot_0421),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler-SpyNote),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: Cybereason FakeSpy),(Citation: Lookout-Pegasus),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: BlackBerry Bahamut),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Cerberus),(Citation: forcepoint_bitter),(Citation: welivesec_strongpity),(Citation: NYTimes-BackDoor),(Citation: Lookout Desert Scorpion),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Meta Adversarial Threat Report 2022),(Citation: Google Project Zero Insomnia),</t>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: Meta Adversarial Threat Report 2022),(Citation: Zscaler-SpyNote),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky Riltok June 2019),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky-WUC),(Citation: Google Project Zero Insomnia),(Citation: NYTimes-BackDoor),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-SpyDealer),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: Lookout-Pegasus),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: kaspersky_fakecalls_0422),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos-WolfRAT),(Citation: lookout_bouldspy_0423),(Citation: CheckPoint-Charger),(Citation: fb_arid_viper),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),</t>
-  </si>
-  <si>
-    <t>(Citation: FlexiSpy-Features),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-StealthMango),(Citation: Cylance Dust Storm),(Citation: fb_arid_viper),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout ViperRAT),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Dendroid),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler-SpyNote),(Citation: SWB Exodus March 2019),(Citation: Gooligan Citation),(Citation: cyble_chameleon_0423),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: Talos Gustuff Apr 2019),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: cyble_drinik_1022),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: Trend Micro Anubis),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),</t>
-  </si>
-  <si>
-    <t>(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_abstractemu_1021),(Citation: Proofpoint-Marcher),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: GoogleIO2016)</t>
+    <t>(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: Cylance Dust Storm),(Citation: Lookout-Monokle),(Citation: Zscaler-SpyNote),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: welivesecurity_ahrat_0523),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Project Zero Insomnia),(Citation: Talos Gustuff Apr 2019),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: securelist_brata_0819),(Citation: Gooligan Citation),(Citation: Talos GPlayed),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Lookout-StealthMango),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: Lookout eSurv),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Bleeipng Computer Escobar),(Citation: FlexiSpy-Features),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Talos-WolfRAT),(Citation: fb_arid_viper),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Dendroid),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),(Citation: TrendMicro-XLoader-FakeSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: Proofpoint-Marcher),(Citation: Sophos Red Alert 2.0),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: GoogleIO2016)</t>
   </si>
   <si>
     <t>(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),</t>
   </si>
   <si>
-    <t>(Citation: Google Security Zen),(Citation: welivesec_strongpity),(Citation: cleafy_brata_0122),(Citation: SecureList DVMap June 2017),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: cyble_chameleon_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: CheckPoint-Judy),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason EventBot),(Citation: mcafee_brata_0421),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Palo Alto HenBox),(Citation: Lookout ViperRAT),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: Lookout-BrainTest),(Citation: Google Security Zen),(Citation: cyble_chameleon_0423),(Citation: paloalto_yispecter_1015),(Citation: cleafy_brata_0122),(Citation: SecureList BusyGasper),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: Google Triada June 2019),(Citation: Threat Fabric Cerberus),(Citation: Lookout Desert Scorpion),(Citation: Xiao-ZergHelper),(Citation: Talos GPlayed),(Citation: Trend Micro Anubis),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Google Bread),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: trendmicro_strongpity),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),</t>
-  </si>
-  <si>
-    <t>(Citation: ESET-Twitoor),(Citation: welivesecurity_ahrat_0523),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-Xbot),</t>
+    <t>(Citation: Cofense Anubis),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: cyble_chameleon_0423),(Citation: cyble_drinik_1022),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Cerberus),(Citation: Google Security Zen),(Citation: Bitdefender Mandrake),(Citation: SecureList DVMap June 2017),(Citation: lookout_abstractemu_1021),(Citation: mcafee_brata_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Cerberus),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: TrendMicro-RCSAndroid),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: CheckPoint-Judy),(Citation: cyble_chameleon_0423),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: paloalto_yispecter_1015),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),(Citation: Lookout eSurv),(Citation: Lookout ViperRAT),(Citation: SecureList DVMap June 2017),(Citation: SecureList BusyGasper),(Citation: lookout_abstractemu_1021),(Citation: mcafee_brata_0421),(Citation: Google Bread),(Citation: Kaspersky-Skygofree),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Talos-WolfRAT),(Citation: Google Security Zen),(Citation: Xiao-ZergHelper),(Citation: Bitdefender Mandrake),(Citation: Lookout-BrainTest),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: trendmicro_strongpity),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),</t>
+  </si>
+  <si>
+    <t>(Citation: welivesecurity_ahrat_0523),(Citation: ESET-Twitoor),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-Xbot),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cylance Dust Storm),(Citation: Trend Micro Bouncing Golf 2019),(Citation: proofpoint_flubot_0421),(Citation: kaspersky_fakecalls_0422),(Citation: trendmicro_strongpity),(Citation: lookout_bouldspy_0423),(Citation: Zimperium FlyTrap),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: Google Triada June 2019),(Citation: cyble_drinik_1022),(Citation: Bitdefender - Triout 2018),(Citation: welivesec_strongpity),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList - ViceLeaker 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout eSurv),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: Kaspersky-Skygofree),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Lookout-Pegasus),(Citation: Gooligan Citation),(Citation: CheckPoint Agent Smith),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-SpyDealer),(Citation: fb_arid_viper),(Citation: SWB Exodus March 2019),(Citation: Lookout-BrainTest),(Citation: Volexity Insomnia),</t>
+    <t>(Citation: Cylance Dust Storm),(Citation: Bitdefender - Triout 2018),(Citation: cleafy_brata_0122),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Triada June 2019),(Citation: welivesecurity_ahrat_0523),(Citation: nccgroup_sharkbot_0322),(Citation: trendmicro_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Wandera-RedDrop),(Citation: cyble_chameleon_0423),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: Zimperium FlyTrap),(Citation: cyble_drinik_1022),(Citation: Lookout eSurv),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-Skygofree),(Citation: Google Security Zen),(Citation: ArsTechnica-HummingBad),(Citation: PaloAlto-SpyDealer),(Citation: fb_arid_viper),(Citation: Lookout-Adware),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-BrainTest),(Citation: SecureList DVMap June 2017),(Citation: Volexity Insomnia),(Citation: lookout_abstractemu_1021),(Citation: Gooligan Citation),</t>
   </si>
   <si>
     <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
   </si>
   <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: kaspersky_fakecalls_0422),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Agent Smith),(Citation: Talos GPlayed),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Bitdefender Mandrake),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: welivesec_strongpity),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Bleeipng Computer Escobar),(Citation: welivesecurity_ahrat_0523),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Uyghur Campaign),(Citation: Cylance Dust Storm),(Citation: Symantec GoldenCup),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: ThreatFabric Ginp),(Citation: threatfabric_sova_0921),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason EventBot),(Citation: cloudmark_tanglebot_0921),(Citation: Zscaler TikTok Spyware),(Citation: Bleeipng Computer Escobar),(Citation: proofpoint_flubot_0421),(Citation: PaloAlto-XcodeGhost),(Citation: Threat Fabric Exobot),(Citation: Lookout-Dendroid),(Citation: Proofpoint-Marcher),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_chameleon_0423),(Citation: cleafy_brata_0122),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Trend Micro FlyTrap),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: Group IB Gustuff Mar 2019),(Citation: checkpoint_flixonline_0421),(Citation: Cofense Anubis),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: trendmicro_tianyspy_0122),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: Lookout-EnterpriseApps),(Citation: CheckPoint-Judy),(Citation: checkpoint_flixonline_0421),(Citation: Tripwire-MazarBOT),(Citation: Gooligan Citation),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Agent Smith),(Citation: ArsTechnica-HummingBad),(Citation: ArsTechnica-HummingWhale),(Citation: CheckPoint SimBad 2019),(Citation: Google Triada June 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Triada June 2016),(Citation: Lookout-BrainTest),(Citation: Google Bread),(Citation: Wandera-RedDrop),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: mcafee_brata_0421),</t>
+    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Monokle),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: Cylance Dust Storm),(Citation: Bleeipng Computer Escobar),(Citation: welivesec_strongpity),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason EventBot),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky Riltok June 2019),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: Group IB Gustuff Mar 2019),(Citation: trendmicro_tianyspy_0122),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: checkpoint_flixonline_0421),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: Sophos Red Alert 2.0),(Citation: Threat Fabric Exobot),(Citation: Cofense Anubis),(Citation: proofpoint_flubot_0421),(Citation: cyble_drinik_1022),(Citation: Trend Micro FlyTrap),(Citation: Proofpoint-Marcher),(Citation: PaloAlto-XcodeGhost),(Citation: Bleeipng Computer Escobar),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: CheckPoint-Judy),(Citation: Lookout-EnterpriseApps),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Tripwire-MazarBOT),(Citation: Wandera-RedDrop),(Citation: Google Bread),(Citation: CheckPoint SimBad 2019),(Citation: Google Security Zen),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-BrainTest),(Citation: Kaspersky Triada June 2016),(Citation: checkpoint_flixonline_0421),(Citation: ArsTechnica-HummingWhale),(Citation: Google Triada June 2019),(Citation: Gooligan Citation),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout eSurv),(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2946,151 +2946,151 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_abstractemu_1021),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: fb_arid_viper),(Citation: Lookout-Monokle),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),</t>
-  </si>
-  <si>
-    <t>(Citation: fb_arid_viper),(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Cerberus),(Citation: ESET DEFENSOR ID),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),(Citation: cleafy_sova_1122),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: Google Security Zen),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: Securelist Asacub),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: Wandera-RedDrop),(Citation: Cybereason FakeSpy),(Citation: Trend Micro FlyTrap),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: trendmicro_tianyspy_0122),(Citation: Google Project Zero Insomnia),</t>
+    <t>(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: fb_arid_viper),(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_sova_1122),(Citation: ThreatFabric Ginp),(Citation: CheckPoint Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: Google Security Zen),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: securelist_brata_0819),(Citation: ESET DEFENSOR ID),(Citation: mcafee_brata_0421),(Citation: Kaspersky Riltok June 2019),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason EventBot),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: trendmicro_tianyspy_0122),(Citation: Wandera-RedDrop),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: Lookout-PegasusAndroid),(Citation: Trend Micro FlyTrap),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: lookout_bouldspy_0423),(Citation: SecurityIntelligence TrickMo),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: SecureList BusyGasper),(Citation: cyble_chameleon_0423),(Citation: Bleeipng Computer Escobar),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: Talos Gustuff Apr 2019),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: securelist_brata_0819),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint-Charger),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: Bleeipng Computer Escobar),(Citation: CrowdStrike-Android),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout ViperRAT),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler-SpyNote),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: cyble_chameleon_0423),(Citation: cleafy_brata_0122),(Citation: SecureList BusyGasper),(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: Trend Micro FlyTrap),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro Coronavirus Updates),(Citation: CyberMerchants-FlexiSpy),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender - Triout 2018),(Citation: welivesec_strongpity),(Citation: NYTimes-BackDoor),(Citation: Lookout Desert Scorpion),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Meta Adversarial Threat Report 2022),(Citation: Google Project Zero Insomnia),(Citation: CSRIC5-WG10-FinalReport)</t>
+    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Exobot),(Citation: Bleeipng Computer Escobar),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: lookout_bouldspy_0423),(Citation: cyble_chameleon_0423),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: mcafee_brata_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: Zscaler-SpyNote),(Citation: Bitdefender - Triout 2018),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Cerberus),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler TikTok Spyware),(Citation: CrowdStrike-Android),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky-WUC),(Citation: Google Project Zero Insomnia),(Citation: NYTimes-BackDoor),(Citation: cyble_chameleon_0423),(Citation: PaloAlto-SpyDealer),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: Lookout-Pegasus),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Lookout-StealthMango),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: Trend Micro FlyTrap),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: Lookout eSurv),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: lookout_abstractemu_1021),(Citation: Lookout-EnterpriseApps),(Citation: kaspersky_fakecalls_0422),(Citation: Bleeipng Computer Escobar),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: CheckPoint-Charger),(Citation: Bitdefender Mandrake),(Citation: CSRIC5-WG10-FinalReport)</t>
   </si>
   <si>
     <t>(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: ThreatFabric Ginp),(Citation: lookout_hornbill_sunbird_0221),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: mcafee_brata_0421),(Citation: Cybereason EventBot),(Citation: fb_arid_viper),(Citation: Talos-WolfRAT),(Citation: welivesecurity_apt-c-23),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: sophos_android_apt_spyware),(Citation: Forbes Cerberus),(Citation: Palo Alto HenBox),(Citation: CrowdStrike-Android),(Citation: kaspersky_fakecalls_0422),(Citation: trendmicro_strongpity),(Citation: Lookout ViperRAT),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Bitdefender Mandrake),(Citation: securelist_brata_0819),(Citation: cyble_chameleon_0423),(Citation: Cybereason FakeSpy),(Citation: MoustachedBouncer ESET August 2023),(Citation: Lookout FrozenCell),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: forcepoint_bitter),(Citation: Microsoft MalLockerB),(Citation: checkpoint_hamas_android_malware),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Cofense Anubis),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: Trend Micro Anubis),(Citation: CheckPoint SimBad 2019),(Citation: Proofpoint-Droidjack),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),(Citation: Google Bread),</t>
+    <t>(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason FakeSpy),(Citation: CheckPoint SimBad 2019),(Citation: Securelist Asacub),(Citation: MoustachedBouncer ESET August 2023),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Zscaler TikTok Spyware),(Citation: CrowdStrike-Android),(Citation: Microsoft MalLockerB),(Citation: ThreatFabric Ginp),(Citation: trendmicro_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: Forbes Cerberus),(Citation: CheckPoint Agent Smith),(Citation: securelist_brata_0819),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: welivesecurity_apt-c-23),(Citation: blackberry_mobile_malware_apt_esp),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: Trend Micro Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: mcafee_brata_0421),(Citation: forcepoint_bitter),(Citation: kaspersky_fakecalls_0422),(Citation: Proofpoint-Droidjack),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Talos-WolfRAT),(Citation: fb_arid_viper),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Cerberus),(Citation: FortiGuard-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: cyble_chameleon_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: CheckPoint-Charger),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: mcafee_brata_0421),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: PaloAlto-WireLurker),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: proofpoint_flubot_0421),(Citation: Check Point-Joker),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-BrainTest),(Citation: Volexity Insomnia),(Citation: Google Security Zen),(Citation: cleafy_brata_0122),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader),(Citation: Talos Gustuff Apr 2019),(Citation: BlackBerry Bahamut),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-Obad),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: Microsoft MalLockerB),(Citation: welivesec_strongpity),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: trendmicro_tianyspy_0122),(Citation: Google Bread),</t>
+    <t>(Citation: SWB Exodus March 2019),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Cerberus),(Citation: cyble_chameleon_0423),(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),(Citation: FortiGuard-FlexiSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: Securelist Asacub),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: Microsoft MalLockerB),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Bouncing Golf 2019),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-XLoader),(Citation: Talos Gustuff Apr 2019),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-Obad),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: PaloAlto-WireLurker),(Citation: cyble_drinik_1022),(Citation: SecureList DVMap June 2017),(Citation: lookout_abstractemu_1021),(Citation: mcafee_brata_0421),(Citation: FortiGuard-FlexiSpy),(Citation: Check Point-Joker),(Citation: Google Bread),(Citation: Talos-WolfRAT),(Citation: Google Security Zen),(Citation: CheckPoint-Charger),(Citation: Volexity Insomnia),(Citation: Lookout-BrainTest),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: SecureList BusyGasper),(Citation: Lookout-Pegasus),(Citation: securelist rotexy 2018),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky-WUC),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-StealthMango),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: blackberry_mobile_malware_apt_esp),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: Leonard TAG 2023),(Citation: CitizenLab Great iPwn),(Citation: Meta Adversarial Threat Report 2022),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),(Citation: TrendMicro-Obad),(Citation: cyble_chameleon_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: Zimperium z9),(Citation: CheckPoint Agent Smith),(Citation: nccgroup_sharkbot_0322),(Citation: Talos-WolfRAT),</t>
+    <t>(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Kaspersky-WUC),(Citation: Lookout-PegasusAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-Skygofree),(Citation: lookout_bouldspy_0423),(Citation: PaloAlto-SpyDealer),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: TrendMicro-RCSAndroid),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: CitizenLab Great iPwn),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Meta Adversarial Threat Report 2022),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: Leonard TAG 2023),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-Obad),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),(Citation: bitdefender_flubot_0524),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),(Citation: Zimperium z9),(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: paloalto_yispecter_1015),</t>
   </si>
   <si>
     <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
-    <t>(Citation: Google Security Zen),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Google Project Zero Insomnia),</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: threatfabric_sova_0921),(Citation: Lookout-StealthMango),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Bleeipng Computer Escobar),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),(Citation: Lookout-Dendroid),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: bitdefender_flubot_0524),(Citation: TrendMicro Coronavirus Updates),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: forcepoint_bitter),(Citation: Lookout Desert Scorpion),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: FlexiSpy-Features),(Citation: PaloAlto-Xbot),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: threatfabric_sova_0921),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: Cybereason EventBot),(Citation: Cylance Dust Storm),(Citation: fb_arid_viper),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Kaspersky Triada March 2016),(Citation: Bleeipng Computer Escobar),(Citation: proofpoint_flubot_0421),(Citation: kaspersky_fakecalls_0422),(Citation: Tripwire-MazarBOT),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Dendroid),(Citation: Zscaler-SpyNote),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: cyble_chameleon_0423),(Citation: SecureList BusyGasper),(Citation: Cybereason FakeSpy),(Citation: Lookout-Pegasus),(Citation: FireEye-RuMMS),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-XLoader),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: forcepoint_bitter),(Citation: welivesec_strongpity),(Citation: NYTimes-BackDoor),(Citation: Lookout Desert Scorpion),(Citation: Zscaler-SuperMarioRun),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: Symantec GoldenCup),(Citation: Meta Adversarial Threat Report 2022),(Citation: Google Project Zero Insomnia),(Citation: Google Bread),</t>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason FakeSpy),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: welivesecurity_ahrat_0523),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: threatfabric_sova_0921),(Citation: cloudmark_tanglebot_0921),(Citation: Talos GPlayed),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-StealthMango),(Citation: Cofense Anubis),(Citation: proofpoint_flubot_0421),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: forcepoint_bitter),(Citation: Bleeipng Computer Escobar),(Citation: Talos-WolfRAT),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: bitdefender_flubot_0524),(Citation: Lookout-Dendroid),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason EventBot),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: Cylance Dust Storm),(Citation: Cybereason FakeSpy),(Citation: Meta Adversarial Threat Report 2022),(Citation: Zscaler-SpyNote),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky Riltok June 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Tripwire-MazarBOT),(Citation: Kaspersky-WUC),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro-XLoader),(Citation: NYTimes-BackDoor),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: PaloAlto-SpyDealer),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: Lookout-Pegasus),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-StealthMango),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: cyble_drinik_1022),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: lookout_abstractemu_1021),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SuperMarioRun),(Citation: Bleeipng Computer Escobar),(Citation: FlexiSpy-Features),(Citation: FireEye-RuMMS),(Citation: Google Bread),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky Triada March 2016),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Talos-WolfRAT),(Citation: fb_arid_viper),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Dendroid),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
   </si>
   <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: FlexiSpy-Features),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: Cybereason EventBot),(Citation: mcafee_brata_0421),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: ESET DEFENSOR ID),(Citation: cleafy_sova_1122),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: PaloAlto-SpyDealer),(Citation: cyble_drinik_1022),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: FlexiSpy-Features),(Citation: CheckPoint Agent Smith),(Citation: ThreatFabric Ginp),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Cybereason EventBot),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: ESET DEFENSOR ID),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: cleafy_sova_1122),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: cyble_chameleon_0423),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: Google Triada June 2019),(Citation: Threat Fabric Cerberus),(Citation: welivesec_strongpity),(Citation: Lookout Desert Scorpion),(Citation: Cofense Anubis),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),(Citation: Google Bread),(Citation: mcafee_brata_0421),</t>
-  </si>
-  <si>
-    <t>,(Citation: IETF-PKCE),(Citation: iOS Universal Links),(Citation: Android App Links),(Citation: Trend Micro iOS URL Hijacking)</t>
+    <t>(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_sova_1122),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: cloudmark_tanglebot_0921),(Citation: securelist_brata_0819),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: ESET DEFENSOR ID),(Citation: mcafee_brata_0421),(Citation: FlexiSpy-Features),(Citation: Talos-WolfRAT),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_sova_1122),(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Triada June 2019),(Citation: Kaspersky Riltok June 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Project Zero Insomnia),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: CheckPoint Agent Smith),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: paloalto_yispecter_1015),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: Cofense Anubis),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: ESET DEFENSOR ID),(Citation: lookout_abstractemu_1021),(Citation: FlexiSpy-Features),(Citation: Talos-WolfRAT),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>,(Citation: Trend Micro iOS URL Hijacking),(Citation: Android App Links),(Citation: iOS Universal Links),(Citation: IETF-PKCE)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: threatfabric_sova_0921),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-StealthMango),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Bleeipng Computer Escobar),(Citation: FortiGuard-FlexiSpy),(Citation: cleafy_sova_1122),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: Zimperium FlyTrap),(Citation: Bitdefender Mandrake),(Citation: SWB Exodus March 2019),(Citation: paloalto_yispecter_1015),(Citation: SecureList BusyGasper),(Citation: Cybereason FakeSpy),(Citation: Lookout-Pegasus),(Citation: Trend Micro FlyTrap),(Citation: Lookout FrozenCell),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: checkpoint_flixonline_0421),(Citation: Meta Adversarial Threat Report 2022),</t>
+    <t>(Citation: cleafy_sova_1122),(Citation: Cybereason FakeSpy),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: SWB Exodus March 2019),(Citation: threatfabric_sova_0921),(Citation: PaloAlto-SpyDealer),(Citation: checkpoint_flixonline_0421),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: FortiGuard-FlexiSpy),(Citation: Bleeipng Computer Escobar),(Citation: Kaspersky-Skygofree),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
     <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
-    <t>(Citation: FlexiSpy-Features),(Citation: CheckPoint Agent Smith),(Citation: ThreatFabric Ginp),(Citation: threatfabric_sova_0921),(Citation: Zscaler TikTok Spyware),(Citation: ESET-Twitoor),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: paloalto_yispecter_1015),(Citation: SecureList BusyGasper),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: Group IB Gustuff Mar 2019),(Citation: checkpoint_flixonline_0421),(Citation: CheckPoint SimBad 2019),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
-  </si>
-  <si>
-    <t>(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),</t>
-  </si>
-  <si>
-    <t>(Citation: Palo Alto HenBox),(Citation: Cybereason FakeSpy),(Citation: securelist rotexy 2018),(Citation: BlackBerry Bahamut),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Trend Micro Anubis),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-Dendroid),(Citation: lookout_abstractemu_1021),(Citation: SecurityIntelligence TrickMo),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: threatfabric_sova_0921),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Securelist Asacub),(Citation: Cybereason EventBot),(Citation: fb_arid_viper),(Citation: Lookout-Monokle),(Citation: CheckPoint Cerberus),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout ViperRAT),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Anserver2),(Citation: cyble_chameleon_0423),(Citation: securelist_brata_0819),(Citation: Wandera-RedDrop),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: Lookout-Pegasus),(Citation: FireEye-RuMMS),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Xiao-KeyRaider),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Cerberus),(Citation: welivesec_strongpity),(Citation: Lookout Desert Scorpion),(Citation: Cofense Anubis),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: Lookout eSurv),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-StealthMango),(Citation: Securelist Asacub),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout ViperRAT),(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-Anserver2),(Citation: Lookout-EnterpriseApps),(Citation: Wandera-RedDrop),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: FireEye-RuMMS),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: Trend Micro FlyTrap),(Citation: Lookout FrozenCell),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: forcepoint_bitter),(Citation: checkpoint_hamas_android_malware),(Citation: PaloAlto-DualToy),(Citation: Talos GPlayed),(Citation: Symantec GoldenCup),(Citation: Google Project Zero Insomnia),(Citation: Google Bread),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason FakeSpy),(Citation: Lookout-Pegasus),(Citation: FlexiSpy-Features),(Citation: trendmicro_strongpity),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: SecurityIntelligence TrickMo),(Citation: threatfabric_sova_0921),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: securelist_brata_0819),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-StealthMango),(Citation: Lookout Dark Caracal Jan 2018),(Citation: fb_arid_viper),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: Bleeipng Computer Escobar),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout ViperRAT),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Dendroid),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: SecureList BusyGasper),(Citation: BlackBerry Bahamut),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: forcepoint_bitter),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Desert Scorpion),(Citation: SecureList - ViceLeaker 2019),(Citation: Symantec GoldenCup),(Citation: Meta Adversarial Threat Report 2022),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason FakeSpy),(Citation: CheckPoint SimBad 2019),(Citation: Bitdefender - Triout 2018),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: Group IB Gustuff Mar 2019),(Citation: threatfabric_sova_0921),(Citation: checkpoint_flixonline_0421),(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: ESET-Twitoor),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: Bitdefender Mandrake),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: ThreatFabric Ginp),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: BlackBerry Bahamut),(Citation: Cybereason FakeSpy),(Citation: Trend Micro Anubis),(Citation: Talos-WolfRAT),(Citation: cyble_chameleon_0423),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_abstractemu_1021),(Citation: mcafee_brata_0421),(Citation: Lookout-Dendroid),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: BlackBerry Bahamut),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: CheckPoint Cerberus),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky Riltok June 2019),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: trendmicro_tianyspy_0122),(Citation: Wandera-RedDrop),(Citation: Kaspersky-WUC),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro-Anserver2),(Citation: Talos Gustuff Apr 2019),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: securelist_brata_0819),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: Symantec GoldenCup),(Citation: Xiao-KeyRaider),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: Lookout eSurv),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: SecureList DVMap June 2017),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: FireEye-RuMMS),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: fb_arid_viper),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason EventBot),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-DualToy),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: Securelist Asacub),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: trendmicro_tianyspy_0122),(Citation: Wandera-RedDrop),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro-Anserver2),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-SpyDealer),(Citation: checkpoint_hamas_android_malware),(Citation: Talos GPlayed),(Citation: paloalto_yispecter_1015),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: Trend Micro FlyTrap),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: FireEye-RuMMS),(Citation: Google Bread),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Talos-WolfRAT),(Citation: SecurityIntelligence TrickMo),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: SWB Exodus March 2019),(Citation: trendmicro_strongpity),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: lookout_abstractemu_1021),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: lookout_abstractemu_1021),(Citation: forcepoint_bitter),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SuperMarioRun),(Citation: Bleeipng Computer Escobar),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: Talos-WolfRAT),(Citation: lookout_bouldspy_0423),(Citation: fb_arid_viper),(Citation: Lookout-Dendroid),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),(Citation: threatfabric_sova_0921),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: Cybereason EventBot),(Citation: Kaspersky-MobileMalware),(Citation: Kaspersky-Skygofree),(Citation: CheckPoint Cerberus),(Citation: ESET DEFENSOR ID),(Citation: proofpoint_flubot_0421),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Exobot),(Citation: lookout_bouldspy_0423),(Citation: Zimperium FlyTrap),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: paloalto_yispecter_1015),(Citation: cleafy_brata_0122),(Citation: Cybereason FakeSpy),(Citation: FireEye-RuMMS),(Citation: securelist rotexy 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-WUC),(Citation: Bitdefender - Triout 2018),(Citation: welivesec_strongpity),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList - ViceLeaker 2019),(Citation: Talos GPlayed),(Citation: nccgroup_sharkbot_0322),(Citation: Symantec GoldenCup),(Citation: Google Bread),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_bouldspy_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-Monokle),(Citation: Google Project Zero Insomnia),(Citation: Wandera-RedDrop),(Citation: TelephonyManager)</t>
+    <t>(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason FakeSpy),(Citation: CheckPoint Cerberus),(Citation: Securelist Asacub),(Citation: cleafy_brata_0122),(Citation: Bitdefender - Triout 2018),(Citation: securelist rotexy 2018),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky Riltok June 2019),(Citation: nccgroup_sharkbot_0322),(Citation: SWB Exodus March 2019),(Citation: Wandera-RedDrop),(Citation: Kaspersky-WUC),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: paloalto_yispecter_1015),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Exobot),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: Zimperium FlyTrap),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: ESET DEFENSOR ID),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-MobileMalware),(Citation: FireEye-RuMMS),(Citation: Google Bread),(Citation: Kaspersky-Skygofree),(Citation: lookout_bouldspy_0423),(Citation: Volexity Insomnia),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: trendmicro_tianyspy_0122),(Citation: Wandera-RedDrop),(Citation: Google Project Zero Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: lookout_bouldspy_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecurityIntelligence TrickMo),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
@@ -2796,145 +2796,145 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Check Point-Joker),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: checkpoint_flixonline_0421),(Citation: lookout_abstractemu_1021),(Citation: nccgroup_sharkbot_0322),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: Talos-WolfRAT),(Citation: Bleeipng Computer Escobar),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: TrendMicro Coronavirus Updates),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Check Point-Joker),(Citation: lookout_hornbill_sunbird_0221),(Citation: nccgroup_sharkbot_0322),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
   </si>
   <si>
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cofense Anubis),(Citation: welivesec_strongpity),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Securelist Asacub),(Citation: cleafy_brata_0122),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: Zscaler-SpyNote),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Wandera-RedDrop),(Citation: TrendMicro-XLoader),(Citation: PaloAlto-SpyDealer),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Lookout-Pegasus),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: Lookout eSurv),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: lookout_abstractemu_1021),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SuperMarioRun),(Citation: Bleeipng Computer Escobar),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Talos-WolfRAT),(Citation: fb_arid_viper),(Citation: Lookout-Dendroid),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: welivesecurity_ahrat_0523),(Citation: HackerNews-OldBoot),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason FakeSpy),(Citation: CheckPoint SimBad 2019),(Citation: Zscaler-SpyNote),(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Microsoft MalLockerB),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: checkpoint_flixonline_0421),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: Lookout-PegasusAndroid),(Citation: welivesec_strongpity),(Citation: ESET DEFENSOR ID),(Citation: FortiGuard-FlexiSpy),(Citation: SecurityIntelligence TrickMo),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: cloudmark_tanglebot_0921),(Citation: mcafee_brata_0421),(Citation: SecureList BusyGasper),(Citation: forcepoint_bitter),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky-WUC),(Citation: Google Project Zero Insomnia),(Citation: NYTimes-BackDoor),(Citation: PaloAlto-SpyDealer),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: welivesec_strongpity),(Citation: cyble_drinik_1022),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SuperMarioRun),(Citation: Bleeipng Computer Escobar),(Citation: Talos-WolfRAT),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: SecureList DVMap June 2017),(Citation: paloalto_yispecter_1015),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: cleafy_brata_0122),(Citation: Securelist Asacub),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),(Citation: nccgroup_sharkbot_0322),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-Skygofree),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-XLoader),(Citation: Bitdefender - Triout 2018),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Pegasus),(Citation: SecureList BusyGasper),(Citation: Wandera-RedDrop),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_bouldspy_0423),(Citation: forcepoint_bitter),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: Zscaler-SpyNote),(Citation: fb_arid_viper),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: Zscaler-SuperMarioRun),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: HackerNews-OldBoot),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: checkpoint_flixonline_0421),(Citation: Lookout-PegasusAndroid),(Citation: CheckPoint SimBad 2019),(Citation: Cybereason FakeSpy),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason EventBot),(Citation: welivesecurity_ahrat_0523),(Citation: SecurityIntelligence TrickMo),(Citation: Zscaler-SpyNote),(Citation: welivesec_strongpity),(Citation: FortiGuard-FlexiSpy),(Citation: Microsoft MalLockerB),(Citation: ESET DEFENSOR ID),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout Uyghur Campaign),(Citation: kaspersky_fakecalls_0422),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: mcafee_brata_0421),(Citation: cyble_drinik_1022),(Citation: forcepoint_bitter),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-WUC),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: cyble_drinik_1022),(Citation: NYTimes-BackDoor),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: lookout_bouldspy_0423),(Citation: forcepoint_bitter),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Monokle),(Citation: Sophos Red Alert 2.0),(Citation: Talos-WolfRAT),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler-SuperMarioRun),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: PaloAlto-XcodeGhost),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: trendmicro_tianyspy_0122),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: paloalto_yispecter_1015),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: SecureList DVMap June 2017),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: SecureList BusyGasper),(Citation: Lookout-Adware),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
-  </si>
-  <si>
-    <t>(Citation: BankInfoSecurity-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-StealthMango),(Citation: HackerNews-Allwinner),(Citation: NYTimes-BackDoor),(Citation: Google Triada June 2019),</t>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Adware),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
+  </si>
+  <si>
+    <t>(Citation: BankInfoSecurity-BackDoor),(Citation: HackerNews-Allwinner),(Citation: Google Triada June 2019),(Citation: Lookout-StealthMango),(Citation: Krebs-Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: NYTimes-BackDoor),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: Meta Adversarial Threat Report 2022),(Citation: Zscaler-SpyNote),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky Riltok June 2019),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky-WUC),(Citation: Google Project Zero Insomnia),(Citation: NYTimes-BackDoor),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-SpyDealer),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: Lookout-Pegasus),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: kaspersky_fakecalls_0422),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos-WolfRAT),(Citation: lookout_bouldspy_0423),(Citation: CheckPoint-Charger),(Citation: fb_arid_viper),(Citation: Bitdefender Mandrake),</t>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: Kaspersky-WUC),(Citation: Cybereason FakeSpy),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: NYTimes-BackDoor),(Citation: Securelist Asacub),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Pegasus),(Citation: ThreatFabric Ginp),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_bouldspy_0423),(Citation: forcepoint_bitter),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Monokle),(Citation: Sophos Red Alert 2.0),(Citation: Talos-WolfRAT),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Cerberus),(Citation: Zscaler-SpyNote),(Citation: fb_arid_viper),(Citation: welivesec_strongpity),(Citation: CheckPoint-Charger),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: Cylance Dust Storm),(Citation: Lookout-Monokle),(Citation: Zscaler-SpyNote),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Desert Scorpion),(Citation: welivesecurity_ahrat_0523),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Project Zero Insomnia),(Citation: Talos Gustuff Apr 2019),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: securelist_brata_0819),(Citation: Gooligan Citation),(Citation: Talos GPlayed),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Lookout-StealthMango),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: Lookout eSurv),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: Bleeipng Computer Escobar),(Citation: FlexiSpy-Features),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Talos-WolfRAT),(Citation: fb_arid_viper),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Dendroid),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),(Citation: TrendMicro-XLoader-FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Proofpoint-Marcher),(Citation: Sophos Red Alert 2.0),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: Cofense Anubis),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: cyble_chameleon_0423),(Citation: cyble_drinik_1022),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Cerberus),(Citation: Google Security Zen),(Citation: Bitdefender Mandrake),(Citation: SecureList DVMap June 2017),(Citation: lookout_abstractemu_1021),(Citation: mcafee_brata_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Cerberus),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: TrendMicro-RCSAndroid),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: CheckPoint-Judy),(Citation: cyble_chameleon_0423),(Citation: PaloAlto-SpyDealer),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: paloalto_yispecter_1015),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),(Citation: Lookout eSurv),(Citation: Lookout ViperRAT),(Citation: SecureList DVMap June 2017),(Citation: SecureList BusyGasper),(Citation: lookout_abstractemu_1021),(Citation: mcafee_brata_0421),(Citation: Google Bread),(Citation: Kaspersky-Skygofree),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Talos-WolfRAT),(Citation: Google Security Zen),(Citation: Xiao-ZergHelper),(Citation: Bitdefender Mandrake),(Citation: Lookout-BrainTest),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: trendmicro_strongpity),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),</t>
-  </si>
-  <si>
-    <t>(Citation: welivesecurity_ahrat_0523),(Citation: ESET-Twitoor),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),</t>
+    <t>(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Cylance Dust Storm),(Citation: Lookout ViperRAT),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-RCSAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: cyble_drinik_1022),(Citation: Bitdefender - Triout 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: Gooligan Citation),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: Palo Alto HenBox),(Citation: Trend Micro Anubis),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: Lookout-StealthMango),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: Zscaler-SpyNote),(Citation: fb_arid_viper),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-XLoader),(Citation: lookout_hornbill_sunbird_0221),(Citation: Proofpoint-Marcher),(Citation: Talos GPlayed),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: mcafee_brata_0421),(Citation: lookout_abstractemu_1021),(Citation: cyble_drinik_1022),(Citation: Google Security Zen),(Citation: cleafy_brata_0122),(Citation: SecureList DVMap June 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint-Judy),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Xiao-ZergHelper),(Citation: Lookout ViperRAT),(Citation: mcafee_brata_0421),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-BrainTest),(Citation: Talos GPlayed),(Citation: SecureList DVMap June 2017),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: Google Triada June 2019),(Citation: Trend Micro Anubis),(Citation: SecureList BusyGasper),(Citation: Cybereason EventBot),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),(Citation: Sophos Red Alert 2.0),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: cleafy_brata_0122),(Citation: Google Security Zen),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),(Citation: trendmicro_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: ESET-Twitoor),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: Cylance Dust Storm),(Citation: Bitdefender - Triout 2018),(Citation: cleafy_brata_0122),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Triada June 2019),(Citation: welivesecurity_ahrat_0523),(Citation: nccgroup_sharkbot_0322),(Citation: trendmicro_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Wandera-RedDrop),(Citation: cyble_chameleon_0423),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: Zimperium FlyTrap),(Citation: cyble_drinik_1022),(Citation: Lookout eSurv),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-Skygofree),(Citation: Google Security Zen),(Citation: ArsTechnica-HummingBad),(Citation: PaloAlto-SpyDealer),(Citation: fb_arid_viper),(Citation: Lookout-Adware),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-BrainTest),(Citation: SecureList DVMap June 2017),(Citation: Volexity Insomnia),(Citation: lookout_abstractemu_1021),(Citation: Gooligan Citation),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Monokle),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: BlackBerry Bahamut),(Citation: Cylance Dust Storm),(Citation: Bleeipng Computer Escobar),(Citation: welivesec_strongpity),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason EventBot),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky Riltok June 2019),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: Group IB Gustuff Mar 2019),(Citation: trendmicro_tianyspy_0122),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: checkpoint_flixonline_0421),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: Sophos Red Alert 2.0),(Citation: Threat Fabric Exobot),(Citation: Cofense Anubis),(Citation: proofpoint_flubot_0421),(Citation: cyble_drinik_1022),(Citation: Trend Micro FlyTrap),(Citation: Proofpoint-Marcher),(Citation: PaloAlto-XcodeGhost),(Citation: Bleeipng Computer Escobar),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: CheckPoint-Judy),(Citation: Lookout-EnterpriseApps),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Tripwire-MazarBOT),(Citation: Wandera-RedDrop),(Citation: Google Bread),(Citation: CheckPoint SimBad 2019),(Citation: Google Security Zen),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-BrainTest),(Citation: Kaspersky Triada June 2016),(Citation: checkpoint_flixonline_0421),(Citation: ArsTechnica-HummingWhale),(Citation: Google Triada June 2019),(Citation: Gooligan Citation),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout eSurv),(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),</t>
+    <t>(Citation: Zimperium FlyTrap),(Citation: Cylance Dust Storm),(Citation: cleafy_brata_0122),(Citation: Lookout eSurv),(Citation: trendmicro_strongpity),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: cyble_drinik_1022),(Citation: Bitdefender - Triout 2018),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Google Triada June 2019),(Citation: TrendMicro-XLoader-FakeSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Gooligan Citation),(Citation: Lookout-Adware),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: fb_arid_viper),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),(Citation: Kaspersky-Skygofree),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CheckPoint Agent Smith),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: SecureList DVMap June 2017),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos-WolfRAT),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_hornbill_sunbird_0221),(Citation: CyberMerchants-FlexiSpy),(Citation: CheckPoint Agent Smith),(Citation: Talos GPlayed),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Cylance Dust Storm),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),</t>
+  </si>
+  <si>
+    <t>(Citation: trendmicro_tianyspy_0122),(Citation: Threat Fabric Exobot),(Citation: Bleeipng Computer Escobar),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: Proofpoint-Marcher),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro FlyTrap),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: cyble_chameleon_0423),(Citation: PaloAlto-XcodeGhost),(Citation: WhiteOps TERRACOTTA),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Cerberus),(Citation: Group IB Gustuff Mar 2019),(Citation: Lookout-Dendroid),(Citation: PaloAlto-Xbot),(Citation: cleafy_brata_0122),(Citation: cloudmark_tanglebot_0921),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky Triada June 2016),(Citation: checkpoint_flixonline_0421),(Citation: Gooligan Citation),(Citation: CheckPoint-Judy),(Citation: Google Triada June 2019),(Citation: Lookout-EnterpriseApps),(Citation: ArsTechnica-HummingBad),(Citation: WhiteOps TERRACOTTA),(Citation: Tripwire-MazarBOT),(Citation: Wandera-RedDrop),(Citation: CheckPoint SimBad 2019),(Citation: Google Bread),(Citation: CheckPoint Agent Smith),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingWhale),(Citation: WeLiveSecurity AdDisplayAshas),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: mcafee_brata_0421),(Citation: Lookout eSurv),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2946,64 +2946,64 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: welivesec_strongpity),(Citation: cyble_chameleon_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: fb_arid_viper),(Citation: Bitdefender Mandrake),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: nccgroup_sharkbot_0322),</t>
+    <t>(Citation: cyble_chameleon_0423),(Citation: fb_arid_viper),(Citation: welivesec_strongpity),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: lookout_hornbill_sunbird_0221),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-Monokle),</t>
   </si>
   <si>
     <t>(Citation: fb_arid_viper),(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
   </si>
   <si>
-    <t>(Citation: cleafy_sova_1122),(Citation: ThreatFabric Ginp),(Citation: CheckPoint Cerberus),(Citation: Talos Gustuff Apr 2019),(Citation: Google Security Zen),(Citation: Threat Fabric Cerberus),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: securelist_brata_0819),(Citation: ESET DEFENSOR ID),(Citation: mcafee_brata_0421),(Citation: Kaspersky Riltok June 2019),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason EventBot),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: trendmicro_tianyspy_0122),(Citation: Wandera-RedDrop),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: Lookout-PegasusAndroid),(Citation: Trend Micro FlyTrap),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: lookout_bouldspy_0423),(Citation: SecurityIntelligence TrickMo),</t>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky Riltok June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: securelist_brata_0819),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: mcafee_brata_0421),(Citation: nccgroup_sharkbot_0322),(Citation: ESET DEFENSOR ID),(Citation: cleafy_sova_1122),(Citation: Google Security Zen),</t>
+  </si>
+  <si>
+    <t>(Citation: trendmicro_tianyspy_0122),(Citation: Threat Fabric Exobot),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: SWB Exodus March 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: lookout_abstractemu_1021),(Citation: Trend Micro FlyTrap),(Citation: Securelist Asacub),(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),(Citation: Wandera-RedDrop),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Exobot),(Citation: Bleeipng Computer Escobar),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: Cofense Anubis),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: lookout_bouldspy_0423),(Citation: cyble_chameleon_0423),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: mcafee_brata_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: Zscaler-SpyNote),(Citation: Bitdefender - Triout 2018),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Cerberus),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler TikTok Spyware),(Citation: CrowdStrike-Android),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky-WUC),(Citation: Google Project Zero Insomnia),(Citation: NYTimes-BackDoor),(Citation: cyble_chameleon_0423),(Citation: PaloAlto-SpyDealer),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: Lookout-Pegasus),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Lookout-StealthMango),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: Trend Micro FlyTrap),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: Lookout eSurv),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: lookout_abstractemu_1021),(Citation: Lookout-EnterpriseApps),(Citation: kaspersky_fakecalls_0422),(Citation: Bleeipng Computer Escobar),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: CheckPoint-Charger),(Citation: Bitdefender Mandrake),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason FakeSpy),(Citation: CheckPoint SimBad 2019),(Citation: Securelist Asacub),(Citation: MoustachedBouncer ESET August 2023),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Zscaler TikTok Spyware),(Citation: CrowdStrike-Android),(Citation: Microsoft MalLockerB),(Citation: ThreatFabric Ginp),(Citation: trendmicro_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: Forbes Cerberus),(Citation: CheckPoint Agent Smith),(Citation: securelist_brata_0819),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: welivesecurity_apt-c-23),(Citation: blackberry_mobile_malware_apt_esp),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: Trend Micro Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: mcafee_brata_0421),(Citation: forcepoint_bitter),(Citation: kaspersky_fakecalls_0422),(Citation: Proofpoint-Droidjack),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Talos-WolfRAT),(Citation: fb_arid_viper),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),</t>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: mcafee_brata_0421),(Citation: cyble_drinik_1022),(Citation: lookout_bouldspy_0423),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: cleafy_brata_0122),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: CrowdStrike-Android),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: Kaspersky-WUC),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-Skygofree),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro FlyTrap),(Citation: Bitdefender - Triout 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: NYTimes-BackDoor),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Lookout-Pegasus),(Citation: SecureList BusyGasper),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Monokle),(Citation: Threat Fabric Cerberus),(Citation: Zscaler-SpyNote),(Citation: welivesec_strongpity),(Citation: CheckPoint-Charger),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: cleafy_brata_0122),(Citation: cloudmark_tanglebot_0921),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Forbes Cerberus),(Citation: Threat Fabric Exobot),(Citation: welivesecurity_apt-c-23),(Citation: Lookout FrozenCell),(Citation: Lookout ViperRAT),(Citation: CrowdStrike-Android),(Citation: mcafee_brata_0421),(Citation: CheckPoint Agent Smith),(Citation: Cybereason FakeSpy),(Citation: trendmicro_strongpity),(Citation: CheckPoint SimBad 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: checkpoint_hamas_android_malware),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: Palo Alto HenBox),(Citation: Trend Micro Anubis),(Citation: securelist_brata_0819),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: forcepoint_bitter),(Citation: Sophos Red Alert 2.0),(Citation: Talos-WolfRAT),(Citation: sophos_android_apt_spyware),(Citation: fb_arid_viper),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Microsoft MalLockerB),(Citation: SecureList - ViceLeaker 2019),(Citation: MoustachedBouncer ESET August 2023),(Citation: Lookout-Dendroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: Proofpoint-Droidjack),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: Google Bread),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Securelist Asacub),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Cerberus),(Citation: cyble_chameleon_0423),(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),(Citation: FortiGuard-FlexiSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: Securelist Asacub),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: Microsoft MalLockerB),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Bouncing Golf 2019),(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro-XLoader),(Citation: Talos Gustuff Apr 2019),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-Obad),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: PaloAlto-WireLurker),(Citation: cyble_drinik_1022),(Citation: SecureList DVMap June 2017),(Citation: lookout_abstractemu_1021),(Citation: mcafee_brata_0421),(Citation: FortiGuard-FlexiSpy),(Citation: Check Point-Joker),(Citation: Google Bread),(Citation: Talos-WolfRAT),(Citation: Google Security Zen),(Citation: CheckPoint-Charger),(Citation: Volexity Insomnia),(Citation: Lookout-BrainTest),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),</t>
+    <t>(Citation: SWB Exodus March 2019),(Citation: cyble_chameleon_0423),(Citation: CheckPoint Cerberus),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: Volexity Insomnia),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: trendmicro_tianyspy_0122),(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),(Citation: Cybereason FakeSpy),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Check Point-Joker),(Citation: Google Bread),(Citation: cyble_drinik_1022),(Citation: Lookout Dark Caracal Jan 2018),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader),(Citation: Lookout-BrainTest),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos GPlayed),(Citation: SecureList DVMap June 2017),(Citation: Securelist Asacub),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: TrendMicro-Obad),(Citation: nccgroup_sharkbot_0322),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Monokle),(Citation: Sophos Red Alert 2.0),(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: welivesec_strongpity),(Citation: CheckPoint-Charger),(Citation: Microsoft MalLockerB),(Citation: FortiGuard-FlexiSpy),(Citation: PaloAlto-WireLurker),(Citation: Volexity Insomnia),(Citation: cleafy_brata_0122),(Citation: Google Security Zen),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Kaspersky-WUC),(Citation: Lookout-PegasusAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-Skygofree),(Citation: lookout_bouldspy_0423),(Citation: PaloAlto-SpyDealer),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: TrendMicro-RCSAndroid),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: CitizenLab Great iPwn),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Meta Adversarial Threat Report 2022),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),(Citation: Leonard TAG 2023),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-Obad),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),(Citation: bitdefender_flubot_0524),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: securelist rotexy 2018),(Citation: Zimperium z9),(Citation: Palo Alto HenBox),(Citation: nccgroup_sharkbot_0322),(Citation: paloalto_yispecter_1015),</t>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: SecureList BusyGasper),(Citation: Kaspersky-Skygofree),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: Lookout-StealthMango),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: Kaspersky-WUC),(Citation: Lookout-Monokle),(Citation: TrendMicro-RCSAndroid),</t>
+  </si>
+  <si>
+    <t>(Citation: sophos_android_apt_spyware),(Citation: blackberry_mobile_malware_apt_esp),(Citation: securelist_brata_0819),(Citation: Meta Adversarial Threat Report 2022),(Citation: checkpoint_hamas_android_malware),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: CitizenLab Great iPwn),(Citation: Leonard TAG 2023),</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: bitdefender_flubot_0524),(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Obad),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Zimperium z9),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),</t>
   </si>
   <si>
     <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Security Zen),</t>
+    <t>(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Project Zero Insomnia),(Citation: Google Security Zen),</t>
   </si>
   <si>
     <t>(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),</t>
@@ -3012,85 +3012,85 @@
     <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
   </si>
   <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason FakeSpy),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: welivesecurity_ahrat_0523),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: threatfabric_sova_0921),(Citation: cloudmark_tanglebot_0921),(Citation: Talos GPlayed),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-StealthMango),(Citation: Cofense Anubis),(Citation: proofpoint_flubot_0421),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: forcepoint_bitter),(Citation: Bleeipng Computer Escobar),(Citation: Talos-WolfRAT),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: bitdefender_flubot_0524),(Citation: Lookout-Dendroid),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason EventBot),(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: Cylance Dust Storm),(Citation: Cybereason FakeSpy),(Citation: Meta Adversarial Threat Report 2022),(Citation: Zscaler-SpyNote),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky Riltok June 2019),(Citation: nccgroup_sharkbot_0322),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Tripwire-MazarBOT),(Citation: Kaspersky-WUC),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro-XLoader),(Citation: NYTimes-BackDoor),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: PaloAlto-SpyDealer),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: Lookout-Pegasus),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-StealthMango),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: cyble_drinik_1022),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: lookout_abstractemu_1021),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SuperMarioRun),(Citation: Bleeipng Computer Escobar),(Citation: FlexiSpy-Features),(Citation: FireEye-RuMMS),(Citation: Google Bread),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky Triada March 2016),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Talos-WolfRAT),(Citation: fb_arid_viper),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Dendroid),</t>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Bleeipng Computer Escobar),(Citation: threatfabric_sova_0921),(Citation: Lookout Desert Scorpion),(Citation: Cybereason FakeSpy),(Citation: bitdefender_flubot_0524),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: Lookout-StealthMango),(Citation: nccgroup_sharkbot_0322),(Citation: forcepoint_bitter),(Citation: welivesecurity_ahrat_0523),(Citation: Sophos Red Alert 2.0),(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Dendroid),(Citation: cloudmark_tanglebot_0921),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Bleeipng Computer Escobar),(Citation: threatfabric_sova_0921),(Citation: Kaspersky Triada March 2016),(Citation: FireEye-RuMMS),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Cylance Dust Storm),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: Kaspersky-WUC),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-RCSAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Bread),(Citation: cyble_drinik_1022),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: NYTimes-BackDoor),(Citation: Securelist Asacub),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Lookout-Pegasus),(Citation: Tripwire-MazarBOT),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: forcepoint_bitter),(Citation: FlexiSpy-Features),(Citation: Sophos Red Alert 2.0),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Riltok June 2019),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: Zscaler-SpyNote),(Citation: fb_arid_viper),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: PaloAlto-Xbot),(Citation: Zscaler-SuperMarioRun),(Citation: cloudmark_tanglebot_0921),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
   </si>
   <si>
-    <t>(Citation: Talos GPlayed),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_sova_1122),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: cloudmark_tanglebot_0921),(Citation: securelist_brata_0819),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: cyble_drinik_1022),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: ESET DEFENSOR ID),(Citation: mcafee_brata_0421),(Citation: FlexiSpy-Features),(Citation: Talos-WolfRAT),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_sova_1122),(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Triada June 2019),(Citation: Kaspersky Riltok June 2019),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Project Zero Insomnia),(Citation: cyble_chameleon_0423),(Citation: cloudmark_tanglebot_0921),(Citation: CheckPoint Agent Smith),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: paloalto_yispecter_1015),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: Cofense Anubis),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: ESET DEFENSOR ID),(Citation: lookout_abstractemu_1021),(Citation: FlexiSpy-Features),(Citation: Talos-WolfRAT),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Bread),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>,(Citation: Trend Micro iOS URL Hijacking),(Citation: Android App Links),(Citation: iOS Universal Links),(Citation: IETF-PKCE)</t>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: cleafy_sova_1122),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: welivesecurity_ahrat_0523),(Citation: FlexiSpy-Features),(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: ESET DEFENSOR ID),(Citation: cloudmark_tanglebot_0921),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: cleafy_brata_0122),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: CheckPoint Agent Smith),(Citation: cleafy_sova_1122),(Citation: Cybereason FakeSpy),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: Google Project Zero Insomnia),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: Lookout-StealthMango),(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: Sophos Red Alert 2.0),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Riltok June 2019),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: ESET DEFENSOR ID),(Citation: Google Triada June 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Google Bread),</t>
+  </si>
+  <si>
+    <t>,(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE),(Citation: Android App Links),(Citation: iOS Universal Links)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: cleafy_sova_1122),(Citation: Cybereason FakeSpy),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: SWB Exodus March 2019),(Citation: threatfabric_sova_0921),(Citation: PaloAlto-SpyDealer),(Citation: checkpoint_flixonline_0421),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: FortiGuard-FlexiSpy),(Citation: Bleeipng Computer Escobar),(Citation: Kaspersky-Skygofree),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
-  </si>
-  <si>
-    <t>(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Cybereason FakeSpy),(Citation: CheckPoint SimBad 2019),(Citation: Bitdefender - Triout 2018),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: Group IB Gustuff Mar 2019),(Citation: threatfabric_sova_0921),(Citation: checkpoint_flixonline_0421),(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: ESET-Twitoor),(Citation: cyble_drinik_1022),(Citation: SecureList BusyGasper),(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: Bitdefender Mandrake),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: welivesec_strongpity),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: BlackBerry Bahamut),(Citation: Cybereason FakeSpy),(Citation: Trend Micro Anubis),(Citation: Talos-WolfRAT),(Citation: cyble_chameleon_0423),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_abstractemu_1021),(Citation: mcafee_brata_0421),(Citation: Lookout-Dendroid),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: BlackBerry Bahamut),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: CheckPoint Cerberus),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky Riltok June 2019),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: trendmicro_tianyspy_0122),(Citation: Wandera-RedDrop),(Citation: Kaspersky-WUC),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro-Anserver2),(Citation: Talos Gustuff Apr 2019),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: securelist_brata_0819),(Citation: Palo Alto HenBox),(Citation: Talos GPlayed),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Pegasus),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: Symantec GoldenCup),(Citation: Xiao-KeyRaider),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: Lookout eSurv),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: SecureList DVMap June 2017),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: FireEye-RuMMS),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: fb_arid_viper),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: Cybereason EventBot),(Citation: TrendMicro Coronavirus Updates),(Citation: PaloAlto-DualToy),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: Securelist Asacub),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Kaspersky Riltok June 2019),(Citation: WhiteOps TERRACOTTA),(Citation: SWB Exodus March 2019),(Citation: trendmicro_tianyspy_0122),(Citation: Wandera-RedDrop),(Citation: Google Project Zero Insomnia),(Citation: TrendMicro-Anserver2),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-SpyDealer),(Citation: checkpoint_hamas_android_malware),(Citation: Talos GPlayed),(Citation: paloalto_yispecter_1015),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: Trend Micro FlyTrap),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: FireEye-RuMMS),(Citation: Google Bread),(Citation: Lookout FrozenCell),(Citation: lookout_bouldspy_0423),(Citation: Talos-WolfRAT),(Citation: SecurityIntelligence TrickMo),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: trendmicro_strongpity),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: checkpoint_flixonline_0421),(Citation: Zimperium FlyTrap),(Citation: threatfabric_sova_0921),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: cleafy_sova_1122),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro FlyTrap),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: SecureList BusyGasper),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),(Citation: FortiGuard-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+  </si>
+  <si>
+    <t>(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: ESET-Twitoor),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint Agent Smith),(Citation: CheckPoint SimBad 2019),(Citation: Cybereason FakeSpy),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: Bitdefender - Triout 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: paloalto_yispecter_1015),(Citation: FlexiSpy-Features),(Citation: Threat Fabric Cerberus),(Citation: Group IB Gustuff Mar 2019),(Citation: FortiGuard-FlexiSpy),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
+  </si>
+  <si>
+    <t>(Citation: welivesec_strongpity),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),</t>
+  </si>
+  <si>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: cyble_chameleon_0423),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Anubis),(Citation: ThreatFabric Ginp),(Citation: Lookout-Dendroid),(Citation: lookout_abstractemu_1021),(Citation: mcafee_brata_0421),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: BlackBerry Bahamut),(Citation: Cybereason FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),</t>
+  </si>
+  <si>
+    <t>(Citation: trendmicro_tianyspy_0122),(Citation: Threat Fabric Exobot),(Citation: threatfabric_sova_0921),(Citation: FireEye-RuMMS),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: Kaspersky-WUC),(Citation: Cybereason FakeSpy),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: securelist rotexy 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: SecureList DVMap June 2017),(Citation: Securelist Asacub),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: Palo Alto HenBox),(Citation: securelist_brata_0819),(Citation: Lookout-Pegasus),(Citation: Wandera-RedDrop),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Monokle),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Cerberus),(Citation: fb_arid_viper),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-Anserver2),(Citation: Xiao-KeyRaider),</t>
+  </si>
+  <si>
+    <t>(Citation: trendmicro_tianyspy_0122),(Citation: Threat Fabric Exobot),(Citation: FireEye-RuMMS),(Citation: Lookout FrozenCell),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: lookout_abstractemu_1021),(Citation: Trend Micro FlyTrap),(Citation: checkpoint_hamas_android_malware),(Citation: Google Bread),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: PaloAlto-DualToy),(Citation: Securelist Asacub),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-EnterpriseApps),(Citation: WhiteOps TERRACOTTA),(Citation: Wandera-RedDrop),(Citation: Cybereason EventBot),(Citation: Lookout-StealthMango),(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),(Citation: forcepoint_bitter),(Citation: Lookout-Monokle),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Riltok June 2019),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason FakeSpy),(Citation: trendmicro_strongpity),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),</t>
+  </si>
+  <si>
+    <t>(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: lookout_abstractemu_1021),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-RCSAndroid),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-SpyDealer),(Citation: cloudmark_tanglebot_0921),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout ViperRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: lookout_abstractemu_1021),(Citation: forcepoint_bitter),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler-SuperMarioRun),(Citation: Bleeipng Computer Escobar),(Citation: CyberMerchants-FlexiSpy),(Citation: Kaspersky-Skygofree),(Citation: Talos-WolfRAT),(Citation: lookout_bouldspy_0423),(Citation: fb_arid_viper),(Citation: Lookout-Dendroid),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: SecureList BusyGasper),(Citation: lookout_abstractemu_1021),(Citation: lookout_hornbill_sunbird_0221),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-Skygofree),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_bouldspy_0423),(Citation: forcepoint_bitter),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: fb_arid_viper),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: Zscaler-SuperMarioRun),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason FakeSpy),(Citation: CheckPoint Cerberus),(Citation: Securelist Asacub),(Citation: cleafy_brata_0122),(Citation: Bitdefender - Triout 2018),(Citation: securelist rotexy 2018),(Citation: Lookout Dark Caracal Jan 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky Riltok June 2019),(Citation: nccgroup_sharkbot_0322),(Citation: SWB Exodus March 2019),(Citation: Wandera-RedDrop),(Citation: Kaspersky-WUC),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: Talos GPlayed),(Citation: paloalto_yispecter_1015),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: Threat Fabric Exobot),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: Zimperium FlyTrap),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList - ViceLeaker 2019),(Citation: ESET DEFENSOR ID),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky-MobileMalware),(Citation: FireEye-RuMMS),(Citation: Google Bread),(Citation: Kaspersky-Skygofree),(Citation: lookout_bouldspy_0423),(Citation: Volexity Insomnia),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: trendmicro_tianyspy_0122),(Citation: Wandera-RedDrop),(Citation: Google Project Zero Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: lookout_bouldspy_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecurityIntelligence TrickMo),(Citation: TelephonyManager)</t>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Zimperium FlyTrap),(Citation: threatfabric_sova_0921),(Citation: FireEye-RuMMS),(Citation: Kaspersky-WUC),(Citation: Cybereason FakeSpy),(Citation: Talos Gustuff Apr 2019),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-Skygofree),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Bread),(Citation: securelist rotexy 2018),(Citation: Bitdefender - Triout 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: Kaspersky-MobileMalware),(Citation: Wandera-RedDrop),(Citation: Cybereason EventBot),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),(Citation: welivesecurity_ahrat_0523),(Citation: Sophos Red Alert 2.0),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Riltok June 2019),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: ESET DEFENSOR ID),(Citation: Volexity Insomnia),(Citation: cleafy_brata_0122),</t>
+  </si>
+  <si>
+    <t>(Citation: trendmicro_tianyspy_0122),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Wandera-RedDrop),(Citation: Lookout-PegasusAndroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
@@ -2796,13 +2796,13 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: Talos-WolfRAT),(Citation: Bleeipng Computer Escobar),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: TrendMicro Coronavirus Updates),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Check Point-Joker),(Citation: lookout_hornbill_sunbird_0221),(Citation: nccgroup_sharkbot_0322),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Check Point-Joker),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: Bleeipng Computer Escobar),(Citation: threatfabric_sova_0921),(Citation: Talos-WolfRAT),(Citation: welivesec_strongpity),(Citation: TrendMicro Coronavirus Updates),(Citation: Bitdefender Mandrake),(Citation: checkpoint_flixonline_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),</t>
+    <t>(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),</t>
   </si>
   <si>
     <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
@@ -2811,130 +2811,130 @@
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout FrozenCell),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Symantec GoldenCup),(Citation: cleafy_brata_0122),(Citation: Securelist Asacub),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),(Citation: nccgroup_sharkbot_0322),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-Skygofree),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: TrendMicro-XLoader),(Citation: Bitdefender - Triout 2018),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Pegasus),(Citation: SecureList BusyGasper),(Citation: Wandera-RedDrop),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_bouldspy_0423),(Citation: forcepoint_bitter),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: Zscaler-SpyNote),(Citation: fb_arid_viper),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: Zscaler-SuperMarioRun),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: HackerNews-OldBoot),(Citation: welivesecurity_ahrat_0523),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: checkpoint_flixonline_0421),(Citation: Lookout-PegasusAndroid),(Citation: CheckPoint SimBad 2019),(Citation: Cybereason FakeSpy),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason EventBot),(Citation: welivesecurity_ahrat_0523),(Citation: SecurityIntelligence TrickMo),(Citation: Zscaler-SpyNote),(Citation: welivesec_strongpity),(Citation: FortiGuard-FlexiSpy),(Citation: Microsoft MalLockerB),(Citation: ESET DEFENSOR ID),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout Uyghur Campaign),(Citation: kaspersky_fakecalls_0422),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: mcafee_brata_0421),(Citation: cyble_drinik_1022),(Citation: forcepoint_bitter),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-WUC),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: cyble_drinik_1022),(Citation: NYTimes-BackDoor),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: lookout_bouldspy_0423),(Citation: forcepoint_bitter),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Monokle),(Citation: Sophos Red Alert 2.0),(Citation: Talos-WolfRAT),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler-SuperMarioRun),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: PaloAlto-XcodeGhost),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: trendmicro_tianyspy_0122),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Bitdefender Mandrake),(Citation: BlackBerry Bahamut),(Citation: paloalto_yispecter_1015),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: SecureList DVMap June 2017),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: cleafy_brata_0122),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: Google Triada June 2019),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Dendroid),(Citation: Cofense Anubis),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Lookout-EnterpriseApps),(Citation: lookout_hornbill_sunbird_0221),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: Bitdefender - Triout 2018),(Citation: Talos-WolfRAT),(Citation: welivesec_strongpity),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: Meta Adversarial Threat Report 2022),(Citation: PaloAlto-SpyDealer),(Citation: Bleeipng Computer Escobar),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: Lookout-Pegasus),(Citation: TrendMicro-XLoader),(Citation: Kaspersky-Skygofree),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: SecureList BusyGasper),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: HackerNews-OldBoot),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: FortiGuard-FlexiSpy),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Talos GPlayed),(Citation: Microsoft MalLockerB),(Citation: Cybereason EventBot),(Citation: welivesec_strongpity),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: Palo Alto HenBox),(Citation: checkpoint_flixonline_0421),(Citation: ESET DEFENSOR ID),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: CheckPoint SimBad 2019),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: forcepoint_bitter),(Citation: kaspersky_fakecalls_0422),(Citation: cloudmark_tanglebot_0921),(Citation: Bleeipng Computer Escobar),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: mcafee_brata_0421),(Citation: cyble_drinik_1022),</t>
+  </si>
+  <si>
+    <t>(Citation: NYTimes-BackDoor),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-EnterpriseApps),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: cloudmark_tanglebot_0921),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: Talos-WolfRAT),(Citation: welivesec_strongpity),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-StealthMango),(Citation: cyble_drinik_1022),(Citation: PaloAlto-SpyDealer),(Citation: Bleeipng Computer Escobar),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: Lookout-Pegasus),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky-WUC),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: BlackBerry Bahamut),(Citation: Lookout Uyghur Campaign),(Citation: trendmicro_tianyspy_0122),(Citation: paloalto_yispecter_1015),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Adware),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-BrainTest),(Citation: Lookout-Monokle),</t>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: SecureList BusyGasper),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: Lookout-Monokle),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
   </si>
   <si>
-    <t>(Citation: BankInfoSecurity-BackDoor),(Citation: HackerNews-Allwinner),(Citation: Google Triada June 2019),(Citation: Lookout-StealthMango),(Citation: Krebs-Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: NYTimes-BackDoor),</t>
+    <t>(Citation: Google Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: NYTimes-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: Lookout-StealthMango),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: Kaspersky-WUC),(Citation: Cybereason FakeSpy),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: NYTimes-BackDoor),(Citation: Securelist Asacub),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Pegasus),(Citation: ThreatFabric Ginp),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_bouldspy_0423),(Citation: forcepoint_bitter),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Monokle),(Citation: Sophos Red Alert 2.0),(Citation: Talos-WolfRAT),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Cerberus),(Citation: Zscaler-SpyNote),(Citation: fb_arid_viper),(Citation: welivesec_strongpity),(Citation: CheckPoint-Charger),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),</t>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Cofense Anubis),(Citation: NYTimes-BackDoor),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-Monokle),(Citation: Lookout-EnterpriseApps),(Citation: lookout_hornbill_sunbird_0221),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: welivesec_strongpity),(Citation: ThreatFabric Ginp),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-WUC),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: Cybereason FakeSpy),(Citation: Meta Adversarial Threat Report 2022),(Citation: PaloAlto-SpyDealer),(Citation: proofpoint_flubot_0421),(Citation: Talos Gustuff Apr 2019),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Zscaler-SpyNote),(Citation: CyberMerchants-FlexiSpy),(Citation: Threat Fabric Cerberus),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: securelist rotexy 2018),(Citation: Lookout ViperRAT),(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: CheckPoint-Charger),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Cylance Dust Storm),(Citation: Lookout ViperRAT),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-RCSAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: cyble_drinik_1022),(Citation: Bitdefender - Triout 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: Gooligan Citation),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: Palo Alto HenBox),(Citation: Trend Micro Anubis),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: Lookout-StealthMango),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: FlexiSpy-Features),(Citation: Lookout-Monokle),(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: Zscaler-SpyNote),(Citation: fb_arid_viper),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-XLoader),(Citation: lookout_hornbill_sunbird_0221),(Citation: Proofpoint-Marcher),(Citation: Talos GPlayed),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Cerberus),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: mcafee_brata_0421),(Citation: lookout_abstractemu_1021),(Citation: cyble_drinik_1022),(Citation: Google Security Zen),(Citation: cleafy_brata_0122),(Citation: SecureList DVMap June 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint-Judy),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Xiao-ZergHelper),(Citation: Lookout ViperRAT),(Citation: mcafee_brata_0421),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-BrainTest),(Citation: Talos GPlayed),(Citation: SecureList DVMap June 2017),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: Google Triada June 2019),(Citation: Trend Micro Anubis),(Citation: SecureList BusyGasper),(Citation: Cybereason EventBot),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),(Citation: Sophos Red Alert 2.0),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: cleafy_brata_0122),(Citation: Google Security Zen),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),(Citation: trendmicro_strongpity),</t>
-  </si>
-  <si>
-    <t>(Citation: ESET-Twitoor),(Citation: welivesecurity_ahrat_0523),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),(Citation: CheckPoint-Charger),</t>
+    <t>(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-Dendroid),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: SecureList BusyGasper),(Citation: Bitdefender - Triout 2018),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Anubis),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: Bleeipng Computer Escobar),(Citation: cyble_chameleon_0423),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cylance Dust Storm),(Citation: Zscaler-SpyNote),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: Gooligan Citation),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),</t>
+  </si>
+  <si>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),(Citation: TrendMicro-XLoader-FakeSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: Proofpoint-Marcher),(Citation: Securelist Asacub),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_brata_0122),(Citation: SecureList DVMap June 2017),(Citation: proofpoint_flubot_0421),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-BrainTest),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: SecureList BusyGasper),(Citation: Cybereason EventBot),(Citation: Talos-WolfRAT),(Citation: Trend Micro Anubis),(Citation: Google Security Zen),(Citation: Xiao-ZergHelper),(Citation: nccgroup_sharkbot_0322),(Citation: PaloAlto-SpyDealer),(Citation: Google Triada June 2019),(Citation: CheckPoint-Judy),(Citation: cyble_chameleon_0423),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: cleafy_brata_0122),(Citation: Lookout ViperRAT),(Citation: Kaspersky-Skygofree),(Citation: Google Bread),(Citation: BlackBerry Bahamut),(Citation: paloalto_yispecter_1015),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: paloalto_yispecter_1015),(Citation: trendmicro_strongpity),(Citation: Volexity Insomnia),(Citation: Lookout-StealthMango),</t>
+  </si>
+  <si>
+    <t>(Citation: welivesecurity_ahrat_0523),(Citation: ESET-Twitoor),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-Xbot),(Citation: CheckPoint-Charger),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: Zimperium FlyTrap),(Citation: Cylance Dust Storm),(Citation: cleafy_brata_0122),(Citation: Lookout eSurv),(Citation: trendmicro_strongpity),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: cyble_drinik_1022),(Citation: Bitdefender - Triout 2018),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: Google Triada June 2019),(Citation: TrendMicro-XLoader-FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
+    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_hornbill_sunbird_0221),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender - Triout 2018),(Citation: welivesec_strongpity),(Citation: trendmicro_strongpity),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: Google Triada June 2019),(Citation: proofpoint_flubot_0421),(Citation: Wandera-RedDrop),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cylance Dust Storm),(Citation: Lookout eSurv),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: lookout_bouldspy_0423),(Citation: cleafy_brata_0122),(Citation: welivesecurity_ahrat_0523),(Citation: Zimperium FlyTrap),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
   </si>
   <si>
     <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
   </si>
   <si>
-    <t>(Citation: Gooligan Citation),(Citation: Lookout-Adware),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: fb_arid_viper),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),(Citation: Kaspersky-Skygofree),(Citation: Lookout-PegasusAndroid),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CheckPoint Agent Smith),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: SecureList DVMap June 2017),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Monokle),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_hornbill_sunbird_0221),(Citation: CyberMerchants-FlexiSpy),(Citation: CheckPoint Agent Smith),(Citation: Talos GPlayed),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Cylance Dust Storm),(Citation: welivesec_strongpity),(Citation: lookout_hornbill_sunbird_0221),(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),(Citation: welivesecurity_ahrat_0523),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),</t>
-  </si>
-  <si>
-    <t>(Citation: trendmicro_tianyspy_0122),(Citation: Threat Fabric Exobot),(Citation: Bleeipng Computer Escobar),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: Proofpoint-Marcher),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro FlyTrap),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: cyble_chameleon_0423),(Citation: PaloAlto-XcodeGhost),(Citation: WhiteOps TERRACOTTA),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: nccgroup_sharkbot_0322),(Citation: Sophos Red Alert 2.0),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Cerberus),(Citation: Group IB Gustuff Mar 2019),(Citation: Lookout-Dendroid),(Citation: PaloAlto-Xbot),(Citation: cleafy_brata_0122),(Citation: cloudmark_tanglebot_0921),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: Kaspersky Triada June 2016),(Citation: checkpoint_flixonline_0421),(Citation: Gooligan Citation),(Citation: CheckPoint-Judy),(Citation: Google Triada June 2019),(Citation: Lookout-EnterpriseApps),(Citation: ArsTechnica-HummingBad),(Citation: WhiteOps TERRACOTTA),(Citation: Tripwire-MazarBOT),(Citation: Wandera-RedDrop),(Citation: CheckPoint SimBad 2019),(Citation: Google Bread),(Citation: CheckPoint Agent Smith),(Citation: Google Security Zen),(Citation: Lookout-BrainTest),(Citation: ArsTechnica-HummingWhale),(Citation: WeLiveSecurity AdDisplayAshas),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: mcafee_brata_0421),(Citation: Lookout eSurv),</t>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: CheckPoint Agent Smith),(Citation: SWB Exodus March 2019),(Citation: ArsTechnica-HummingBad),(Citation: SecureList DVMap June 2017),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Adware),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),(Citation: Lookout-BrainTest),(Citation: Gooligan Citation),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Volexity Insomnia),(Citation: Google Security Zen),(Citation: fb_arid_viper),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: kaspersky_fakecalls_0422),(Citation: Talos GPlayed),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),</t>
+  </si>
+  <si>
+    <t>(Citation: Symantec GoldenCup),(Citation: Bleeipng Computer Escobar),(Citation: BlackBerry Bahamut),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: Zscaler TikTok Spyware),(Citation: Cylance Dust Storm),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Lookout-Dendroid),(Citation: Cofense Anubis),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Group IB Gustuff Mar 2019),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: PaloAlto-XcodeGhost),(Citation: trendmicro_tianyspy_0122),(Citation: ThreatFabric Ginp),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Bleeipng Computer Escobar),(Citation: cyble_chameleon_0423),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-Xbot),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: cleafy_brata_0122),(Citation: securelist rotexy 2018),(Citation: threatfabric_sova_0921),(Citation: Trend Micro FlyTrap),(Citation: checkpoint_flixonline_0421),(Citation: Proofpoint-Marcher),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Triada June 2019),(Citation: CheckPoint Agent Smith),(Citation: ArsTechnica-HummingBad),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint-Judy),(Citation: Wandera-RedDrop),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint SimBad 2019),(Citation: Google Bread),(Citation: Tripwire-MazarBOT),(Citation: Lookout-BrainTest),(Citation: Gooligan Citation),(Citation: checkpoint_flixonline_0421),(Citation: Kaspersky Triada June 2016),(Citation: Google Security Zen),(Citation: ArsTechnica-HummingWhale),(Citation: Lookout-EnterpriseApps),</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2946,151 +2946,151 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: fb_arid_viper),(Citation: welivesec_strongpity),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: lookout_hornbill_sunbird_0221),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-Monokle),</t>
-  </si>
-  <si>
-    <t>(Citation: fb_arid_viper),(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky Riltok June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: securelist_brata_0819),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: mcafee_brata_0421),(Citation: nccgroup_sharkbot_0322),(Citation: ESET DEFENSOR ID),(Citation: cleafy_sova_1122),(Citation: Google Security Zen),</t>
-  </si>
-  <si>
-    <t>(Citation: trendmicro_tianyspy_0122),(Citation: Threat Fabric Exobot),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: SWB Exodus March 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: lookout_abstractemu_1021),(Citation: Trend Micro FlyTrap),(Citation: Securelist Asacub),(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),(Citation: Wandera-RedDrop),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_hornbill_sunbird_0221),</t>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesec_strongpity),(Citation: Bitdefender Mandrake),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: ESET DEFENSOR ID),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: CheckPoint Cerberus),(Citation: cleafy_sova_1122),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819),(Citation: Threat Fabric Cerberus),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_abstractemu_1021),(Citation: Cybereason EventBot),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason FakeSpy),(Citation: Wandera-RedDrop),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: Trend Micro FlyTrap),(Citation: Securelist Asacub),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: Cofense Anubis),(Citation: Cybereason EventBot),(Citation: mcafee_brata_0421),(Citation: cyble_drinik_1022),(Citation: lookout_bouldspy_0423),(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: cleafy_brata_0122),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: CrowdStrike-Android),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: Kaspersky-WUC),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-Skygofree),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro FlyTrap),(Citation: Bitdefender - Triout 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: NYTimes-BackDoor),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Lookout-Pegasus),(Citation: SecureList BusyGasper),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Monokle),(Citation: Threat Fabric Cerberus),(Citation: Zscaler-SpyNote),(Citation: welivesec_strongpity),(Citation: CheckPoint-Charger),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: cleafy_brata_0122),(Citation: cloudmark_tanglebot_0921),(Citation: CSRIC5-WG10-FinalReport)</t>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: cleafy_brata_0122),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Exobot),(Citation: Bleeipng Computer Escobar),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: cyble_chameleon_0423),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Cofense Anubis),(Citation: NYTimes-BackDoor),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Lookout-EnterpriseApps),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: SecureList BusyGasper),(Citation: Bitdefender - Triout 2018),(Citation: welivesec_strongpity),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-WUC),(Citation: Lookout-StealthMango),(Citation: Meta Adversarial Threat Report 2022),(Citation: PaloAlto-SpyDealer),(Citation: Bleeipng Computer Escobar),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Zscaler-SpyNote),(Citation: CyberMerchants-FlexiSpy),(Citation: Threat Fabric Cerberus),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: cleafy_brata_0122),(Citation: Lookout ViperRAT),(Citation: Lookout-Pegasus),(Citation: Kaspersky-Skygofree),(Citation: CrowdStrike-Android),(Citation: BlackBerry Bahamut),(Citation: CheckPoint-Charger),(Citation: Trend Micro FlyTrap),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: CSRIC5-WG10-FinalReport)</t>
   </si>
   <si>
     <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
   </si>
   <si>
-    <t>(Citation: Forbes Cerberus),(Citation: Threat Fabric Exobot),(Citation: welivesecurity_apt-c-23),(Citation: Lookout FrozenCell),(Citation: Lookout ViperRAT),(Citation: CrowdStrike-Android),(Citation: mcafee_brata_0421),(Citation: CheckPoint Agent Smith),(Citation: Cybereason FakeSpy),(Citation: trendmicro_strongpity),(Citation: CheckPoint SimBad 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: checkpoint_hamas_android_malware),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: Palo Alto HenBox),(Citation: Trend Micro Anubis),(Citation: securelist_brata_0819),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: forcepoint_bitter),(Citation: Sophos Red Alert 2.0),(Citation: Talos-WolfRAT),(Citation: sophos_android_apt_spyware),(Citation: fb_arid_viper),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Microsoft MalLockerB),(Citation: SecureList - ViceLeaker 2019),(Citation: MoustachedBouncer ESET August 2023),(Citation: Lookout-Dendroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: Proofpoint-Droidjack),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: Google Bread),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Securelist Asacub),</t>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: Threat Fabric Exobot),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Cofense Anubis),(Citation: Lookout-Dendroid),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint SimBad 2019),(Citation: Proofpoint-Droidjack),(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),(Citation: forcepoint_bitter),(Citation: kaspersky_fakecalls_0422),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: Microsoft MalLockerB),(Citation: Cybereason EventBot),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Anubis),(Citation: welivesecurity_apt-c-23),(Citation: trendmicro_strongpity),(Citation: fb_arid_viper),(Citation: Cybereason FakeSpy),(Citation: Forbes Cerberus),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: sophos_android_apt_spyware),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: mcafee_brata_0421),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout ViperRAT),(Citation: MoustachedBouncer ESET August 2023),(Citation: CrowdStrike-Android),(Citation: Zscaler TikTok Spyware),(Citation: checkpoint_hamas_android_malware),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Bread),(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: cyble_chameleon_0423),(Citation: CheckPoint Cerberus),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: Volexity Insomnia),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: trendmicro_tianyspy_0122),(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),(Citation: Cybereason FakeSpy),(Citation: Talos Gustuff Apr 2019),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Check Point-Joker),(Citation: Google Bread),(Citation: cyble_drinik_1022),(Citation: Lookout Dark Caracal Jan 2018),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader),(Citation: Lookout-BrainTest),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos GPlayed),(Citation: SecureList DVMap June 2017),(Citation: Securelist Asacub),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: TrendMicro-Obad),(Citation: nccgroup_sharkbot_0322),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Monokle),(Citation: Sophos Red Alert 2.0),(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: welivesec_strongpity),(Citation: CheckPoint-Charger),(Citation: Microsoft MalLockerB),(Citation: FortiGuard-FlexiSpy),(Citation: PaloAlto-WireLurker),(Citation: Volexity Insomnia),(Citation: cleafy_brata_0122),(Citation: Google Security Zen),</t>
+    <t>(Citation: SWB Exodus March 2019),(Citation: Sophos Red Alert 2.0),(Citation: cyble_chameleon_0423),(Citation: CheckPoint Cerberus),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: Volexity Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-BrainTest),(Citation: FortiGuard-FlexiSpy),(Citation: Volexity Insomnia),(Citation: Lookout-Monokle),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Microsoft MalLockerB),(Citation: Cybereason EventBot),(Citation: trendmicro_tianyspy_0122),(Citation: welivesec_strongpity),(Citation: ThreatFabric Ginp),(Citation: Talos-WolfRAT),(Citation: Google Security Zen),(Citation: cyble_drinik_1022),(Citation: Cybereason FakeSpy),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Check Point-Joker),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-Obad),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: cleafy_brata_0122),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader),(Citation: PaloAlto-WireLurker),(Citation: Google Bread),(Citation: BlackBerry Bahamut),(Citation: CheckPoint-Charger),(Citation: welivesecurity_ahrat_0523),(Citation: Securelist Asacub),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: Lookout-Pegasus),(Citation: SecureList BusyGasper),(Citation: Kaspersky-Skygofree),(Citation: Lookout-PegasusAndroid),(Citation: securelist rotexy 2018),(Citation: Lookout-StealthMango),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: Kaspersky-WUC),(Citation: Lookout-Monokle),(Citation: TrendMicro-RCSAndroid),</t>
-  </si>
-  <si>
-    <t>(Citation: sophos_android_apt_spyware),(Citation: blackberry_mobile_malware_apt_esp),(Citation: securelist_brata_0819),(Citation: Meta Adversarial Threat Report 2022),(Citation: checkpoint_hamas_android_malware),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: CitizenLab Great iPwn),(Citation: Leonard TAG 2023),</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: bitdefender_flubot_0524),(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Obad),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: Zimperium z9),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Project Zero Insomnia),(Citation: Google Security Zen),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Bleeipng Computer Escobar),(Citation: threatfabric_sova_0921),(Citation: Lookout Desert Scorpion),(Citation: Cybereason FakeSpy),(Citation: bitdefender_flubot_0524),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: Lookout-StealthMango),(Citation: nccgroup_sharkbot_0322),(Citation: forcepoint_bitter),(Citation: welivesecurity_ahrat_0523),(Citation: Sophos Red Alert 2.0),(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Dendroid),(Citation: cloudmark_tanglebot_0921),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Bleeipng Computer Escobar),(Citation: threatfabric_sova_0921),(Citation: Kaspersky Triada March 2016),(Citation: FireEye-RuMMS),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Cylance Dust Storm),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: Kaspersky-WUC),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-RCSAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Bread),(Citation: cyble_drinik_1022),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: NYTimes-BackDoor),(Citation: Securelist Asacub),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: Lookout-EnterpriseApps),(Citation: Palo Alto HenBox),(Citation: Lookout-Pegasus),(Citation: Tripwire-MazarBOT),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: forcepoint_bitter),(Citation: FlexiSpy-Features),(Citation: Sophos Red Alert 2.0),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Riltok June 2019),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: Zscaler-SpyNote),(Citation: fb_arid_viper),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: PaloAlto-Xbot),(Citation: Zscaler-SuperMarioRun),(Citation: cloudmark_tanglebot_0921),</t>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: SecurityIntelligence TrickMo),(Citation: Talos Gustuff Apr 2019),(Citation: SecureList BusyGasper),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-WUC),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Lookout Desert Scorpion),</t>
+  </si>
+  <si>
+    <t>(Citation: blackberry_mobile_malware_apt_esp),(Citation: sophos_android_apt_spyware),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: Leonard TAG 2023),(Citation: checkpoint_hamas_android_malware),(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),(Citation: Meta Adversarial Threat Report 2022),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: TrendMicro-Obad),(Citation: Bitdefender Mandrake),(Citation: bitdefender_flubot_0524),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),(Citation: Talos-WolfRAT),(Citation: Zimperium z9),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Google Security Zen),</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_brata_0122),(Citation: Bleeipng Computer Escobar),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Lookout-Dendroid),(Citation: Cofense Anubis),(Citation: forcepoint_bitter),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: cloudmark_tanglebot_0921),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: TrendMicro Coronavirus Updates),(Citation: bitdefender_flubot_0524),(Citation: Lookout-StealthMango),(Citation: Cybereason FakeSpy),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Bleeipng Computer Escobar),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: threatfabric_sova_0921),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Lookout-Dendroid),(Citation: NYTimes-BackDoor),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-EnterpriseApps),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: SecureList BusyGasper),(Citation: Tripwire-MazarBOT),(Citation: Cybereason EventBot),(Citation: Talos-WolfRAT),(Citation: welivesec_strongpity),(Citation: ThreatFabric Ginp),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-WUC),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: cyble_drinik_1022),(Citation: Cybereason FakeSpy),(Citation: FlexiSpy-Features),(Citation: Meta Adversarial Threat Report 2022),(Citation: nccgroup_sharkbot_0322),(Citation: PaloAlto-SpyDealer),(Citation: proofpoint_flubot_0421),(Citation: Bleeipng Computer Escobar),(Citation: cyble_chameleon_0423),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: PaloAlto-Xbot),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cylance Dust Storm),(Citation: Bitdefender Mandrake),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler-SpyNote),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: securelist rotexy 2018),(Citation: Lookout ViperRAT),(Citation: Lookout-Pegasus),(Citation: TrendMicro-XLoader),(Citation: threatfabric_sova_0921),(Citation: Kaspersky Triada March 2016),(Citation: Google Bread),(Citation: BlackBerry Bahamut),(Citation: FireEye-RuMMS),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler TikTok Spyware),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
   </si>
   <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: cleafy_sova_1122),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: welivesecurity_ahrat_0523),(Citation: FlexiSpy-Features),(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: ESET DEFENSOR ID),(Citation: cloudmark_tanglebot_0921),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: cleafy_brata_0122),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: CheckPoint Agent Smith),(Citation: cleafy_sova_1122),(Citation: Cybereason FakeSpy),(Citation: SWB Exodus March 2019),(Citation: Zscaler TikTok Spyware),(Citation: Google Project Zero Insomnia),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: Lookout-StealthMango),(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: Sophos Red Alert 2.0),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Riltok June 2019),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: ESET DEFENSOR ID),(Citation: Google Triada June 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Google Bread),</t>
-  </si>
-  <si>
-    <t>,(Citation: Trend Micro iOS URL Hijacking),(Citation: IETF-PKCE),(Citation: Android App Links),(Citation: iOS Universal Links)</t>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: Cofense Anubis),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: SecurityIntelligence TrickMo),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Cybereason EventBot),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: mcafee_brata_0421),(Citation: lookout_bouldspy_0423),(Citation: ESET DEFENSOR ID),(Citation: cleafy_sova_1122),(Citation: welivesecurity_ahrat_0523),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: Cofense Anubis),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: Talos-WolfRAT),(Citation: welivesec_strongpity),(Citation: ThreatFabric Ginp),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Cybereason FakeSpy),(Citation: FlexiSpy-Features),(Citation: Google Triada June 2019),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: securelist rotexy 2018),(Citation: ESET DEFENSOR ID),(Citation: paloalto_yispecter_1015),(Citation: cleafy_sova_1122),(Citation: Lookout Desert Scorpion),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Google Bread),</t>
+  </si>
+  <si>
+    <t>,(Citation: Android App Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: iOS Universal Links),(Citation: IETF-PKCE)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: checkpoint_flixonline_0421),(Citation: Zimperium FlyTrap),(Citation: threatfabric_sova_0921),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: cleafy_sova_1122),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: Kaspersky-Skygofree),(Citation: Bitdefender Mandrake),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro FlyTrap),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: SecureList BusyGasper),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),(Citation: FortiGuard-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
-  </si>
-  <si>
-    <t>(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: ESET-Twitoor),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint Agent Smith),(Citation: CheckPoint SimBad 2019),(Citation: Cybereason FakeSpy),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: cyble_drinik_1022),(Citation: Bitdefender - Triout 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: ThreatFabric Ginp),(Citation: paloalto_yispecter_1015),(Citation: FlexiSpy-Features),(Citation: Threat Fabric Cerberus),(Citation: Group IB Gustuff Mar 2019),(Citation: FortiGuard-FlexiSpy),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
-  </si>
-  <si>
-    <t>(Citation: welivesec_strongpity),(Citation: Cybereason EventBot),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: BlackBerry Bahamut),</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: cyble_chameleon_0423),(Citation: Palo Alto HenBox),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Anubis),(Citation: ThreatFabric Ginp),(Citation: Lookout-Dendroid),(Citation: lookout_abstractemu_1021),(Citation: mcafee_brata_0421),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: BlackBerry Bahamut),(Citation: Cybereason FakeSpy),(Citation: WeLiveSecurity AdDisplayAshas),</t>
-  </si>
-  <si>
-    <t>(Citation: trendmicro_tianyspy_0122),(Citation: Threat Fabric Exobot),(Citation: threatfabric_sova_0921),(Citation: FireEye-RuMMS),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: Kaspersky-WUC),(Citation: Cybereason FakeSpy),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: securelist rotexy 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: SecureList DVMap June 2017),(Citation: Securelist Asacub),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_chameleon_0423),(Citation: Palo Alto HenBox),(Citation: securelist_brata_0819),(Citation: Lookout-Pegasus),(Citation: Wandera-RedDrop),(Citation: Cybereason EventBot),(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout-Monokle),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Riltok June 2019),(Citation: Threat Fabric Cerberus),(Citation: fb_arid_viper),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-Anserver2),(Citation: Xiao-KeyRaider),</t>
-  </si>
-  <si>
-    <t>(Citation: trendmicro_tianyspy_0122),(Citation: Threat Fabric Exobot),(Citation: FireEye-RuMMS),(Citation: Lookout FrozenCell),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: lookout_abstractemu_1021),(Citation: Trend Micro FlyTrap),(Citation: checkpoint_hamas_android_malware),(Citation: Google Bread),(Citation: securelist rotexy 2018),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: PaloAlto-DualToy),(Citation: Securelist Asacub),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-EnterpriseApps),(Citation: WhiteOps TERRACOTTA),(Citation: Wandera-RedDrop),(Citation: Cybereason EventBot),(Citation: Lookout-StealthMango),(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),(Citation: forcepoint_bitter),(Citation: Lookout-Monokle),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Riltok June 2019),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout-Pegasus),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Cybereason FakeSpy),(Citation: trendmicro_strongpity),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),</t>
-  </si>
-  <si>
-    <t>(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Cerberus),(Citation: threatfabric_sova_0921),(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: Zscaler TikTok Spyware),(Citation: SecureList BusyGasper),(Citation: lookout_abstractemu_1021),(Citation: lookout_hornbill_sunbird_0221),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout Desert Scorpion),(Citation: Lookout ViperRAT),(Citation: Lookout-PegasusAndroid),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-SpyDealer),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Zscaler TikTok Spyware),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-Skygofree),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Symantec GoldenCup),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: SecureList BusyGasper),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_bouldspy_0423),(Citation: forcepoint_bitter),(Citation: Lookout-Monokle),(Citation: Talos-WolfRAT),(Citation: fb_arid_viper),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Dendroid),(Citation: Zscaler-SuperMarioRun),(Citation: lookout_hornbill_sunbird_0221),(Citation: cloudmark_tanglebot_0921),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: FortiGuard-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: cleafy_sova_1122),(Citation: Lookout-StealthMango),(Citation: Meta Adversarial Threat Report 2022),(Citation: Cybereason FakeSpy),(Citation: PaloAlto-SpyDealer),(Citation: Bleeipng Computer Escobar),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Pegasus),(Citation: threatfabric_sova_0921),(Citation: Kaspersky-Skygofree),(Citation: Trend Micro FlyTrap),(Citation: paloalto_yispecter_1015),(Citation: checkpoint_flixonline_0421),(Citation: Zimperium FlyTrap),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),</t>
+  </si>
+  <si>
+    <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Group IB Gustuff Mar 2019),(Citation: FortiGuard-FlexiSpy),(Citation: ESET-Twitoor),(Citation: SecureList BusyGasper),(Citation: Bitdefender - Triout 2018),(Citation: ThreatFabric Ginp),(Citation: Cybereason FakeSpy),(Citation: FlexiSpy-Features),(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: checkpoint_flixonline_0421),(Citation: securelist rotexy 2018),(Citation: threatfabric_sova_0921),(Citation: paloalto_yispecter_1015),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint SimBad 2019),(Citation: Lookout Desert Scorpion),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: welivesec_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: Lookout-Dendroid),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: BlackBerry Bahamut),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Anubis),(Citation: Bitdefender Mandrake),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: Cybereason FakeSpy),(Citation: Palo Alto HenBox),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: SecureList DVMap June 2017),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Cofense Anubis),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),(Citation: Symantec GoldenCup),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: trendmicro_tianyspy_0122),(Citation: welivesec_strongpity),(Citation: CheckPoint Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-WUC),(Citation: fb_arid_viper),(Citation: Cybereason FakeSpy),(Citation: Xiao-KeyRaider),(Citation: Talos Gustuff Apr 2019),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout ViperRAT),(Citation: Lookout-Pegasus),(Citation: TrendMicro-Anserver2),(Citation: threatfabric_sova_0921),(Citation: BlackBerry Bahamut),(Citation: FireEye-RuMMS),(Citation: paloalto_yispecter_1015),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-EnterpriseApps),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: Talos-WolfRAT),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-StealthMango),(Citation: Cybereason FakeSpy),(Citation: PaloAlto-SpyDealer),(Citation: PaloAlto-DualToy),(Citation: Talos Gustuff Apr 2019),(Citation: Wandera-RedDrop),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: lookout_bouldspy_0423),(Citation: securelist rotexy 2018),(Citation: Lookout ViperRAT),(Citation: TrendMicro-Anserver2),(Citation: Google Bread),(Citation: FireEye-RuMMS),(Citation: Trend Micro FlyTrap),(Citation: paloalto_yispecter_1015),(Citation: checkpoint_hamas_android_malware),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: trendmicro_strongpity),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: FlexiSpy-Features),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),(Citation: Bleeipng Computer Escobar),(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819),(Citation: Threat Fabric Cerberus),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Dendroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: Meta Adversarial Threat Report 2022),(Citation: PaloAlto-SpyDealer),(Citation: Bleeipng Computer Escobar),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: Kaspersky-Skygofree),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Zimperium FlyTrap),(Citation: threatfabric_sova_0921),(Citation: FireEye-RuMMS),(Citation: Kaspersky-WUC),(Citation: Cybereason FakeSpy),(Citation: Talos Gustuff Apr 2019),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-Skygofree),(Citation: lookout_abstractemu_1021),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Bread),(Citation: securelist rotexy 2018),(Citation: Bitdefender - Triout 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Symantec GoldenCup),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: Kaspersky-MobileMalware),(Citation: Wandera-RedDrop),(Citation: Cybereason EventBot),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: paloalto_yispecter_1015),(Citation: welivesecurity_ahrat_0523),(Citation: Sophos Red Alert 2.0),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky Riltok June 2019),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: ESET DEFENSOR ID),(Citation: Volexity Insomnia),(Citation: cleafy_brata_0122),</t>
-  </si>
-  <si>
-    <t>(Citation: trendmicro_tianyspy_0122),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: Wandera-RedDrop),(Citation: Lookout-PegasusAndroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Monokle),(Citation: TelephonyManager)</t>
+    <t>(Citation: Threat Fabric Exobot),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Volexity Insomnia),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: SecurityIntelligence TrickMo),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Bitdefender - Triout 2018),(Citation: Cybereason EventBot),(Citation: welivesec_strongpity),(Citation: CheckPoint Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason FakeSpy),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Talos Gustuff Apr 2019),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-MobileMalware),(Citation: lookout_bouldspy_0423),(Citation: cleafy_brata_0122),(Citation: securelist rotexy 2018),(Citation: ESET DEFENSOR ID),(Citation: threatfabric_sova_0921),(Citation: Kaspersky-Skygofree),(Citation: Google Bread),(Citation: FireEye-RuMMS),(Citation: paloalto_yispecter_1015),(Citation: welivesecurity_ahrat_0523),(Citation: Zimperium FlyTrap),(Citation: Securelist Asacub),(Citation: Kaspersky-WUC),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: SecurityIntelligence TrickMo),(Citation: Wandera-RedDrop),(Citation: Google Project Zero Insomnia),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
@@ -2796,52 +2796,52 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Check Point-Joker),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: Bleeipng Computer Escobar),(Citation: threatfabric_sova_0921),(Citation: Talos-WolfRAT),(Citation: welivesec_strongpity),(Citation: TrendMicro Coronavirus Updates),(Citation: Bitdefender Mandrake),(Citation: checkpoint_flixonline_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Check Point-Joker),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesec_strongpity),(Citation: Bleeipng Computer Escobar),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: cleafy_brata_0122),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: Google Triada June 2019),(Citation: Cofense Anubis),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Dendroid),(Citation: Cofense Anubis),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Lookout-EnterpriseApps),(Citation: lookout_hornbill_sunbird_0221),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: Bitdefender - Triout 2018),(Citation: Talos-WolfRAT),(Citation: welivesec_strongpity),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: Meta Adversarial Threat Report 2022),(Citation: PaloAlto-SpyDealer),(Citation: Bleeipng Computer Escobar),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: Lookout-Pegasus),(Citation: TrendMicro-XLoader),(Citation: Kaspersky-Skygofree),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: SecureList BusyGasper),(Citation: WhiteOps TERRACOTTA),</t>
+    <t>(Citation: cleafy_brata_0122),(Citation: Securelist Asacub),(Citation: lookout_bouldspy_0423),(Citation: Google Triada June 2019),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: Lookout-Dendroid),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: cloudmark_tanglebot_0921),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender - Triout 2018),(Citation: SecureList BusyGasper),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-Skygofree),(Citation: welivesecurity_ahrat_0523),(Citation: TrendMicro-XLoader),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-RCSAndroid),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Pegasus),(Citation: forcepoint_bitter),(Citation: Lookout ViperRAT),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: Lookout FrozenCell),(Citation: Lookout-EnterpriseApps),(Citation: Wandera-RedDrop),(Citation: Bleeipng Computer Escobar),(Citation: fb_arid_viper),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: HackerNews-OldBoot),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: FortiGuard-FlexiSpy),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Talos GPlayed),(Citation: Microsoft MalLockerB),(Citation: Cybereason EventBot),(Citation: welivesec_strongpity),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: PaloAlto-SpyDealer),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Zscaler-SpyNote),(Citation: Palo Alto HenBox),(Citation: checkpoint_flixonline_0421),(Citation: ESET DEFENSOR ID),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: CheckPoint SimBad 2019),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: forcepoint_bitter),(Citation: kaspersky_fakecalls_0422),(Citation: cloudmark_tanglebot_0921),(Citation: Bleeipng Computer Escobar),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Monokle),(Citation: mcafee_brata_0421),(Citation: cyble_drinik_1022),</t>
-  </si>
-  <si>
-    <t>(Citation: NYTimes-BackDoor),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-EnterpriseApps),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: cloudmark_tanglebot_0921),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: Talos-WolfRAT),(Citation: welivesec_strongpity),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-StealthMango),(Citation: cyble_drinik_1022),(Citation: PaloAlto-SpyDealer),(Citation: Bleeipng Computer Escobar),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: Lookout-Pegasus),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky-WUC),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-RCSAndroid),(Citation: PaloAlto-XcodeGhost),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: BlackBerry Bahamut),(Citation: Lookout Uyghur Campaign),(Citation: trendmicro_tianyspy_0122),(Citation: paloalto_yispecter_1015),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+    <t>(Citation: Talos GPlayed),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesec_strongpity),(Citation: CheckPoint SimBad 2019),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: Zscaler TikTok Spyware),(Citation: Zscaler-SpyNote),(Citation: FortiGuard-FlexiSpy),(Citation: Microsoft MalLockerB),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: ESET DEFENSOR ID),(Citation: PaloAlto-SpyDealer),(Citation: checkpoint_flixonline_0421),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Exobot),(Citation: WhiteOps TERRACOTTA),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: cloudmark_tanglebot_0921),(Citation: kaspersky_fakecalls_0422),(Citation: cyble_drinik_1022),(Citation: Bleeipng Computer Escobar),(Citation: forcepoint_bitter),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: cloudmark_tanglebot_0921),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesec_strongpity),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: cyble_drinik_1022),(Citation: Lookout-PegasusAndroid),(Citation: welivesecurity_ahrat_0523),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Pegasus),(Citation: forcepoint_bitter),(Citation: Lookout ViperRAT),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-StealthMango),(Citation: NYTimes-BackDoor),(Citation: lookout_abstractemu_1021),(Citation: Lookout-EnterpriseApps),(Citation: Bleeipng Computer Escobar),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-RCSAndroid),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-XcodeGhost),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: trendmicro_tianyspy_0122),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: paloalto_yispecter_1015),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
@@ -2850,91 +2850,91 @@
     <t>(Citation: lookout_bouldspy_0423),(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: SecureList BusyGasper),(Citation: Lookout-BrainTest),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: Lookout-Monokle),</t>
+    <t>(Citation: Lookout-Adware),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
   </si>
   <si>
-    <t>(Citation: Google Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: NYTimes-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: BankInfoSecurity-BackDoor),(Citation: Lookout-StealthMango),</t>
+    <t>(Citation: HackerNews-Allwinner),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Triada June 2019),(Citation: Lookout-StealthMango),(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor),(Citation: Krebs-Triada June 2019),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Cofense Anubis),(Citation: NYTimes-BackDoor),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-Monokle),(Citation: Lookout-EnterpriseApps),(Citation: lookout_hornbill_sunbird_0221),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: welivesec_strongpity),(Citation: ThreatFabric Ginp),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-WUC),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: Cybereason FakeSpy),(Citation: Meta Adversarial Threat Report 2022),(Citation: PaloAlto-SpyDealer),(Citation: proofpoint_flubot_0421),(Citation: Talos Gustuff Apr 2019),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Zscaler-SpyNote),(Citation: CyberMerchants-FlexiSpy),(Citation: Threat Fabric Cerberus),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: securelist rotexy 2018),(Citation: Lookout ViperRAT),(Citation: Lookout-Pegasus),(Citation: BlackBerry Bahamut),(Citation: CheckPoint-Charger),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),</t>
+    <t>(Citation: Securelist Asacub),(Citation: CheckPoint-Charger),(Citation: BlackBerry Bahamut),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: cloudmark_tanglebot_0921),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Cerberus),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: PaloAlto-SpyDealer),(Citation: Meta Adversarial Threat Report 2022),(Citation: securelist rotexy 2018),(Citation: kaspersky_fakecalls_0422),(Citation: Threat Fabric Exobot),(Citation: Lookout-Pegasus),(Citation: forcepoint_bitter),(Citation: Lookout ViperRAT),(Citation: Lookout-StealthMango),(Citation: NYTimes-BackDoor),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: Lookout-EnterpriseApps),(Citation: Bitdefender Mandrake),(Citation: fb_arid_viper),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-Dendroid),(Citation: Cofense Anubis),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: SecureList BusyGasper),(Citation: Bitdefender - Triout 2018),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Anubis),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: Bleeipng Computer Escobar),(Citation: cyble_chameleon_0423),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cylance Dust Storm),(Citation: Zscaler-SpyNote),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: BlackBerry Bahamut),(Citation: Gooligan Citation),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),</t>
-  </si>
-  <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),(Citation: TrendMicro-XLoader-FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: lookout_hornbill_sunbird_0221),(Citation: Proofpoint-Marcher),(Citation: Securelist Asacub),(Citation: GoogleIO2016)</t>
+    <t>(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Cylance Dust Storm),(Citation: BlackBerry Bahamut),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: securelist_brata_0819),(Citation: Lookout-Dendroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: cloudmark_tanglebot_0921),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender - Triout 2018),(Citation: FlexiSpy-Features),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: lookout_bouldspy_0423),(Citation: Zscaler TikTok Spyware),(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: cyble_drinik_1022),(Citation: welivesecurity_ahrat_0523),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: cyble_chameleon_0423),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout ViperRAT),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: Gooligan Citation),(Citation: Trend Micro Anubis),(Citation: Lookout FrozenCell),(Citation: ThreatFabric Ginp),(Citation: Bleeipng Computer Escobar),(Citation: fb_arid_viper),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-Anserver),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: lookout_hornbill_sunbird_0221),(Citation: Threat Fabric Exobot),(Citation: Proofpoint-Marcher),(Citation: GoogleIO2016)</t>
   </si>
   <si>
     <t>(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),</t>
   </si>
   <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: SecureList DVMap June 2017),(Citation: proofpoint_flubot_0421),(Citation: lookout_abstractemu_1021),(Citation: Cofense Anubis),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-BrainTest),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: SecureList BusyGasper),(Citation: Cybereason EventBot),(Citation: Talos-WolfRAT),(Citation: Trend Micro Anubis),(Citation: Google Security Zen),(Citation: Xiao-ZergHelper),(Citation: nccgroup_sharkbot_0322),(Citation: PaloAlto-SpyDealer),(Citation: Google Triada June 2019),(Citation: CheckPoint-Judy),(Citation: cyble_chameleon_0423),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: cleafy_brata_0122),(Citation: Lookout ViperRAT),(Citation: Kaspersky-Skygofree),(Citation: Google Bread),(Citation: BlackBerry Bahamut),(Citation: paloalto_yispecter_1015),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: paloalto_yispecter_1015),(Citation: trendmicro_strongpity),(Citation: Volexity Insomnia),(Citation: Lookout-StealthMango),</t>
+    <t>(Citation: cleafy_brata_0122),(Citation: Google Security Zen),(Citation: mcafee_brata_0421),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Talos GPlayed),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: paloalto_yispecter_1015),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Cybereason EventBot),(Citation: Google Bread),(Citation: Xiao-ZergHelper),(Citation: Google Security Zen),(Citation: mcafee_brata_0421),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: Google Triada June 2019),(Citation: Lookout-BrainTest),(Citation: Lookout Desert Scorpion),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky-Skygofree),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos-WolfRAT),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro-RCSAndroid),(Citation: cyble_chameleon_0423),(Citation: cleafy_brata_0122),(Citation: CheckPoint-Judy),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: Trend Micro Anubis),(Citation: Lookout FrozenCell),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: trendmicro_strongpity),(Citation: Lookout-StealthMango),(Citation: paloalto_yispecter_1015),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),</t>
   </si>
   <si>
     <t>(Citation: welivesecurity_ahrat_0523),(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-Xbot),(Citation: CheckPoint-Charger),</t>
+    <t>(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_hornbill_sunbird_0221),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender - Triout 2018),(Citation: welivesec_strongpity),(Citation: trendmicro_strongpity),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: Google Triada June 2019),(Citation: proofpoint_flubot_0421),(Citation: Wandera-RedDrop),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cylance Dust Storm),(Citation: Lookout eSurv),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: lookout_bouldspy_0423),(Citation: cleafy_brata_0122),(Citation: welivesecurity_ahrat_0523),(Citation: Zimperium FlyTrap),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
-  </si>
-  <si>
-    <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-SpyDealer),(Citation: CheckPoint Agent Smith),(Citation: SWB Exodus March 2019),(Citation: ArsTechnica-HummingBad),(Citation: SecureList DVMap June 2017),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Adware),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky-Skygofree),(Citation: Lookout-BrainTest),(Citation: Gooligan Citation),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Volexity Insomnia),(Citation: Google Security Zen),(Citation: fb_arid_viper),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-NotCompatible),(Citation: TrendMicro-DressCode),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: kaspersky_fakecalls_0422),(Citation: Talos GPlayed),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Talos-WolfRAT),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),</t>
-  </si>
-  <si>
-    <t>(Citation: Symantec GoldenCup),(Citation: Bleeipng Computer Escobar),(Citation: BlackBerry Bahamut),(Citation: Lookout Uyghur Campaign),(Citation: welivesec_strongpity),(Citation: Zscaler TikTok Spyware),(Citation: Cylance Dust Storm),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Desert Scorpion),</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: cyble_drinik_1022),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Lookout-Dendroid),(Citation: Cofense Anubis),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Group IB Gustuff Mar 2019),(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: PaloAlto-XcodeGhost),(Citation: trendmicro_tianyspy_0122),(Citation: ThreatFabric Ginp),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Bleeipng Computer Escobar),(Citation: cyble_chameleon_0423),(Citation: Talos Gustuff Apr 2019),(Citation: PaloAlto-Xbot),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: cleafy_brata_0122),(Citation: securelist rotexy 2018),(Citation: threatfabric_sova_0921),(Citation: Trend Micro FlyTrap),(Citation: checkpoint_flixonline_0421),(Citation: Proofpoint-Marcher),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Triada June 2019),(Citation: CheckPoint Agent Smith),(Citation: ArsTechnica-HummingBad),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint-Judy),(Citation: Wandera-RedDrop),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint SimBad 2019),(Citation: Google Bread),(Citation: Tripwire-MazarBOT),(Citation: Lookout-BrainTest),(Citation: Gooligan Citation),(Citation: checkpoint_flixonline_0421),(Citation: Kaspersky Triada June 2016),(Citation: Google Security Zen),(Citation: ArsTechnica-HummingWhale),(Citation: Lookout-EnterpriseApps),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),</t>
+    <t>(Citation: Cylance Dust Storm),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesec_strongpity),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Triada June 2019),(Citation: Zimperium FlyTrap),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: cyble_drinik_1022),(Citation: welivesecurity_ahrat_0523),(Citation: trendmicro_strongpity),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: kaspersky_fakecalls_0422),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: Bitdefender - Triout 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Adware),(Citation: Google Security Zen),(Citation: Kaspersky-Skygofree),(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: Lookout-BrainTest),(Citation: Gooligan Citation),(Citation: SecureList DVMap June 2017),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-Pegasus),(Citation: fb_arid_viper),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Monokle),(Citation: Trend Micro Bouncing Golf 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: welivesecurity_ahrat_0523),(Citation: Cylance Dust Storm),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesec_strongpity),(Citation: Bleeipng Computer Escobar),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: Group IB Gustuff Mar 2019),(Citation: PaloAlto-XcodeGhost),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: Lookout-Dendroid),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason EventBot),(Citation: trendmicro_tianyspy_0122),(Citation: nccgroup_sharkbot_0322),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: Trend Micro FlyTrap),(Citation: Proofpoint-Marcher),(Citation: Talos Gustuff Apr 2019),(Citation: Sophos Red Alert 2.0),(Citation: cyble_chameleon_0423),(Citation: checkpoint_flixonline_0421),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: cleafy_brata_0122),(Citation: PaloAlto-Xbot),(Citation: Kaspersky Riltok June 2019),(Citation: threatfabric_sova_0921),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: Bleeipng Computer Escobar),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: CheckPoint-Judy),(Citation: CheckPoint Agent Smith),(Citation: Lookout-EnterpriseApps),(Citation: Tripwire-MazarBOT),(Citation: Google Triada June 2019),(Citation: Lookout-BrainTest),(Citation: Gooligan Citation),(Citation: checkpoint_flixonline_0421),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Triada June 2016),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint SimBad 2019),(Citation: Wandera-RedDrop),(Citation: ArsTechnica-HummingBad),(Citation: ArsTechnica-HummingWhale),(Citation: Google Bread),</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2946,124 +2946,124 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesec_strongpity),(Citation: Bitdefender Mandrake),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),</t>
-  </si>
-  <si>
-    <t>(Citation: fb_arid_viper),(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: ESET DEFENSOR ID),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: CheckPoint Cerberus),(Citation: cleafy_sova_1122),(Citation: Bitdefender Mandrake),(Citation: Google Security Zen),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819),(Citation: Threat Fabric Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_abstractemu_1021),(Citation: Cybereason EventBot),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason FakeSpy),(Citation: Wandera-RedDrop),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: Trend Micro FlyTrap),(Citation: Securelist Asacub),</t>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: welivesec_strongpity),(Citation: fb_arid_viper),</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: mcafee_brata_0421),(Citation: ESET DEFENSOR ID),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_sova_1122),(Citation: securelist_brata_0819),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_bouldspy_0423),(Citation: Google Project Zero Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: Trend Micro FlyTrap),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: WhiteOps TERRACOTTA),(Citation: Wandera-RedDrop),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: cleafy_brata_0122),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Exobot),(Citation: Bleeipng Computer Escobar),(Citation: Cofense Anubis),(Citation: SecureList BusyGasper),(Citation: cyble_chameleon_0423),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Cofense Anubis),(Citation: NYTimes-BackDoor),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: Lookout-EnterpriseApps),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: SecureList BusyGasper),(Citation: Bitdefender - Triout 2018),(Citation: welivesec_strongpity),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-WUC),(Citation: Lookout-StealthMango),(Citation: Meta Adversarial Threat Report 2022),(Citation: PaloAlto-SpyDealer),(Citation: Bleeipng Computer Escobar),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Zscaler-SpyNote),(Citation: CyberMerchants-FlexiSpy),(Citation: Threat Fabric Cerberus),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: cleafy_brata_0122),(Citation: Lookout ViperRAT),(Citation: Lookout-Pegasus),(Citation: Kaspersky-Skygofree),(Citation: CrowdStrike-Android),(Citation: BlackBerry Bahamut),(Citation: CheckPoint-Charger),(Citation: Trend Micro FlyTrap),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: Threat Fabric Exobot),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Cofense Anubis),(Citation: Lookout-Dendroid),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint SimBad 2019),(Citation: Proofpoint-Droidjack),(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),(Citation: forcepoint_bitter),(Citation: kaspersky_fakecalls_0422),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: Microsoft MalLockerB),(Citation: Cybereason EventBot),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Anubis),(Citation: welivesecurity_apt-c-23),(Citation: trendmicro_strongpity),(Citation: fb_arid_viper),(Citation: Cybereason FakeSpy),(Citation: Forbes Cerberus),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: sophos_android_apt_spyware),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: mcafee_brata_0421),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout ViperRAT),(Citation: MoustachedBouncer ESET August 2023),(Citation: CrowdStrike-Android),(Citation: Zscaler TikTok Spyware),(Citation: checkpoint_hamas_android_malware),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Bread),(Citation: Lookout Uyghur Campaign),(Citation: Securelist Asacub),(Citation: Palo Alto HenBox),</t>
+    <t>(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421),(Citation: Lookout-Monokle),(Citation: BlackBerry Bahamut),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Cofense Anubis),(Citation: securelist_brata_0819),(Citation: cyble_chameleon_0423),(Citation: Cybereason EventBot),(Citation: threatfabric_sova_0921),(Citation: FlexiSpy-Features),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Exobot),(Citation: Bleeipng Computer Escobar),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint-Charger),(Citation: BlackBerry Bahamut),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: CrowdStrike-Android),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: cloudmark_tanglebot_0921),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList BusyGasper),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky-Skygofree),(Citation: Trend Micro FlyTrap),(Citation: welivesecurity_ahrat_0523),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-RCSAndroid),(Citation: cyble_chameleon_0423),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Pegasus),(Citation: cleafy_brata_0122),(Citation: Lookout ViperRAT),(Citation: Lookout-StealthMango),(Citation: NYTimes-BackDoor),(Citation: lookout_abstractemu_1021),(Citation: Lookout FrozenCell),(Citation: Lookout-EnterpriseApps),(Citation: Bitdefender Mandrake),(Citation: Bleeipng Computer Escobar),(Citation: Bitdefender - Triout 2018),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: Proofpoint-Droidjack),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: securelist_brata_0819),(Citation: Lookout-Dendroid),(Citation: CrowdStrike-Android),(Citation: MoustachedBouncer ESET August 2023),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason EventBot),(Citation: CheckPoint SimBad 2019),(Citation: mcafee_brata_0421),(Citation: lookout_bouldspy_0423),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Forbes Cerberus),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Microsoft MalLockerB),(Citation: blackberry_mobile_malware_apt_esp),(Citation: sophos_android_apt_spyware),(Citation: Cybereason FakeSpy),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos-WolfRAT),(Citation: trendmicro_strongpity),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: kaspersky_fakecalls_0422),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Exobot),(Citation: forcepoint_bitter),(Citation: checkpoint_hamas_android_malware),(Citation: CheckPoint Agent Smith),(Citation: Lookout ViperRAT),(Citation: welivesecurity_apt-c-23),(Citation: Trend Micro Anubis),(Citation: Lookout FrozenCell),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: fb_arid_viper),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),(Citation: Palo Alto HenBox),(Citation: Google Bread),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: Sophos Red Alert 2.0),(Citation: cyble_chameleon_0423),(Citation: CheckPoint Cerberus),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender Mandrake),(Citation: Volexity Insomnia),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList DVMap June 2017),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-BrainTest),(Citation: FortiGuard-FlexiSpy),(Citation: Volexity Insomnia),(Citation: Lookout-Monokle),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Microsoft MalLockerB),(Citation: Cybereason EventBot),(Citation: trendmicro_tianyspy_0122),(Citation: welivesec_strongpity),(Citation: ThreatFabric Ginp),(Citation: Talos-WolfRAT),(Citation: Google Security Zen),(Citation: cyble_drinik_1022),(Citation: Cybereason FakeSpy),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Check Point-Joker),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-Obad),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: cleafy_brata_0122),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader),(Citation: PaloAlto-WireLurker),(Citation: Google Bread),(Citation: BlackBerry Bahamut),(Citation: CheckPoint-Charger),(Citation: welivesecurity_ahrat_0523),(Citation: Securelist Asacub),</t>
+    <t>(Citation: Sophos Red Alert 2.0),(Citation: FortiGuard-FlexiSpy),(Citation: cyble_chameleon_0423),(Citation: Volexity Insomnia),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: CheckPoint-Charger),(Citation: BlackBerry Bahamut),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Check Point-Joker),(Citation: TrendMicro-Obad),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason EventBot),(Citation: Google Bread),(Citation: trendmicro_tianyspy_0122),(Citation: SecurityIntelligence TrickMo),(Citation: Google Security Zen),(Citation: mcafee_brata_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout-BrainTest),(Citation: Microsoft MalLockerB),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: Cybereason FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: PaloAlto-WireLurker),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro-XLoader),(Citation: Talos-WolfRAT),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Volexity Insomnia),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: SecurityIntelligence TrickMo),(Citation: Talos Gustuff Apr 2019),(Citation: SecureList BusyGasper),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-Skygofree),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-WUC),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Lookout Desert Scorpion),</t>
-  </si>
-  <si>
-    <t>(Citation: blackberry_mobile_malware_apt_esp),(Citation: sophos_android_apt_spyware),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: Leonard TAG 2023),(Citation: checkpoint_hamas_android_malware),(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),(Citation: Meta Adversarial Threat Report 2022),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: TrendMicro-Obad),(Citation: Bitdefender Mandrake),(Citation: bitdefender_flubot_0524),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),(Citation: Talos-WolfRAT),(Citation: Zimperium z9),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Google Security Zen),</t>
+    <t>(Citation: Kaspersky-Skygofree),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: CitizenLab Great iPwn),(Citation: Meta Adversarial Threat Report 2022),(Citation: securelist_brata_0819),(Citation: Leonard TAG 2023),(Citation: blackberry_mobile_malware_apt_esp),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-Obad),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: Talos-WolfRAT),(Citation: nccgroup_sharkbot_0322),(Citation: paloalto_yispecter_1015),(Citation: securelist rotexy 2018),(Citation: Palo Alto HenBox),(Citation: Zimperium z9),(Citation: Trend Micro Bouncing Golf 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),(Citation: Google Security Zen),(Citation: Kaspersky Triada March 2016),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),(Citation: Bleeipng Computer Escobar),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Lookout-Dendroid),(Citation: Cofense Anubis),(Citation: forcepoint_bitter),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: cloudmark_tanglebot_0921),(Citation: Sophos Red Alert 2.0),(Citation: Talos GPlayed),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: TrendMicro Coronavirus Updates),(Citation: bitdefender_flubot_0524),(Citation: Lookout-StealthMango),(Citation: Cybereason FakeSpy),(Citation: cyble_drinik_1022),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Bleeipng Computer Escobar),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: threatfabric_sova_0921),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Lookout-Dendroid),(Citation: NYTimes-BackDoor),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-EnterpriseApps),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: SecureList BusyGasper),(Citation: Tripwire-MazarBOT),(Citation: Cybereason EventBot),(Citation: Talos-WolfRAT),(Citation: welivesec_strongpity),(Citation: ThreatFabric Ginp),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-WUC),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: cyble_drinik_1022),(Citation: Cybereason FakeSpy),(Citation: FlexiSpy-Features),(Citation: Meta Adversarial Threat Report 2022),(Citation: nccgroup_sharkbot_0322),(Citation: PaloAlto-SpyDealer),(Citation: proofpoint_flubot_0421),(Citation: Bleeipng Computer Escobar),(Citation: cyble_chameleon_0423),(Citation: Talos Gustuff Apr 2019),(Citation: TrendMicro-RCSAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: PaloAlto-Xbot),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cylance Dust Storm),(Citation: Bitdefender Mandrake),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler-SpyNote),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: securelist rotexy 2018),(Citation: Lookout ViperRAT),(Citation: Lookout-Pegasus),(Citation: TrendMicro-XLoader),(Citation: threatfabric_sova_0921),(Citation: Kaspersky Triada March 2016),(Citation: Google Bread),(Citation: BlackBerry Bahamut),(Citation: FireEye-RuMMS),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler TikTok Spyware),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),</t>
+    <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: Lookout-Dendroid),(Citation: cloudmark_tanglebot_0921),(Citation: bitdefender_flubot_0524),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: Cybereason FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: forcepoint_bitter),(Citation: Lookout-StealthMango),(Citation: threatfabric_sova_0921),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: Bleeipng Computer Escobar),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: Cylance Dust Storm),(Citation: BlackBerry Bahamut),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Symantec GoldenCup),(Citation: Lookout-Dendroid),(Citation: CyberMerchants-FlexiSpy),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: FireEye-RuMMS),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason EventBot),(Citation: FlexiSpy-Features),(Citation: Google Bread),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Tripwire-MazarBOT),(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-XLoader),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: PaloAlto-SpyDealer),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-RCSAndroid),(Citation: cyble_chameleon_0423),(Citation: securelist rotexy 2018),(Citation: kaspersky_fakecalls_0422),(Citation: Kaspersky Triada March 2016),(Citation: Threat Fabric Exobot),(Citation: Lookout-Pegasus),(Citation: forcepoint_bitter),(Citation: Lookout ViperRAT),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-StealthMango),(Citation: NYTimes-BackDoor),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-Xbot),(Citation: Kaspersky Riltok June 2019),(Citation: threatfabric_sova_0921),(Citation: Lookout FrozenCell),(Citation: ThreatFabric Ginp),(Citation: Lookout-EnterpriseApps),(Citation: Bitdefender Mandrake),(Citation: Bleeipng Computer Escobar),(Citation: fb_arid_viper),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
   </si>
   <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: Cofense Anubis),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: SecurityIntelligence TrickMo),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Cybereason EventBot),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: mcafee_brata_0421),(Citation: lookout_bouldspy_0423),(Citation: ESET DEFENSOR ID),(Citation: cleafy_sova_1122),(Citation: welivesecurity_ahrat_0523),(Citation: Nightwatch screencap April 2016)</t>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),</t>
+  </si>
+  <si>
+    <t>(Citation: Cofense Anubis),(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: cloudmark_tanglebot_0921),(Citation: cleafy_sova_1122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: mcafee_brata_0421),(Citation: SecureList BusyGasper),(Citation: lookout_bouldspy_0423),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),(Citation: welivesecurity_ahrat_0523),(Citation: ESET DEFENSOR ID),(Citation: Talos-WolfRAT),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: Nightwatch screencap April 2016)</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: Cofense Anubis),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: WhiteOps TERRACOTTA),(Citation: cloudmark_tanglebot_0921),(Citation: SecurityIntelligence TrickMo),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: Talos-WolfRAT),(Citation: welivesec_strongpity),(Citation: ThreatFabric Ginp),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: Cybereason FakeSpy),(Citation: FlexiSpy-Features),(Citation: Google Triada June 2019),(Citation: cyble_chameleon_0423),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: securelist rotexy 2018),(Citation: ESET DEFENSOR ID),(Citation: paloalto_yispecter_1015),(Citation: cleafy_sova_1122),(Citation: Lookout Desert Scorpion),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Google Bread),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android App Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: iOS Universal Links),(Citation: IETF-PKCE)</t>
+    <t>(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: paloalto_yispecter_1015),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: cloudmark_tanglebot_0921),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesec_strongpity),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: cleafy_sova_1122),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler TikTok Spyware),(Citation: Google Triada June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Threat Fabric Cerberus),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: ESET DEFENSOR ID),(Citation: Talos-WolfRAT),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Agent Smith),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),(Citation: mcafee_brata_0421),(Citation: Google Bread),</t>
+  </si>
+  <si>
+    <t>,(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking),(Citation: Android App Links),(Citation: iOS Universal Links)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: FortiGuard-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: cleafy_sova_1122),(Citation: Lookout-StealthMango),(Citation: Meta Adversarial Threat Report 2022),(Citation: Cybereason FakeSpy),(Citation: PaloAlto-SpyDealer),(Citation: Bleeipng Computer Escobar),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: Lookout-Pegasus),(Citation: threatfabric_sova_0921),(Citation: Kaspersky-Skygofree),(Citation: Trend Micro FlyTrap),(Citation: paloalto_yispecter_1015),(Citation: checkpoint_flixonline_0421),(Citation: Zimperium FlyTrap),(Citation: Lookout FrozenCell),(Citation: Lookout Desert Scorpion),</t>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: cleafy_sova_1122),(Citation: SecureList BusyGasper),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FortiGuard-FlexiSpy),(Citation: Zimperium FlyTrap),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-Skygofree),(Citation: Trend Micro FlyTrap),(Citation: Cybereason FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-RCSAndroid),(Citation: checkpoint_flixonline_0421),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: threatfabric_sova_0921),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Bleeipng Computer Escobar),</t>
   </si>
   <si>
     <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Group IB Gustuff Mar 2019),(Citation: FortiGuard-FlexiSpy),(Citation: ESET-Twitoor),(Citation: SecureList BusyGasper),(Citation: Bitdefender - Triout 2018),(Citation: ThreatFabric Ginp),(Citation: Cybereason FakeSpy),(Citation: FlexiSpy-Features),(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: checkpoint_flixonline_0421),(Citation: securelist rotexy 2018),(Citation: threatfabric_sova_0921),(Citation: paloalto_yispecter_1015),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint SimBad 2019),(Citation: Lookout Desert Scorpion),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: welivesec_strongpity),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: Lookout-Dendroid),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: BlackBerry Bahamut),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: Trend Micro Anubis),(Citation: Bitdefender Mandrake),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: Cybereason FakeSpy),(Citation: Palo Alto HenBox),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: SecureList DVMap June 2017),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Cofense Anubis),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),(Citation: Symantec GoldenCup),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: trendmicro_tianyspy_0122),(Citation: welivesec_strongpity),(Citation: CheckPoint Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Kaspersky-WUC),(Citation: fb_arid_viper),(Citation: Cybereason FakeSpy),(Citation: Xiao-KeyRaider),(Citation: Talos Gustuff Apr 2019),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: Lookout eSurv),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout ViperRAT),(Citation: Lookout-Pegasus),(Citation: TrendMicro-Anserver2),(Citation: threatfabric_sova_0921),(Citation: BlackBerry Bahamut),(Citation: FireEye-RuMMS),(Citation: paloalto_yispecter_1015),(Citation: Zscaler TikTok Spyware),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: Lookout Desert Scorpion),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-EnterpriseApps),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Cybereason EventBot),(Citation: Talos-WolfRAT),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-StealthMango),(Citation: Cybereason FakeSpy),(Citation: PaloAlto-SpyDealer),(Citation: PaloAlto-DualToy),(Citation: Talos Gustuff Apr 2019),(Citation: Wandera-RedDrop),(Citation: Google Project Zero Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: lookout_bouldspy_0423),(Citation: securelist rotexy 2018),(Citation: Lookout ViperRAT),(Citation: TrendMicro-Anserver2),(Citation: Google Bread),(Citation: FireEye-RuMMS),(Citation: Trend Micro FlyTrap),(Citation: paloalto_yispecter_1015),(Citation: checkpoint_hamas_android_malware),(Citation: Lookout FrozenCell),(Citation: Securelist Asacub),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: SWB Exodus March 2019),(Citation: Lookout ViperRAT),(Citation: Lookout-Pegasus),(Citation: Lookout Dark Caracal Jan 2018),(Citation: trendmicro_strongpity),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: FlexiSpy-Features),</t>
+    <t>(Citation: Group IB Gustuff Mar 2019),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint SimBad 2019),(Citation: FlexiSpy-Features),(Citation: ESET-Twitoor),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: Cybereason FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: checkpoint_flixonline_0421),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Agent Smith),(Citation: threatfabric_sova_0921),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: Bitdefender - Triout 2018),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: welivesec_strongpity),(Citation: Cybereason EventBot),</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Dendroid),(Citation: cyble_chameleon_0423),(Citation: Trend Micro Anubis),(Citation: SecurityIntelligence TrickMo),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: Cybereason FakeSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: Talos GPlayed),(Citation: TrendMicro-Anserver2),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: securelist_brata_0819),(Citation: paloalto_yispecter_1015),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: FireEye-RuMMS),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Cybereason FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Exobot),(Citation: Lookout-Pegasus),(Citation: Xiao-KeyRaider),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: Kaspersky Riltok June 2019),(Citation: threatfabric_sova_0921),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: fb_arid_viper),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: PaloAlto-DualToy),(Citation: Talos GPlayed),(Citation: TrendMicro-Anserver2),(Citation: Symantec GoldenCup),(Citation: paloalto_yispecter_1015),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: FireEye-RuMMS),(Citation: Cybereason EventBot),(Citation: Google Bread),(Citation: trendmicro_tianyspy_0122),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Google Project Zero Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: Trend Micro FlyTrap),(Citation: Cybereason FakeSpy),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: checkpoint_hamas_android_malware),(Citation: forcepoint_bitter),(Citation: Lookout ViperRAT),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout FrozenCell),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-EnterpriseApps),(Citation: Wandera-RedDrop),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Pegasus),(Citation: trendmicro_strongpity),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: Cybereason FakeSpy),</t>
   </si>
   <si>
     <t>(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
@@ -3072,25 +3072,25 @@
     <t>(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: SecurityIntelligence TrickMo),(Citation: Bleeipng Computer Escobar),(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: securelist_brata_0819),(Citation: Threat Fabric Cerberus),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Dendroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: forcepoint_bitter),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Symantec GoldenCup),(Citation: cloudmark_tanglebot_0921),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-StealthMango),(Citation: fb_arid_viper),(Citation: Meta Adversarial Threat Report 2022),(Citation: PaloAlto-SpyDealer),(Citation: Bleeipng Computer Escobar),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: lookout_bouldspy_0423),(Citation: Lookout ViperRAT),(Citation: Kaspersky-Skygofree),(Citation: BlackBerry Bahamut),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: mcafee_brata_0421),(Citation: nccgroup_sharkbot_0322),(Citation: securelist_brata_0819),(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),(Citation: Bleeipng Computer Escobar),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: proofpoint_flubot_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),(Citation: Lookout-Dendroid),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: cloudmark_tanglebot_0921),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList BusyGasper),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-Skygofree),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-RCSAndroid),(Citation: kaspersky_fakecalls_0422),(Citation: forcepoint_bitter),(Citation: Lookout ViperRAT),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: Bleeipng Computer Escobar),(Citation: fb_arid_viper),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Kaspersky Riltok June 2019),(Citation: Volexity Insomnia),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: Symantec GoldenCup),(Citation: SecurityIntelligence TrickMo),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: Talos GPlayed),(Citation: Bitdefender - Triout 2018),(Citation: Cybereason EventBot),(Citation: welivesec_strongpity),(Citation: CheckPoint Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Cybereason FakeSpy),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Talos Gustuff Apr 2019),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-MobileMalware),(Citation: lookout_bouldspy_0423),(Citation: cleafy_brata_0122),(Citation: securelist rotexy 2018),(Citation: ESET DEFENSOR ID),(Citation: threatfabric_sova_0921),(Citation: Kaspersky-Skygofree),(Citation: Google Bread),(Citation: FireEye-RuMMS),(Citation: paloalto_yispecter_1015),(Citation: welivesecurity_ahrat_0523),(Citation: Zimperium FlyTrap),(Citation: Securelist Asacub),(Citation: Kaspersky-WUC),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: SecurityIntelligence TrickMo),(Citation: Wandera-RedDrop),(Citation: Google Project Zero Insomnia),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: TelephonyManager)</t>
+    <t>(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Symantec GoldenCup),(Citation: paloalto_yispecter_1015),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: FireEye-RuMMS),(Citation: welivesec_strongpity),(Citation: Cybereason EventBot),(Citation: Google Bread),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-MobileMalware),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Zimperium FlyTrap),(Citation: Kaspersky-WUC),(Citation: CheckPoint Cerberus),(Citation: Kaspersky-Skygofree),(Citation: Cybereason FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: ESET DEFENSOR ID),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: cyble_chameleon_0423),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Volexity Insomnia),(Citation: Threat Fabric Exobot),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky Riltok June 2019),(Citation: threatfabric_sova_0921),(Citation: Wandera-RedDrop),(Citation: Bitdefender - Triout 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_bouldspy_0423),(Citation: Google Project Zero Insomnia),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Wandera-RedDrop),(Citation: SecurityIntelligence TrickMo),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
@@ -2796,13 +2796,13 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Check Point-Joker),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesec_strongpity),(Citation: Bleeipng Computer Escobar),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: Check Point-Joker),(Citation: Bleeipng Computer Escobar),(Citation: Talos-WolfRAT),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: checkpoint_flixonline_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider),</t>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),</t>
   </si>
   <si>
     <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
@@ -2811,130 +2811,130 @@
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: Securelist Asacub),(Citation: lookout_bouldspy_0423),(Citation: Google Triada June 2019),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: welivesec_strongpity),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Lookout Uyghur Campaign),(Citation: Lookout eSurv),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: Lookout-Dendroid),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: cloudmark_tanglebot_0921),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender - Triout 2018),(Citation: SecureList BusyGasper),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-Skygofree),(Citation: welivesecurity_ahrat_0523),(Citation: TrendMicro-XLoader),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-RCSAndroid),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Pegasus),(Citation: forcepoint_bitter),(Citation: Lookout ViperRAT),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: Lookout FrozenCell),(Citation: Lookout-EnterpriseApps),(Citation: Wandera-RedDrop),(Citation: Bleeipng Computer Escobar),(Citation: fb_arid_viper),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: welivesecurity_ahrat_0523),(Citation: HackerNews-OldBoot),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesec_strongpity),(Citation: CheckPoint SimBad 2019),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: Zscaler TikTok Spyware),(Citation: Zscaler-SpyNote),(Citation: FortiGuard-FlexiSpy),(Citation: Microsoft MalLockerB),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: ESET DEFENSOR ID),(Citation: PaloAlto-SpyDealer),(Citation: checkpoint_flixonline_0421),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Exobot),(Citation: WhiteOps TERRACOTTA),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Lookout-PegasusAndroid),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: cloudmark_tanglebot_0921),(Citation: kaspersky_fakecalls_0422),(Citation: cyble_drinik_1022),(Citation: Bleeipng Computer Escobar),(Citation: forcepoint_bitter),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: cloudmark_tanglebot_0921),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesec_strongpity),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: cyble_drinik_1022),(Citation: Lookout-PegasusAndroid),(Citation: welivesecurity_ahrat_0523),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Pegasus),(Citation: forcepoint_bitter),(Citation: Lookout ViperRAT),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-StealthMango),(Citation: NYTimes-BackDoor),(Citation: lookout_abstractemu_1021),(Citation: Lookout-EnterpriseApps),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-RCSAndroid),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: PaloAlto-XcodeGhost),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: trendmicro_tianyspy_0122),(Citation: BlackBerry Bahamut),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: Lookout Desert Scorpion),(Citation: paloalto_yispecter_1015),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+    <t>(Citation: Lookout FrozenCell),(Citation: Google Triada June 2019),(Citation: cleafy_brata_0122),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Cofense Anubis),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout ViperRAT),(Citation: Wandera-RedDrop),(Citation: welivesec_strongpity),(Citation: Lookout-Dendroid),(Citation: Kaspersky-Skygofree),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Pegasus),(Citation: cloudmark_tanglebot_0921),(Citation: fb_arid_viper),(Citation: Lookout-PegasusAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler-SpyNote),(Citation: Lookout FrozenCell),(Citation: BlackBerry Bahamut),(Citation: Bleeipng Computer Escobar),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-XLoader),(Citation: Lookout-StealthMango),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: lookout_hornbill_sunbird_0221),(Citation: forcepoint_bitter),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender - Triout 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: HackerNews-OldBoot),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint SimBad 2019),(Citation: welivesec_strongpity),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SpyNote),(Citation: Cybereason EventBot),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),(Citation: PaloAlto-SpyDealer),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler TikTok Spyware),(Citation: ESET DEFENSOR ID),(Citation: Trend Micro Bouncing Golf 2019),(Citation: checkpoint_flixonline_0421),(Citation: FortiGuard-FlexiSpy),(Citation: Talos GPlayed),(Citation: welivesecurity_ahrat_0523),(Citation: WhiteOps TERRACOTTA),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: mcafee_brata_0421),(Citation: Cofense Anubis),(Citation: kaspersky_fakecalls_0422),(Citation: forcepoint_bitter),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout ViperRAT),(Citation: NYTimes-BackDoor),(Citation: welivesec_strongpity),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Pegasus),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SuperMarioRun),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_drinik_1022),(Citation: Lookout-StealthMango),(Citation: Google Project Zero Insomnia),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: lookout_hornbill_sunbird_0221),(Citation: forcepoint_bitter),(Citation: lookout_bouldspy_0423),(Citation: Kaspersky-WUC),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: BlackBerry Bahamut),(Citation: trendmicro_tianyspy_0122),(Citation: paloalto_yispecter_1015),(Citation: SecureList DVMap June 2017),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Adware),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-BrainTest),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),</t>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: lookout_bouldspy_0423),(Citation: CheckPoint Agent Smith),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-BrainTest),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
   </si>
   <si>
-    <t>(Citation: HackerNews-Allwinner),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Triada June 2019),(Citation: Lookout-StealthMango),(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor),(Citation: Krebs-Triada June 2019),</t>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: NYTimes-BackDoor),(Citation: Lookout-StealthMango),(Citation: BankInfoSecurity-BackDoor),(Citation: Krebs-Triada June 2019),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: Securelist Asacub),(Citation: CheckPoint-Charger),(Citation: BlackBerry Bahamut),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: cloudmark_tanglebot_0921),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Cerberus),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: PaloAlto-SpyDealer),(Citation: Meta Adversarial Threat Report 2022),(Citation: securelist rotexy 2018),(Citation: kaspersky_fakecalls_0422),(Citation: Threat Fabric Exobot),(Citation: Lookout-Pegasus),(Citation: forcepoint_bitter),(Citation: Lookout ViperRAT),(Citation: Lookout-StealthMango),(Citation: NYTimes-BackDoor),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: Lookout-EnterpriseApps),(Citation: Bitdefender Mandrake),(Citation: fb_arid_viper),</t>
+    <t>(Citation: Lookout ViperRAT),(Citation: Threat Fabric Cerberus),(Citation: NYTimes-BackDoor),(Citation: welivesec_strongpity),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Pegasus),(Citation: cloudmark_tanglebot_0921),(Citation: fb_arid_viper),(Citation: Lookout-PegasusAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler-SpyNote),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint-Charger),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: Google Project Zero Insomnia),(Citation: Securelist Asacub),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: proofpoint_flubot_0421),(Citation: forcepoint_bitter),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: Talos GPlayed),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Cylance Dust Storm),(Citation: BlackBerry Bahamut),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: securelist_brata_0819),(Citation: Lookout-Dendroid),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: cloudmark_tanglebot_0921),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Bitdefender - Triout 2018),(Citation: FlexiSpy-Features),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: lookout_bouldspy_0423),(Citation: Zscaler TikTok Spyware),(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: cyble_drinik_1022),(Citation: welivesecurity_ahrat_0523),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: cyble_chameleon_0423),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout ViperRAT),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: Gooligan Citation),(Citation: Trend Micro Anubis),(Citation: Lookout FrozenCell),(Citation: ThreatFabric Ginp),(Citation: Bleeipng Computer Escobar),(Citation: fb_arid_viper),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-Anserver),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: lookout_abstractemu_1021),(Citation: lookout_hornbill_sunbird_0221),(Citation: Threat Fabric Exobot),(Citation: Proofpoint-Marcher),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft MalLockerB),(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: Google Security Zen),(Citation: mcafee_brata_0421),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: lookout_abstractemu_1021),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Talos GPlayed),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: paloalto_yispecter_1015),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Cybereason EventBot),(Citation: Google Bread),(Citation: Xiao-ZergHelper),(Citation: Google Security Zen),(Citation: mcafee_brata_0421),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: Google Triada June 2019),(Citation: Lookout-BrainTest),(Citation: Lookout Desert Scorpion),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky-Skygofree),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos-WolfRAT),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: TrendMicro-RCSAndroid),(Citation: cyble_chameleon_0423),(Citation: cleafy_brata_0122),(Citation: CheckPoint-Judy),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: Trend Micro Anubis),(Citation: Lookout FrozenCell),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: trendmicro_strongpity),(Citation: Lookout-StealthMango),(Citation: paloalto_yispecter_1015),(Citation: Volexity Insomnia),(Citation: Lookout-Pegasus),</t>
+    <t>(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout ViperRAT),(Citation: Lookout-Dendroid),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: cloudmark_tanglebot_0921),(Citation: fb_arid_viper),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_chameleon_0423),(Citation: SecureList BusyGasper),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler-SpyNote),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout FrozenCell),(Citation: BlackBerry Bahamut),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: Gooligan Citation),(Citation: securelist_brata_0819),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: cyble_drinik_1022),(Citation: Trend Micro Anubis),(Citation: FlexiSpy-Features),(Citation: Lookout-StealthMango),(Citation: Google Project Zero Insomnia),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: ThreatFabric Ginp),(Citation: Bitdefender - Triout 2018),(Citation: Talos GPlayed),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-XLoader),(Citation: Proofpoint-Marcher),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: cleafy_brata_0122),(Citation: welivesec_strongpity),(Citation: Google Security Zen),(Citation: lookout_abstractemu_1021),(Citation: SecureList DVMap June 2017),(Citation: cyble_drinik_1022),(Citation: mcafee_brata_0421),(Citation: Cofense Anubis),(Citation: proofpoint_flubot_0421),(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout ViperRAT),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint-Judy),(Citation: paloalto_yispecter_1015),(Citation: Lookout eSurv),(Citation: Kaspersky-Skygofree),(Citation: Google Bread),(Citation: mcafee_brata_0421),(Citation: cyble_chameleon_0423),(Citation: SecureList BusyGasper),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-BrainTest),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Google Triada June 2019),(Citation: cleafy_brata_0122),(Citation: Palo Alto HenBox),(Citation: Google Security Zen),(Citation: Xiao-ZergHelper),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: nccgroup_sharkbot_0322),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Talos-WolfRAT),(Citation: Trend Micro Anubis),(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: Talos GPlayed),(Citation: lookout_abstractemu_1021),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: WhiteOps TERRACOTTA),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: trendmicro_strongpity),</t>
   </si>
   <si>
     <t>(Citation: welivesecurity_ahrat_0523),(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),</t>
+    <t>(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: Cylance Dust Storm),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesec_strongpity),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Triada June 2019),(Citation: Zimperium FlyTrap),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: cyble_drinik_1022),(Citation: welivesecurity_ahrat_0523),(Citation: trendmicro_strongpity),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: kaspersky_fakecalls_0422),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: Bitdefender - Triout 2018),</t>
+    <t>(Citation: Wandera-RedDrop),(Citation: welivesec_strongpity),(Citation: Lookout eSurv),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_chameleon_0423),(Citation: Google Triada June 2019),(Citation: cleafy_brata_0122),(Citation: nccgroup_sharkbot_0322),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_drinik_1022),(Citation: Zimperium FlyTrap),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: trendmicro_strongpity),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),</t>
   </si>
   <si>
     <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
   </si>
   <si>
-    <t>(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Adware),(Citation: Google Security Zen),(Citation: Kaspersky-Skygofree),(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: lookout_abstractemu_1021),(Citation: Lookout-BrainTest),(Citation: Gooligan Citation),(Citation: SecureList DVMap June 2017),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-Pegasus),(Citation: fb_arid_viper),</t>
+    <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Volexity Insomnia),(Citation: Lookout-BrainTest),(Citation: Gooligan Citation),(Citation: Google Security Zen),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CheckPoint Agent Smith),(Citation: SecureList DVMap June 2017),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: fb_arid_viper),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),(Citation: Lookout-Adware),</t>
   </si>
   <si>
     <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: Talos GPlayed),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Monokle),(Citation: Trend Micro Bouncing Golf 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: welivesecurity_ahrat_0523),(Citation: Cylance Dust Storm),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesec_strongpity),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: Group IB Gustuff Mar 2019),(Citation: PaloAlto-XcodeGhost),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: Lookout-Dendroid),(Citation: cloudmark_tanglebot_0921),(Citation: Cybereason EventBot),(Citation: trendmicro_tianyspy_0122),(Citation: nccgroup_sharkbot_0322),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: Trend Micro FlyTrap),(Citation: Proofpoint-Marcher),(Citation: Talos Gustuff Apr 2019),(Citation: Sophos Red Alert 2.0),(Citation: cyble_chameleon_0423),(Citation: checkpoint_flixonline_0421),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: cleafy_brata_0122),(Citation: PaloAlto-Xbot),(Citation: Kaspersky Riltok June 2019),(Citation: threatfabric_sova_0921),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: Bleeipng Computer Escobar),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: CheckPoint-Judy),(Citation: CheckPoint Agent Smith),(Citation: Lookout-EnterpriseApps),(Citation: Tripwire-MazarBOT),(Citation: Google Triada June 2019),(Citation: Lookout-BrainTest),(Citation: Gooligan Citation),(Citation: checkpoint_flixonline_0421),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Triada June 2016),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint SimBad 2019),(Citation: Wandera-RedDrop),(Citation: ArsTechnica-HummingBad),(Citation: ArsTechnica-HummingWhale),(Citation: Google Bread),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),</t>
+    <t>(Citation: Lookout-Monokle),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos GPlayed),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CheckPoint Agent Smith),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout FrozenCell),(Citation: BlackBerry Bahamut),(Citation: Bleeipng Computer Escobar),(Citation: welivesec_strongpity),(Citation: welivesecurity_ahrat_0523),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: trendmicro_tianyspy_0122),(Citation: Threat Fabric Exobot),(Citation: Lookout-Dendroid),(Citation: cloudmark_tanglebot_0921),(Citation: cyble_chameleon_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: Bleeipng Computer Escobar),(Citation: Group IB Gustuff Mar 2019),(Citation: cleafy_brata_0122),(Citation: nccgroup_sharkbot_0322),(Citation: Zscaler TikTok Spyware),(Citation: PaloAlto-XcodeGhost),(Citation: cyble_drinik_1022),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: Trend Micro FlyTrap),(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Proofpoint-Marcher),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: WhiteOps TERRACOTTA),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: ArsTechnica-HummingWhale),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-BrainTest),(Citation: Gooligan Citation),(Citation: Google Triada June 2019),(Citation: CheckPoint-Judy),(Citation: Wandera-RedDrop),(Citation: CheckPoint SimBad 2019),(Citation: Kaspersky Triada June 2016),(Citation: Google Security Zen),(Citation: CheckPoint Agent Smith),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Bread),(Citation: checkpoint_flixonline_0421),(Citation: Tripwire-MazarBOT),(Citation: ArsTechnica-HummingBad),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: mcafee_brata_0421),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2946,76 +2946,76 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender Mandrake),(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: welivesec_strongpity),(Citation: fb_arid_viper),</t>
+    <t>(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_hornbill_sunbird_0221),(Citation: fb_arid_viper),(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),</t>
   </si>
   <si>
     <t>(Citation: fb_arid_viper),(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
   </si>
   <si>
-    <t>(Citation: Google Security Zen),(Citation: mcafee_brata_0421),(Citation: ESET DEFENSOR ID),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_sova_1122),(Citation: securelist_brata_0819),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_bouldspy_0423),(Citation: Google Project Zero Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: Trend Micro FlyTrap),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Uyghur Campaign),(Citation: Threat Fabric Exobot),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: WhiteOps TERRACOTTA),(Citation: Wandera-RedDrop),</t>
+    <t>(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: securelist_brata_0819),(Citation: CheckPoint Cerberus),(Citation: Google Security Zen),(Citation: cleafy_sova_1122),(Citation: Kaspersky Riltok June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: ESET DEFENSOR ID),(Citation: Talos Gustuff Apr 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout ViperRAT),(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: SecurityIntelligence TrickMo),(Citation: SWB Exodus March 2019),(Citation: Google Project Zero Insomnia),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro FlyTrap),(Citation: lookout_bouldspy_0423),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: mcafee_brata_0421),(Citation: Lookout-Monokle),(Citation: BlackBerry Bahamut),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Cofense Anubis),(Citation: securelist_brata_0819),(Citation: cyble_chameleon_0423),(Citation: Cybereason EventBot),(Citation: threatfabric_sova_0921),(Citation: FlexiSpy-Features),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: Threat Fabric Exobot),(Citation: Bleeipng Computer Escobar),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint-Charger),(Citation: BlackBerry Bahamut),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: CrowdStrike-Android),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: cloudmark_tanglebot_0921),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList BusyGasper),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Cerberus),(Citation: Kaspersky-Skygofree),(Citation: Trend Micro FlyTrap),(Citation: welivesecurity_ahrat_0523),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-RCSAndroid),(Citation: cyble_chameleon_0423),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Pegasus),(Citation: cleafy_brata_0122),(Citation: Lookout ViperRAT),(Citation: Lookout-StealthMango),(Citation: NYTimes-BackDoor),(Citation: lookout_abstractemu_1021),(Citation: Lookout FrozenCell),(Citation: Lookout-EnterpriseApps),(Citation: Bitdefender Mandrake),(Citation: Bleeipng Computer Escobar),(Citation: Bitdefender - Triout 2018),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: Proofpoint-Droidjack),(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: securelist_brata_0819),(Citation: Lookout-Dendroid),(Citation: CrowdStrike-Android),(Citation: MoustachedBouncer ESET August 2023),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason EventBot),(Citation: CheckPoint SimBad 2019),(Citation: mcafee_brata_0421),(Citation: lookout_bouldspy_0423),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Forbes Cerberus),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Microsoft MalLockerB),(Citation: blackberry_mobile_malware_apt_esp),(Citation: sophos_android_apt_spyware),(Citation: Cybereason FakeSpy),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Talos-WolfRAT),(Citation: trendmicro_strongpity),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: kaspersky_fakecalls_0422),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Exobot),(Citation: forcepoint_bitter),(Citation: checkpoint_hamas_android_malware),(Citation: CheckPoint Agent Smith),(Citation: Lookout ViperRAT),(Citation: welivesecurity_apt-c-23),(Citation: Trend Micro Anubis),(Citation: Lookout FrozenCell),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: fb_arid_viper),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),(Citation: Palo Alto HenBox),(Citation: Google Bread),</t>
+    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: securelist_brata_0819),(Citation: Threat Fabric Cerberus),(Citation: cleafy_brata_0122),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Exobot),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: Cofense Anubis),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: lookout_bouldspy_0423),(Citation: SecureList BusyGasper),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout ViperRAT),(Citation: Threat Fabric Cerberus),(Citation: NYTimes-BackDoor),(Citation: welivesec_strongpity),(Citation: Lookout eSurv),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Pegasus),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_chameleon_0423),(Citation: SecureList BusyGasper),(Citation: Zscaler-SpyNote),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout FrozenCell),(Citation: BlackBerry Bahamut),(Citation: Bleeipng Computer Escobar),(Citation: CyberMerchants-FlexiSpy),(Citation: cleafy_brata_0122),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint-Charger),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: Google Project Zero Insomnia),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro FlyTrap),(Citation: Kaspersky-WUC),(Citation: Bitdefender - Triout 2018),(Citation: CrowdStrike-Android),(Citation: Talos GPlayed),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout ViperRAT),(Citation: CheckPoint SimBad 2019),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: mcafee_brata_0421),(Citation: SecureList - ViceLeaker 2019),(Citation: Forbes Cerberus),(Citation: fb_arid_viper),(Citation: cyble_chameleon_0423),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout FrozenCell),(Citation: Cybereason EventBot),(Citation: Palo Alto HenBox),(Citation: Microsoft MalLockerB),(Citation: CheckPoint Agent Smith),(Citation: sophos_android_apt_spyware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: MoustachedBouncer ESET August 2023),(Citation: checkpoint_hamas_android_malware),(Citation: Zscaler TikTok Spyware),(Citation: securelist_brata_0819),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Trend Micro Anubis),(Citation: Securelist Asacub),(Citation: welivesecurity_apt-c-23),(Citation: kaspersky_fakecalls_0422),(Citation: trendmicro_strongpity),(Citation: forcepoint_bitter),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender Mandrake),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Proofpoint-Droidjack),(Citation: ThreatFabric Ginp),(Citation: CrowdStrike-Android),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Talos GPlayed),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: Sophos Red Alert 2.0),(Citation: FortiGuard-FlexiSpy),(Citation: cyble_chameleon_0423),(Citation: Volexity Insomnia),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: CheckPoint-Charger),(Citation: BlackBerry Bahamut),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Check Point-Joker),(Citation: TrendMicro-Obad),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason EventBot),(Citation: Google Bread),(Citation: trendmicro_tianyspy_0122),(Citation: SecurityIntelligence TrickMo),(Citation: Google Security Zen),(Citation: mcafee_brata_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout-BrainTest),(Citation: Microsoft MalLockerB),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: Cybereason FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: PaloAlto-WireLurker),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro-XLoader),(Citation: Talos-WolfRAT),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Volexity Insomnia),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),</t>
+    <t>(Citation: Volexity Insomnia),(Citation: FortiGuard-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: TrendMicro-Obad),(Citation: trendmicro_tianyspy_0122),(Citation: welivesec_strongpity),(Citation: Cybereason FakeSpy),(Citation: Google Bread),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-BrainTest),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: Volexity Insomnia),(Citation: Lookout-Monokle),(Citation: cleafy_brata_0122),(Citation: Palo Alto HenBox),(Citation: Google Security Zen),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),(Citation: CheckPoint-Charger),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: nccgroup_sharkbot_0322),(Citation: PaloAlto-WireLurker),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-XLoader),(Citation: cyble_drinik_1022),(Citation: Securelist Asacub),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: Check Point-Joker),(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: FortiGuard-FlexiSpy),(Citation: Talos GPlayed),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: WhiteOps TERRACOTTA),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Kaspersky-Skygofree),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro-RCSAndroid),(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Pegasus),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: CitizenLab Great iPwn),(Citation: Meta Adversarial Threat Report 2022),(Citation: securelist_brata_0819),(Citation: Leonard TAG 2023),(Citation: blackberry_mobile_malware_apt_esp),(Citation: sophos_android_apt_spyware),(Citation: checkpoint_hamas_android_malware),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-Obad),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Agent Smith),(Citation: Talos-WolfRAT),(Citation: nccgroup_sharkbot_0322),(Citation: paloalto_yispecter_1015),(Citation: securelist rotexy 2018),(Citation: Palo Alto HenBox),(Citation: Zimperium z9),(Citation: Trend Micro Bouncing Golf 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),(Citation: Google Security Zen),(Citation: Kaspersky Triada March 2016),</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: Lookout-Dendroid),(Citation: cloudmark_tanglebot_0921),(Citation: bitdefender_flubot_0524),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: Cybereason FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: forcepoint_bitter),(Citation: Lookout-StealthMango),(Citation: threatfabric_sova_0921),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: Bleeipng Computer Escobar),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: Cylance Dust Storm),(Citation: BlackBerry Bahamut),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Symantec GoldenCup),(Citation: Lookout-Dendroid),(Citation: CyberMerchants-FlexiSpy),(Citation: cloudmark_tanglebot_0921),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: FireEye-RuMMS),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason EventBot),(Citation: FlexiSpy-Features),(Citation: Google Bread),(Citation: SecurityIntelligence TrickMo),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Tripwire-MazarBOT),(Citation: Zscaler-SpyNote),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-XLoader),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: PaloAlto-SpyDealer),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-RCSAndroid),(Citation: cyble_chameleon_0423),(Citation: securelist rotexy 2018),(Citation: kaspersky_fakecalls_0422),(Citation: Kaspersky Triada March 2016),(Citation: Threat Fabric Exobot),(Citation: Lookout-Pegasus),(Citation: forcepoint_bitter),(Citation: Lookout ViperRAT),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-StealthMango),(Citation: NYTimes-BackDoor),(Citation: lookout_abstractemu_1021),(Citation: PaloAlto-Xbot),(Citation: Kaspersky Riltok June 2019),(Citation: threatfabric_sova_0921),(Citation: Lookout FrozenCell),(Citation: ThreatFabric Ginp),(Citation: Lookout-EnterpriseApps),(Citation: Bitdefender Mandrake),(Citation: Bleeipng Computer Escobar),(Citation: fb_arid_viper),</t>
+    <t>(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: Lookout-Monokle),(Citation: TrendMicro-RCSAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-Pegasus),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-PegasusAndroid),(Citation: lookout_bouldspy_0423),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: blackberry_mobile_malware_apt_esp),(Citation: securelist_brata_0819),(Citation: Meta Adversarial Threat Report 2022),(Citation: sophos_android_apt_spyware),(Citation: Leonard TAG 2023),(Citation: checkpoint_hamas_android_malware),(Citation: CitizenLab Great iPwn),(Citation: MSTIC Octo Tempest Operations October 2023),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-Obad),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),(Citation: bitdefender_flubot_0524),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: Zimperium z9),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Project Zero Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Bleeipng Computer Escobar),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: nccgroup_sharkbot_0322),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: cyble_drinik_1022),(Citation: Lookout-StealthMango),(Citation: Securelist Asacub),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: forcepoint_bitter),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: Talos GPlayed),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: WhiteOps TERRACOTTA),(Citation: bitdefender_flubot_0524),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout ViperRAT),(Citation: Threat Fabric Cerberus),(Citation: NYTimes-BackDoor),(Citation: welivesec_strongpity),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Bread),(Citation: Lookout-Pegasus),(Citation: FireEye-RuMMS),(Citation: cloudmark_tanglebot_0921),(Citation: fb_arid_viper),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_chameleon_0423),(Citation: SecureList BusyGasper),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler-SpyNote),(Citation: Lookout FrozenCell),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: Bleeipng Computer Escobar),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: nccgroup_sharkbot_0322),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-XLoader),(Citation: cyble_drinik_1022),(Citation: Lookout-StealthMango),(Citation: FlexiSpy-Features),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),(Citation: Securelist Asacub),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: proofpoint_flubot_0421),(Citation: forcepoint_bitter),(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: threatfabric_sova_0921),(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: Tripwire-MazarBOT),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
@@ -3024,73 +3024,73 @@
     <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),</t>
   </si>
   <si>
-    <t>(Citation: Cofense Anubis),(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: cloudmark_tanglebot_0921),(Citation: cleafy_sova_1122),(Citation: Trend Micro Bouncing Golf 2019),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: mcafee_brata_0421),(Citation: SecureList BusyGasper),(Citation: lookout_bouldspy_0423),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),(Citation: welivesecurity_ahrat_0523),(Citation: ESET DEFENSOR ID),(Citation: Talos-WolfRAT),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: paloalto_yispecter_1015),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: cloudmark_tanglebot_0921),(Citation: Trend Micro Bouncing Golf 2019),(Citation: welivesec_strongpity),(Citation: FlexiSpy-Features),(Citation: Cybereason EventBot),(Citation: cleafy_sova_1122),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler TikTok Spyware),(Citation: Google Triada June 2019),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Threat Fabric Cerberus),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: ESET DEFENSOR ID),(Citation: Talos-WolfRAT),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Agent Smith),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky Riltok June 2019),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Talos Gustuff Apr 2019),(Citation: mcafee_brata_0421),(Citation: Google Bread),</t>
-  </si>
-  <si>
-    <t>,(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking),(Citation: Android App Links),(Citation: iOS Universal Links)</t>
+    <t>(Citation: mcafee_brata_0421),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: cleafy_sova_1122),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: securelist_brata_0819),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: ThreatFabric Ginp),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_brata_0122),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: welivesec_strongpity),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-PegasusAndroid),(Citation: cyble_chameleon_0423),(Citation: Cybereason EventBot),(Citation: Google Triada June 2019),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: cleafy_sova_1122),(Citation: SecurityIntelligence TrickMo),(Citation: Symantec GoldenCup),(Citation: CheckPoint Agent Smith),(Citation: Lookout Desert Scorpion),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-StealthMango),(Citation: FlexiSpy-Features),(Citation: Google Project Zero Insomnia),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: WhiteOps TERRACOTTA),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Google Bread),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),</t>
+  </si>
+  <si>
+    <t>,(Citation: iOS Universal Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: Android App Links),(Citation: IETF-PKCE)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: cleafy_sova_1122),(Citation: SecureList BusyGasper),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FortiGuard-FlexiSpy),(Citation: Zimperium FlyTrap),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-Skygofree),(Citation: Trend Micro FlyTrap),(Citation: Cybereason FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-RCSAndroid),(Citation: checkpoint_flixonline_0421),(Citation: Lookout-Pegasus),(Citation: Lookout-StealthMango),(Citation: threatfabric_sova_0921),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
-  </si>
-  <si>
-    <t>(Citation: Group IB Gustuff Mar 2019),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint SimBad 2019),(Citation: FlexiSpy-Features),(Citation: ESET-Twitoor),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Desert Scorpion),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: Cybereason FakeSpy),(Citation: Lookout Uyghur Campaign),(Citation: checkpoint_flixonline_0421),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint Agent Smith),(Citation: threatfabric_sova_0921),(Citation: ThreatFabric Ginp),(Citation: Bitdefender Mandrake),(Citation: Bitdefender - Triout 2018),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: welivesec_strongpity),(Citation: Cybereason EventBot),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: BlackBerry Bahamut),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Lookout-Dendroid),(Citation: cyble_chameleon_0423),(Citation: Trend Micro Anubis),(Citation: SecurityIntelligence TrickMo),(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: Cybereason FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: BlackBerry Bahamut),(Citation: Talos GPlayed),(Citation: TrendMicro-Anserver2),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: Lookout eSurv),(Citation: securelist_brata_0819),(Citation: paloalto_yispecter_1015),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: FireEye-RuMMS),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Cybereason EventBot),(Citation: SecurityIntelligence TrickMo),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky-WUC),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Cybereason FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Threat Fabric Exobot),(Citation: Lookout-Pegasus),(Citation: Xiao-KeyRaider),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: Kaspersky Riltok June 2019),(Citation: threatfabric_sova_0921),(Citation: Lookout FrozenCell),(Citation: Bitdefender Mandrake),(Citation: fb_arid_viper),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: PaloAlto-DualToy),(Citation: Talos GPlayed),(Citation: TrendMicro-Anserver2),(Citation: Symantec GoldenCup),(Citation: paloalto_yispecter_1015),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: FireEye-RuMMS),(Citation: Cybereason EventBot),(Citation: Google Bread),(Citation: trendmicro_tianyspy_0122),(Citation: SecurityIntelligence TrickMo),(Citation: lookout_bouldspy_0423),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Google Project Zero Insomnia),(Citation: Lookout-PegasusAndroid),(Citation: Trend Micro FlyTrap),(Citation: Cybereason FakeSpy),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: securelist rotexy 2018),(Citation: Threat Fabric Exobot),(Citation: checkpoint_hamas_android_malware),(Citation: forcepoint_bitter),(Citation: Lookout ViperRAT),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout FrozenCell),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-EnterpriseApps),(Citation: Wandera-RedDrop),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Pegasus),(Citation: trendmicro_strongpity),(Citation: Lookout ViperRAT),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: Cybereason FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: SecureList BusyGasper),(Citation: Lookout FrozenCell),(Citation: Bleeipng Computer Escobar),(Citation: cleafy_sova_1122),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: Zimperium FlyTrap),(Citation: checkpoint_flixonline_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: Trend Micro FlyTrap),(Citation: lookout_bouldspy_0423),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),</t>
+  </si>
+  <si>
+    <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+  </si>
+  <si>
+    <t>(Citation: Threat Fabric Cerberus),(Citation: CheckPoint SimBad 2019),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: Group IB Gustuff Mar 2019),(Citation: ESET-Twitoor),(Citation: CheckPoint Agent Smith),(Citation: Lookout Desert Scorpion),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Uyghur Campaign),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: welivesec_strongpity),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Cerberus),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Cybereason FakeSpy),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Dendroid),(Citation: lookout_abstractemu_1021),(Citation: WhiteOps TERRACOTTA),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Trend Micro Anubis),(Citation: mcafee_brata_0421),(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout ViperRAT),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Wandera-RedDrop),(Citation: welivesec_strongpity),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Xiao-KeyRaider),(Citation: trendmicro_tianyspy_0122),(Citation: paloalto_yispecter_1015),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Pegasus),(Citation: FireEye-RuMMS),(Citation: SecureList - ViceLeaker 2019),(Citation: fb_arid_viper),(Citation: cyble_chameleon_0423),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout FrozenCell),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler TikTok Spyware),(Citation: securelist_brata_0819),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Project Zero Insomnia),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver2),(Citation: Talos GPlayed),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout ViperRAT),(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: Threat Fabric Exobot),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Bread),(Citation: FireEye-RuMMS),(Citation: Lookout-PegasusAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout FrozenCell),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: SecurityIntelligence TrickMo),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: checkpoint_hamas_android_malware),(Citation: SWB Exodus March 2019),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Google Project Zero Insomnia),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: PaloAlto-DualToy),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: Trend Micro FlyTrap),(Citation: lookout_bouldspy_0423),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver2),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout ViperRAT),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),(Citation: Lookout-Pegasus),(Citation: trendmicro_strongpity),(Citation: SWB Exodus March 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: nccgroup_sharkbot_0322),(Citation: securelist_brata_0819),(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),(Citation: Bleeipng Computer Escobar),(Citation: SecurityIntelligence TrickMo),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Uyghur Campaign),(Citation: lookout_abstractemu_1021),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: proofpoint_flubot_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Symantec GoldenCup),(Citation: Lookout-Dendroid),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: cloudmark_tanglebot_0921),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList BusyGasper),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler TikTok Spyware),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: Kaspersky-Skygofree),(Citation: Talos-WolfRAT),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout Uyghur Campaign),(Citation: PaloAlto-SpyDealer),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-RCSAndroid),(Citation: kaspersky_fakecalls_0422),(Citation: forcepoint_bitter),(Citation: Lookout ViperRAT),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout-StealthMango),(Citation: lookout_abstractemu_1021),(Citation: Bleeipng Computer Escobar),(Citation: fb_arid_viper),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Cerberus),(Citation: securelist_brata_0819),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout ViperRAT),(Citation: Lookout-Dendroid),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro Coronavirus Updates),(Citation: cloudmark_tanglebot_0921),(Citation: fb_arid_viper),(Citation: Lookout-PegasusAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: Zscaler-SuperMarioRun),(Citation: BlackBerry Bahamut),(Citation: Bleeipng Computer Escobar),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_hornbill_sunbird_0221),(Citation: forcepoint_bitter),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: Securelist Asacub),(Citation: Talos GPlayed),(Citation: proofpoint_flubot_0421),(Citation: Symantec GoldenCup),(Citation: paloalto_yispecter_1015),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: FireEye-RuMMS),(Citation: welivesec_strongpity),(Citation: Cybereason EventBot),(Citation: Google Bread),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-MobileMalware),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList - ViceLeaker 2019),(Citation: Zimperium FlyTrap),(Citation: Kaspersky-WUC),(Citation: CheckPoint Cerberus),(Citation: Kaspersky-Skygofree),(Citation: Cybereason FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: ESET DEFENSOR ID),(Citation: TrendMicro Coronavirus Updates),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: cyble_chameleon_0423),(Citation: securelist rotexy 2018),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Volexity Insomnia),(Citation: Threat Fabric Exobot),(Citation: cleafy_brata_0122),(Citation: lookout_abstractemu_1021),(Citation: Kaspersky Riltok June 2019),(Citation: threatfabric_sova_0921),(Citation: Wandera-RedDrop),(Citation: Bitdefender - Triout 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: trendmicro_tianyspy_0122),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_bouldspy_0423),(Citation: Google Project Zero Insomnia),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-Monokle),(Citation: Lookout-PegasusAndroid),(Citation: Wandera-RedDrop),(Citation: SecurityIntelligence TrickMo),(Citation: TelephonyManager)</t>
+    <t>(Citation: Wandera-RedDrop),(Citation: CheckPoint Cerberus),(Citation: welivesec_strongpity),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Bread),(Citation: FireEye-RuMMS),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_chameleon_0423),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Volexity Insomnia),(Citation: Cybereason EventBot),(Citation: cleafy_brata_0122),(Citation: SecurityIntelligence TrickMo),(Citation: Symantec GoldenCup),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky-MobileMalware),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: Zimperium FlyTrap),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: threatfabric_sova_0921),(Citation: lookout_bouldspy_0423),(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: Bitdefender - Triout 2018),(Citation: Talos GPlayed),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-PegasusAndroid),(Citation: lookout_bouldspy_0423),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
@@ -2796,145 +2796,145 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: Check Point-Joker),(Citation: Bleeipng Computer Escobar),(Citation: Talos-WolfRAT),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: nccgroup_sharkbot_0322),(Citation: threatfabric_sova_0921),(Citation: checkpoint_flixonline_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: Talos-WolfRAT),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: checkpoint_flixonline_0421),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Check Point-Joker),(Citation: threatfabric_sova_0921),(Citation: lookout_abstractemu_1021),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),</t>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
   </si>
   <si>
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: Lookout FrozenCell),(Citation: Google Triada June 2019),(Citation: cleafy_brata_0122),(Citation: welivesec_strongpity),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Cofense Anubis),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout eSurv),(Citation: Lookout Uyghur Campaign),(Citation: nccgroup_sharkbot_0322),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout ViperRAT),(Citation: Wandera-RedDrop),(Citation: welivesec_strongpity),(Citation: Lookout-Dendroid),(Citation: Kaspersky-Skygofree),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Pegasus),(Citation: cloudmark_tanglebot_0921),(Citation: fb_arid_viper),(Citation: Lookout-PegasusAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler-SpyNote),(Citation: Lookout FrozenCell),(Citation: BlackBerry Bahamut),(Citation: Bleeipng Computer Escobar),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-XLoader),(Citation: Lookout-StealthMango),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: lookout_hornbill_sunbird_0221),(Citation: forcepoint_bitter),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender - Triout 2018),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: WhiteOps TERRACOTTA),(Citation: Bitdefender Mandrake),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: HackerNews-OldBoot),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint SimBad 2019),(Citation: welivesec_strongpity),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SpyNote),(Citation: Cybereason EventBot),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),(Citation: PaloAlto-SpyDealer),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler TikTok Spyware),(Citation: ESET DEFENSOR ID),(Citation: Trend Micro Bouncing Golf 2019),(Citation: checkpoint_flixonline_0421),(Citation: FortiGuard-FlexiSpy),(Citation: Talos GPlayed),(Citation: welivesecurity_ahrat_0523),(Citation: WhiteOps TERRACOTTA),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Monokle),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: mcafee_brata_0421),(Citation: Cofense Anubis),(Citation: kaspersky_fakecalls_0422),(Citation: forcepoint_bitter),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout ViperRAT),(Citation: NYTimes-BackDoor),(Citation: welivesec_strongpity),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Pegasus),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-PegasusAndroid),(Citation: Zscaler-SuperMarioRun),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_drinik_1022),(Citation: Lookout-StealthMango),(Citation: Google Project Zero Insomnia),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: lookout_hornbill_sunbird_0221),(Citation: forcepoint_bitter),(Citation: lookout_bouldspy_0423),(Citation: Kaspersky-WUC),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: BlackBerry Bahamut),(Citation: trendmicro_tianyspy_0122),(Citation: paloalto_yispecter_1015),(Citation: SecureList DVMap June 2017),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: cleafy_brata_0122),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: welivesec_strongpity),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),</t>
+  </si>
+  <si>
+    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Uyghur Campaign),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+  </si>
+  <si>
+    <t>(Citation: forcepoint_bitter),(Citation: Zscaler-SpyNote),(Citation: BlackBerry Bahamut),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky-Skygofree),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: Wandera-RedDrop),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: TrendMicro-RCSAndroid),(Citation: welivesec_strongpity),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Lookout eSurv),(Citation: Lookout-Dendroid),(Citation: TrendMicro-XLoader),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: CyberMerchants-FlexiSpy),(Citation: Cofense Anubis),(Citation: Zscaler-SuperMarioRun),(Citation: Symantec GoldenCup),(Citation: welivesecurity_ahrat_0523),(Citation: PaloAlto-SpyDealer),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: HackerNews-OldBoot),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler-SpyNote),(Citation: ESET DEFENSOR ID),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint SimBad 2019),(Citation: Palo Alto HenBox),(Citation: welivesec_strongpity),(Citation: FortiGuard-FlexiSpy),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: checkpoint_flixonline_0421),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: welivesecurity_ahrat_0523),(Citation: PaloAlto-SpyDealer),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),</t>
+  </si>
+  <si>
+    <t>(Citation: forcepoint_bitter),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: cloudmark_tanglebot_0921),(Citation: kaspersky_fakecalls_0422),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: Cofense Anubis),(Citation: mcafee_brata_0421),</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky-WUC),(Citation: forcepoint_bitter),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: Lookout-Pegasus),(Citation: welivesec_strongpity),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: NYTimes-BackDoor),(Citation: Zscaler-SuperMarioRun),(Citation: welivesecurity_ahrat_0523),(Citation: PaloAlto-SpyDealer),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: PaloAlto-XcodeGhost),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: SecureList DVMap June 2017),(Citation: trendmicro_tianyspy_0122),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
   </si>
   <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: lookout_bouldspy_0423),(Citation: CheckPoint Agent Smith),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-BrainTest),(Citation: Lookout-Monokle),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Adware),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Triada June 2019),(Citation: HackerNews-Allwinner),(Citation: NYTimes-BackDoor),(Citation: Lookout-StealthMango),(Citation: BankInfoSecurity-BackDoor),(Citation: Krebs-Triada June 2019),</t>
+    <t>(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-BrainTest),(Citation: Lookout-Adware),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Krebs-Triada June 2019),(Citation: NYTimes-BackDoor),(Citation: Lookout-StealthMango),(Citation: HackerNews-Allwinner),(Citation: BankInfoSecurity-BackDoor),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: Lookout ViperRAT),(Citation: Threat Fabric Cerberus),(Citation: NYTimes-BackDoor),(Citation: welivesec_strongpity),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Pegasus),(Citation: cloudmark_tanglebot_0921),(Citation: fb_arid_viper),(Citation: Lookout-PegasusAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler-SpyNote),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint-Charger),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: Google Project Zero Insomnia),(Citation: Securelist Asacub),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: proofpoint_flubot_0421),(Citation: forcepoint_bitter),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: Talos GPlayed),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),</t>
+    <t>(Citation: Kaspersky-WUC),(Citation: forcepoint_bitter),(Citation: Zscaler-SpyNote),(Citation: BlackBerry Bahamut),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: welivesec_strongpity),(Citation: Kaspersky Riltok June 2019),(Citation: SWB Exodus March 2019),(Citation: securelist rotexy 2018),(Citation: kaspersky_fakecalls_0422),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: Lookout eSurv),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: NYTimes-BackDoor),(Citation: CyberMerchants-FlexiSpy),(Citation: Threat Fabric Cerberus),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: Symantec GoldenCup),(Citation: CheckPoint-Charger),(Citation: welivesecurity_ahrat_0523),(Citation: PaloAlto-SpyDealer),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: cleafy_sova_1122),(Citation: PaloAlto-Xbot),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout ViperRAT),(Citation: Lookout-Dendroid),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: cloudmark_tanglebot_0921),(Citation: fb_arid_viper),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_chameleon_0423),(Citation: SecureList BusyGasper),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler-SpyNote),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout FrozenCell),(Citation: BlackBerry Bahamut),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: Gooligan Citation),(Citation: securelist_brata_0819),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: cyble_drinik_1022),(Citation: Trend Micro Anubis),(Citation: FlexiSpy-Features),(Citation: Lookout-StealthMango),(Citation: Google Project Zero Insomnia),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: ThreatFabric Ginp),(Citation: Bitdefender - Triout 2018),(Citation: Talos GPlayed),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_abstractemu_1021),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver),(Citation: Trend Micro Anubis),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro-XLoader),(Citation: Proofpoint-Marcher),(Citation: Sophos Red Alert 2.0),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: cleafy_brata_0122),(Citation: welivesec_strongpity),(Citation: Google Security Zen),(Citation: lookout_abstractemu_1021),(Citation: SecureList DVMap June 2017),(Citation: cyble_drinik_1022),(Citation: mcafee_brata_0421),(Citation: Cofense Anubis),(Citation: proofpoint_flubot_0421),(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout ViperRAT),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint-Judy),(Citation: paloalto_yispecter_1015),(Citation: Lookout eSurv),(Citation: Kaspersky-Skygofree),(Citation: Google Bread),(Citation: mcafee_brata_0421),(Citation: cyble_chameleon_0423),(Citation: SecureList BusyGasper),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-BrainTest),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: Google Triada June 2019),(Citation: cleafy_brata_0122),(Citation: Palo Alto HenBox),(Citation: Google Security Zen),(Citation: Xiao-ZergHelper),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: nccgroup_sharkbot_0322),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Talos-WolfRAT),(Citation: Trend Micro Anubis),(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: Talos GPlayed),(Citation: lookout_abstractemu_1021),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: WhiteOps TERRACOTTA),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: Volexity Insomnia),(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: trendmicro_strongpity),</t>
-  </si>
-  <si>
-    <t>(Citation: welivesecurity_ahrat_0523),(Citation: ESET-Twitoor),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: CheckPoint-Charger),(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),</t>
+    <t>(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: Bitdefender - Triout 2018),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: Trend Micro Anubis),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: TrendMicro-RCSAndroid),(Citation: cyble_chameleon_0423),(Citation: Cylance Dust Storm),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Gooligan Citation),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: Lookout eSurv),(Citation: Lookout-Dendroid),(Citation: securelist_brata_0819),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: FlexiSpy-Features),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Anubis),(Citation: TrendMicro-Anserver),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: TrendMicro-XLoader-FakeSpy),</t>
+  </si>
+  <si>
+    <t>(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: Proofpoint-Marcher),(Citation: lookout_abstractemu_1021),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: mcafee_brata_0421),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Kaspersky-Skygofree),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: mcafee_brata_0421),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: Google Triada June 2019),(Citation: Trend Micro Anubis),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: cyble_chameleon_0423),(Citation: Xiao-ZergHelper),(Citation: Lookout FrozenCell),(Citation: Lookout-BrainTest),(Citation: SWB Exodus March 2019),(Citation: CheckPoint-Judy),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout eSurv),(Citation: Sophos Red Alert 2.0),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: cleafy_brata_0122),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),(Citation: trendmicro_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: ESET-Twitoor),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-Xbot),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: welivesec_strongpity),(Citation: Lookout eSurv),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_chameleon_0423),(Citation: Google Triada June 2019),(Citation: cleafy_brata_0122),(Citation: nccgroup_sharkbot_0322),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_drinik_1022),(Citation: Zimperium FlyTrap),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: trendmicro_strongpity),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: Volexity Insomnia),(Citation: Lookout-BrainTest),(Citation: Gooligan Citation),(Citation: Google Security Zen),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CheckPoint Agent Smith),(Citation: SecureList DVMap June 2017),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: fb_arid_viper),(Citation: Kaspersky-Skygofree),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Pegasus),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-PegasusAndroid),(Citation: SWB Exodus March 2019),(Citation: Lookout-Adware),</t>
+    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018),(Citation: lookout_abstractemu_1021),(Citation: Google Triada June 2019),(Citation: Wandera-RedDrop),(Citation: Zimperium FlyTrap),(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: trendmicro_strongpity),(Citation: welivesec_strongpity),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cylance Dust Storm),(Citation: kaspersky_fakecalls_0422),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: Lookout eSurv),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: cleafy_brata_0122),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-BrainTest),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: SWB Exodus March 2019),(Citation: fb_arid_viper),(Citation: Lookout-Adware),(Citation: PaloAlto-SpyDealer),(Citation: CheckPoint Agent Smith),(Citation: Gooligan Citation),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),(Citation: Kaspersky-Skygofree),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
     <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-Monokle),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos GPlayed),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CheckPoint Agent Smith),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout FrozenCell),(Citation: BlackBerry Bahamut),(Citation: Bleeipng Computer Escobar),(Citation: welivesec_strongpity),(Citation: welivesecurity_ahrat_0523),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: trendmicro_tianyspy_0122),(Citation: Threat Fabric Exobot),(Citation: Lookout-Dendroid),(Citation: cloudmark_tanglebot_0921),(Citation: cyble_chameleon_0423),(Citation: Talos Gustuff Apr 2019),(Citation: Cybereason EventBot),(Citation: Bleeipng Computer Escobar),(Citation: Group IB Gustuff Mar 2019),(Citation: cleafy_brata_0122),(Citation: nccgroup_sharkbot_0322),(Citation: Zscaler TikTok Spyware),(Citation: PaloAlto-XcodeGhost),(Citation: cyble_drinik_1022),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: Trend Micro FlyTrap),(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Proofpoint-Marcher),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: WhiteOps TERRACOTTA),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: ArsTechnica-HummingWhale),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-BrainTest),(Citation: Gooligan Citation),(Citation: Google Triada June 2019),(Citation: CheckPoint-Judy),(Citation: Wandera-RedDrop),(Citation: CheckPoint SimBad 2019),(Citation: Kaspersky Triada June 2016),(Citation: Google Security Zen),(Citation: CheckPoint Agent Smith),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Google Bread),(Citation: checkpoint_flixonline_0421),(Citation: Tripwire-MazarBOT),(Citation: ArsTechnica-HummingBad),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: mcafee_brata_0421),</t>
+    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Monokle),(Citation: kaspersky_fakecalls_0422),(Citation: Talos-WolfRAT),(Citation: CheckPoint Agent Smith),(Citation: lookout_hornbill_sunbird_0221),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos GPlayed),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: Symantec GoldenCup),(Citation: welivesec_strongpity),(Citation: Lookout Desert Scorpion),(Citation: Cylance Dust Storm),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: trendmicro_tianyspy_0122),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: PaloAlto-XcodeGhost),(Citation: Bleeipng Computer Escobar),(Citation: PaloAlto-Xbot),(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019),(Citation: cyble_drinik_1022),(Citation: cyble_chameleon_0423),(Citation: Kaspersky Riltok June 2019),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro FlyTrap),(Citation: checkpoint_flixonline_0421),(Citation: Lookout-Dendroid),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Proofpoint-Marcher),(Citation: threatfabric_sova_0921),(Citation: cloudmark_tanglebot_0921),(Citation: Threat Fabric Cerberus),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: Lookout-BrainTest),(Citation: Google Triada June 2019),(Citation: Google Security Zen),(Citation: Lookout-EnterpriseApps),(Citation: CheckPoint-Judy),(Citation: CheckPoint Agent Smith),(Citation: Gooligan Citation),(Citation: Wandera-RedDrop),(Citation: Tripwire-MazarBOT),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Triada June 2016),(Citation: checkpoint_flixonline_0421),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ArsTechnica-HummingBad),(Citation: CheckPoint SimBad 2019),(Citation: ArsTechnica-HummingWhale),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),(Citation: mcafee_brata_0421),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2946,151 +2946,151 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: welivesec_strongpity),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_hornbill_sunbird_0221),(Citation: fb_arid_viper),(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: fb_arid_viper),(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: Threat Fabric Cerberus),(Citation: securelist_brata_0819),(Citation: CheckPoint Cerberus),(Citation: Google Security Zen),(Citation: cleafy_sova_1122),(Citation: Kaspersky Riltok June 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: ESET DEFENSOR ID),(Citation: Talos Gustuff Apr 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout ViperRAT),(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: SecurityIntelligence TrickMo),(Citation: SWB Exodus March 2019),(Citation: Google Project Zero Insomnia),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: Trend Micro FlyTrap),(Citation: lookout_bouldspy_0423),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),</t>
+    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: Wandera-RedDrop),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint Cerberus),(Citation: Google Security Zen),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: ThreatFabric Ginp),(Citation: ESET DEFENSOR ID),(Citation: cleafy_sova_1122),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: Kaspersky Riltok June 2019),</t>
+  </si>
+  <si>
+    <t>(Citation: trendmicro_tianyspy_0122),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro FlyTrap),(Citation: Google Project Zero Insomnia),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: securelist_brata_0819),(Citation: Threat Fabric Cerberus),(Citation: cleafy_brata_0122),(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Exobot),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: Cofense Anubis),(Citation: Talos Gustuff Apr 2019),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: lookout_bouldspy_0423),(Citation: SecureList BusyGasper),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout ViperRAT),(Citation: Threat Fabric Cerberus),(Citation: NYTimes-BackDoor),(Citation: welivesec_strongpity),(Citation: Lookout eSurv),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Pegasus),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_chameleon_0423),(Citation: SecureList BusyGasper),(Citation: Zscaler-SpyNote),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout FrozenCell),(Citation: BlackBerry Bahamut),(Citation: Bleeipng Computer Escobar),(Citation: CyberMerchants-FlexiSpy),(Citation: cleafy_brata_0122),(Citation: Palo Alto HenBox),(Citation: Lookout-Monokle),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint-Charger),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: Google Project Zero Insomnia),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro FlyTrap),(Citation: Kaspersky-WUC),(Citation: Bitdefender - Triout 2018),(Citation: CrowdStrike-Android),(Citation: Talos GPlayed),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout ViperRAT),(Citation: CheckPoint SimBad 2019),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: mcafee_brata_0421),(Citation: SecureList - ViceLeaker 2019),(Citation: Forbes Cerberus),(Citation: fb_arid_viper),(Citation: cyble_chameleon_0423),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout FrozenCell),(Citation: Cybereason EventBot),(Citation: Palo Alto HenBox),(Citation: Microsoft MalLockerB),(Citation: CheckPoint Agent Smith),(Citation: sophos_android_apt_spyware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: MoustachedBouncer ESET August 2023),(Citation: checkpoint_hamas_android_malware),(Citation: Zscaler TikTok Spyware),(Citation: securelist_brata_0819),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Trend Micro Anubis),(Citation: Securelist Asacub),(Citation: welivesecurity_apt-c-23),(Citation: kaspersky_fakecalls_0422),(Citation: trendmicro_strongpity),(Citation: forcepoint_bitter),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Bitdefender Mandrake),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Proofpoint-Droidjack),(Citation: ThreatFabric Ginp),(Citation: CrowdStrike-Android),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Talos GPlayed),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),</t>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_bouldspy_0423),(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: cleafy_brata_0122),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: cyble_chameleon_0423),(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky-WUC),(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: Bitdefender - Triout 2018),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky-Skygofree),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: TrendMicro-RCSAndroid),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro FlyTrap),(Citation: Lookout eSurv),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: lookout_hornbill_sunbird_0221),(Citation: NYTimes-BackDoor),(Citation: CyberMerchants-FlexiSpy),(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: Bitdefender Mandrake),(Citation: CrowdStrike-Android),(Citation: Symantec GoldenCup),(Citation: CheckPoint-Charger),(Citation: welivesecurity_ahrat_0523),(Citation: PaloAlto-SpyDealer),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),</t>
+  </si>
+  <si>
+    <t>(Citation: Proofpoint-Droidjack),(Citation: forcepoint_bitter),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Agent Smith),(Citation: blackberry_mobile_malware_apt_esp),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: mcafee_brata_0421),(Citation: welivesecurity_apt-c-23),(Citation: Palo Alto HenBox),(Citation: CheckPoint SimBad 2019),(Citation: Trend Micro Anubis),(Citation: fb_arid_viper),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: trendmicro_strongpity),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout FrozenCell),(Citation: checkpoint_hamas_android_malware),(Citation: Forbes Cerberus),(Citation: kaspersky_fakecalls_0422),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: securelist_brata_0819),(Citation: sophos_android_apt_spyware),(Citation: Sophos Red Alert 2.0),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: MoustachedBouncer ESET August 2023),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: Microsoft MalLockerB),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CrowdStrike-Android),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: Volexity Insomnia),(Citation: FortiGuard-FlexiSpy),(Citation: SWB Exodus March 2019),(Citation: CheckPoint Cerberus),(Citation: Sophos Red Alert 2.0),(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: TrendMicro-Obad),(Citation: trendmicro_tianyspy_0122),(Citation: welivesec_strongpity),(Citation: Cybereason FakeSpy),(Citation: Google Bread),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout-BrainTest),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: Volexity Insomnia),(Citation: Lookout-Monokle),(Citation: cleafy_brata_0122),(Citation: Palo Alto HenBox),(Citation: Google Security Zen),(Citation: SecurityIntelligence TrickMo),(Citation: Microsoft MalLockerB),(Citation: CheckPoint-Charger),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: nccgroup_sharkbot_0322),(Citation: PaloAlto-WireLurker),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-XLoader),(Citation: cyble_drinik_1022),(Citation: Securelist Asacub),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: Check Point-Joker),(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: FortiGuard-FlexiSpy),(Citation: Talos GPlayed),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: WhiteOps TERRACOTTA),</t>
+    <t>(Citation: CheckPoint Cerberus),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Sophos Red Alert 2.0),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: trendmicro_tianyspy_0122),(Citation: ThreatFabric Ginp),(Citation: Volexity Insomnia),(Citation: PaloAlto-WireLurker),(Citation: mcafee_brata_0421),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: Lookout-Monokle),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: Check Point-Joker),(Citation: welivesec_strongpity),(Citation: Lookout-BrainTest),(Citation: TrendMicro-Obad),(Citation: securelist rotexy 2018),(Citation: FortiGuard-FlexiSpy),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Talos-WolfRAT),(Citation: Securelist Asacub),(Citation: Microsoft MalLockerB),(Citation: Threat Fabric Cerberus),(Citation: proofpoint_flubot_0421),(Citation: cleafy_brata_0122),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint-Charger),(Citation: welivesecurity_ahrat_0523),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: Lookout-Monokle),(Citation: TrendMicro-RCSAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-StealthMango),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout-Pegasus),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-PegasusAndroid),(Citation: lookout_bouldspy_0423),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: blackberry_mobile_malware_apt_esp),(Citation: securelist_brata_0819),(Citation: Meta Adversarial Threat Report 2022),(Citation: sophos_android_apt_spyware),(Citation: Leonard TAG 2023),(Citation: checkpoint_hamas_android_malware),(Citation: CitizenLab Great iPwn),(Citation: MSTIC Octo Tempest Operations October 2023),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-Obad),(Citation: threatfabric_sova_0921),(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),(Citation: bitdefender_flubot_0524),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Palo Alto HenBox),(Citation: paloalto_yispecter_1015),(Citation: CheckPoint Agent Smith),(Citation: Zimperium z9),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: proofpoint_flubot_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Project Zero Insomnia),</t>
+    <t>(Citation: Kaspersky-WUC),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),</t>
+  </si>
+  <si>
+    <t>(Citation: Meta Adversarial Threat Report 2022),(Citation: CitizenLab Great iPwn),(Citation: checkpoint_hamas_android_malware),(Citation: blackberry_mobile_malware_apt_esp),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: securelist_brata_0819),(Citation: sophos_android_apt_spyware),(Citation: Leonard TAG 2023),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist rotexy 2018),(Citation: Zimperium z9),(Citation: Talos-WolfRAT),(Citation: CheckPoint Agent Smith),(Citation: nccgroup_sharkbot_0322),(Citation: paloalto_yispecter_1015),(Citation: Palo Alto HenBox),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: Google Security Zen),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),</t>
   </si>
   <si>
     <t>(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: PaloAlto-DualToy),(Citation: PaloAlto-WireLurker),(Citation: Elcomsoft-iOSRestricted)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Bleeipng Computer Escobar),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout Desert Scorpion),(Citation: nccgroup_sharkbot_0322),(Citation: Zscaler TikTok Spyware),(Citation: Talos-WolfRAT),(Citation: cyble_drinik_1022),(Citation: Lookout-StealthMango),(Citation: Securelist Asacub),(Citation: threatfabric_sova_0921),(Citation: proofpoint_flubot_0421),(Citation: forcepoint_bitter),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: Talos GPlayed),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: WhiteOps TERRACOTTA),(Citation: bitdefender_flubot_0524),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout ViperRAT),(Citation: Threat Fabric Cerberus),(Citation: NYTimes-BackDoor),(Citation: welivesec_strongpity),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Bread),(Citation: Lookout-Pegasus),(Citation: FireEye-RuMMS),(Citation: cloudmark_tanglebot_0921),(Citation: fb_arid_viper),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_chameleon_0423),(Citation: SecureList BusyGasper),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler-SuperMarioRun),(Citation: Zscaler-SpyNote),(Citation: Lookout FrozenCell),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: Bleeipng Computer Escobar),(Citation: CyberMerchants-FlexiSpy),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: nccgroup_sharkbot_0322),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro-XLoader),(Citation: cyble_drinik_1022),(Citation: Lookout-StealthMango),(Citation: FlexiSpy-Features),(Citation: Google Project Zero Insomnia),(Citation: Kaspersky Triada March 2016),(Citation: Securelist Asacub),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-EnterpriseApps),(Citation: proofpoint_flubot_0421),(Citation: forcepoint_bitter),(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: threatfabric_sova_0921),(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: PaloAlto-Xbot),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Cylance Dust Storm),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),(Citation: Tripwire-MazarBOT),</t>
+    <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
+  </si>
+  <si>
+    <t>(Citation: forcepoint_bitter),(Citation: ThreatFabric Ginp),(Citation: bitdefender_flubot_0524),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-StealthMango),(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: Sophos Red Alert 2.0),(Citation: threatfabric_sova_0921),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: welivesecurity_ahrat_0523),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky-WUC),(Citation: forcepoint_bitter),(Citation: Zscaler-SpyNote),(Citation: BlackBerry Bahamut),(Citation: SecureList - ViceLeaker 2019),(Citation: ThreatFabric Ginp),(Citation: Tripwire-MazarBOT),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Meta Adversarial Threat Report 2022),(Citation: Google Bread),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: PaloAlto-Xbot),(Citation: Lookout-EnterpriseApps),(Citation: fb_arid_viper),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: Lookout-Pegasus),(Citation: TrendMicro-RCSAndroid),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: Cylance Dust Storm),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: SWB Exodus March 2019),(Citation: securelist rotexy 2018),(Citation: kaspersky_fakecalls_0422),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FireEye-RuMMS),(Citation: threatfabric_sova_0921),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky Triada March 2016),(Citation: cloudmark_tanglebot_0921),(Citation: FlexiSpy-Features),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: Securelist Asacub),(Citation: NYTimes-BackDoor),(Citation: CyberMerchants-FlexiSpy),(Citation: Threat Fabric Cerberus),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: Zscaler-SuperMarioRun),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
   </si>
   <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: WhiteOps TERRACOTTA),(Citation: Talos GPlayed),</t>
-  </si>
-  <si>
-    <t>(Citation: mcafee_brata_0421),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: cleafy_sova_1122),(Citation: SecurityIntelligence TrickMo),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: securelist_brata_0819),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: ThreatFabric Ginp),(Citation: welivesecurity_ahrat_0523),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Exobot),(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_brata_0122),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: welivesec_strongpity),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-PegasusAndroid),(Citation: cyble_chameleon_0423),(Citation: Cybereason EventBot),(Citation: Google Triada June 2019),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: cleafy_sova_1122),(Citation: SecurityIntelligence TrickMo),(Citation: Symantec GoldenCup),(Citation: CheckPoint Agent Smith),(Citation: Lookout Desert Scorpion),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: Talos-WolfRAT),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-StealthMango),(Citation: FlexiSpy-Features),(Citation: Google Project Zero Insomnia),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),(Citation: Sophos Red Alert 2.0),(Citation: WhiteOps TERRACOTTA),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Google Bread),(Citation: mcafee_brata_0421),(Citation: Talos Gustuff Apr 2019),</t>
-  </si>
-  <si>
-    <t>,(Citation: iOS Universal Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: Android App Links),(Citation: IETF-PKCE)</t>
+    <t>(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: ThreatFabric Ginp),(Citation: ESET DEFENSOR ID),(Citation: Zscaler TikTok Spyware),(Citation: mcafee_brata_0421),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: cleafy_sova_1122),(Citation: securelist_brata_0819),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: FlexiSpy-Features),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: welivesecurity_ahrat_0523),(Citation: PaloAlto-SpyDealer),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Agent Smith),(Citation: ThreatFabric Ginp),(Citation: ESET DEFENSOR ID),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Google Triada June 2019),(Citation: Lookout-Monokle),(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: Kaspersky Riltok June 2019),(Citation: SWB Exodus March 2019),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: cleafy_sova_1122),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: FlexiSpy-Features),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Symantec GoldenCup),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: threatfabric_sova_0921),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: mcafee_brata_0421),</t>
+  </si>
+  <si>
+    <t>,(Citation: IETF-PKCE),(Citation: Android App Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: iOS Universal Links)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Pegasus),(Citation: Lookout-PegasusAndroid),(Citation: SecureList BusyGasper),(Citation: Lookout FrozenCell),(Citation: Bleeipng Computer Escobar),(Citation: cleafy_sova_1122),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: Zimperium FlyTrap),(Citation: checkpoint_flixonline_0421),(Citation: lookout_hornbill_sunbird_0221),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: Trend Micro FlyTrap),(Citation: lookout_bouldspy_0423),(Citation: FortiGuard-FlexiSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),</t>
+    <t>(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: Meta Adversarial Threat Report 2022),(Citation: Bleeipng Computer Escobar),(Citation: paloalto_yispecter_1015),(Citation: Zimperium FlyTrap),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: cleafy_sova_1122),(Citation: Trend Micro FlyTrap),(Citation: checkpoint_flixonline_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: SecureList BusyGasper),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),</t>
   </si>
   <si>
     <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
   </si>
   <si>
-    <t>(Citation: Threat Fabric Cerberus),(Citation: CheckPoint SimBad 2019),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: SecureList BusyGasper),(Citation: Group IB Gustuff Mar 2019),(Citation: ESET-Twitoor),(Citation: CheckPoint Agent Smith),(Citation: Lookout Desert Scorpion),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler TikTok Spyware),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: FortiGuard-FlexiSpy),(Citation: Bitdefender - Triout 2018),(Citation: Lookout Uyghur Campaign),(Citation: LauncherApps getActivityList),(Citation: Android 10 Limitations to Hiding App Icons)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: welivesec_strongpity),(Citation: nccgroup_sharkbot_0322),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist rotexy 2018),(Citation: ThreatFabric Ginp),(Citation: BlackBerry Bahamut),(Citation: Threat Fabric Cerberus),(Citation: Talos-WolfRAT),(Citation: Palo Alto HenBox),(Citation: Cybereason FakeSpy),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Dendroid),(Citation: lookout_abstractemu_1021),(Citation: WhiteOps TERRACOTTA),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Trend Micro Anubis),(Citation: mcafee_brata_0421),(Citation: cyble_chameleon_0423),(Citation: Bitdefender Mandrake),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout ViperRAT),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Wandera-RedDrop),(Citation: welivesec_strongpity),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: Xiao-KeyRaider),(Citation: trendmicro_tianyspy_0122),(Citation: paloalto_yispecter_1015),(Citation: Lookout eSurv),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Pegasus),(Citation: FireEye-RuMMS),(Citation: SecureList - ViceLeaker 2019),(Citation: fb_arid_viper),(Citation: cyble_chameleon_0423),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout FrozenCell),(Citation: Cybereason EventBot),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: Symantec GoldenCup),(Citation: Lookout Desert Scorpion),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Zscaler TikTok Spyware),(Citation: securelist_brata_0819),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Project Zero Insomnia),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: threatfabric_sova_0921),(Citation: Bitdefender Mandrake),(Citation: lookout_bouldspy_0423),(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver2),(Citation: Talos GPlayed),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: Cofense Anubis),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout ViperRAT),(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: Threat Fabric Exobot),(Citation: paloalto_yispecter_1015),(Citation: Cybereason FakeSpy),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Bread),(Citation: FireEye-RuMMS),(Citation: Lookout-PegasusAndroid),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout FrozenCell),(Citation: Cybereason EventBot),(Citation: Lookout-Monokle),(Citation: SecurityIntelligence TrickMo),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: checkpoint_hamas_android_malware),(Citation: SWB Exodus March 2019),(Citation: Talos-WolfRAT),(Citation: Lookout-StealthMango),(Citation: Google Project Zero Insomnia),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: PaloAlto-DualToy),(Citation: forcepoint_bitter),(Citation: Lookout-EnterpriseApps),(Citation: Trend Micro FlyTrap),(Citation: lookout_bouldspy_0423),(Citation: securelist rotexy 2018),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-Anserver2),(Citation: Talos GPlayed),(Citation: Kaspersky Riltok June 2019),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: WhiteOps TERRACOTTA),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout ViperRAT),(Citation: Lookout-Monokle),(Citation: Cybereason FakeSpy),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),(Citation: Lookout-Pegasus),(Citation: trendmicro_strongpity),(Citation: SWB Exodus March 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: FortiGuard-FlexiSpy),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
+    <t>(Citation: Bitdefender - Triout 2018),(Citation: CheckPoint Agent Smith),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint SimBad 2019),(Citation: Group IB Gustuff Mar 2019),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: securelist rotexy 2018),(Citation: FortiGuard-FlexiSpy),(Citation: Cybereason FakeSpy),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: FlexiSpy-Features),(Citation: SecureList BusyGasper),(Citation: Threat Fabric Cerberus),(Citation: ESET-Twitoor),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: welivesec_strongpity),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Trend Micro Anubis),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: Cybereason FakeSpy),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: cyble_chameleon_0423),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: mcafee_brata_0421),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky-WUC),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: trendmicro_tianyspy_0122),(Citation: Zscaler TikTok Spyware),(Citation: Xiao-KeyRaider),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint Cerberus),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: Wandera-RedDrop),(Citation: Talos Gustuff Apr 2019),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: Lookout eSurv),(Citation: securelist_brata_0819),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: FireEye-RuMMS),(Citation: Google Project Zero Insomnia),(Citation: threatfabric_sova_0921),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList DVMap June 2017),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Anserver2),(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Symantec GoldenCup),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: forcepoint_bitter),(Citation: PaloAlto-DualToy),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: Lookout-EnterpriseApps),(Citation: Wandera-RedDrop),(Citation: Talos Gustuff Apr 2019),(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: checkpoint_hamas_android_malware),(Citation: SWB Exodus March 2019),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro FlyTrap),(Citation: FireEye-RuMMS),(Citation: Google Project Zero Insomnia),(Citation: Talos-WolfRAT),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-Anserver2),(Citation: Cybereason EventBot),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: Cybereason FakeSpy),(Citation: Lookout-Pegasus),(Citation: Lookout ViperRAT),(Citation: trendmicro_strongpity),(Citation: Lookout Dark Caracal Jan 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Android 10 Privacy Changes)</t>
   </si>
   <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: Threat Fabric Cerberus),(Citation: securelist_brata_0819),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout ViperRAT),(Citation: Lookout-Dendroid),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro Coronavirus Updates),(Citation: cloudmark_tanglebot_0921),(Citation: fb_arid_viper),(Citation: Lookout-PegasusAndroid),(Citation: SecureList - ViceLeaker 2019),(Citation: SecureList BusyGasper),(Citation: Zscaler-SuperMarioRun),(Citation: BlackBerry Bahamut),(Citation: Bleeipng Computer Escobar),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-Monokle),(Citation: Palo Alto HenBox),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Lookout Desert Scorpion),(Citation: Zscaler TikTok Spyware),(Citation: SWB Exodus March 2019),(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout-StealthMango),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_hornbill_sunbird_0221),(Citation: forcepoint_bitter),(Citation: lookout_bouldspy_0423),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: mcafee_brata_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: securelist_brata_0819),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList BusyGasper),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),(Citation: lookout_hornbill_sunbird_0221),</t>
+  </si>
+  <si>
+    <t>(Citation: forcepoint_bitter),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky-Skygofree),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Dendroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler-SuperMarioRun),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: Wandera-RedDrop),(Citation: CheckPoint Cerberus),(Citation: welivesec_strongpity),(Citation: Threat Fabric Exobot),(Citation: Cybereason FakeSpy),(Citation: paloalto_yispecter_1015),(Citation: Kaspersky-Skygofree),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Bread),(Citation: FireEye-RuMMS),(Citation: SecureList - ViceLeaker 2019),(Citation: cyble_chameleon_0423),(Citation: Talos Gustuff Apr 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Volexity Insomnia),(Citation: Cybereason EventBot),(Citation: cleafy_brata_0122),(Citation: SecurityIntelligence TrickMo),(Citation: Symantec GoldenCup),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: nccgroup_sharkbot_0322),(Citation: Kaspersky-MobileMalware),(Citation: SWB Exodus March 2019),(Citation: ESET DEFENSOR ID),(Citation: Zimperium FlyTrap),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: threatfabric_sova_0921),(Citation: lookout_bouldspy_0423),(Citation: Kaspersky-WUC),(Citation: securelist rotexy 2018),(Citation: Bitdefender - Triout 2018),(Citation: Talos GPlayed),(Citation: welivesecurity_ahrat_0523),(Citation: Kaspersky Riltok June 2019),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),(Citation: Lookout Uyghur Campaign),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: trendmicro_tianyspy_0122),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: Google Project Zero Insomnia),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout-PegasusAndroid),(Citation: lookout_bouldspy_0423),(Citation: TelephonyManager)</t>
+    <t>(Citation: Kaspersky-WUC),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018),(Citation: ESET DEFENSOR ID),(Citation: Volexity Insomnia),(Citation: Kaspersky-Skygofree),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: CheckPoint Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Wandera-RedDrop),(Citation: Talos Gustuff Apr 2019),(Citation: paloalto_yispecter_1015),(Citation: Zimperium FlyTrap),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-MobileMalware),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: Kaspersky Riltok June 2019),(Citation: SWB Exodus March 2019),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: FireEye-RuMMS),(Citation: threatfabric_sova_0921),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Symantec GoldenCup),(Citation: welivesecurity_ahrat_0523),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: trendmicro_tianyspy_0122),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>

--- a/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
+++ b/versions/v15/docs/mobile-attack-v15.1/mobile-attack-v15.1-techniques.xlsx
@@ -2796,13 +2796,13 @@
     <t>,</t>
   </si>
   <si>
-    <t>(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: Talos-WolfRAT),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: checkpoint_flixonline_0421),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Check Point-Joker),(Citation: threatfabric_sova_0921),(Citation: lookout_abstractemu_1021),(Citation: Android Notification Listeners)</t>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: checkpoint_flixonline_0421),(Citation: Check Point-Joker),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: TrendMicro Coronavirus Updates),(Citation: lookout_abstractemu_1021),(Citation: threatfabric_sova_0921),(Citation: Android Notification Listeners)</t>
   </si>
   <si>
     <t>(Citation: Lookout-Monokle),</t>
   </si>
   <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider),</t>
+    <t>(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider),(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
     <t>(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),</t>
@@ -2811,37 +2811,37 @@
     <t>(Citation: nccgroup_sharkbot_0322),(Citation: app_hibernation)</t>
   </si>
   <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Triada June 2019),(Citation: SWB Exodus March 2019),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: cleafy_brata_0122),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: welivesec_strongpity),(Citation: Lookout Desert Scorpion),(Citation: Lookout FrozenCell),</t>
-  </si>
-  <si>
-    <t>(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Uyghur Campaign),(Citation: proofpoint_flubot_0421),(Citation: Lookout eSurv),(Citation: CYBERWARCON CHEMISTGAMES),</t>
-  </si>
-  <si>
-    <t>(Citation: forcepoint_bitter),(Citation: Zscaler-SpyNote),(Citation: BlackBerry Bahamut),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky-Skygofree),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: Wandera-RedDrop),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: TrendMicro-RCSAndroid),(Citation: welivesec_strongpity),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Lookout eSurv),(Citation: Lookout-Dendroid),(Citation: TrendMicro-XLoader),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: CyberMerchants-FlexiSpy),(Citation: Cofense Anubis),(Citation: Zscaler-SuperMarioRun),(Citation: Symantec GoldenCup),(Citation: welivesecurity_ahrat_0523),(Citation: PaloAlto-SpyDealer),(Citation: Android Capture Sensor 2019)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList BusyGasper),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: lookout_bouldspy_0423),(Citation: HackerNews-OldBoot),(Citation: welivesecurity_ahrat_0523),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler-SpyNote),(Citation: ESET DEFENSOR ID),(Citation: Zscaler TikTok Spyware),(Citation: CheckPoint SimBad 2019),(Citation: Palo Alto HenBox),(Citation: welivesec_strongpity),(Citation: FortiGuard-FlexiSpy),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: checkpoint_flixonline_0421),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: welivesecurity_ahrat_0523),(Citation: PaloAlto-SpyDealer),(Citation: Android Changes to System Broadcasts)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: CyberMerchants-FlexiSpy),(Citation: Lookout-StealthMango),(Citation: Lookout-PegasusAndroid),</t>
-  </si>
-  <si>
-    <t>(Citation: forcepoint_bitter),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: cloudmark_tanglebot_0921),(Citation: kaspersky_fakecalls_0422),(Citation: SecureList BusyGasper),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: Cofense Anubis),(Citation: mcafee_brata_0421),</t>
-  </si>
-  <si>
-    <t>(Citation: Kaspersky-WUC),(Citation: forcepoint_bitter),(Citation: SecureList - ViceLeaker 2019),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: Lookout-Pegasus),(Citation: welivesec_strongpity),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: NYTimes-BackDoor),(Citation: Zscaler-SuperMarioRun),(Citation: welivesecurity_ahrat_0523),(Citation: PaloAlto-SpyDealer),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-RCSAndroid),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_bouldspy_0423),(Citation: PaloAlto-XcodeGhost),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: SecureList DVMap June 2017),(Citation: trendmicro_tianyspy_0122),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout Desert Scorpion),(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Google Triada June 2019),(Citation: Symantec GoldenCup),(Citation: lookout_bouldspy_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: SWB Exodus March 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Securelist Asacub),(Citation: Lookout FrozenCell),(Citation: cleafy_brata_0122),</t>
+  </si>
+  <si>
+    <t>(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout eSurv),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: lookout_bouldspy_0423),(Citation: welivesec_strongpity),(Citation: Lookout-EnterpriseApps),(Citation: Cofense Anubis),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Kaspersky-Skygofree),(Citation: cloudmark_tanglebot_0921),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout ViperRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Uyghur Campaign),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout FrozenCell),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: forcepoint_bitter),(Citation: fb_arid_viper),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: Symantec GoldenCup),(Citation: Lookout-StealthMango),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro-XLoader),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Android Capture Sensor 2019)</t>
+  </si>
+  <si>
+    <t>(Citation: Bitdefender Mandrake),(Citation: SecureList BusyGasper),(Citation: WhiteOps TERRACOTTA),</t>
+  </si>
+  <si>
+    <t>(Citation: HackerNews-OldBoot),(Citation: welivesecurity_ahrat_0523),(Citation: lookout_bouldspy_0423),</t>
+  </si>
+  <si>
+    <t>(Citation: checkpoint_flixonline_0421),(Citation: PaloAlto-SpyDealer),(Citation: Zscaler-SpyNote),(Citation: welivesec_strongpity),(Citation: ESET DEFENSOR ID),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: welivesecurity_ahrat_0523),(Citation: Zscaler TikTok Spyware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Microsoft MalLockerB),(Citation: Trend Micro Bouncing Golf 2019),(Citation: CheckPoint SimBad 2019),(Citation: Cybereason EventBot),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: FortiGuard-FlexiSpy),(Citation: WhiteOps TERRACOTTA),(Citation: Android Changes to System Broadcasts)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: CyberMerchants-FlexiSpy),(Citation: lookout_hornbill_sunbird_0221),(Citation: SWB Exodus March 2019),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: SecureList BusyGasper),(Citation: cyble_drinik_1022),(Citation: Cofense Anubis),(Citation: Lookout Uyghur Campaign),(Citation: forcepoint_bitter),(Citation: mcafee_brata_0421),(Citation: Lookout-Monokle),(Citation: cloudmark_tanglebot_0921),(Citation: kaspersky_fakecalls_0422),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky-WUC),(Citation: lookout_bouldspy_0423),(Citation: welivesec_strongpity),(Citation: Lookout-EnterpriseApps),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: cloudmark_tanglebot_0921),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: Lookout ViperRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: cyble_drinik_1022),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Uyghur Campaign),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: welivesecurity_ahrat_0523),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Project Zero Insomnia),(Citation: forcepoint_bitter),(Citation: Sophos Red Alert 2.0),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: NYTimes-BackDoor),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-XcodeGhost),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-RCSAndroid),(Citation: lookout_bouldspy_0423),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: SecureList DVMap June 2017),(Citation: Bitdefender Mandrake),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: trendmicro_tianyspy_0122),(Citation: paloalto_yispecter_1015),(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
   </si>
   <si>
     <t>(Citation: trendmicro_tianyspy_0122),</t>
@@ -2850,91 +2850,91 @@
     <t>(Citation: CheckPoint Agent Smith),(Citation: paloalto_yispecter_1015),(Citation: lookout_bouldspy_0423),</t>
   </si>
   <si>
-    <t>(Citation: Lookout-BrainTest),(Citation: Lookout-Adware),(Citation: Lookout-Monokle),(Citation: SecureList BusyGasper),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: PaloAlto-SpyDealer),</t>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Lookout-Adware),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),(Citation: Lookout-BrainTest),</t>
   </si>
   <si>
     <t>(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost),</t>
   </si>
   <si>
-    <t>(Citation: Google Triada June 2019),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Krebs-Triada June 2019),(Citation: NYTimes-BackDoor),(Citation: Lookout-StealthMango),(Citation: HackerNews-Allwinner),(Citation: BankInfoSecurity-BackDoor),</t>
+    <t>(Citation: Google Triada June 2019),(Citation: Lookout-StealthMango),(Citation: BankInfoSecurity-BackDoor),(Citation: Krebs-Triada June 2019),(Citation: NYTimes-BackDoor),(Citation: HackerNews-Allwinner),(Citation: CYBERWARCON CHEMISTGAMES),</t>
   </si>
   <si>
     <t>(Citation: Cyfirma Bahamut),</t>
   </si>
   <si>
-    <t>(Citation: Kaspersky-WUC),(Citation: forcepoint_bitter),(Citation: Zscaler-SpyNote),(Citation: BlackBerry Bahamut),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: welivesec_strongpity),(Citation: Kaspersky Riltok June 2019),(Citation: SWB Exodus March 2019),(Citation: securelist rotexy 2018),(Citation: kaspersky_fakecalls_0422),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: Lookout eSurv),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: Talos-WolfRAT),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: NYTimes-BackDoor),(Citation: CyberMerchants-FlexiSpy),(Citation: Threat Fabric Cerberus),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: Symantec GoldenCup),(Citation: CheckPoint-Charger),(Citation: welivesecurity_ahrat_0523),(Citation: PaloAlto-SpyDealer),</t>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky-WUC),(Citation: Kaspersky Riltok June 2019),(Citation: Zscaler-SpyNote),(Citation: lookout_bouldspy_0423),(Citation: welivesec_strongpity),(Citation: Lookout-EnterpriseApps),(Citation: Cofense Anubis),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: cloudmark_tanglebot_0921),(Citation: Threat Fabric Cerberus),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Monokle),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout ViperRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint-Charger),(Citation: welivesecurity_ahrat_0523),(Citation: Talos Gustuff Apr 2019),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Project Zero Insomnia),(Citation: forcepoint_bitter),(Citation: ThreatFabric Ginp),(Citation: fb_arid_viper),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: proofpoint_flubot_0421),(Citation: TrendMicro Coronavirus Updates),(Citation: NYTimes-BackDoor),</t>
   </si>
   <si>
     <t>(Citation: cleafy_brata_0122),</t>
   </si>
   <si>
-    <t>(Citation: Cofense Anubis),(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),</t>
-  </si>
-  <si>
-    <t>(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: Bitdefender - Triout 2018),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: Trend Micro Anubis),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: TrendMicro-RCSAndroid),(Citation: cyble_chameleon_0423),(Citation: Cylance Dust Storm),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Gooligan Citation),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: Lookout eSurv),(Citation: Lookout-Dendroid),(Citation: securelist_brata_0819),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: FlexiSpy-Features),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: Symantec GoldenCup),(Citation: welivesecurity_ahrat_0523),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Anubis),(Citation: TrendMicro-Anserver),(Citation: Sophos Red Alert 2.0),(Citation: Cofense Anubis),(Citation: TrendMicro-XLoader-FakeSpy),</t>
-  </si>
-  <si>
-    <t>(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: Proofpoint-Marcher),(Citation: lookout_abstractemu_1021),(Citation: GoogleIO2016)</t>
-  </si>
-  <si>
-    <t>(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: mcafee_brata_0421),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: securelist rotexy 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Kaspersky-Skygofree),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: mcafee_brata_0421),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: Google Triada June 2019),(Citation: Trend Micro Anubis),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: cyble_chameleon_0423),(Citation: Xiao-ZergHelper),(Citation: Lookout FrozenCell),(Citation: Lookout-BrainTest),(Citation: SWB Exodus March 2019),(Citation: CheckPoint-Judy),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout eSurv),(Citation: Sophos Red Alert 2.0),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: Threat Fabric Cerberus),(Citation: cleafy_brata_0122),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Android 10 Execute)</t>
-  </si>
-  <si>
-    <t>(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),(Citation: trendmicro_strongpity),</t>
-  </si>
-  <si>
-    <t>(Citation: ESET-Twitoor),(Citation: welivesecurity_ahrat_0523),</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: PaloAlto-Xbot),</t>
+    <t>(Citation: PaloAlto-Xbot),(Citation: cleafy_sova_1122),(Citation: Cofense Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Zscaler-SpyNote),(Citation: lookout_bouldspy_0423),(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: Talos GPlayed),(Citation: cloudmark_tanglebot_0921),(Citation: kaspersky_fakecalls_0422),(Citation: securelist_brata_0819),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: Lookout ViperRAT),(Citation: Cylance Dust Storm),(Citation: Gooligan Citation),(Citation: lookout_hornbill_sunbird_0221),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: Lookout Uyghur Campaign),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout FrozenCell),(Citation: lookout_abstractemu_1021),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList BusyGasper),(Citation: Talos Gustuff Apr 2019),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Project Zero Insomnia),(Citation: fb_arid_viper),(Citation: ThreatFabric Ginp),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Lookout-StealthMango),(Citation: Bitdefender - Triout 2018),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Trend Micro Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: TrendMicro-Anserver),(Citation: Cofense Anubis),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: Trend Micro Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-XLoader),(Citation: Proofpoint-Marcher),(Citation: Talos GPlayed),(Citation: Securelist Asacub),(Citation: Threat Fabric Exobot),(Citation: lookout_abstractemu_1021),(Citation: GoogleIO2016)</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: Microsoft MalLockerB),(Citation: SecurityIntelligence TrickMo),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_abstractemu_1021),(Citation: cyble_chameleon_0423),(Citation: cyble_drinik_1022),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: SecureList DVMap June 2017),(Citation: proofpoint_flubot_0421),(Citation: Bitdefender Mandrake),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: cleafy_brata_0122),(Citation: Google Security Zen),</t>
+  </si>
+  <si>
+    <t>(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Google Triada June 2019),(Citation: lookout_bouldspy_0423),(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: Talos GPlayed),(Citation: Kaspersky-Skygofree),(Citation: Threat Fabric Cerberus),(Citation: Google Security Zen),(Citation: Lookout ViperRAT),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),(Citation: Xiao-ZergHelper),(Citation: lookout_abstractemu_1021),(Citation: paloalto_yispecter_1015),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: Google Bread),(Citation: Sophos Red Alert 2.0),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro-RCSAndroid),(Citation: cleafy_brata_0122),(Citation: Lookout-BrainTest),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: Cybereason EventBot),(Citation: Symantec GoldenCup),(Citation: nccgroup_sharkbot_0322),(Citation: CheckPoint-Judy),(Citation: mcafee_brata_0421),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro Anubis),(Citation: Android 10 Execute)</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-StealthMango),(Citation: trendmicro_strongpity),(Citation: Lookout-Pegasus),(Citation: paloalto_yispecter_1015),(Citation: Volexity Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: welivesecurity_ahrat_0523),(Citation: ESET-Twitoor),</t>
+  </si>
+  <si>
+    <t>(Citation: CheckPoint-Charger),(Citation: Talos GPlayed),(Citation: PaloAlto-Xbot),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
     <t>(Citation: lookout_bouldspy_0423),(Citation: Android Changes to System Broadcasts)</t>
   </si>
   <si>
-    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018),(Citation: lookout_abstractemu_1021),(Citation: Google Triada June 2019),(Citation: Wandera-RedDrop),(Citation: Zimperium FlyTrap),(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: trendmicro_strongpity),(Citation: welivesec_strongpity),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Cylance Dust Storm),(Citation: kaspersky_fakecalls_0422),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_bouldspy_0423),(Citation: Lookout eSurv),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: cleafy_brata_0122),(Citation: welivesecurity_ahrat_0523),</t>
+    <t>(Citation: Google Triada June 2019),(Citation: lookout_bouldspy_0423),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: Zimperium FlyTrap),(Citation: kaspersky_fakecalls_0422),(Citation: Cylance Dust Storm),(Citation: lookout_hornbill_sunbird_0221),(Citation: cyble_drinik_1022),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Wandera-RedDrop),(Citation: lookout_abstractemu_1021),(Citation: welivesecurity_ahrat_0523),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout eSurv),(Citation: cleafy_brata_0122),(Citation: Bitdefender - Triout 2018),(Citation: trendmicro_strongpity),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),</t>
   </si>
   <si>
     <t>(Citation: SecureList BusyGasper),(Citation: TrendMicro Coronavirus Updates),</t>
   </si>
   <si>
-    <t>(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-BrainTest),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: SWB Exodus March 2019),(Citation: fb_arid_viper),(Citation: Lookout-Adware),(Citation: PaloAlto-SpyDealer),(Citation: CheckPoint Agent Smith),(Citation: Gooligan Citation),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: Volexity Insomnia),(Citation: Kaspersky-Skygofree),(Citation: Lookout Dark Caracal Jan 2018),(Citation: lookout_abstractemu_1021),</t>
+    <t>(Citation: CitizenLab Great iPwn),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: PaloAlto-SpyDealer),(Citation: Lookout-Adware),(Citation: ArsTechnica-HummingBad),(Citation: Lookout-PegasusAndroid),(Citation: Gooligan Citation),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList DVMap June 2017),(Citation: CheckPoint Agent Smith),(Citation: SWB Exodus March 2019),(Citation: Volexity Insomnia),(Citation: Lookout Uyghur Campaign),(Citation: fb_arid_viper),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: Lookout-BrainTest),</t>
   </si>
   <si>
     <t>(Citation: TrendMicro-DressCode),(Citation: Lookout-NotCompatible),</t>
   </si>
   <si>
-    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout-Monokle),(Citation: kaspersky_fakecalls_0422),(Citation: Talos-WolfRAT),(Citation: CheckPoint Agent Smith),(Citation: lookout_hornbill_sunbird_0221),(Citation: CyberMerchants-FlexiSpy),(Citation: Talos GPlayed),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: Lookout Desert Scorpion),(Citation: Lookout Dark Caracal Jan 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: BlackBerry Bahamut),(Citation: Lookout FrozenCell),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: Symantec GoldenCup),(Citation: welivesec_strongpity),(Citation: Lookout Desert Scorpion),(Citation: Cylance Dust Storm),(Citation: welivesecurity_ahrat_0523),</t>
-  </si>
-  <si>
-    <t>(Citation: cyble_drinik_1022),(Citation: Zscaler TikTok Spyware),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: trendmicro_tianyspy_0122),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: PaloAlto-XcodeGhost),(Citation: Bleeipng Computer Escobar),(Citation: PaloAlto-Xbot),(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019),(Citation: cyble_drinik_1022),(Citation: cyble_chameleon_0423),(Citation: Kaspersky Riltok June 2019),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro FlyTrap),(Citation: checkpoint_flixonline_0421),(Citation: Lookout-Dendroid),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Proofpoint-Marcher),(Citation: threatfabric_sova_0921),(Citation: cloudmark_tanglebot_0921),(Citation: Threat Fabric Cerberus),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: Google Bread),(Citation: Lookout-BrainTest),(Citation: Google Triada June 2019),(Citation: Google Security Zen),(Citation: Lookout-EnterpriseApps),(Citation: CheckPoint-Judy),(Citation: CheckPoint Agent Smith),(Citation: Gooligan Citation),(Citation: Wandera-RedDrop),(Citation: Tripwire-MazarBOT),(Citation: WhiteOps TERRACOTTA),(Citation: Kaspersky Triada June 2016),(Citation: checkpoint_flixonline_0421),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: ArsTechnica-HummingBad),(Citation: CheckPoint SimBad 2019),(Citation: ArsTechnica-HummingWhale),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Lookout eSurv),(Citation: mcafee_brata_0421),</t>
+    <t>(Citation: Lookout Desert Scorpion),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: lookout_hornbill_sunbird_0221),(Citation: CyberMerchants-FlexiSpy),(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Lookout Uyghur Campaign),(Citation: Bitdefender Mandrake),(Citation: Talos GPlayed),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),(Citation: kaspersky_fakecalls_0422),</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: welivesecurity_ahrat_0523),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: Cylance Dust Storm),(Citation: Symantec GoldenCup),(Citation: lookout_hornbill_sunbird_0221),(Citation: Zscaler TikTok Spyware),(Citation: welivesec_strongpity),(Citation: Lookout Uyghur Campaign),(Citation: Lookout FrozenCell),</t>
+  </si>
+  <si>
+    <t>(Citation: cyble_drinik_1022),(Citation: Bitdefender Mandrake),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: checkpoint_flixonline_0421),(Citation: Kaspersky Riltok June 2019),(Citation: cyble_chameleon_0423),(Citation: Cofense Anubis),(Citation: Proofpoint-Marcher),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: cloudmark_tanglebot_0921),(Citation: Threat Fabric Cerberus),(Citation: Bleeipng Computer Escobar),(Citation: cyble_drinik_1022),(Citation: Lookout Dark Caracal Jan 2018),(Citation: PaloAlto-XcodeGhost),(Citation: Trend Micro FlyTrap),(Citation: trendmicro_tianyspy_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler TikTok Spyware),(Citation: ThreatFabric Ginp),(Citation: Sophos Red Alert 2.0),(Citation: cleafy_brata_0122),(Citation: threatfabric_sova_0921),(Citation: Cybereason EventBot),(Citation: PaloAlto-Xbot),(Citation: Group IB Gustuff Mar 2019),(Citation: proofpoint_flubot_0421),(Citation: Lookout-Dendroid),(Citation: nccgroup_sharkbot_0322),(Citation: WhiteOps TERRACOTTA),(Citation: Android 12 Features)</t>
+  </si>
+  <si>
+    <t>(Citation: Google Security Zen),(Citation: checkpoint_flixonline_0421),(Citation: ArsTechnica-HummingBad),(Citation: Google Triada June 2019),(Citation: Gooligan Citation),(Citation: CheckPoint Agent Smith),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Tripwire-MazarBOT),(Citation: Lookout-EnterpriseApps),(Citation: ArsTechnica-HummingWhale),(Citation: CheckPoint-Judy),(Citation: CheckPoint SimBad 2019),(Citation: Kaspersky Triada June 2016),(Citation: Google Bread),(Citation: WhiteOps TERRACOTTA),(Citation: Wandera-RedDrop),(Citation: Lookout-BrainTest),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: mcafee_brata_0421),</t>
   </si>
   <si>
     <t>(Citation: paloalto_yispecter_1015),(Citation: Android-VerifiedBoot)</t>
@@ -2946,64 +2946,64 @@
     <t>(Citation: cyble_chameleon_0423),</t>
   </si>
   <si>
-    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: Wandera-RedDrop),(Citation: nccgroup_sharkbot_0322),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: fb_arid_viper),(Citation: Samsung Keyboards),(Citation: Android 12 Features)</t>
-  </si>
-  <si>
-    <t>(Citation: CheckPoint Cerberus),(Citation: Google Security Zen),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: ThreatFabric Ginp),(Citation: ESET DEFENSOR ID),(Citation: cleafy_sova_1122),(Citation: Threat Fabric Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: Kaspersky Riltok June 2019),</t>
-  </si>
-  <si>
-    <t>(Citation: trendmicro_tianyspy_0122),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro FlyTrap),(Citation: Google Project Zero Insomnia),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: Cybereason EventBot),</t>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: fb_arid_viper),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout-Monokle),(Citation: Wandera-RedDrop),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: fb_arid_viper),(Citation: Android 12 Features),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky Riltok June 2019),(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_sova_1122),(Citation: ESET DEFENSOR ID),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),(Citation: mcafee_brata_0421),(Citation: CheckPoint Cerberus),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: securelist_brata_0819),(Citation: Google Security Zen),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro FlyTrap),(Citation: trendmicro_tianyspy_0122),(Citation: Wandera-RedDrop),(Citation: lookout_abstractemu_1021),(Citation: Google Project Zero Insomnia),(Citation: Securelist Asacub),(Citation: Cybereason EventBot),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: TrendMicro Coronavirus Updates),(Citation: WhiteOps TERRACOTTA),</t>
   </si>
   <si>
     <t>(Citation: Google Project Zero Insomnia),</t>
   </si>
   <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: BlackBerry Bahamut),(Citation: Lookout-Monokle),(Citation: FlexiSpy-Features),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_bouldspy_0423),(Citation: threatfabric_sova_0921),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: cleafy_brata_0122),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: cyble_chameleon_0423),(Citation: securelist_brata_0819),(Citation: mcafee_brata_0421),(Citation: Samsung Keyboards)</t>
-  </si>
-  <si>
-    <t>(Citation: Kaspersky-WUC),(Citation: Zscaler-SpyNote),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: Bitdefender - Triout 2018),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky-Skygofree),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-EnterpriseApps),(Citation: Lookout-Monokle),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: TrendMicro-RCSAndroid),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: Trend Micro FlyTrap),(Citation: Lookout eSurv),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: lookout_hornbill_sunbird_0221),(Citation: NYTimes-BackDoor),(Citation: CyberMerchants-FlexiSpy),(Citation: Threat Fabric Cerberus),(Citation: Cofense Anubis),(Citation: cleafy_brata_0122),(Citation: Bitdefender Mandrake),(Citation: CrowdStrike-Android),(Citation: Symantec GoldenCup),(Citation: CheckPoint-Charger),(Citation: welivesecurity_ahrat_0523),(Citation: PaloAlto-SpyDealer),(Citation: CSRIC5-WG10-FinalReport)</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: Bleeipng Computer Escobar),</t>
-  </si>
-  <si>
-    <t>(Citation: Proofpoint-Droidjack),(Citation: forcepoint_bitter),(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Agent Smith),(Citation: blackberry_mobile_malware_apt_esp),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: mcafee_brata_0421),(Citation: welivesecurity_apt-c-23),(Citation: Palo Alto HenBox),(Citation: CheckPoint SimBad 2019),(Citation: Trend Micro Anubis),(Citation: fb_arid_viper),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: trendmicro_strongpity),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout FrozenCell),(Citation: checkpoint_hamas_android_malware),(Citation: Forbes Cerberus),(Citation: kaspersky_fakecalls_0422),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: securelist_brata_0819),(Citation: sophos_android_apt_spyware),(Citation: Sophos Red Alert 2.0),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: MoustachedBouncer ESET August 2023),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Talos-WolfRAT),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: Microsoft MalLockerB),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CrowdStrike-Android),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: WhiteOps TERRACOTTA),(Citation: Lookout Uyghur Campaign),(Citation: Palo Alto HenBox),(Citation: CYBERWARCON CHEMISTGAMES),</t>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: SecureList BusyGasper),(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_bouldspy_0423),(Citation: cyble_chameleon_0423),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: Cofense Anubis),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Exobot),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: Threat Fabric Cerberus),(Citation: cleafy_brata_0122),(Citation: threatfabric_sova_0921),(Citation: Samsung Keyboards)</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky-WUC),(Citation: Zscaler-SpyNote),(Citation: lookout_bouldspy_0423),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: Lookout-EnterpriseApps),(Citation: Cofense Anubis),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Bitdefender Mandrake),(Citation: Talos GPlayed),(Citation: Kaspersky-Skygofree),(Citation: cloudmark_tanglebot_0921),(Citation: Threat Fabric Cerberus),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: Meta Adversarial Threat Report 2022),(Citation: CrowdStrike-Android),(Citation: Lookout ViperRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro FlyTrap),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout FrozenCell),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint-Charger),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Project Zero Insomnia),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: TrendMicro-RCSAndroid),(Citation: cleafy_brata_0122),(Citation: Lookout eSurv),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: Symantec GoldenCup),(Citation: Lookout-StealthMango),(Citation: Bitdefender - Triout 2018),(Citation: TrendMicro Coronavirus Updates),(Citation: NYTimes-BackDoor),(Citation: CSRIC5-WG10-FinalReport)</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_bouldspy_0423),(Citation: cyble_chameleon_0423),(Citation: Palo Alto HenBox),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: Proofpoint-Droidjack),(Citation: securelist_brata_0819),(Citation: checkpoint_hamas_android_malware),(Citation: kaspersky_fakecalls_0422),(Citation: Forbes Cerberus),(Citation: CrowdStrike-Android),(Citation: Lookout ViperRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: CheckPoint Agent Smith),(Citation: sophos_android_apt_spyware),(Citation: Lookout Uyghur Campaign),(Citation: SecureList - ViceLeaker 2019),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout FrozenCell),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Microsoft MalLockerB),(Citation: CheckPoint SimBad 2019),(Citation: forcepoint_bitter),(Citation: ThreatFabric Ginp),(Citation: fb_arid_viper),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: blackberry_mobile_malware_apt_esp),(Citation: Cybereason EventBot),(Citation: Cybereason FakeSpy),(Citation: trendmicro_strongpity),(Citation: MoustachedBouncer ESET August 2023),(Citation: Lookout-Dendroid),(Citation: welivesecurity_apt-c-23),(Citation: mcafee_brata_0421),(Citation: Trend Micro Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: Google Bread),(Citation: Securelist Asacub),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: WhiteOps TERRACOTTA),</t>
   </si>
   <si>
     <t>(Citation: threatfabric_sova_0921),</t>
   </si>
   <si>
-    <t>(Citation: CheckPoint Cerberus),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: Volexity Insomnia),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: Sophos Red Alert 2.0),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: trendmicro_tianyspy_0122),(Citation: ThreatFabric Ginp),(Citation: Volexity Insomnia),(Citation: PaloAlto-WireLurker),(Citation: mcafee_brata_0421),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: Lookout-Monokle),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: Check Point-Joker),(Citation: welivesec_strongpity),(Citation: Lookout-BrainTest),(Citation: TrendMicro-Obad),(Citation: securelist rotexy 2018),(Citation: FortiGuard-FlexiSpy),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Talos-WolfRAT),(Citation: Securelist Asacub),(Citation: Microsoft MalLockerB),(Citation: Threat Fabric Cerberus),(Citation: proofpoint_flubot_0421),(Citation: cleafy_brata_0122),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint-Charger),(Citation: welivesecurity_ahrat_0523),</t>
+    <t>(Citation: cyble_chameleon_0423),(Citation: SWB Exodus March 2019),(Citation: Bitdefender Mandrake),(Citation: FortiGuard-FlexiSpy),(Citation: Sophos Red Alert 2.0),(Citation: CheckPoint Cerberus),(Citation: Volexity Insomnia),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-WireLurker),(Citation: welivesec_strongpity),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: Talos GPlayed),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Monokle),(Citation: Google Security Zen),(Citation: Check Point-Joker),(Citation: cyble_drinik_1022),(Citation: SecureList DVMap June 2017),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: CheckPoint-Charger),(Citation: welivesecurity_ahrat_0523),(Citation: Talos Gustuff Apr 2019),(Citation: Talos-WolfRAT),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Microsoft MalLockerB),(Citation: Trend Micro Bouncing Golf 2019),(Citation: TrendMicro-Obad),(Citation: ThreatFabric Ginp),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: Sophos Red Alert 2.0),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: cleafy_brata_0122),(Citation: Lookout-BrainTest),(Citation: Volexity Insomnia),(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: Cybereason FakeSpy),(Citation: TrendMicro-XLoader),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: FortiGuard-FlexiSpy),(Citation: WhiteOps TERRACOTTA),</t>
   </si>
   <si>
     <t>(Citation: ESET-Twitoor),</t>
   </si>
   <si>
-    <t>(Citation: Kaspersky-WUC),(Citation: Lookout-Monokle),(Citation: securelist rotexy 2018),(Citation: SecureList BusyGasper),(Citation: nccgroup_sharkbot_0322),(Citation: Talos Gustuff Apr 2019),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: PaloAlto-SpyDealer),</t>
-  </si>
-  <si>
-    <t>(Citation: Meta Adversarial Threat Report 2022),(Citation: CitizenLab Great iPwn),(Citation: checkpoint_hamas_android_malware),(Citation: blackberry_mobile_malware_apt_esp),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: securelist_brata_0819),(Citation: sophos_android_apt_spyware),(Citation: Leonard TAG 2023),</t>
-  </si>
-  <si>
-    <t>(Citation: TrendMicro-Obad),(Citation: bitdefender_flubot_0524),(Citation: Bitdefender Mandrake),(Citation: cyble_chameleon_0423),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: Trend Micro Bouncing Golf 2019),(Citation: securelist rotexy 2018),(Citation: Zimperium z9),(Citation: Talos-WolfRAT),(Citation: CheckPoint Agent Smith),(Citation: nccgroup_sharkbot_0322),(Citation: paloalto_yispecter_1015),(Citation: Palo Alto HenBox),</t>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: SecureList BusyGasper),(Citation: Kaspersky-WUC),(Citation: Lookout Desert Scorpion),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-PegasusAndroid),(Citation: lookout_bouldspy_0423),(Citation: Lookout-StealthMango),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-Skygofree),(Citation: Lookout-Pegasus),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: Meta Adversarial Threat Report 2022),(Citation: Leonard TAG 2023),(Citation: sophos_android_apt_spyware),(Citation: securelist_brata_0819),(Citation: CitizenLab Great iPwn),(Citation: MSTIC Octo Tempest Operations October 2023),(Citation: checkpoint_hamas_android_malware),(Citation: blackberry_mobile_malware_apt_esp),</t>
+  </si>
+  <si>
+    <t>(Citation: bitdefender_flubot_0524),(Citation: cyble_chameleon_0423),(Citation: TrendMicro-Obad),(Citation: Bitdefender Mandrake),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: Talos-WolfRAT),(Citation: Zimperium z9),(Citation: CheckPoint Agent Smith),(Citation: Palo Alto HenBox),(Citation: Trend Micro Bouncing Golf 2019),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),(Citation: paloalto_yispecter_1015),</t>
   </si>
   <si>
     <t>(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),</t>
   </si>
   <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: Google Security Zen),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),</t>
+    <t>(Citation: Google Security Zen),(Citation: Google Project Zero Insomnia),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),</t>
   </si>
   <si>
     <t>(Citation: Bleeipng Computer Escobar),(Citation: cleafy_brata_0122),</t>
@@ -3012,85 +3012,85 @@
     <t>(Citation: PaloAlto-WireLurker),(Citation: PaloAlto-DualToy),(Citation: Elcomsoft-iOSRestricted)</t>
   </si>
   <si>
-    <t>(Citation: forcepoint_bitter),(Citation: ThreatFabric Ginp),(Citation: bitdefender_flubot_0524),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-StealthMango),(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: Sophos Red Alert 2.0),(Citation: threatfabric_sova_0921),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: Securelist Asacub),(Citation: Threat Fabric Cerberus),(Citation: proofpoint_flubot_0421),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: welivesecurity_ahrat_0523),(Citation: SMS KitKat)</t>
-  </si>
-  <si>
-    <t>(Citation: Kaspersky-WUC),(Citation: forcepoint_bitter),(Citation: Zscaler-SpyNote),(Citation: BlackBerry Bahamut),(Citation: SecureList - ViceLeaker 2019),(Citation: ThreatFabric Ginp),(Citation: Tripwire-MazarBOT),(Citation: Zscaler TikTok Spyware),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Meta Adversarial Threat Report 2022),(Citation: Google Bread),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: PaloAlto-Xbot),(Citation: Lookout-EnterpriseApps),(Citation: fb_arid_viper),(Citation: Talos Gustuff Apr 2019),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: Cybereason EventBot),(Citation: Lookout-Pegasus),(Citation: TrendMicro-RCSAndroid),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: Cylance Dust Storm),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: SWB Exodus March 2019),(Citation: securelist rotexy 2018),(Citation: kaspersky_fakecalls_0422),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: Lookout-Dendroid),(Citation: TrendMicro-XLoader),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FireEye-RuMMS),(Citation: threatfabric_sova_0921),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Kaspersky Triada March 2016),(Citation: cloudmark_tanglebot_0921),(Citation: FlexiSpy-Features),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: Securelist Asacub),(Citation: NYTimes-BackDoor),(Citation: CyberMerchants-FlexiSpy),(Citation: Threat Fabric Cerberus),(Citation: proofpoint_flubot_0421),(Citation: Threat Fabric Exobot),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: Zscaler-SuperMarioRun),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),</t>
+    <t>(Citation: Cofense Anubis),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: cloudmark_tanglebot_0921),(Citation: Threat Fabric Cerberus),(Citation: Bleeipng Computer Escobar),(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: SecureList BusyGasper),(Citation: welivesecurity_ahrat_0523),(Citation: bitdefender_flubot_0524),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: forcepoint_bitter),(Citation: ThreatFabric Ginp),(Citation: Securelist Asacub),(Citation: Sophos Red Alert 2.0),(Citation: threatfabric_sova_0921),(Citation: Lookout Desert Scorpion),(Citation: Cybereason FakeSpy),(Citation: Lookout-StealthMango),(Citation: proofpoint_flubot_0421),(Citation: Lookout-Dendroid),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro Coronavirus Updates),(Citation: WhiteOps TERRACOTTA),(Citation: SMS KitKat)</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky-WUC),(Citation: Kaspersky Riltok June 2019),(Citation: Zscaler-SpyNote),(Citation: lookout_bouldspy_0423),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: Lookout-EnterpriseApps),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: cloudmark_tanglebot_0921),(Citation: Threat Fabric Cerberus),(Citation: kaspersky_fakecalls_0422),(Citation: Bleeipng Computer Escobar),(Citation: Meta Adversarial Threat Report 2022),(Citation: Kaspersky Triada March 2016),(Citation: Cylance Dust Storm),(Citation: Lookout ViperRAT),(Citation: cyble_drinik_1022),(Citation: Lookout Dark Caracal Jan 2018),(Citation: FlexiSpy-Features),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Uyghur Campaign),(Citation: SecureList - ViceLeaker 2019),(Citation: Lookout FrozenCell),(Citation: Lookout-Pegasus),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: Talos Gustuff Apr 2019),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Project Zero Insomnia),(Citation: Tripwire-MazarBOT),(Citation: forcepoint_bitter),(Citation: ThreatFabric Ginp),(Citation: fb_arid_viper),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: Sophos Red Alert 2.0),(Citation: TrendMicro-RCSAndroid),(Citation: FireEye-RuMMS),(Citation: threatfabric_sova_0921),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: Cybereason EventBot),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: Lookout-StealthMango),(Citation: PaloAlto-Xbot),(Citation: TrendMicro-XLoader),(Citation: proofpoint_flubot_0421),(Citation: Lookout-Dendroid),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro Coronavirus Updates),(Citation: NYTimes-BackDoor),</t>
   </si>
   <si>
     <t>(Citation: Lookout eSurv),</t>
   </si>
   <si>
-    <t>(Citation: Zscaler TikTok Spyware),(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),</t>
-  </si>
-  <si>
-    <t>(Citation: ThreatFabric Ginp),(Citation: ESET DEFENSOR ID),(Citation: Zscaler TikTok Spyware),(Citation: mcafee_brata_0421),(Citation: Lookout-Monokle),(Citation: cyble_drinik_1022),(Citation: Lookout Uyghur Campaign),(Citation: SWB Exodus March 2019),(Citation: lookout_bouldspy_0423),(Citation: cleafy_sova_1122),(Citation: securelist_brata_0819),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: FlexiSpy-Features),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: welivesecurity_ahrat_0523),(Citation: PaloAlto-SpyDealer),(Citation: Nightwatch screencap April 2016)</t>
-  </si>
-  <si>
-    <t>(Citation: cleafy_brata_0122),(Citation: Talos Gustuff Apr 2019),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: SecureList - ViceLeaker 2019),(Citation: CheckPoint Agent Smith),(Citation: ThreatFabric Ginp),(Citation: ESET DEFENSOR ID),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Google Triada June 2019),(Citation: Lookout-Monokle),(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: Kaspersky Riltok June 2019),(Citation: SWB Exodus March 2019),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: cleafy_sova_1122),(Citation: WhiteOps TERRACOTTA),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Google Project Zero Insomnia),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: FlexiSpy-Features),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: Bitdefender Mandrake),(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Symantec GoldenCup),(Citation: Android Package Visibility)</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: Google Bread),(Citation: Talos Gustuff Apr 2019),(Citation: mcafee_brata_0421),</t>
-  </si>
-  <si>
-    <t>,(Citation: IETF-PKCE),(Citation: Android App Links),(Citation: Trend Micro iOS URL Hijacking),(Citation: iOS Universal Links)</t>
+    <t>(Citation: Talos GPlayed),(Citation: WhiteOps TERRACOTTA),(Citation: Zscaler TikTok Spyware),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: lookout_bouldspy_0423),(Citation: cleafy_sova_1122),(Citation: SWB Exodus March 2019),(Citation: Cofense Anubis),(Citation: ESET DEFENSOR ID),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: cloudmark_tanglebot_0921),(Citation: Lookout-Monokle),(Citation: securelist_brata_0819),(Citation: lookout_hornbill_sunbird_0221),(Citation: cyble_drinik_1022),(Citation: FlexiSpy-Features),(Citation: Lookout Uyghur Campaign),(Citation: welivesecurity_ahrat_0523),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: Trend Micro Bouncing Golf 2019),(Citation: ThreatFabric Ginp),(Citation: Cybereason EventBot),(Citation: mcafee_brata_0421),(Citation: Nightwatch screencap April 2016)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky Riltok June 2019),(Citation: Google Triada June 2019),(Citation: lookout_bouldspy_0423),(Citation: cyble_chameleon_0423),(Citation: cleafy_sova_1122),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: ESET DEFENSOR ID),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: SecurityIntelligence TrickMo),(Citation: Talos GPlayed),(Citation: cloudmark_tanglebot_0921),(Citation: Threat Fabric Cerberus),(Citation: Lookout-Monokle),(Citation: lookout_hornbill_sunbird_0221),(Citation: FlexiSpy-Features),(Citation: CheckPoint Agent Smith),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: paloalto_yispecter_1015),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Project Zero Insomnia),(Citation: ThreatFabric Ginp),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Desert Scorpion),(Citation: Cybereason EventBot),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: WhiteOps TERRACOTTA),(Citation: Android Package Visibility)</t>
+  </si>
+  <si>
+    <t>(Citation: Talos Gustuff Apr 2019),(Citation: mcafee_brata_0421),(Citation: Google Bread),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>,(Citation: Android App Links),(Citation: IETF-PKCE),(Citation: Trend Micro iOS URL Hijacking),(Citation: iOS Universal Links)</t>
   </si>
   <si>
     <t>(Citation: CheckPoint Agent Smith),</t>
   </si>
   <si>
-    <t>(Citation: Kaspersky-Skygofree),(Citation: Lookout Desert Scorpion),(Citation: Meta Adversarial Threat Report 2022),(Citation: Bleeipng Computer Escobar),(Citation: paloalto_yispecter_1015),(Citation: Zimperium FlyTrap),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: TrendMicro-RCSAndroid),(Citation: Lookout FrozenCell),(Citation: SWB Exodus March 2019),(Citation: FortiGuard-FlexiSpy),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: cleafy_sova_1122),(Citation: Trend Micro FlyTrap),(Citation: checkpoint_flixonline_0421),(Citation: Lookout Dark Caracal Jan 2018),(Citation: threatfabric_sova_0921),(Citation: SecureList BusyGasper),(Citation: lookout_hornbill_sunbird_0221),(Citation: Bitdefender Mandrake),(Citation: PaloAlto-SpyDealer),</t>
-  </si>
-  <si>
-    <t>,(Citation: Android-TrustedCA),(Citation: Symantec-iOSProfile2)</t>
-  </si>
-  <si>
-    <t>(Citation: Bitdefender - Triout 2018),(Citation: CheckPoint Agent Smith),(Citation: ThreatFabric Ginp),(Citation: Zscaler TikTok Spyware),(Citation: Lookout Desert Scorpion),(Citation: CheckPoint SimBad 2019),(Citation: Group IB Gustuff Mar 2019),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: cyble_drinik_1022),(Citation: securelist rotexy 2018),(Citation: FortiGuard-FlexiSpy),(Citation: Cybereason FakeSpy),(Citation: checkpoint_flixonline_0421),(Citation: threatfabric_sova_0921),(Citation: FlexiSpy-Features),(Citation: SecureList BusyGasper),(Citation: Threat Fabric Cerberus),(Citation: ESET-Twitoor),(Citation: Bitdefender Mandrake),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Cybereason EventBot),(Citation: welivesec_strongpity),</t>
-  </si>
-  <si>
-    <t>(Citation: BlackBerry Bahamut),(Citation: Trend Micro Anubis),(Citation: securelist rotexy 2018),(Citation: Talos-WolfRAT),(Citation: ThreatFabric Ginp),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: Cybereason FakeSpy),(Citation: SecurityIntelligence TrickMo),(Citation: Bitdefender Mandrake),(Citation: Lookout-Dendroid),(Citation: cyble_chameleon_0423),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: mcafee_brata_0421),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: Kaspersky-WUC),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: trendmicro_tianyspy_0122),(Citation: Zscaler TikTok Spyware),(Citation: Xiao-KeyRaider),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint Cerberus),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: Wandera-RedDrop),(Citation: Talos Gustuff Apr 2019),(Citation: paloalto_yispecter_1015),(Citation: Lookout Uyghur Campaign),(Citation: Lookout-Pegasus),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: Lookout eSurv),(Citation: securelist_brata_0819),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: FireEye-RuMMS),(Citation: Google Project Zero Insomnia),(Citation: threatfabric_sova_0921),(Citation: Trend Micro Bouncing Golf 2019),(Citation: SecureList DVMap June 2017),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: Cofense Anubis),(Citation: Threat Fabric Exobot),(Citation: Bitdefender Mandrake),(Citation: TrendMicro-Anserver2),(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Symantec GoldenCup),(Citation: welivesecurity_ahrat_0523),</t>
-  </si>
-  <si>
-    <t>(Citation: forcepoint_bitter),(Citation: PaloAlto-DualToy),(Citation: trendmicro_tianyspy_0122),(Citation: Lookout ViperRAT),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: Lookout-EnterpriseApps),(Citation: Wandera-RedDrop),(Citation: Talos Gustuff Apr 2019),(Citation: paloalto_yispecter_1015),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout FrozenCell),(Citation: Kaspersky Riltok June 2019),(Citation: checkpoint_hamas_android_malware),(Citation: SWB Exodus March 2019),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Cybereason FakeSpy),(Citation: WhiteOps TERRACOTTA),(Citation: Trend Micro FlyTrap),(Citation: FireEye-RuMMS),(Citation: Google Project Zero Insomnia),(Citation: Talos-WolfRAT),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: SecurityIntelligence TrickMo),(Citation: Threat Fabric Exobot),(Citation: TrendMicro-Anserver2),(Citation: Cybereason EventBot),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: TelephonyManager)</t>
-  </si>
-  <si>
-    <t>(Citation: Lookout-Monokle),(Citation: SWB Exodus March 2019),(Citation: FlexiSpy-Features),(Citation: Cybereason FakeSpy),(Citation: Lookout-Pegasus),(Citation: Lookout ViperRAT),(Citation: trendmicro_strongpity),(Citation: Lookout Dark Caracal Jan 2018),</t>
-  </si>
-  <si>
-    <t>(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: SecureList DVMap June 2017),(Citation: Android-VerifiedBoot)</t>
-  </si>
-  <si>
-    <t>(Citation: threatfabric_sova_0921),(Citation: mcafee_brata_0421),(Citation: Android 10 Privacy Changes)</t>
-  </si>
-  <si>
-    <t>(Citation: Bleeipng Computer Escobar),(Citation: mcafee_brata_0421),(Citation: nccgroup_sharkbot_0322),(Citation: Threat Fabric Cerberus),(Citation: SecurityIntelligence TrickMo),(Citation: securelist_brata_0819),(Citation: threatfabric_sova_0921),</t>
-  </si>
-  <si>
-    <t>(Citation: CYBERWARCON CHEMISTGAMES),(Citation: SecureList BusyGasper),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Uyghur Campaign),(Citation: Zscaler TikTok Spyware),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),</t>
-  </si>
-  <si>
-    <t>(Citation: securelist_brata_0819),(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),(Citation: lookout_hornbill_sunbird_0221),</t>
-  </si>
-  <si>
-    <t>(Citation: forcepoint_bitter),(Citation: SecureList - ViceLeaker 2019),(Citation: BlackBerry Bahamut),(Citation: Zscaler TikTok Spyware),(Citation: Kaspersky-Skygofree),(Citation: Lookout ViperRAT),(Citation: Lookout Desert Scorpion),(Citation: Palo Alto HenBox),(Citation: lookout_abstractemu_1021),(Citation: Meta Adversarial Threat Report 2022),(Citation: TrendMicro Coronavirus Updates),(Citation: Bleeipng Computer Escobar),(Citation: Lookout-Monokle),(Citation: fb_arid_viper),(Citation: Lookout-StealthMango),(Citation: Lookout Uyghur Campaign),(Citation: TrendMicro-RCSAndroid),(Citation: SWB Exodus March 2019),(Citation: kaspersky_fakecalls_0422),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-Dendroid),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Trend Micro Bouncing Golf 2019),(Citation: cloudmark_tanglebot_0921),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: CyberMerchants-FlexiSpy),(Citation: Zscaler-SuperMarioRun),(Citation: Symantec GoldenCup),(Citation: PaloAlto-SpyDealer),(Citation: Android Capture Sensor 2019)</t>
+    <t>(Citation: checkpoint_flixonline_0421),(Citation: PaloAlto-SpyDealer),(Citation: lookout_bouldspy_0423),(Citation: cleafy_sova_1122),(Citation: SWB Exodus March 2019),(Citation: Zimperium FlyTrap),(Citation: Bitdefender Mandrake),(Citation: Kaspersky-Skygofree),(Citation: Bleeipng Computer Escobar),(Citation: Meta Adversarial Threat Report 2022),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro FlyTrap),(Citation: Lookout-Pegasus),(Citation: Lookout FrozenCell),(Citation: paloalto_yispecter_1015),(Citation: SecureList BusyGasper),(Citation: TrendMicro-RCSAndroid),(Citation: threatfabric_sova_0921),(Citation: Lookout Desert Scorpion),(Citation: Cybereason FakeSpy),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: FortiGuard-FlexiSpy),</t>
+  </si>
+  <si>
+    <t>,(Citation: Symantec-iOSProfile2),(Citation: Android-TrustedCA)</t>
+  </si>
+  <si>
+    <t>(Citation: checkpoint_flixonline_0421),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: Threat Fabric Cerberus),(Citation: cyble_drinik_1022),(Citation: CheckPoint Agent Smith),(Citation: FlexiSpy-Features),(Citation: Lookout Uyghur Campaign),(Citation: paloalto_yispecter_1015),(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: CheckPoint SimBad 2019),(Citation: ThreatFabric Ginp),(Citation: ESET-Twitoor),(Citation: threatfabric_sova_0921),(Citation: Lookout Desert Scorpion),(Citation: Cybereason FakeSpy),(Citation: Bitdefender - Triout 2018),(Citation: Group IB Gustuff Mar 2019),(Citation: FortiGuard-FlexiSpy),(Citation: Android 10 Limitations to Hiding App Icons),(Citation: LauncherApps getActivityList)</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Cybereason EventBot),(Citation: welivesec_strongpity),(Citation: nccgroup_sharkbot_0322),(Citation: securelist rotexy 2018),</t>
+  </si>
+  <si>
+    <t>(Citation: BlackBerry Bahamut),(Citation: Cybereason FakeSpy),(Citation: Talos-WolfRAT),(Citation: cyble_chameleon_0423),(Citation: Palo Alto HenBox),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: SecurityIntelligence TrickMo),(Citation: Lookout-Dendroid),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: ThreatFabric Ginp),(Citation: mcafee_brata_0421),(Citation: WhiteOps TERRACOTTA),(Citation: Threat Fabric Cerberus),(Citation: lookout_abstractemu_1021),(Citation: Trend Micro Anubis),</t>
+  </si>
+  <si>
+    <t>(Citation: Kaspersky-WUC),(Citation: Kaspersky Riltok June 2019),(Citation: lookout_bouldspy_0423),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: Cofense Anubis),(Citation: Palo Alto HenBox),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Bitdefender Mandrake),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: Threat Fabric Cerberus),(Citation: TrendMicro-Anserver2),(Citation: securelist_brata_0819),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SecureList DVMap June 2017),(Citation: Lookout Uyghur Campaign),(Citation: SecureList - ViceLeaker 2019),(Citation: Xiao-KeyRaider),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout FrozenCell),(Citation: Lookout-Pegasus),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: paloalto_yispecter_1015),(Citation: welivesecurity_ahrat_0523),(Citation: Talos Gustuff Apr 2019),(Citation: Zscaler TikTok Spyware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Trend Micro Bouncing Golf 2019),(Citation: Google Project Zero Insomnia),(Citation: fb_arid_viper),(Citation: Securelist Asacub),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: Lookout eSurv),(Citation: FireEye-RuMMS),(Citation: threatfabric_sova_0921),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: Cybereason EventBot),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint Cerberus),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: Kaspersky Riltok June 2019),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: Lookout-EnterpriseApps),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Talos GPlayed),(Citation: PaloAlto-DualToy),(Citation: Threat Fabric Exobot),(Citation: checkpoint_hamas_android_malware),(Citation: TrendMicro-Anserver2),(Citation: Lookout-Monokle),(Citation: Lookout ViperRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Uyghur Campaign),(Citation: Trend Micro FlyTrap),(Citation: TrendMicro-XLoader-FakeSpy),(Citation: Lookout FrozenCell),(Citation: trendmicro_tianyspy_0122),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: paloalto_yispecter_1015),(Citation: Talos Gustuff Apr 2019),(Citation: Talos-WolfRAT),(Citation: Google Project Zero Insomnia),(Citation: forcepoint_bitter),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: FireEye-RuMMS),(Citation: Cybereason EventBot),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: Lookout-PegasusAndroid),(Citation: Lookout-StealthMango),(Citation: TrendMicro Coronavirus Updates),(Citation: WhiteOps TERRACOTTA),(Citation: TelephonyManager)</t>
+  </si>
+  <si>
+    <t>(Citation: Cybereason FakeSpy),(Citation: Lookout ViperRAT),(Citation: FlexiSpy-Features),(Citation: Lookout Dark Caracal Jan 2018),(Citation: SWB Exodus March 2019),(Citation: trendmicro_strongpity),(Citation: Lookout-Pegasus),(Citation: Lookout-Monokle),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList DVMap June 2017),(Citation: FortiGuard-FlexiSpy),(Citation: Google Security Zen),(Citation: Android-VerifiedBoot)</t>
+  </si>
+  <si>
+    <t>(Citation: mcafee_brata_0421),(Citation: threatfabric_sova_0921),(Citation: Android 10 Privacy Changes)</t>
+  </si>
+  <si>
+    <t>(Citation: Bleeipng Computer Escobar),(Citation: SecurityIntelligence TrickMo),(Citation: nccgroup_sharkbot_0322),(Citation: mcafee_brata_0421),(Citation: Threat Fabric Cerberus),(Citation: securelist_brata_0819),(Citation: threatfabric_sova_0921),</t>
+  </si>
+  <si>
+    <t>(Citation: SecureList BusyGasper),(Citation: Zscaler TikTok Spyware),(Citation: lookout_hornbill_sunbird_0221),(Citation: Palo Alto HenBox),(Citation: Lookout Uyghur Campaign),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: lookout_abstractemu_1021),</t>
+  </si>
+  <si>
+    <t>(Citation: lookout_hornbill_sunbird_0221),(Citation: SecureList BusyGasper),(Citation: proofpoint_flubot_0421),(Citation: securelist_brata_0819),</t>
+  </si>
+  <si>
+    <t>(Citation: PaloAlto-SpyDealer),(Citation: lookout_bouldspy_0423),(Citation: SWB Exodus March 2019),(Citation: Palo Alto HenBox),(Citation: Kaspersky-Skygofree),(Citation: cloudmark_tanglebot_0921),(Citation: kaspersky_fakecalls_0422),(Citation: Lookout-Monokle),(Citation: Bleeipng Computer Escobar),(Citation: Meta Adversarial Threat Report 2022),(Citation: Lookout ViperRAT),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Zscaler-SuperMarioRun),(Citation: Lookout Uyghur Campaign),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: SecureList BusyGasper),(Citation: Talos-WolfRAT),(Citation: Zscaler TikTok Spyware),(Citation: CyberMerchants-FlexiSpy),(Citation: Trend Micro Bouncing Golf 2019),(Citation: forcepoint_bitter),(Citation: fb_arid_viper),(Citation: TrendMicro-RCSAndroid),(Citation: BlackBerry Bahamut),(Citation: Lookout Desert Scorpion),(Citation: Lookout-PegasusAndroid),(Citation: Symantec GoldenCup),(Citation: Lookout-StealthMango),(Citation: Lookout-Dendroid),(Citation: TrendMicro Coronavirus Updates),(Citation: Android Capture Sensor 2019)</t>
   </si>
   <si>
     <t>(Citation: lookout_abstractemu_1021),</t>
   </si>
   <si>
-    <t>(Citation: Kaspersky-WUC),(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018),(Citation: ESET DEFENSOR ID),(Citation: Volexity Insomnia),(Citation: Kaspersky-Skygofree),(Citation: lookout_abstractemu_1021),(Citation: Google Bread),(Citation: CheckPoint Cerberus),(Citation: TrendMicro Coronavirus Updates),(Citation: Wandera-RedDrop),(Citation: Talos Gustuff Apr 2019),(Citation: paloalto_yispecter_1015),(Citation: Zimperium FlyTrap),(Citation: Lookout Uyghur Campaign),(Citation: Kaspersky-MobileMalware),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: Kaspersky Riltok June 2019),(Citation: SWB Exodus March 2019),(Citation: securelist rotexy 2018),(Citation: nccgroup_sharkbot_0322),(Citation: Talos GPlayed),(Citation: lookout_bouldspy_0423),(Citation: Cybereason FakeSpy),(Citation: Sophos Red Alert 2.0),(Citation: Lookout Dark Caracal Jan 2018),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: FireEye-RuMMS),(Citation: threatfabric_sova_0921),(Citation: Securelist Asacub),(Citation: lookout_hornbill_sunbird_0221),(Citation: proofpoint_flubot_0421),(Citation: cleafy_brata_0122),(Citation: Threat Fabric Exobot),(Citation: SecurityIntelligence TrickMo),(Citation: Cybereason EventBot),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Symantec GoldenCup),(Citation: welivesecurity_ahrat_0523),</t>
-  </si>
-  <si>
-    <t>(Citation: Google Project Zero Insomnia),(Citation: TrendMicro Coronavirus Updates),(Citation: Lookout-Monokle),(Citation: trendmicro_tianyspy_0122),(Citation: Wandera-RedDrop),(Citation: lookout_hornbill_sunbird_0221),(Citation: lookout_bouldspy_0423),(Citation: Lookout-PegasusAndroid),(Citation: SecurityIntelligence TrickMo),(Citation: TelephonyManager)</t>
+    <t>(Citation: Kaspersky-WUC),(Citation: Kaspersky Riltok June 2019),(Citation: lookout_bouldspy_0423),(Citation: cyble_chameleon_0423),(Citation: welivesec_strongpity),(Citation: ESET DEFENSOR ID),(Citation: SWB Exodus March 2019),(Citation: SecurityIntelligence TrickMo),(Citation: securelist rotexy 2018),(Citation: Zimperium FlyTrap),(Citation: Talos GPlayed),(Citation: Threat Fabric Exobot),(Citation: Kaspersky-Skygofree),(Citation: lookout_hornbill_sunbird_0221),(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Uyghur Campaign),(Citation: SecureList - ViceLeaker 2019),(Citation: lookout_abstractemu_1021),(Citation: Wandera-RedDrop),(Citation: paloalto_yispecter_1015),(Citation: welivesecurity_ahrat_0523),(Citation: Talos Gustuff Apr 2019),(Citation: Kaspersky-MobileMalware),(Citation: WeLiveSecurity AdDisplayAshas),(Citation: Securelist Asacub),(Citation: Google Bread),(Citation: Sophos Red Alert 2.0),(Citation: CYBERWARCON CHEMISTGAMES),(Citation: cleafy_brata_0122),(Citation: Volexity Insomnia),(Citation: FireEye-RuMMS),(Citation: threatfabric_sova_0921),(Citation: Cybereason EventBot),(Citation: Cybereason FakeSpy),(Citation: Symantec GoldenCup),(Citation: Bitdefender - Triout 2018),(Citation: proofpoint_flubot_0421),(Citation: nccgroup_sharkbot_0322),(Citation: TrendMicro Coronavirus Updates),(Citation: CheckPoint Cerberus),</t>
+  </si>
+  <si>
+    <t>(Citation: Lookout-PegasusAndroid),(Citation: lookout_bouldspy_0423),(Citation: lookout_hornbill_sunbird_0221),(Citation: Google Project Zero Insomnia),(Citation: SecurityIntelligence TrickMo),(Citation: TrendMicro Coronavirus Updates),(Citation: trendmicro_tianyspy_0122),(Citation: Wandera-RedDrop),(Citation: Lookout-Monokle),(Citation: TelephonyManager)</t>
   </si>
   <si>
     <t>source ID</t>
